--- a/기능명세서 최종본.xlsx
+++ b/기능명세서 최종본.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dw\Documents\MyProject\Dynamic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\유서영 취준\JAVA\Dynamic\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155E6505-0C33-40BD-8E14-F123C61F62FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27075" windowHeight="12255" firstSheet="1" activeTab="11"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="8" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,17 +24,17 @@
     <sheet name="제품" sheetId="9" r:id="rId9"/>
     <sheet name="마이페이지" sheetId="10" r:id="rId10"/>
     <sheet name="메인" sheetId="11" r:id="rId11"/>
-    <sheet name="ㅋㅋㅋㅋㅋ" sheetId="18" r:id="rId12"/>
-    <sheet name="ㅋㅋㅋㅋ" sheetId="19" r:id="rId13"/>
-    <sheet name="급여명세서 사용" sheetId="12" r:id="rId14"/>
-    <sheet name="직원 정보 조회" sheetId="13" r:id="rId15"/>
-    <sheet name="게시판" sheetId="14" r:id="rId16"/>
-    <sheet name="공지사항" sheetId="15" r:id="rId17"/>
-    <sheet name="서식자료실" sheetId="16" r:id="rId18"/>
-    <sheet name="가이드" sheetId="17" r:id="rId19"/>
+    <sheet name="급여명세서 사용" sheetId="12" r:id="rId12"/>
+    <sheet name="직원 정보 조회" sheetId="13" r:id="rId13"/>
+    <sheet name="게시판" sheetId="14" r:id="rId14"/>
+    <sheet name="공지사항" sheetId="15" r:id="rId15"/>
+    <sheet name="서식자료실" sheetId="16" r:id="rId16"/>
+    <sheet name="가이드" sheetId="17" r:id="rId17"/>
+    <sheet name="ㅋㅋㅋㅋㅋ" sheetId="18" r:id="rId18"/>
+    <sheet name="ㅋㅋㅋㅋ" sheetId="19" r:id="rId19"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">메인!$A$2:$K$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">메인!$A$2:$K$21</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'아이디 찾기'!$A$2:$J$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">회원가입!$A$2:$J$23</definedName>
   </definedNames>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="500">
   <si>
     <t>서영</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -2033,11 +2034,111 @@
     <t>화면</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>로그인 전 메뉴바</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>무료 급여 계산 바로가기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지 버튼 X</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>무료 급여 계산 바로가기 버튼
+클릭 시, 알람</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>무료 급여 계산 바로가기 버튼
+클릭 시, '로그인 후 이용 가능하다고 안내'</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5회 초과 시 이동 불가 및 알람</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">버튼 클릭 시 ,  db에 저장
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>저장된 걸 어떤 형식으로 할지는 고민 중</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보 입력</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 조회</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>username을 통한 본인의 전체 직원 조회</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력된 정보를 토대로 저장 후 전체 조회에 보이도록 처리</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원 추가 팝업</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원 수정 팝업</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원 수정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존 정보 조회</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존에 저장된 정보 중 수정 불가능한 항목 제외하고 조회</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력된 정보를 토대로 수정 후 전체 조회에 보이도록 처리</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>무료 
+급여명세서 양식</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>정기구독권
+급여명세서 양식</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저네임을 토대로 무료 횟수 자동 차감하여 0/5일 경우,
+관리자는 횟수 상관없이 사용 가능( 화면상에 출력  X)
+저장 버튼 클릭 불가</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2345,14 +2446,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2370,9 +2468,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2385,28 +2480,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2417,12 +2494,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2457,9 +2528,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2478,46 +2546,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2531,9 +2566,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2559,20 +2591,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2582,6 +2605,72 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2864,7 +2953,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2877,11 +2966,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="G6" sqref="A3:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2897,69 +2986,69 @@
   <sheetData>
     <row r="1" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="7" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="53" t="s">
         <v>253</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="53" t="s">
         <v>252</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="53" t="s">
         <v>251</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7" t="s">
+      <c r="H3" s="6"/>
+      <c r="I3" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="J3" s="7"/>
+      <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="2" t="s">
         <v>248</v>
       </c>
@@ -2979,9 +3068,9 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
       <c r="D5" s="2" t="s">
         <v>245</v>
       </c>
@@ -3001,9 +3090,9 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
       <c r="D6" s="2" t="s">
         <v>243</v>
       </c>
@@ -3023,16 +3112,16 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="6" t="s">
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>54</v>
       </c>
       <c r="G7" s="2"/>
@@ -3043,9 +3132,9 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
       <c r="D8" s="2" t="s">
         <v>239</v>
       </c>
@@ -3076,11 +3165,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3099,73 +3188,73 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="7" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="53" t="s">
         <v>285</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="53" t="s">
         <v>284</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="53" t="s">
         <v>283</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7" t="s">
+      <c r="I3" s="6"/>
+      <c r="J3" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="K3" s="7"/>
+      <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="2" t="s">
         <v>55</v>
       </c>
@@ -3186,9 +3275,9 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
       <c r="D5" s="2" t="s">
         <v>282</v>
       </c>
@@ -3209,11 +3298,11 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="54"/>
+      <c r="B6" s="54" t="s">
         <v>281</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="54" t="s">
         <v>280</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -3238,9 +3327,9 @@
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
       <c r="D7" s="2" t="s">
         <v>48</v>
       </c>
@@ -3263,99 +3352,103 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>71</v>
+      <c r="A8" s="54"/>
+      <c r="B8" s="54" t="s">
+        <v>480</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>252</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>274</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>140</v>
+        <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>272</v>
+    <row r="9" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>484</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>257</v>
+        <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>255</v>
+        <v>192</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="54"/>
+      <c r="B10" s="54" t="s">
+        <v>276</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>254</v>
-      </c>
       <c r="H10" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>255</v>
@@ -3367,23 +3460,23 @@
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
       <c r="D12" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>266</v>
+        <v>271</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>270</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>140</v>
+        <v>54</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>254</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2" t="s">
@@ -3391,51 +3484,49 @@
       </c>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+    <row r="13" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A13" s="54"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
       <c r="D13" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>259</v>
+        <v>269</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>268</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>140</v>
+        <v>54</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>254</v>
+        <v>42</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>255</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2" t="s">
-        <v>254</v>
+        <v>42</v>
       </c>
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>263</v>
+      <c r="A14" s="54"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="60" t="s">
+        <v>267</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>266</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="G14" s="2"/>
+      <c r="G14" s="2" t="s">
+        <v>254</v>
+      </c>
       <c r="H14" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2" t="s">
@@ -3444,32 +3535,32 @@
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>261</v>
+      <c r="A15" s="54"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="5" t="s">
+        <v>485</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="G15" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="H15" s="2" t="s">
-        <v>255</v>
+        <v>192</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2" t="s">
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
       <c r="D16" s="2" t="s">
         <v>260</v>
       </c>
@@ -3479,7 +3570,9 @@
       <c r="F16" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="G16" s="2"/>
+      <c r="G16" s="2" t="s">
+        <v>254</v>
+      </c>
       <c r="H16" s="2" t="s">
         <v>255</v>
       </c>
@@ -3490,17 +3583,25 @@
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="54" t="s">
+        <v>265</v>
+      </c>
+      <c r="C17" s="54" t="s">
+        <v>265</v>
+      </c>
       <c r="D17" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="E17" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>263</v>
+      </c>
       <c r="F17" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="G17" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="H17" s="2" t="s">
         <v>255</v>
       </c>
@@ -3510,18 +3611,22 @@
       </c>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="54"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
       <c r="D18" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="E18" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>261</v>
+      </c>
       <c r="F18" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="G18" s="2"/>
+      <c r="G18" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="H18" s="2" t="s">
         <v>255</v>
       </c>
@@ -3531,21 +3636,94 @@
       </c>
       <c r="K18" s="2"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D25"/>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="54"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="54"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="54"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D28"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:K18"/>
-  <mergeCells count="9">
-    <mergeCell ref="A3:A18"/>
+  <autoFilter ref="A2:K21" xr:uid="{00000000-0009-0000-0000-00000A000000}"/>
+  <mergeCells count="11">
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A3:A21"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C13"/>
-    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="C10:C16"/>
+    <mergeCell ref="C17:C21"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B10:B16"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="B8:B9"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3554,606 +3732,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="59.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I19" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A3:A19"/>
-    <mergeCell ref="C12:C19"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="B3:B19"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
-        <v>479</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>478</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>477</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>476</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>475</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>473</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>470</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>470</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>469</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="I13" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A3:A13"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B3:B13"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32:K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4165,360 +3748,349 @@
     <col min="7" max="7" width="7.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="51.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:13" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+    <row r="1" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:12" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="55" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="66" t="s">
         <v>334</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="66" t="s">
         <v>334</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="63" t="s">
         <v>333</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16" t="s">
+      <c r="E3" s="12"/>
+      <c r="F3" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="I3" s="16"/>
+      <c r="I3" s="12"/>
       <c r="J3" s="2" t="s">
         <v>42</v>
       </c>
       <c r="K3" s="2"/>
-      <c r="M3" s="51"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="16" t="s">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="64"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16" t="s">
+      <c r="E4" s="12"/>
+      <c r="F4" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="I4" s="16"/>
+      <c r="I4" s="12"/>
       <c r="J4" s="2" t="s">
         <v>42</v>
       </c>
       <c r="K4" s="2"/>
-      <c r="L4" s="52" t="s">
+      <c r="L4" s="34" t="s">
         <v>331</v>
       </c>
-      <c r="M4" s="51"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="16" t="s">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16" t="s">
+      <c r="E5" s="12"/>
+      <c r="F5" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="I5" s="16"/>
+      <c r="I5" s="12"/>
       <c r="J5" s="2" t="s">
         <v>139</v>
       </c>
       <c r="K5" s="2"/>
-      <c r="M5" s="51"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="49"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="16" t="s">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="64"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16" t="s">
+      <c r="E6" s="12"/>
+      <c r="F6" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="I6" s="16"/>
+      <c r="I6" s="12"/>
       <c r="J6" s="2" t="s">
         <v>42</v>
       </c>
       <c r="K6" s="2"/>
-      <c r="L6" s="52" t="s">
+      <c r="L6" s="34" t="s">
         <v>328</v>
       </c>
-      <c r="M6" s="51"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="49"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="16" t="s">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="64"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="16" t="s">
+      <c r="E7" s="13"/>
+      <c r="F7" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="I7" s="16"/>
+      <c r="I7" s="12"/>
       <c r="J7" s="2" t="s">
         <v>139</v>
       </c>
       <c r="K7" s="2"/>
-      <c r="M7" s="51"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="49"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="16" t="s">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="64"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16" t="s">
+      <c r="E8" s="12"/>
+      <c r="F8" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="I8" s="16"/>
+      <c r="I8" s="12"/>
       <c r="J8" s="2" t="s">
         <v>42</v>
       </c>
       <c r="K8" s="2"/>
-      <c r="L8" s="52" t="s">
+      <c r="L8" s="34" t="s">
         <v>319</v>
       </c>
-      <c r="M8" s="51"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="49"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="16" t="s">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="64"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16" t="s">
+      <c r="E9" s="12"/>
+      <c r="F9" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="I9" s="16"/>
+      <c r="I9" s="12"/>
       <c r="J9" s="2" t="s">
         <v>42</v>
       </c>
       <c r="K9" s="2"/>
-      <c r="L9" s="53" t="s">
+      <c r="L9" s="35" t="s">
         <v>324</v>
       </c>
-      <c r="M9" s="51"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="49"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="16" t="s">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="64"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16" t="s">
+      <c r="E10" s="12"/>
+      <c r="F10" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="I10" s="16"/>
+      <c r="I10" s="12"/>
       <c r="J10" s="2" t="s">
         <v>139</v>
       </c>
       <c r="K10" s="2"/>
-      <c r="L10" s="52" t="s">
+      <c r="L10" s="34" t="s">
         <v>319</v>
       </c>
-      <c r="M10" s="51"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="49"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="16" t="s">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="64"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16" t="s">
+      <c r="E11" s="12"/>
+      <c r="F11" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="I11" s="16"/>
+      <c r="I11" s="12"/>
       <c r="J11" s="2" t="s">
         <v>139</v>
       </c>
       <c r="K11" s="2"/>
-      <c r="L11" s="52" t="s">
+      <c r="L11" s="34" t="s">
         <v>319</v>
       </c>
-      <c r="M11" s="51"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="49"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="16" t="s">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="64"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16" t="s">
+      <c r="E12" s="12"/>
+      <c r="F12" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="I12" s="16"/>
+      <c r="I12" s="12"/>
       <c r="J12" s="2" t="s">
         <v>42</v>
       </c>
       <c r="K12" s="2"/>
-      <c r="L12" s="52" t="s">
+      <c r="L12" s="34" t="s">
         <v>319</v>
       </c>
-      <c r="M12" s="51"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="49"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="16" t="s">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="64"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="I13" s="16"/>
+      <c r="I13" s="12"/>
       <c r="J13" s="2" t="s">
         <v>42</v>
       </c>
       <c r="K13" s="2"/>
-      <c r="M13" s="51"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="49"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="50" t="s">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="64"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="67" t="s">
         <v>316</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="4" t="s">
+      <c r="G14" s="4"/>
+      <c r="H14" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="3" t="s">
         <v>312</v>
       </c>
       <c r="J14" s="2" t="s">
@@ -4526,24 +4098,24 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="49"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="4" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="64"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="4" t="s">
+      <c r="G15" s="4"/>
+      <c r="H15" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="3" t="s">
         <v>312</v>
       </c>
       <c r="J15" s="2" t="s">
@@ -4551,50 +4123,50 @@
       </c>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="47"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="23" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="64"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="F16" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="H16" s="16" t="s">
+      <c r="F16" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="I16" s="16"/>
+      <c r="I16" s="12"/>
       <c r="J16" s="2" t="s">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="K16" s="2"/>
-      <c r="L16" s="46" t="s">
+      <c r="L16" s="33" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="20" t="s">
-        <v>307</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>307</v>
+      <c r="A17" s="70" t="s">
+        <v>497</v>
+      </c>
+      <c r="B17" s="70" t="s">
+        <v>497</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>305</v>
       </c>
       <c r="F17" s="2" t="s">
@@ -4613,20 +4185,24 @@
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="20" t="s">
+      <c r="A18" s="69"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="60" t="s">
         <v>303</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="12" t="s">
         <v>302</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="G18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>192</v>
+      </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2" t="s">
         <v>42</v>
@@ -4634,18 +4210,22 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="44"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="16" t="s">
+      <c r="A19" s="69"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="12" t="s">
         <v>301</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="G19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>192</v>
+      </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2" t="s">
         <v>139</v>
@@ -4653,10 +4233,10 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="44"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="16" t="s">
+      <c r="A20" s="69"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="12" t="s">
         <v>300</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -4674,10 +4254,10 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="44"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="16" t="s">
+      <c r="A21" s="69"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="12" t="s">
         <v>298</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -4695,10 +4275,10 @@
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="44"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="16" t="s">
+      <c r="A22" s="69"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="12" t="s">
         <v>295</v>
       </c>
       <c r="E22" s="2" t="s">
@@ -4715,21 +4295,27 @@
       </c>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="44"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="45" t="s">
+    <row r="23" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A23" s="69"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="70" t="s">
         <v>293</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="E23" s="2"/>
+      <c r="E23" s="5" t="s">
+        <v>486</v>
+      </c>
       <c r="F23" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="G23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>192</v>
+      </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2" t="s">
         <v>139</v>
@@ -4737,17 +4323,19 @@
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="44"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="16" t="s">
+      <c r="A24" s="69"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="12" t="s">
         <v>291</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="G24" s="2"/>
+      <c r="G24" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2" t="s">
@@ -4755,27 +4343,225 @@
       </c>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="6" t="s">
+    <row r="25" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="53"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="E25" s="2"/>
+      <c r="E25" s="5" t="s">
+        <v>499</v>
+      </c>
       <c r="F25" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
+      <c r="G25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>192</v>
+      </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2" t="s">
         <v>139</v>
       </c>
       <c r="K25" s="2"/>
     </row>
+    <row r="26" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="55" t="s">
+        <v>498</v>
+      </c>
+      <c r="B26" s="55" t="s">
+        <v>498</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="54"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54" t="s">
+        <v>303</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="54"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="54"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="54"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="54"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A32" s="54"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="55" t="s">
+        <v>293</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K32" s="2"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="54"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K33" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="12">
+    <mergeCell ref="A26:A33"/>
+    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="C32:C33"/>
     <mergeCell ref="C3:C12"/>
     <mergeCell ref="B3:B16"/>
     <mergeCell ref="A3:A16"/>
@@ -4790,12 +4576,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4810,164 +4596,348 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="7" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="56" t="s">
         <v>346</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="56" t="s">
         <v>345</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="53"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7" t="s">
+      <c r="E4" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="53"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="53"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="K3" s="7"/>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" s="7"/>
-    </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="2" t="s">
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="53"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="54"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="K5" s="7"/>
-    </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="K6" s="7"/>
-    </row>
-    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="K7" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="60" t="s">
+        <v>491</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>470</v>
+      </c>
+      <c r="C9" s="60" t="s">
+        <v>470</v>
+      </c>
+      <c r="D9" s="74" t="s">
+        <v>487</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="53"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="74" t="s">
+        <v>490</v>
+      </c>
+      <c r="F10" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="60" t="s">
+        <v>492</v>
+      </c>
+      <c r="B11" s="60" t="s">
+        <v>493</v>
+      </c>
+      <c r="C11" s="60" t="s">
+        <v>493</v>
+      </c>
+      <c r="D11" s="74" t="s">
+        <v>494</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="F11" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="69"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="74" t="s">
+        <v>487</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="53"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="74" t="s">
+        <v>496</v>
+      </c>
+      <c r="F13" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
+  <mergeCells count="9">
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4989,57 +4959,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="K1" s="27" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="71" t="s">
         <v>370</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="60" t="s">
         <v>369</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="54" t="s">
         <v>368</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="13" t="s">
         <v>54</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -5048,41 +5018,41 @@
       <c r="H2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="40"/>
+      <c r="I2" s="29"/>
       <c r="J2" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="K2" s="40"/>
-    </row>
-    <row r="3" spans="1:11" s="58" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="57"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="56" t="s">
+      <c r="K2" s="29"/>
+    </row>
+    <row r="3" spans="1:11" s="36" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="72"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="19" t="s">
         <v>365</v>
       </c>
-      <c r="E3" s="61" t="s">
+      <c r="E3" s="39" t="s">
         <v>364</v>
       </c>
-      <c r="F3" s="61" t="s">
+      <c r="F3" s="39" t="s">
         <v>207</v>
       </c>
-      <c r="G3" s="56" t="s">
+      <c r="G3" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="H3" s="56" t="s">
+      <c r="H3" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="59"/>
+      <c r="I3" s="37"/>
       <c r="J3" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K3" s="59"/>
-    </row>
-    <row r="4" spans="1:11" s="58" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="57"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="3"/>
+      <c r="K3" s="37"/>
+    </row>
+    <row r="4" spans="1:11" s="36" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="72"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="2" t="s">
         <v>363</v>
       </c>
@@ -5092,44 +5062,44 @@
       <c r="F4" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="59"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="37"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="59"/>
-    </row>
-    <row r="5" spans="1:11" s="58" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="57"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="29" t="s">
+      <c r="K4" s="37"/>
+    </row>
+    <row r="5" spans="1:11" s="36" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="72"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="62" t="s">
         <v>361</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="19" t="s">
         <v>360</v>
       </c>
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="19" t="s">
         <v>359</v>
       </c>
-      <c r="F5" s="56" t="s">
+      <c r="F5" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="56" t="s">
+      <c r="G5" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="H5" s="56" t="s">
+      <c r="H5" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="I5" s="59"/>
+      <c r="I5" s="37"/>
       <c r="J5" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K5" s="59"/>
+      <c r="K5" s="37"/>
     </row>
     <row r="6" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="57"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="42" t="s">
+      <c r="A6" s="72"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="31" t="s">
         <v>358</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -5141,19 +5111,19 @@
       <c r="G6" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="H6" s="56" t="s">
+      <c r="H6" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="40"/>
+      <c r="I6" s="29"/>
       <c r="J6" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="K6" s="40"/>
+      <c r="K6" s="29"/>
     </row>
     <row r="7" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="57"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="20" t="s">
+      <c r="A7" s="72"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="60" t="s">
         <v>356</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -5168,19 +5138,19 @@
       <c r="G7" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="H7" s="56" t="s">
+      <c r="H7" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="40"/>
+      <c r="I7" s="29"/>
       <c r="J7" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K7" s="40"/>
+      <c r="K7" s="29"/>
     </row>
     <row r="8" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="57"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
+      <c r="A8" s="72"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
       <c r="D8" s="2" t="s">
         <v>353</v>
       </c>
@@ -5193,60 +5163,60 @@
       <c r="G8" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="H8" s="56" t="s">
+      <c r="H8" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="40"/>
+      <c r="I8" s="29"/>
       <c r="J8" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="K8" s="40"/>
+      <c r="K8" s="29"/>
     </row>
     <row r="9" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="57"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
+      <c r="A9" s="72"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
       <c r="D9" s="2" t="s">
         <v>351</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="12" t="s">
         <v>349</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="H9" s="56" t="s">
+      <c r="H9" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
     </row>
     <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="37"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
       <c r="D10" s="2" t="s">
         <v>348</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="12" t="s">
         <v>72</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="H10" s="56" t="s">
+      <c r="H10" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5262,8 +5232,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -5282,57 +5252,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="47" t="s">
         <v>393</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="45" t="s">
         <v>392</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="F1" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="69" t="s">
+      <c r="G1" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="H1" s="69" t="s">
+      <c r="H1" s="46" t="s">
         <v>234</v>
       </c>
-      <c r="I1" s="69" t="s">
+      <c r="I1" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="J1" s="68" t="s">
+      <c r="J1" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="K1" s="67" t="s">
+      <c r="K1" s="44" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="62" t="s">
         <v>391</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="54" t="s">
         <v>391</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="54" t="s">
         <v>390</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="13" t="s">
         <v>388</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="13" t="s">
         <v>54</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -5341,23 +5311,23 @@
       <c r="H2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="40"/>
+      <c r="I2" s="29"/>
       <c r="J2" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K2" s="40"/>
+      <c r="K2" s="29"/>
     </row>
     <row r="3" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
       <c r="D3" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="12" t="s">
         <v>386</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="13" t="s">
         <v>54</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -5366,23 +5336,23 @@
       <c r="H3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="40"/>
+      <c r="I3" s="29"/>
       <c r="J3" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K3" s="40"/>
+      <c r="K3" s="29"/>
     </row>
     <row r="4" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
+      <c r="A4" s="62"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54" t="s">
         <v>385</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="13" t="s">
         <v>384</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="13" t="s">
         <v>54</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -5391,21 +5361,21 @@
       <c r="H4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="40"/>
+      <c r="I4" s="29"/>
       <c r="J4" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K4" s="40"/>
+      <c r="K4" s="29"/>
     </row>
     <row r="5" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="21" t="s">
+      <c r="A5" s="62"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="13" t="s">
         <v>383</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="13" t="s">
         <v>54</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -5414,25 +5384,25 @@
       <c r="H5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="40"/>
+      <c r="I5" s="29"/>
       <c r="J5" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K5" s="40"/>
+      <c r="K5" s="29"/>
     </row>
     <row r="6" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="29"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
+      <c r="A6" s="62"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54" t="s">
         <v>382</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="42" t="s">
         <v>381</v>
       </c>
-      <c r="E6" s="65" t="s">
+      <c r="E6" s="42" t="s">
         <v>380</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="13" t="s">
         <v>37</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -5441,63 +5411,63 @@
       <c r="H6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="40"/>
+      <c r="I6" s="29"/>
       <c r="J6" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K6" s="40"/>
+      <c r="K6" s="29"/>
     </row>
     <row r="7" spans="1:11" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="29"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="65" t="s">
+      <c r="A7" s="62"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="42" t="s">
         <v>379</v>
       </c>
-      <c r="E7" s="65" t="s">
+      <c r="E7" s="42" t="s">
         <v>378</v>
       </c>
-      <c r="F7" s="64" t="s">
+      <c r="F7" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="63" t="s">
+      <c r="G7" s="40" t="s">
         <v>377</v>
       </c>
-      <c r="H7" s="63" t="s">
+      <c r="H7" s="40" t="s">
         <v>376</v>
       </c>
-      <c r="I7" s="40"/>
+      <c r="I7" s="29"/>
       <c r="J7" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="K7" s="40"/>
+      <c r="K7" s="29"/>
     </row>
     <row r="8" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="29"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="62"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="43" t="s">
         <v>374</v>
       </c>
-      <c r="E8" s="65" t="s">
+      <c r="E8" s="42" t="s">
         <v>373</v>
       </c>
-      <c r="F8" s="64" t="s">
+      <c r="F8" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="63" t="s">
+      <c r="G8" s="40" t="s">
         <v>372</v>
       </c>
-      <c r="H8" s="63" t="s">
+      <c r="H8" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="40"/>
+      <c r="I8" s="29"/>
       <c r="J8" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="K8" s="40"/>
+      <c r="K8" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5512,8 +5482,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5532,82 +5502,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="7" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="61" t="s">
         <v>408</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="59" t="s">
         <v>408</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="59" t="s">
         <v>407</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="26" t="s">
         <v>405</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="G2" s="74" t="s">
+      <c r="G2" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="H2" s="74" t="s">
+      <c r="H2" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="73"/>
-      <c r="J2" s="7" t="s">
+      <c r="I2" s="49"/>
+      <c r="J2" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="K2" s="73"/>
+      <c r="K2" s="49"/>
     </row>
     <row r="3" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="6" t="s">
+      <c r="A3" s="62"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="12" t="s">
         <v>403</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="12" t="s">
         <v>207</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -5616,84 +5586,84 @@
       <c r="H3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="40"/>
+      <c r="I3" s="29"/>
       <c r="J3" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K3" s="40"/>
+      <c r="K3" s="29"/>
     </row>
     <row r="4" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="6" t="s">
+      <c r="A4" s="62"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="G4" s="72" t="s">
+      <c r="G4" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="H4" s="72"/>
-      <c r="I4" s="40"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="29"/>
       <c r="J4" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K4" s="40"/>
+      <c r="K4" s="29"/>
     </row>
     <row r="5" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29"/>
-      <c r="B5" s="44"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="69"/>
       <c r="C5" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="D5" s="42" t="s">
         <v>381</v>
       </c>
-      <c r="E5" s="65" t="s">
+      <c r="E5" s="42" t="s">
         <v>399</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="G5" s="71" t="s">
+      <c r="G5" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="H5" s="71" t="s">
+      <c r="H5" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="I5" s="40"/>
+      <c r="I5" s="29"/>
       <c r="J5" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="K5" s="40"/>
+      <c r="K5" s="29"/>
     </row>
     <row r="6" spans="1:11" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="29"/>
-      <c r="B6" s="8"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="53"/>
       <c r="C6" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="42" t="s">
         <v>397</v>
       </c>
-      <c r="E6" s="65" t="s">
+      <c r="E6" s="42" t="s">
         <v>396</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="12" t="s">
         <v>395</v>
       </c>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="40"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="29"/>
       <c r="J6" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="K6" s="40"/>
+      <c r="K6" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5706,8 +5676,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5725,74 +5695,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="7" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="65" t="s">
         <v>426</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="69" t="s">
         <v>418</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="15" t="s">
         <v>424</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="F2" s="74" t="s">
+      <c r="F2" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="G2" s="78" t="s">
+      <c r="G2" s="52" t="s">
         <v>422</v>
       </c>
-      <c r="H2" s="78" t="s">
+      <c r="H2" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="23" t="s">
+      <c r="I2" s="26"/>
+      <c r="J2" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="K2" s="23"/>
+      <c r="K2" s="15"/>
     </row>
     <row r="3" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="75"/>
-      <c r="B3" s="44"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="69"/>
       <c r="C3" s="2" t="s">
         <v>421</v>
       </c>
@@ -5802,105 +5772,105 @@
       <c r="E3" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="F3" s="63" t="s">
+      <c r="F3" s="40" t="s">
         <v>207</v>
       </c>
-      <c r="G3" s="63" t="s">
+      <c r="G3" s="40" t="s">
         <v>237</v>
       </c>
-      <c r="H3" s="63" t="s">
+      <c r="H3" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="40"/>
+      <c r="I3" s="29"/>
       <c r="J3" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="K3" s="40"/>
+      <c r="K3" s="29"/>
     </row>
     <row r="4" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="75"/>
-      <c r="B4" s="8"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="53"/>
       <c r="C4" s="2" t="s">
         <v>418</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="F4" s="61" t="s">
+      <c r="F4" s="39" t="s">
         <v>207</v>
       </c>
-      <c r="G4" s="63" t="s">
+      <c r="G4" s="40" t="s">
         <v>237</v>
       </c>
-      <c r="H4" s="63" t="s">
+      <c r="H4" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="I4" s="40"/>
+      <c r="I4" s="29"/>
       <c r="J4" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="K4" s="40"/>
+      <c r="K4" s="29"/>
     </row>
     <row r="5" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A5" s="75"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="2" t="s">
         <v>415</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="D5" s="77" t="s">
+      <c r="D5" s="51" t="s">
         <v>414</v>
       </c>
-      <c r="E5" s="77" t="s">
+      <c r="E5" s="51" t="s">
         <v>413</v>
       </c>
-      <c r="F5" s="76" t="s">
+      <c r="F5" s="50" t="s">
         <v>207</v>
       </c>
-      <c r="G5" s="63" t="s">
+      <c r="G5" s="40" t="s">
         <v>237</v>
       </c>
-      <c r="H5" s="63" t="s">
+      <c r="H5" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="40"/>
+      <c r="I5" s="29"/>
       <c r="J5" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="K5" s="40"/>
+      <c r="K5" s="29"/>
     </row>
     <row r="6" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="75"/>
+      <c r="A6" s="73"/>
       <c r="B6" s="2" t="s">
         <v>411</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="42" t="s">
         <v>410</v>
       </c>
-      <c r="E6" s="65" t="s">
+      <c r="E6" s="42" t="s">
         <v>409</v>
       </c>
-      <c r="F6" s="64" t="s">
+      <c r="F6" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="G6" s="63" t="s">
+      <c r="G6" s="40" t="s">
         <v>237</v>
       </c>
-      <c r="H6" s="63" t="s">
+      <c r="H6" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="I6" s="40"/>
+      <c r="I6" s="29"/>
       <c r="J6" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="K6" s="40"/>
+      <c r="K6" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5913,8 +5883,603 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="53" t="s">
+        <v>452</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>452</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>452</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54" t="s">
+        <v>447</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54" t="s">
+        <v>442</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="54"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54" t="s">
+        <v>439</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="54"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="54"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="54"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="54"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="54"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="54"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="54"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I19" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A3:A19"/>
+    <mergeCell ref="C12:C19"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="B3:B19"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="53" t="s">
+        <v>470</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>470</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>469</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54" t="s">
+        <v>461</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54" t="s">
+        <v>459</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="54"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="54"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="I13" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A3:A13"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B3:B13"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5931,75 +6496,75 @@
   <sheetData>
     <row r="1" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7" t="s">
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="7"/>
+      <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="3"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
         <v>0</v>
@@ -6007,19 +6572,19 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
       <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="G5" s="3"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
         <v>0</v>
@@ -6027,19 +6592,19 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
       <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="3"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
         <v>0</v>
@@ -6047,19 +6612,19 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
       <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="3"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
         <v>0</v>
@@ -6067,9 +6632,9 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
       <c r="D8" s="2" t="s">
         <v>4</v>
       </c>
@@ -6085,9 +6650,9 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
       <c r="D9" s="2" t="s">
         <v>3</v>
       </c>
@@ -6105,7 +6670,7 @@
       <c r="J9" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J9"/>
+  <autoFilter ref="A2:J9" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="3">
     <mergeCell ref="C3:C9"/>
     <mergeCell ref="A3:A9"/>
@@ -6117,7 +6682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6137,67 +6702,67 @@
   <sheetData>
     <row r="1" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="7" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7" t="s">
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="7"/>
+      <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="2" t="s">
         <v>76</v>
       </c>
@@ -6215,19 +6780,19 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
       <c r="D5" s="2" t="s">
         <v>74</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="G5" s="3"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
         <v>42</v>
@@ -6235,7 +6800,7 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="2" t="s">
         <v>71</v>
       </c>
@@ -6259,11 +6824,11 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="54"/>
+      <c r="B7" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="55" t="s">
         <v>66</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -6283,9 +6848,9 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
       <c r="D8" s="2" t="s">
         <v>63</v>
       </c>
@@ -6301,9 +6866,9 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
       <c r="D9" s="2" t="s">
         <v>62</v>
       </c>
@@ -6321,9 +6886,9 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
       <c r="D10" s="2" t="s">
         <v>60</v>
       </c>
@@ -6339,9 +6904,9 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
       <c r="D11" s="2" t="s">
         <v>59</v>
       </c>
@@ -6359,19 +6924,19 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
       <c r="D12" s="2" t="s">
         <v>57</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="G12" s="3"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
         <v>27</v>
@@ -6379,9 +6944,9 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
       <c r="D13" s="2" t="s">
         <v>55</v>
       </c>
@@ -6397,9 +6962,9 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
       <c r="D14" s="2" t="s">
         <v>53</v>
       </c>
@@ -6417,9 +6982,9 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
       <c r="D15" s="2" t="s">
         <v>51</v>
       </c>
@@ -6435,19 +7000,19 @@
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
       <c r="D16" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="4"/>
+      <c r="G16" s="3"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
         <v>27</v>
@@ -6455,9 +7020,9 @@
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
       <c r="D17" s="2" t="s">
         <v>48</v>
       </c>
@@ -6475,8 +7040,8 @@
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="13" t="s">
+      <c r="A18" s="54"/>
+      <c r="B18" s="55" t="s">
         <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -6499,9 +7064,9 @@
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3" t="s">
+      <c r="A19" s="54"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54" t="s">
         <v>41</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -6521,9 +7086,9 @@
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
       <c r="D20" s="2" t="s">
         <v>38</v>
       </c>
@@ -6539,19 +7104,19 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
       <c r="D21" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="4"/>
+      <c r="G21" s="3"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2" t="s">
         <v>27</v>
@@ -6559,19 +7124,19 @@
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
       <c r="D22" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="4"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2" t="s">
         <v>27</v>
@@ -6579,8 +7144,8 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="6" t="s">
+      <c r="A23" s="54"/>
+      <c r="B23" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -6592,10 +7157,10 @@
       <c r="E23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G23" s="4"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2" t="s">
         <v>27</v>
@@ -6603,7 +7168,7 @@
       <c r="J23" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J23"/>
+  <autoFilter ref="A2:J23" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="7">
     <mergeCell ref="A3:A23"/>
     <mergeCell ref="C19:C22"/>
@@ -6619,7 +7184,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6641,65 +7206,65 @@
   <sheetData>
     <row r="1" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="7" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7" t="s">
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="7"/>
+      <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
@@ -6715,9 +7280,9 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
       <c r="D5" s="2" t="s">
         <v>120</v>
       </c>
@@ -6733,9 +7298,9 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
       <c r="D6" s="2" t="s">
         <v>119</v>
       </c>
@@ -6753,19 +7318,19 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
       <c r="D7" s="2" t="s">
         <v>117</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="3"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
         <v>27</v>
@@ -6773,9 +7338,9 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54" t="s">
         <v>114</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -6795,19 +7360,19 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
       <c r="D9" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="3"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
         <v>42</v>
@@ -6815,9 +7380,9 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54" t="s">
         <v>109</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -6837,9 +7402,9 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
       <c r="D11" s="2" t="s">
         <v>105</v>
       </c>
@@ -6855,9 +7420,9 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
       <c r="D12" s="2" t="s">
         <v>102</v>
       </c>
@@ -6875,9 +7440,9 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="13" t="s">
+      <c r="A13" s="54"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="55" t="s">
         <v>107</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -6897,9 +7462,9 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="13"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="55"/>
       <c r="D14" s="2" t="s">
         <v>105</v>
       </c>
@@ -6917,9 +7482,9 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="13"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="55"/>
       <c r="D15" s="2" t="s">
         <v>103</v>
       </c>
@@ -6935,9 +7500,9 @@
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="13"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="55"/>
       <c r="D16" s="2" t="s">
         <v>102</v>
       </c>
@@ -6955,9 +7520,9 @@
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3" t="s">
+      <c r="A17" s="54"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54" t="s">
         <v>101</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -6966,10 +7531,10 @@
       <c r="E17" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="4"/>
+      <c r="G17" s="3"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="s">
         <v>27</v>
@@ -6977,17 +7542,17 @@
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
       <c r="D18" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="4"/>
+      <c r="G18" s="3"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2" t="s">
         <v>27</v>
@@ -6995,19 +7560,19 @@
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
       <c r="D19" s="2" t="s">
         <v>97</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="4"/>
+      <c r="G19" s="3"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2" t="s">
         <v>95</v>
@@ -7015,19 +7580,19 @@
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
       <c r="D20" s="2" t="s">
         <v>94</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G20" s="4"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2" t="s">
         <v>92</v>
@@ -7050,7 +7615,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7069,62 +7634,62 @@
   <sheetData>
     <row r="1" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="7" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7" t="s">
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="J3" s="7"/>
+      <c r="J3" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -7133,7 +7698,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7155,62 +7720,62 @@
   <sheetData>
     <row r="1" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="7" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7" t="s">
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="J3" s="7"/>
+      <c r="J3" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -7219,7 +7784,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7240,74 +7805,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="7" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="57" t="s">
         <v>176</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="53" t="s">
         <v>175</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="59" t="s">
         <v>174</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7" t="s">
+      <c r="G2" s="14"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="J2" s="7"/>
+      <c r="J2" s="6"/>
     </row>
     <row r="3" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="8"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="12" t="s">
         <v>140</v>
       </c>
       <c r="G3" s="2"/>
@@ -7318,23 +7883,23 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="58"/>
+      <c r="B4" s="54" t="s">
         <v>167</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="60" t="s">
         <v>166</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="3"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
         <v>151</v>
@@ -7342,16 +7907,16 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="8"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="53"/>
       <c r="D5" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="12" t="s">
         <v>152</v>
       </c>
       <c r="G5" s="2"/>
@@ -7362,20 +7927,20 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
-      <c r="B6" s="18" t="s">
+      <c r="A6" s="58"/>
+      <c r="B6" s="54" t="s">
         <v>161</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="12" t="s">
         <v>152</v>
       </c>
       <c r="G6" s="2"/>
@@ -7386,9 +7951,9 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="20" t="s">
+      <c r="A7" s="58"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="60" t="s">
         <v>157</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -7397,7 +7962,7 @@
       <c r="E7" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="12" t="s">
         <v>152</v>
       </c>
       <c r="G7" s="2"/>
@@ -7408,16 +7973,16 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="17" t="s">
+      <c r="A8" s="58"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="12" t="s">
         <v>152</v>
       </c>
       <c r="G8" s="2"/>
@@ -7454,7 +8019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -7475,150 +8040,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="27" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="61" t="s">
         <v>197</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="J2" s="7"/>
+      <c r="J2" s="6"/>
     </row>
     <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="62"/>
       <c r="C3" s="2" t="s">
         <v>191</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="26"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="16"/>
       <c r="I3" s="2" t="s">
         <v>151</v>
       </c>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="32" t="s">
+      <c r="A4" s="62"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="G4" s="27"/>
-      <c r="H4" s="26"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="16"/>
       <c r="I4" s="2" t="s">
         <v>151</v>
       </c>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="32" t="s">
+      <c r="A5" s="62"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="H5" s="26"/>
+      <c r="H5" s="16"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="62"/>
       <c r="C6" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="26" t="s">
+      <c r="G6" s="17"/>
+      <c r="H6" s="16" t="s">
         <v>178</v>
       </c>
       <c r="I6" s="2" t="s">
@@ -7637,11 +8202,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="H2" sqref="G2:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7657,241 +8222,241 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="K1" s="27" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="62" t="s">
         <v>233</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>232</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="H2" s="43"/>
+      <c r="H2" s="32"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="K2" s="40"/>
+      <c r="K2" s="29"/>
     </row>
     <row r="3" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="6" t="s">
+      <c r="A3" s="62"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="5" t="s">
         <v>229</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="H3" s="26"/>
+      <c r="H3" s="16"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K3" s="40"/>
+      <c r="K3" s="29"/>
     </row>
     <row r="4" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="6" t="s">
+      <c r="A4" s="62"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="5" t="s">
         <v>206</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="H4" s="41" t="s">
+      <c r="H4" s="30" t="s">
         <v>192</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K4" s="40"/>
+      <c r="K4" s="29"/>
     </row>
     <row r="5" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="6" t="s">
+      <c r="A5" s="62"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="5" t="s">
         <v>224</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="H5" s="41"/>
+      <c r="H5" s="30"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="K5" s="40"/>
+      <c r="K5" s="29"/>
     </row>
     <row r="6" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="6" t="s">
+      <c r="A6" s="62"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="H6" s="26"/>
+      <c r="H6" s="16"/>
       <c r="I6" s="2" t="s">
         <v>215</v>
       </c>
       <c r="J6" s="2"/>
-      <c r="K6" s="40"/>
+      <c r="K6" s="29"/>
     </row>
     <row r="7" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="6" t="s">
+      <c r="A7" s="62"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="5" t="s">
         <v>219</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="H7" s="26"/>
+      <c r="H7" s="16"/>
       <c r="I7" s="2" t="s">
         <v>215</v>
       </c>
       <c r="J7" s="2"/>
-      <c r="K7" s="40"/>
+      <c r="K7" s="29"/>
     </row>
     <row r="8" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="29"/>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="62"/>
+      <c r="B8" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>213</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="16" t="s">
         <v>178</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="K8" s="40"/>
+      <c r="K8" s="29"/>
     </row>
     <row r="9" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A9" s="29"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="6" t="s">
+      <c r="A9" s="62"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="5" t="s">
         <v>210</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="13" t="s">
         <v>199</v>
       </c>
       <c r="H9" s="2"/>
@@ -7899,59 +8464,59 @@
       <c r="J9" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="K9" s="40"/>
+      <c r="K9" s="29"/>
     </row>
     <row r="10" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="29"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="6" t="s">
+      <c r="A10" s="62"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="5" t="s">
         <v>206</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="H10" s="41" t="s">
+      <c r="H10" s="30" t="s">
         <v>192</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="K10" s="40"/>
+      <c r="K10" s="29"/>
     </row>
     <row r="11" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A11" s="29"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="6" t="s">
+      <c r="A11" s="62"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="5" t="s">
         <v>202</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="H11" s="41"/>
+      <c r="H11" s="30"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="K11" s="40"/>
+      <c r="K11" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/기능명세서 최종본.xlsx
+++ b/기능명세서 최종본.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\유서영 취준\JAVA\Dynamic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155E6505-0C33-40BD-8E14-F123C61F62FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B601FAE5-7060-4E5B-B50F-9D8076138620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="8" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22800" windowHeight="15600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">메인!$A$2:$K$21</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'아이디 찾기'!$A$2:$J$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">회원가입!$A$2:$J$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">회원가입!$A$2:$K$21</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="496">
   <si>
     <t>서영</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -169,10 +169,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>선택 가능한 업종 조회 및 검색</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>예정 업종 버튼</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -186,18 +182,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>작성한 화면이 사라지고 기존 페이지에 유지</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>확인 버튼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택 가능한 업종 스크롤로 조회 혹은 검색해서 선택</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>업종 입력</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -207,10 +191,6 @@
   </si>
   <si>
     <t>회사명 입력</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>(000-00-00000) 형식으로 입력</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -251,26 +231,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>사업자 여부 선택 페이지로 이동</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>before 버튼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>전화번호 입력</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>6자리 입력</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>생년월일 입력</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>하</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -287,10 +251,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>중복 불가</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>아이디 입력</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -299,19 +259,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>남 / 여 중 선택</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>성별 선택</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>이름 입력</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>동의 / 비동의 중 선택(동의 시에만 아래사항 작성 가능)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -2132,6 +2084,39 @@
     <t>유저네임을 토대로 무료 횟수 자동 차감하여 0/5일 경우,
 관리자는 횟수 상관없이 사용 가능( 화면상에 출력  X)
 저장 버튼 클릭 불가</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>급여명세서 
+정보 입력</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>id가 자꾸 null이래</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>동의 / 비동의 중 선택(동의 시에만 회원가입 가능)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>필수 입력</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>남 / 여 중 필수 선택</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력된 부분 전체 삭제</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>=&gt;(000-00-00000) 형식으로 입력</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택 가능한 업종 선택 혹은 직접 입력</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2206,7 +2191,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2238,6 +2223,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2446,7 +2437,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2654,10 +2645,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2669,7 +2663,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2970,7 +2973,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="A3:G10"/>
+      <selection activeCell="J9" sqref="A9:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2987,61 +2990,61 @@
     <row r="1" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A3" s="53" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="C3" s="53" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="J3" s="6"/>
     </row>
@@ -3050,20 +3053,20 @@
       <c r="B4" s="54"/>
       <c r="C4" s="54"/>
       <c r="D4" s="2" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="J4" s="2"/>
     </row>
@@ -3072,20 +3075,20 @@
       <c r="B5" s="54"/>
       <c r="C5" s="54"/>
       <c r="D5" s="2" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="J5" s="2"/>
     </row>
@@ -3094,20 +3097,20 @@
       <c r="B6" s="54"/>
       <c r="C6" s="54"/>
       <c r="D6" s="2" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="J6" s="2"/>
     </row>
@@ -3116,18 +3119,18 @@
       <c r="B7" s="54"/>
       <c r="C7" s="54"/>
       <c r="D7" s="5" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="J7" s="2"/>
     </row>
@@ -3136,20 +3139,20 @@
       <c r="B8" s="54"/>
       <c r="C8" s="54"/>
       <c r="D8" s="2" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="J8" s="2"/>
     </row>
@@ -3168,7 +3171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G17" sqref="G17:G21"/>
     </sheetView>
   </sheetViews>
@@ -3189,65 +3192,65 @@
     <row r="1" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="53" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="C3" s="53" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="K3" s="6"/>
     </row>
@@ -3256,21 +3259,21 @@
       <c r="B4" s="54"/>
       <c r="C4" s="54"/>
       <c r="D4" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K4" s="2"/>
     </row>
@@ -3279,50 +3282,50 @@
       <c r="B5" s="54"/>
       <c r="C5" s="54"/>
       <c r="D5" s="2" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="54"/>
       <c r="B6" s="54" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="C6" s="54" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K6" s="2"/>
     </row>
@@ -3331,36 +3334,36 @@
       <c r="B7" s="54"/>
       <c r="C7" s="54"/>
       <c r="D7" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="54"/>
       <c r="B8" s="54" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
@@ -3370,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
@@ -3382,13 +3385,13 @@
       <c r="A9" s="54"/>
       <c r="B9" s="54"/>
       <c r="C9" s="2" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>1</v>
@@ -3397,7 +3400,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
@@ -3408,29 +3411,29 @@
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="54"/>
       <c r="B10" s="54" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="C10" s="54" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K10" s="2"/>
     </row>
@@ -3439,23 +3442,23 @@
       <c r="B11" s="54"/>
       <c r="C11" s="54"/>
       <c r="D11" s="2" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K11" s="2"/>
     </row>
@@ -3464,23 +3467,23 @@
       <c r="B12" s="54"/>
       <c r="C12" s="54"/>
       <c r="D12" s="2" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="K12" s="2"/>
     </row>
@@ -3489,23 +3492,23 @@
       <c r="B13" s="54"/>
       <c r="C13" s="54"/>
       <c r="D13" s="2" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K13" s="2"/>
     </row>
@@ -3514,23 +3517,23 @@
       <c r="B14" s="54"/>
       <c r="C14" s="54"/>
       <c r="D14" s="60" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="K14" s="2"/>
     </row>
@@ -3540,7 +3543,7 @@
       <c r="C15" s="54"/>
       <c r="D15" s="53"/>
       <c r="E15" s="5" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>28</v>
@@ -3549,7 +3552,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2" t="s">
@@ -3562,52 +3565,52 @@
       <c r="B16" s="54"/>
       <c r="C16" s="54"/>
       <c r="D16" s="2" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="54"/>
       <c r="B17" s="54" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C17" s="54" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="K17" s="2"/>
     </row>
@@ -3616,23 +3619,23 @@
       <c r="B18" s="54"/>
       <c r="C18" s="54"/>
       <c r="D18" s="2" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="K18" s="2"/>
     </row>
@@ -3641,23 +3644,23 @@
       <c r="B19" s="54"/>
       <c r="C19" s="54"/>
       <c r="D19" s="2" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="K19" s="2"/>
     </row>
@@ -3666,21 +3669,21 @@
       <c r="B20" s="54"/>
       <c r="C20" s="54"/>
       <c r="D20" s="2" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="K20" s="2"/>
     </row>
@@ -3689,21 +3692,21 @@
       <c r="B21" s="54"/>
       <c r="C21" s="54"/>
       <c r="D21" s="2" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="K21" s="2"/>
     </row>
@@ -3735,8 +3738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32:K34"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3754,65 +3757,65 @@
     <row r="1" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="66" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="C3" s="63" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="12" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K3" s="2"/>
     </row>
@@ -3821,25 +3824,25 @@
       <c r="B4" s="64"/>
       <c r="C4" s="64"/>
       <c r="D4" s="12" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="34" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -3847,21 +3850,21 @@
       <c r="B5" s="64"/>
       <c r="C5" s="64"/>
       <c r="D5" s="12" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="K5" s="2"/>
     </row>
@@ -3870,25 +3873,25 @@
       <c r="B6" s="64"/>
       <c r="C6" s="64"/>
       <c r="D6" s="12" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="I6" s="12"/>
       <c r="J6" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="34" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -3896,21 +3899,21 @@
       <c r="B7" s="64"/>
       <c r="C7" s="64"/>
       <c r="D7" s="12" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="12" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="K7" s="2"/>
     </row>
@@ -3919,25 +3922,25 @@
       <c r="B8" s="64"/>
       <c r="C8" s="64"/>
       <c r="D8" s="12" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="I8" s="12"/>
       <c r="J8" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="34" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -3945,25 +3948,25 @@
       <c r="B9" s="64"/>
       <c r="C9" s="64"/>
       <c r="D9" s="12" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="35" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -3971,25 +3974,25 @@
       <c r="B10" s="64"/>
       <c r="C10" s="64"/>
       <c r="D10" s="12" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="34" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -3997,25 +4000,25 @@
       <c r="B11" s="64"/>
       <c r="C11" s="64"/>
       <c r="D11" s="12" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="34" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -4023,117 +4026,117 @@
       <c r="B12" s="64"/>
       <c r="C12" s="65"/>
       <c r="D12" s="12" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="I12" s="12"/>
       <c r="J12" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="34" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="64"/>
       <c r="B13" s="64"/>
       <c r="C13" s="12" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="64"/>
       <c r="B14" s="64"/>
-      <c r="C14" s="67" t="s">
-        <v>316</v>
+      <c r="C14" s="75" t="s">
+        <v>304</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="3" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="K14" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="64"/>
       <c r="B15" s="64"/>
-      <c r="C15" s="68"/>
+      <c r="C15" s="65"/>
       <c r="D15" s="3" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="3" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K15" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="64"/>
       <c r="B16" s="64"/>
       <c r="C16" s="15" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>5</v>
@@ -4142,7 +4145,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="I16" s="12"/>
       <c r="J16" s="2" t="s">
@@ -4150,239 +4153,241 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="33" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="70" t="s">
-        <v>497</v>
-      </c>
-      <c r="B17" s="70" t="s">
-        <v>497</v>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="69" t="s">
+        <v>485</v>
+      </c>
+      <c r="B17" s="69" t="s">
+        <v>485</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="69"/>
-      <c r="B18" s="69"/>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="70"/>
+      <c r="B18" s="70"/>
       <c r="C18" s="60" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="69"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="69"/>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="70"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="70"/>
       <c r="D19" s="12" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="69"/>
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="69"/>
-      <c r="B21" s="69"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="69"/>
-      <c r="B22" s="69"/>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="70"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="76" t="s">
+        <v>288</v>
+      </c>
+      <c r="E20" s="76" t="s">
+        <v>287</v>
+      </c>
+      <c r="F20" s="76" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76" t="s">
+        <v>127</v>
+      </c>
+      <c r="K20" s="76"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="70"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="76" t="s">
+        <v>286</v>
+      </c>
+      <c r="E21" s="76" t="s">
+        <v>285</v>
+      </c>
+      <c r="F21" s="76" t="s">
+        <v>103</v>
+      </c>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76" t="s">
+        <v>127</v>
+      </c>
+      <c r="K21" s="76"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="70"/>
+      <c r="B22" s="70"/>
       <c r="C22" s="53"/>
-      <c r="D22" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A23" s="69"/>
-      <c r="B23" s="69"/>
-      <c r="C23" s="70" t="s">
-        <v>293</v>
+      <c r="D22" s="76" t="s">
+        <v>283</v>
+      </c>
+      <c r="E22" s="76" t="s">
+        <v>282</v>
+      </c>
+      <c r="F22" s="76" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="76" t="s">
+        <v>127</v>
+      </c>
+      <c r="K22" s="76"/>
+    </row>
+    <row r="23" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+      <c r="A23" s="70"/>
+      <c r="B23" s="70"/>
+      <c r="C23" s="69" t="s">
+        <v>281</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="69"/>
-      <c r="B24" s="69"/>
-      <c r="C24" s="69"/>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="70"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="70"/>
       <c r="D24" s="12" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
-        <v>289</v>
+        <v>1</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H24" s="2"/>
+      <c r="H24" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A25" s="53"/>
       <c r="B25" s="53"/>
       <c r="C25" s="53"/>
       <c r="D25" s="5" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="55" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="B26" s="55" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>28</v>
@@ -4391,7 +4396,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2" t="s">
@@ -4399,14 +4404,14 @@
       </c>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="54"/>
       <c r="B27" s="54"/>
       <c r="C27" s="54" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -4416,7 +4421,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2" t="s">
@@ -4424,12 +4429,12 @@
       </c>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="54"/>
       <c r="B28" s="54"/>
       <c r="C28" s="54"/>
       <c r="D28" s="12" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
@@ -4439,7 +4444,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2" t="s">
@@ -4447,109 +4452,114 @@
       </c>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="54"/>
       <c r="B29" s="54"/>
       <c r="C29" s="54"/>
-      <c r="D29" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2" t="s">
+      <c r="D29" s="76" t="s">
+        <v>288</v>
+      </c>
+      <c r="E29" s="76" t="s">
+        <v>287</v>
+      </c>
+      <c r="F29" s="76" t="s">
+        <v>103</v>
+      </c>
+      <c r="G29" s="76"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="K29" s="2"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K29" s="76"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="54"/>
       <c r="B30" s="54"/>
       <c r="C30" s="54"/>
-      <c r="D30" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2" t="s">
+      <c r="D30" s="76" t="s">
+        <v>286</v>
+      </c>
+      <c r="E30" s="76" t="s">
+        <v>285</v>
+      </c>
+      <c r="F30" s="76" t="s">
+        <v>103</v>
+      </c>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="76"/>
+      <c r="J30" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="K30" s="2"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K30" s="76"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="54"/>
       <c r="B31" s="54"/>
       <c r="C31" s="54"/>
-      <c r="D31" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2" t="s">
+      <c r="D31" s="76" t="s">
+        <v>283</v>
+      </c>
+      <c r="E31" s="76" t="s">
+        <v>282</v>
+      </c>
+      <c r="F31" s="76" t="s">
+        <v>103</v>
+      </c>
+      <c r="G31" s="76"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="76"/>
+      <c r="J31" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="K31" s="2"/>
-    </row>
-    <row r="32" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="K31" s="76"/>
+    </row>
+    <row r="32" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A32" s="54"/>
       <c r="B32" s="54"/>
       <c r="C32" s="55" t="s">
-        <v>293</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G32" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D32" s="76" t="s">
+        <v>105</v>
+      </c>
+      <c r="E32" s="77" t="s">
+        <v>474</v>
+      </c>
+      <c r="F32" s="76" t="s">
+        <v>103</v>
+      </c>
+      <c r="G32" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="76"/>
+      <c r="I32" s="76"/>
+      <c r="J32" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="H32" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K32" s="2"/>
+      <c r="K32" s="76"/>
+      <c r="L32" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="54"/>
       <c r="B33" s="54"/>
       <c r="C33" s="54"/>
       <c r="D33" s="12" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2" t="s">
         <v>0</v>
@@ -4578,98 +4588,100 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C21" sqref="A21:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.125" customWidth="1"/>
+    <col min="5" max="5" width="64.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" customWidth="1"/>
+    <col min="7" max="8" width="20.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="12" max="12" width="51.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>146</v>
-      </c>
       <c r="K2" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="53" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="B3" s="56" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="C3" s="56" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="53"/>
       <c r="B4" s="56"/>
       <c r="C4" s="56"/>
       <c r="D4" s="6" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>1</v>
@@ -4678,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="2" t="s">
@@ -4686,128 +4698,128 @@
       </c>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="53"/>
       <c r="B5" s="56"/>
       <c r="C5" s="56"/>
       <c r="D5" s="2" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="53"/>
       <c r="B6" s="56"/>
       <c r="C6" s="56"/>
       <c r="D6" s="2" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="53"/>
       <c r="B7" s="56"/>
       <c r="C7" s="56"/>
       <c r="D7" s="2" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="2" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="54"/>
       <c r="B8" s="55"/>
       <c r="C8" s="55"/>
       <c r="D8" s="2" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="60" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="B9" s="60" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="C9" s="60" t="s">
-        <v>470</v>
-      </c>
-      <c r="D9" s="74" t="s">
-        <v>487</v>
+        <v>458</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>475</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="74" t="s">
+      <c r="F9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
@@ -4815,24 +4827,24 @@
       </c>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="53"/>
       <c r="B10" s="53"/>
       <c r="C10" s="53"/>
-      <c r="D10" s="74" t="s">
-        <v>117</v>
-      </c>
-      <c r="E10" s="74" t="s">
-        <v>490</v>
-      </c>
-      <c r="F10" s="74" t="s">
+      <c r="D10" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
@@ -4840,30 +4852,30 @@
       </c>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="60" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="B11" s="60" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="C11" s="60" t="s">
-        <v>493</v>
-      </c>
-      <c r="D11" s="74" t="s">
-        <v>494</v>
+        <v>481</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>482</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="F11" s="74" t="s">
+        <v>483</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2" t="s">
@@ -4871,22 +4883,22 @@
       </c>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="69"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="74" t="s">
-        <v>487</v>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="70"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="2" t="s">
+        <v>475</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="74" t="s">
+      <c r="F12" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2" t="s">
@@ -4894,24 +4906,24 @@
       </c>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="53"/>
       <c r="B13" s="53"/>
       <c r="C13" s="53"/>
-      <c r="D13" s="74" t="s">
-        <v>117</v>
-      </c>
-      <c r="E13" s="74" t="s">
-        <v>496</v>
-      </c>
-      <c r="F13" s="74" t="s">
+      <c r="D13" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2" t="s">
@@ -4919,8 +4931,201 @@
       </c>
       <c r="K13" s="2"/>
     </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="71" t="s">
+        <v>488</v>
+      </c>
+      <c r="B14" s="71" t="s">
+        <v>488</v>
+      </c>
+      <c r="C14" s="64" t="s">
+        <v>291</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I14" s="12"/>
+      <c r="J14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="34" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="64"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I15" s="12"/>
+      <c r="J15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="34" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="64"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I16" s="12"/>
+      <c r="J16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="L16" s="34" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="64"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I17" s="12"/>
+      <c r="J17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="64"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="67" t="s">
+        <v>304</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="64"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="64"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I20" s="12"/>
+      <c r="J20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2"/>
+      <c r="L20" s="33" t="s">
+        <v>296</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="13">
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
@@ -4930,6 +5135,10 @@
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="B14:B20"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C18:C19"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4941,7 +5150,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="G4" sqref="E4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4960,239 +5169,243 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="I1" s="28" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="J1" s="27" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="K1" s="27" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="71" t="s">
-        <v>370</v>
+      <c r="A2" s="72" t="s">
+        <v>358</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C2" s="54" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I2" s="29"/>
       <c r="J2" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="K2" s="29"/>
     </row>
     <row r="3" spans="1:11" s="36" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="72"/>
-      <c r="B3" s="69"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="70"/>
       <c r="C3" s="54"/>
       <c r="D3" s="19" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I3" s="37"/>
       <c r="J3" s="2" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="K3" s="37"/>
     </row>
     <row r="4" spans="1:11" s="36" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="72"/>
-      <c r="B4" s="69"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="70"/>
       <c r="C4" s="54"/>
       <c r="D4" s="2" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="G4" s="38"/>
       <c r="H4" s="38"/>
       <c r="I4" s="37"/>
-      <c r="J4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="K4" s="37"/>
     </row>
     <row r="5" spans="1:11" s="36" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="72"/>
-      <c r="B5" s="69"/>
+      <c r="A5" s="73"/>
+      <c r="B5" s="70"/>
       <c r="C5" s="62" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="I5" s="37"/>
       <c r="J5" s="2" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="K5" s="37"/>
     </row>
     <row r="6" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="72"/>
-      <c r="B6" s="69"/>
+      <c r="A6" s="73"/>
+      <c r="B6" s="70"/>
       <c r="C6" s="62"/>
       <c r="D6" s="31" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I6" s="29"/>
       <c r="J6" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="K6" s="29"/>
     </row>
     <row r="7" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="72"/>
-      <c r="B7" s="69"/>
+      <c r="A7" s="73"/>
+      <c r="B7" s="70"/>
       <c r="C7" s="60" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I7" s="29"/>
       <c r="J7" s="2" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="K7" s="29"/>
     </row>
     <row r="8" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="72"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
+      <c r="A8" s="73"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
       <c r="D8" s="2" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I8" s="29"/>
       <c r="J8" s="2" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="K8" s="29"/>
     </row>
     <row r="9" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="72"/>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
+      <c r="A9" s="73"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
       <c r="D9" s="2" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
+      <c r="J9" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="K9" s="29"/>
     </row>
     <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -5200,22 +5413,24 @@
       <c r="B10" s="53"/>
       <c r="C10" s="53"/>
       <c r="D10" s="2" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="H10" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="I10" s="29"/>
+      <c r="J10" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
       <c r="K10" s="29"/>
     </row>
   </sheetData>
@@ -5253,67 +5468,67 @@
   <sheetData>
     <row r="1" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="47" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="C1" s="45" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D1" s="45" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E1" s="45" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F1" s="45" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="G1" s="46" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="H1" s="46" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="I1" s="46" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="J1" s="45" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="K1" s="44" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="62" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="C2" s="54" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I2" s="29"/>
       <c r="J2" s="2" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="K2" s="29"/>
     </row>
@@ -5322,23 +5537,23 @@
       <c r="B3" s="54"/>
       <c r="C3" s="54"/>
       <c r="D3" s="2" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I3" s="29"/>
       <c r="J3" s="2" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="K3" s="29"/>
     </row>
@@ -5347,23 +5562,23 @@
       <c r="B4" s="54"/>
       <c r="C4" s="54"/>
       <c r="D4" s="54" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I4" s="29"/>
       <c r="J4" s="2" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="K4" s="29"/>
     </row>
@@ -5373,20 +5588,20 @@
       <c r="C5" s="54"/>
       <c r="D5" s="54"/>
       <c r="E5" s="13" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I5" s="29"/>
       <c r="J5" s="2" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="K5" s="29"/>
     </row>
@@ -5394,26 +5609,26 @@
       <c r="A6" s="62"/>
       <c r="B6" s="54"/>
       <c r="C6" s="54" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="I6" s="29"/>
       <c r="J6" s="2" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="K6" s="29"/>
     </row>
@@ -5422,23 +5637,23 @@
       <c r="B7" s="54"/>
       <c r="C7" s="54"/>
       <c r="D7" s="42" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="F7" s="41" t="s">
         <v>28</v>
       </c>
       <c r="G7" s="40" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="H7" s="40" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="I7" s="29"/>
       <c r="J7" s="2" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="K7" s="29"/>
     </row>
@@ -5446,26 +5661,26 @@
       <c r="A8" s="62"/>
       <c r="B8" s="54"/>
       <c r="C8" s="2" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="F8" s="41" t="s">
         <v>28</v>
       </c>
       <c r="G8" s="40" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="H8" s="40" t="s">
         <v>27</v>
       </c>
       <c r="I8" s="29"/>
       <c r="J8" s="2" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="K8" s="29"/>
     </row>
@@ -5503,142 +5718,142 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="61" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="C2" s="59" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I2" s="49"/>
       <c r="J2" s="6" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="K2" s="49"/>
     </row>
     <row r="3" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="62"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
       <c r="D3" s="5" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I3" s="29"/>
       <c r="J3" s="2" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="K3" s="29"/>
     </row>
     <row r="4" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="62"/>
-      <c r="B4" s="69"/>
+      <c r="B4" s="70"/>
       <c r="C4" s="53"/>
       <c r="D4" s="5" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="G4" s="48" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="H4" s="48"/>
       <c r="I4" s="29"/>
       <c r="J4" s="2" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="K4" s="29"/>
     </row>
     <row r="5" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="62"/>
-      <c r="B5" s="69"/>
+      <c r="B5" s="70"/>
       <c r="C5" s="2" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="I5" s="29"/>
       <c r="J5" s="2" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="K5" s="29"/>
     </row>
@@ -5646,22 +5861,22 @@
       <c r="A6" s="62"/>
       <c r="B6" s="53"/>
       <c r="C6" s="2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
       <c r="I6" s="29"/>
       <c r="J6" s="2" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="K6" s="29"/>
     </row>
@@ -5696,179 +5911,179 @@
   <sheetData>
     <row r="1" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="65" t="s">
-        <v>426</v>
-      </c>
-      <c r="B2" s="69" t="s">
-        <v>418</v>
+        <v>414</v>
+      </c>
+      <c r="B2" s="70" t="s">
+        <v>406</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="G2" s="52" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="H2" s="52" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="I2" s="26"/>
       <c r="J2" s="15" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="K2" s="15"/>
     </row>
     <row r="3" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="73"/>
-      <c r="B3" s="69"/>
+      <c r="A3" s="74"/>
+      <c r="B3" s="70"/>
       <c r="C3" s="2" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="G3" s="40" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="H3" s="40" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I3" s="29"/>
       <c r="J3" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="K3" s="29"/>
     </row>
     <row r="4" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="73"/>
+      <c r="A4" s="74"/>
       <c r="B4" s="53"/>
       <c r="C4" s="2" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="G4" s="40" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="H4" s="40" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="I4" s="29"/>
       <c r="J4" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="K4" s="29"/>
     </row>
     <row r="5" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A5" s="73"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="2" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="D5" s="51" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="E5" s="51" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="F5" s="50" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="G5" s="40" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="H5" s="40" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I5" s="29"/>
       <c r="J5" s="2" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="K5" s="29"/>
     </row>
     <row r="6" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="73"/>
+      <c r="A6" s="74"/>
       <c r="B6" s="2" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="G6" s="40" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="H6" s="40" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="I6" s="29"/>
       <c r="J6" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="K6" s="29"/>
     </row>
@@ -5903,51 +6118,51 @@
     <row r="1" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="53" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="C3" s="53" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="I3" s="6"/>
     </row>
@@ -5956,15 +6171,15 @@
       <c r="B4" s="54"/>
       <c r="C4" s="54"/>
       <c r="D4" s="2" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="I4" s="2"/>
     </row>
@@ -5973,15 +6188,15 @@
       <c r="B5" s="54"/>
       <c r="C5" s="54"/>
       <c r="D5" s="2" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="I5" s="2"/>
     </row>
@@ -5990,15 +6205,15 @@
       <c r="B6" s="54"/>
       <c r="C6" s="54"/>
       <c r="D6" s="2" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="I6" s="2"/>
     </row>
@@ -6006,18 +6221,18 @@
       <c r="A7" s="54"/>
       <c r="B7" s="54"/>
       <c r="C7" s="54" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="I7" s="2"/>
     </row>
@@ -6026,13 +6241,13 @@
       <c r="B8" s="54"/>
       <c r="C8" s="54"/>
       <c r="D8" s="2" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -6041,15 +6256,15 @@
       <c r="B9" s="54"/>
       <c r="C9" s="54"/>
       <c r="D9" s="2" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="I9" s="2"/>
     </row>
@@ -6057,16 +6272,16 @@
       <c r="A10" s="54"/>
       <c r="B10" s="54"/>
       <c r="C10" s="54" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="I10" s="2"/>
     </row>
@@ -6075,15 +6290,15 @@
       <c r="B11" s="54"/>
       <c r="C11" s="54"/>
       <c r="D11" s="2" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="I11" s="2"/>
     </row>
@@ -6091,16 +6306,16 @@
       <c r="A12" s="54"/>
       <c r="B12" s="54"/>
       <c r="C12" s="54" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="I12" s="2"/>
     </row>
@@ -6109,13 +6324,13 @@
       <c r="B13" s="54"/>
       <c r="C13" s="54"/>
       <c r="D13" s="2" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="I13" s="2"/>
     </row>
@@ -6124,15 +6339,15 @@
       <c r="B14" s="54"/>
       <c r="C14" s="54"/>
       <c r="D14" s="2" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="I14" s="2"/>
     </row>
@@ -6141,15 +6356,15 @@
       <c r="B15" s="54"/>
       <c r="C15" s="54"/>
       <c r="D15" s="2" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="I15" s="2"/>
     </row>
@@ -6158,15 +6373,15 @@
       <c r="B16" s="54"/>
       <c r="C16" s="54"/>
       <c r="D16" s="2" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="I16" s="2"/>
     </row>
@@ -6175,15 +6390,15 @@
       <c r="B17" s="54"/>
       <c r="C17" s="54"/>
       <c r="D17" s="2" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="I17" s="2"/>
     </row>
@@ -6192,15 +6407,15 @@
       <c r="B18" s="54"/>
       <c r="C18" s="54"/>
       <c r="D18" s="2" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="I18" s="2"/>
     </row>
@@ -6209,15 +6424,15 @@
       <c r="B19" s="54"/>
       <c r="C19" s="54"/>
       <c r="D19" s="2" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="I19" s="2"/>
     </row>
@@ -6255,51 +6470,51 @@
     <row r="1" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="53" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="C3" s="53" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="I3" s="6"/>
     </row>
@@ -6308,13 +6523,13 @@
       <c r="B4" s="54"/>
       <c r="C4" s="54"/>
       <c r="D4" s="2" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="I4" s="2"/>
     </row>
@@ -6323,13 +6538,13 @@
       <c r="B5" s="54"/>
       <c r="C5" s="54"/>
       <c r="D5" s="2" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="I5" s="2"/>
     </row>
@@ -6338,13 +6553,13 @@
       <c r="B6" s="54"/>
       <c r="C6" s="54"/>
       <c r="D6" s="2" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="I6" s="2"/>
     </row>
@@ -6353,13 +6568,13 @@
       <c r="B7" s="54"/>
       <c r="C7" s="54"/>
       <c r="D7" s="2" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="I7" s="2"/>
     </row>
@@ -6368,15 +6583,15 @@
       <c r="B8" s="54"/>
       <c r="C8" s="54"/>
       <c r="D8" s="2" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -6384,18 +6599,18 @@
       <c r="A9" s="54"/>
       <c r="B9" s="54"/>
       <c r="C9" s="54" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="I9" s="2"/>
     </row>
@@ -6404,13 +6619,13 @@
       <c r="B10" s="54"/>
       <c r="C10" s="54"/>
       <c r="D10" s="2" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="I10" s="2"/>
     </row>
@@ -6418,18 +6633,18 @@
       <c r="A11" s="54"/>
       <c r="B11" s="54"/>
       <c r="C11" s="54" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="I11" s="2"/>
     </row>
@@ -6438,13 +6653,13 @@
       <c r="B12" s="54"/>
       <c r="C12" s="54"/>
       <c r="D12" s="2" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="I12" s="2"/>
     </row>
@@ -6452,16 +6667,16 @@
       <c r="A13" s="54"/>
       <c r="B13" s="54"/>
       <c r="C13" s="2" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="I13" s="2"/>
     </row>
@@ -6683,10 +6898,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6697,486 +6912,520 @@
     <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="49" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.625" customWidth="1"/>
+    <col min="9" max="9" width="10.625" customWidth="1"/>
+    <col min="12" max="12" width="31.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>222</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="53" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C3" s="53" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>180</v>
+      </c>
       <c r="H3" s="6"/>
-      <c r="I3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I3" s="6"/>
+      <c r="J3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="54"/>
       <c r="B4" s="54"/>
       <c r="C4" s="54"/>
       <c r="D4" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="H4" s="2"/>
-      <c r="I4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="54"/>
       <c r="B5" s="54"/>
       <c r="C5" s="54"/>
       <c r="D5" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="54"/>
       <c r="B6" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="54"/>
       <c r="B7" s="54" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="54"/>
       <c r="B8" s="54"/>
       <c r="C8" s="54"/>
       <c r="D8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="54"/>
       <c r="B9" s="54"/>
       <c r="C9" s="54"/>
       <c r="D9" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="54"/>
       <c r="B10" s="54"/>
       <c r="C10" s="54"/>
       <c r="D10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="54"/>
       <c r="B11" s="54"/>
       <c r="C11" s="54"/>
       <c r="D11" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="54"/>
       <c r="B12" s="54"/>
       <c r="C12" s="54"/>
       <c r="D12" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2" t="s">
+      <c r="G12" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="54"/>
       <c r="B13" s="54"/>
       <c r="C13" s="54"/>
       <c r="D13" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="54"/>
       <c r="B14" s="54"/>
       <c r="C14" s="54"/>
       <c r="D14" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H14" s="12"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="54"/>
       <c r="B15" s="54"/>
       <c r="C15" s="54"/>
       <c r="D15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="54"/>
       <c r="B16" s="54"/>
       <c r="C16" s="54"/>
       <c r="D16" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H16" s="12"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
+      <c r="B17" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="D17" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H17" s="12"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2" t="s">
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="54"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="54"/>
-      <c r="B18" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K18" s="2"/>
+      <c r="L18" s="78" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="54"/>
       <c r="B19" s="54"/>
-      <c r="C19" s="54" t="s">
-        <v>41</v>
-      </c>
+      <c r="C19" s="54"/>
       <c r="D19" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H19" s="12"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="54"/>
       <c r="B20" s="54"/>
       <c r="C20" s="54"/>
       <c r="D20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H20" s="12"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A21" s="54"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
+      <c r="B21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="D21" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="F21" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2" t="s">
+      <c r="G21" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H21" s="12"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="54"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="1:10" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A23" s="54"/>
-      <c r="B23" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J23" s="2"/>
+      <c r="K21" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J23" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A2:K21" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="7">
-    <mergeCell ref="A3:A23"/>
-    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="A3:A21"/>
+    <mergeCell ref="C18:C20"/>
     <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C7:C17"/>
+    <mergeCell ref="C7:C16"/>
     <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B7:B17"/>
-    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B7:B16"/>
+    <mergeCell ref="B17:B20"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7207,57 +7456,57 @@
     <row r="1" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="56" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B3" s="56" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C3" s="53" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J3" s="6"/>
     </row>
@@ -7270,12 +7519,12 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J4" s="2"/>
     </row>
@@ -7284,16 +7533,16 @@
       <c r="B5" s="54"/>
       <c r="C5" s="54"/>
       <c r="D5" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J5" s="2"/>
     </row>
@@ -7302,13 +7551,13 @@
       <c r="B6" s="54"/>
       <c r="C6" s="54"/>
       <c r="D6" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -7322,13 +7571,13 @@
       <c r="B7" s="54"/>
       <c r="C7" s="54"/>
       <c r="D7" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="2"/>
@@ -7341,16 +7590,16 @@
       <c r="A8" s="54"/>
       <c r="B8" s="54"/>
       <c r="C8" s="54" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -7364,18 +7613,18 @@
       <c r="B9" s="54"/>
       <c r="C9" s="54"/>
       <c r="D9" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J9" s="2"/>
     </row>
@@ -7383,21 +7632,21 @@
       <c r="A10" s="54"/>
       <c r="B10" s="54"/>
       <c r="C10" s="54" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J10" s="2"/>
     </row>
@@ -7406,16 +7655,16 @@
       <c r="B11" s="54"/>
       <c r="C11" s="54"/>
       <c r="D11" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J11" s="2"/>
     </row>
@@ -7424,18 +7673,18 @@
       <c r="B12" s="54"/>
       <c r="C12" s="54"/>
       <c r="D12" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J12" s="2"/>
     </row>
@@ -7443,21 +7692,21 @@
       <c r="A13" s="54"/>
       <c r="B13" s="54"/>
       <c r="C13" s="55" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J13" s="2"/>
     </row>
@@ -7466,18 +7715,18 @@
       <c r="B14" s="54"/>
       <c r="C14" s="55"/>
       <c r="D14" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J14" s="2"/>
     </row>
@@ -7486,11 +7735,11 @@
       <c r="B15" s="54"/>
       <c r="C15" s="55"/>
       <c r="D15" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -7504,13 +7753,13 @@
       <c r="B16" s="54"/>
       <c r="C16" s="55"/>
       <c r="D16" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -7523,13 +7772,13 @@
       <c r="A17" s="54"/>
       <c r="B17" s="54"/>
       <c r="C17" s="54" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>28</v>
@@ -7546,7 +7795,7 @@
       <c r="B18" s="54"/>
       <c r="C18" s="54"/>
       <c r="D18" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="4" t="s">
@@ -7564,10 +7813,10 @@
       <c r="B19" s="54"/>
       <c r="C19" s="54"/>
       <c r="D19" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>28</v>
@@ -7575,7 +7824,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="J19" s="2"/>
     </row>
@@ -7584,10 +7833,10 @@
       <c r="B20" s="54"/>
       <c r="C20" s="54"/>
       <c r="D20" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>28</v>
@@ -7595,7 +7844,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J20" s="2"/>
     </row>
@@ -7635,59 +7884,59 @@
     <row r="1" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="J3" s="6"/>
     </row>
@@ -7721,59 +7970,59 @@
     <row r="1" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>146</v>
-      </c>
       <c r="J2" s="7" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="J3" s="6"/>
     </row>
@@ -7806,59 +8055,59 @@
   <sheetData>
     <row r="1" spans="1:10" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="57" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C2" s="59" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="J2" s="6"/>
     </row>
@@ -7867,42 +8116,42 @@
       <c r="B3" s="54"/>
       <c r="C3" s="53"/>
       <c r="D3" s="2" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="58"/>
       <c r="B4" s="54" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C4" s="60" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="J4" s="2"/>
     </row>
@@ -7911,42 +8160,42 @@
       <c r="B5" s="54"/>
       <c r="C5" s="53"/>
       <c r="D5" s="2" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="58"/>
       <c r="B6" s="54" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="J6" s="2"/>
     </row>
@@ -7954,21 +8203,21 @@
       <c r="A7" s="58"/>
       <c r="B7" s="54"/>
       <c r="C7" s="60" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="J7" s="2"/>
     </row>
@@ -7977,18 +8226,18 @@
       <c r="B8" s="54"/>
       <c r="C8" s="53"/>
       <c r="D8" s="2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="J8" s="2"/>
     </row>
@@ -8041,63 +8290,63 @@
   <sheetData>
     <row r="1" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="I1" s="27" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="J1" s="27" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2" s="61" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="B2" s="61" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="J2" s="6"/>
     </row>
@@ -8105,21 +8354,21 @@
       <c r="A3" s="62"/>
       <c r="B3" s="62"/>
       <c r="C3" s="2" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="G3" s="17"/>
       <c r="H3" s="16"/>
       <c r="I3" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="J3" s="2"/>
     </row>
@@ -8127,21 +8376,21 @@
       <c r="A4" s="62"/>
       <c r="B4" s="62"/>
       <c r="C4" s="22" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="16"/>
       <c r="I4" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="J4" s="2"/>
     </row>
@@ -8149,19 +8398,19 @@
       <c r="A5" s="62"/>
       <c r="B5" s="62"/>
       <c r="C5" s="22" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="H5" s="16"/>
       <c r="I5" s="2"/>
@@ -8171,23 +8420,23 @@
       <c r="A6" s="62"/>
       <c r="B6" s="62"/>
       <c r="C6" s="2" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="16" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="J6" s="2"/>
     </row>
@@ -8223,65 +8472,65 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="I1" s="28" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J1" s="27" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="K1" s="27" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="62" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B2" s="62" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="H2" s="32"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="K2" s="29"/>
     </row>
@@ -8289,24 +8538,24 @@
       <c r="A3" s="62"/>
       <c r="B3" s="62"/>
       <c r="C3" s="5" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="H3" s="16"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="K3" s="29"/>
     </row>
@@ -8314,26 +8563,26 @@
       <c r="A4" s="62"/>
       <c r="B4" s="62"/>
       <c r="C4" s="5" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="H4" s="30" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="K4" s="29"/>
     </row>
@@ -8341,24 +8590,24 @@
       <c r="A5" s="62"/>
       <c r="B5" s="62"/>
       <c r="C5" s="5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="H5" s="30"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="K5" s="29"/>
     </row>
@@ -8366,23 +8615,23 @@
       <c r="A6" s="62"/>
       <c r="B6" s="62"/>
       <c r="C6" s="5" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="H6" s="16"/>
       <c r="I6" s="2" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="29"/>
@@ -8391,23 +8640,23 @@
       <c r="A7" s="62"/>
       <c r="B7" s="62"/>
       <c r="C7" s="5" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="H7" s="16"/>
       <c r="I7" s="2" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="29"/>
@@ -8415,29 +8664,29 @@
     <row r="8" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A8" s="62"/>
       <c r="B8" s="54" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="K8" s="29"/>
     </row>
@@ -8445,24 +8694,24 @@
       <c r="A9" s="62"/>
       <c r="B9" s="54"/>
       <c r="C9" s="5" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="K9" s="29"/>
     </row>
@@ -8470,26 +8719,26 @@
       <c r="A10" s="62"/>
       <c r="B10" s="54"/>
       <c r="C10" s="5" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="K10" s="29"/>
     </row>
@@ -8497,24 +8746,24 @@
       <c r="A11" s="62"/>
       <c r="B11" s="54"/>
       <c r="C11" s="5" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="H11" s="30"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="K11" s="29"/>
     </row>

--- a/기능명세서 최종본.xlsx
+++ b/기능명세서 최종본.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\유서영 취준\JAVA\Dynamic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B601FAE5-7060-4E5B-B50F-9D8076138620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE92A34A-3277-4F19-A238-8BAB3601A62A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22800" windowHeight="15600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="아이디 찾기" sheetId="2" r:id="rId2"/>
-    <sheet name="회원가입" sheetId="3" r:id="rId3"/>
-    <sheet name="프로필 수정 및 관리" sheetId="4" r:id="rId4"/>
-    <sheet name="포인트 조회" sheetId="5" r:id="rId5"/>
-    <sheet name="구매내역" sheetId="6" r:id="rId6"/>
-    <sheet name="나의 강의,구독권" sheetId="7" r:id="rId7"/>
-    <sheet name="장바구니" sheetId="8" r:id="rId8"/>
-    <sheet name="제품" sheetId="9" r:id="rId9"/>
-    <sheet name="마이페이지" sheetId="10" r:id="rId10"/>
+    <sheet name="프로필 수정 및 관리" sheetId="4" r:id="rId3"/>
+    <sheet name="포인트 조회" sheetId="5" r:id="rId4"/>
+    <sheet name="구매내역" sheetId="6" r:id="rId5"/>
+    <sheet name="나의 강의,구독권" sheetId="7" r:id="rId6"/>
+    <sheet name="장바구니" sheetId="8" r:id="rId7"/>
+    <sheet name="제품" sheetId="9" r:id="rId8"/>
+    <sheet name="마이페이지" sheetId="10" r:id="rId9"/>
+    <sheet name="회원가입" sheetId="3" r:id="rId10"/>
     <sheet name="메인" sheetId="11" r:id="rId11"/>
     <sheet name="급여명세서 사용" sheetId="12" r:id="rId12"/>
     <sheet name="직원 정보 조회" sheetId="13" r:id="rId13"/>
@@ -36,7 +36,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">메인!$A$2:$K$21</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'아이디 찾기'!$A$2:$J$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">회원가입!$A$2:$K$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">회원가입!$A$2:$K$21</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="495">
   <si>
     <t>서영</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1326,10 +1326,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>=&gt; 0000-00-00 형식으로 제한하기</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>계산 종료일 입력</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1346,10 +1342,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>숫자로 제한하기</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>시급 입력</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1362,19 +1354,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>=&gt;010-0000-0000 형식으로 제한하기</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>전화번호 입력</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>직위 입력</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>=&gt; 0000-00-00 형식으로 제한하기</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -2092,10 +2076,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>id가 자꾸 null이래</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>동의 / 비동의 중 선택(동의 시에만 회원가입 가능)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2117,6 +2097,22 @@
   </si>
   <si>
     <t>선택 가능한 업종 선택 혹은 직접 입력</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>=&gt; 0000-00-00 형식으로 제한하기(ㅇ)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>=&gt;010-0000-0000 형식으로 제한하기(ㅇ)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자로 제한하기(ㅇ)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>=&gt; 시급 : 숫자로 제한(ㅇ)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2437,7 +2433,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2552,9 +2548,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2563,12 +2556,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2582,20 +2569,20 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2639,10 +2626,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2651,8 +2635,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2663,16 +2650,40 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2969,198 +2980,535 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:J8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="A9:J14"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="8" max="9" width="10.875" customWidth="1"/>
+    <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.625" customWidth="1"/>
+    <col min="12" max="12" width="31.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>121</v>
+        <v>75</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="B3" s="53" t="s">
-        <v>240</v>
-      </c>
-      <c r="C3" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>195</v>
+        <v>222</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="H3" s="6"/>
-      <c r="I3" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="2" t="s">
-        <v>236</v>
+        <v>64</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>235</v>
+        <v>63</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>195</v>
+        <v>45</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>234</v>
+        <v>180</v>
       </c>
       <c r="H4" s="2"/>
-      <c r="I4" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
       <c r="D5" s="2" t="s">
-        <v>233</v>
+        <v>62</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
+        <v>61</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="51"/>
+      <c r="B6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="D6" s="2" t="s">
-        <v>231</v>
+        <v>57</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="F6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="51"/>
+      <c r="B7" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="51"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="51"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="51"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="51"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="51"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="J8" s="2"/>
+      <c r="G13" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="51"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H14" s="12"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="51"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="51"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H16" s="12"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="51"/>
+      <c r="B17" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H17" s="12"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="51"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="L18" s="49" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="51"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H19" s="12"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="51"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H20" s="12"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A21" s="51"/>
+      <c r="B21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H21" s="12"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="A3:A8"/>
+  <autoFilter ref="A2:K21" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <mergeCells count="7">
+    <mergeCell ref="A3:A21"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C7:C16"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B7:B16"/>
+    <mergeCell ref="B17:B20"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3226,13 +3574,13 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="50" t="s">
         <v>273</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="50" t="s">
         <v>272</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="50" t="s">
         <v>271</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -3255,9 +3603,9 @@
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="2" t="s">
         <v>46</v>
       </c>
@@ -3278,9 +3626,9 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
       <c r="D5" s="2" t="s">
         <v>270</v>
       </c>
@@ -3301,11 +3649,11 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54" t="s">
+      <c r="A6" s="51"/>
+      <c r="B6" s="51" t="s">
         <v>269</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="51" t="s">
         <v>268</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -3330,9 +3678,9 @@
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="2" t="s">
         <v>43</v>
       </c>
@@ -3355,15 +3703,15 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54" t="s">
-        <v>468</v>
+      <c r="A8" s="51"/>
+      <c r="B8" s="51" t="s">
+        <v>464</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>240</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
@@ -3382,16 +3730,16 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
-      <c r="B9" s="54"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="2" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>1</v>
@@ -3409,11 +3757,11 @@
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54" t="s">
+      <c r="A10" s="51"/>
+      <c r="B10" s="51" t="s">
         <v>264</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="51" t="s">
         <v>59</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -3438,9 +3786,9 @@
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="54"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
       <c r="D11" s="2" t="s">
         <v>261</v>
       </c>
@@ -3463,9 +3811,9 @@
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
       <c r="D12" s="2" t="s">
         <v>259</v>
       </c>
@@ -3488,9 +3836,9 @@
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
       <c r="D13" s="2" t="s">
         <v>257</v>
       </c>
@@ -3513,10 +3861,10 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="60" t="s">
+      <c r="A14" s="51"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="57" t="s">
         <v>255</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -3538,12 +3886,12 @@
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="54"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="53"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="50"/>
       <c r="E15" s="5" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>28</v>
@@ -3561,9 +3909,9 @@
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="54"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
       <c r="D16" s="2" t="s">
         <v>248</v>
       </c>
@@ -3586,11 +3934,11 @@
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54" t="s">
+      <c r="A17" s="51"/>
+      <c r="B17" s="51" t="s">
         <v>253</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="51" t="s">
         <v>253</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -3615,9 +3963,9 @@
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="54"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="2" t="s">
         <v>250</v>
       </c>
@@ -3640,9 +3988,9 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="54"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
       <c r="D19" s="2" t="s">
         <v>248</v>
       </c>
@@ -3665,9 +4013,9 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="54"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
       <c r="D20" s="2" t="s">
         <v>246</v>
       </c>
@@ -3688,9 +4036,9 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="54"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="2" t="s">
         <v>244</v>
       </c>
@@ -3738,8 +4086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3775,7 +4123,7 @@
         <v>74</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>111</v>
@@ -3791,14 +4139,14 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="66" t="s">
-        <v>322</v>
-      </c>
-      <c r="B3" s="66" t="s">
-        <v>322</v>
-      </c>
-      <c r="C3" s="63" t="s">
-        <v>321</v>
+      <c r="A3" s="63" t="s">
+        <v>318</v>
+      </c>
+      <c r="B3" s="63" t="s">
+        <v>318</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>317</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>52</v>
@@ -3811,7 +4159,7 @@
         <v>127</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="2" t="s">
@@ -3820,11 +4168,11 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
       <c r="D4" s="12" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12" t="s">
@@ -3834,7 +4182,7 @@
         <v>127</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="2" t="s">
@@ -3842,15 +4190,15 @@
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="34" t="s">
-        <v>319</v>
+        <v>491</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="64"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
       <c r="D5" s="12" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12" t="s">
@@ -3869,11 +4217,11 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="64"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
       <c r="D6" s="12" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12" t="s">
@@ -3883,7 +4231,7 @@
         <v>37</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I6" s="12"/>
       <c r="J6" s="2" t="s">
@@ -3891,15 +4239,15 @@
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="34" t="s">
-        <v>316</v>
+        <v>492</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="64"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
       <c r="D7" s="12" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="12" t="s">
@@ -3909,7 +4257,7 @@
         <v>127</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="2" t="s">
@@ -3918,11 +4266,11 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="64"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
       <c r="D8" s="12" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12" t="s">
@@ -3932,7 +4280,7 @@
         <v>127</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I8" s="12"/>
       <c r="J8" s="2" t="s">
@@ -3940,15 +4288,15 @@
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="34" t="s">
-        <v>307</v>
+        <v>491</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="64"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
       <c r="D9" s="12" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12" t="s">
@@ -3966,15 +4314,15 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="35" t="s">
-        <v>312</v>
+        <v>493</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="64"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
       <c r="D10" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12" t="s">
@@ -3992,15 +4340,15 @@
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="34" t="s">
-        <v>307</v>
+        <v>491</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="64"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
       <c r="D11" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12" t="s">
@@ -4010,7 +4358,7 @@
         <v>127</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="2" t="s">
@@ -4018,15 +4366,15 @@
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="34" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="61"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="12" t="s">
         <v>307</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="64"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="12" t="s">
-        <v>308</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12" t="s">
@@ -4044,12 +4392,12 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="34" t="s">
-        <v>307</v>
+        <v>491</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="64"/>
-      <c r="B13" s="64"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="61"/>
       <c r="C13" s="12" t="s">
         <v>306</v>
       </c>
@@ -4075,9 +4423,9 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="64"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="75" t="s">
+      <c r="A14" s="61"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="64" t="s">
         <v>304</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -4102,9 +4450,9 @@
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="64"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="65"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="62"/>
       <c r="D15" s="3" t="s">
         <v>302</v>
       </c>
@@ -4127,8 +4475,8 @@
       <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="64"/>
-      <c r="B16" s="64"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="61"/>
       <c r="C16" s="15" t="s">
         <v>299</v>
       </c>
@@ -4153,15 +4501,15 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="33" t="s">
-        <v>296</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="69" t="s">
-        <v>485</v>
-      </c>
-      <c r="B17" s="69" t="s">
-        <v>485</v>
+      <c r="A17" s="65" t="s">
+        <v>481</v>
+      </c>
+      <c r="B17" s="65" t="s">
+        <v>481</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>295</v>
@@ -4188,9 +4536,9 @@
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="70"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="60" t="s">
+      <c r="A18" s="66"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="57" t="s">
         <v>291</v>
       </c>
       <c r="D18" s="12" t="s">
@@ -4213,9 +4561,9 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="70"/>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
+      <c r="A19" s="66"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
       <c r="D19" s="12" t="s">
         <v>289</v>
       </c>
@@ -4236,79 +4584,87 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="70"/>
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="76" t="s">
+      <c r="A20" s="66"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="E20" s="76" t="s">
+      <c r="E20" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="F20" s="76" t="s">
+      <c r="F20" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="76" t="s">
+      <c r="G20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="K20" s="76"/>
+      <c r="K20" s="12"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="70"/>
-      <c r="B21" s="70"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="76" t="s">
+      <c r="A21" s="66"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="48" t="s">
         <v>286</v>
       </c>
-      <c r="E21" s="76" t="s">
+      <c r="E21" s="48" t="s">
         <v>285</v>
       </c>
-      <c r="F21" s="76" t="s">
+      <c r="F21" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="G21" s="76"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="76" t="s">
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="K21" s="76"/>
+      <c r="K21" s="48"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="70"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="76" t="s">
+      <c r="A22" s="66"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="E22" s="76" t="s">
+      <c r="E22" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="F22" s="76" t="s">
+      <c r="F22" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="76"/>
-      <c r="J22" s="76" t="s">
+      <c r="G22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="K22" s="76"/>
+      <c r="K22" s="12"/>
     </row>
     <row r="23" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A23" s="70"/>
-      <c r="B23" s="70"/>
-      <c r="C23" s="69" t="s">
+      <c r="A23" s="66"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="65" t="s">
         <v>281</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>280</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>277</v>
@@ -4326,9 +4682,9 @@
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="70"/>
-      <c r="B24" s="70"/>
-      <c r="C24" s="70"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
       <c r="D24" s="12" t="s">
         <v>279</v>
       </c>
@@ -4349,14 +4705,14 @@
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="53"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
       <c r="D25" s="5" t="s">
         <v>278</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>277</v>
@@ -4374,11 +4730,11 @@
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="55" t="s">
-        <v>486</v>
-      </c>
-      <c r="B26" s="55" t="s">
-        <v>486</v>
+      <c r="A26" s="52" t="s">
+        <v>482</v>
+      </c>
+      <c r="B26" s="52" t="s">
+        <v>482</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>295</v>
@@ -4405,9 +4761,9 @@
       <c r="K26" s="2"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="54"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54" t="s">
+      <c r="A27" s="51"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="51" t="s">
         <v>291</v>
       </c>
       <c r="D27" s="12" t="s">
@@ -4430,9 +4786,9 @@
       <c r="K27" s="2"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="54"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
+      <c r="A28" s="51"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
       <c r="D28" s="12" t="s">
         <v>289</v>
       </c>
@@ -4453,100 +4809,110 @@
       <c r="K28" s="2"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="54"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="76" t="s">
+      <c r="A29" s="51"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="E29" s="76" t="s">
+      <c r="E29" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="F29" s="76" t="s">
+      <c r="F29" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G29" s="76"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="76"/>
-      <c r="J29" s="76" t="s">
+      <c r="G29" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K29" s="76"/>
+      <c r="H29" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K29" s="12"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="54"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="76" t="s">
+      <c r="A30" s="51"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="48" t="s">
         <v>286</v>
       </c>
-      <c r="E30" s="76" t="s">
+      <c r="E30" s="48" t="s">
         <v>285</v>
       </c>
-      <c r="F30" s="76" t="s">
+      <c r="F30" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="76" t="s">
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="K30" s="76"/>
+      <c r="K30" s="48"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="54"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="76" t="s">
+      <c r="A31" s="51"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="E31" s="76" t="s">
+      <c r="E31" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="F31" s="76" t="s">
+      <c r="F31" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G31" s="76"/>
-      <c r="H31" s="76"/>
-      <c r="I31" s="76"/>
-      <c r="J31" s="76" t="s">
+      <c r="G31" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K31" s="76"/>
+      <c r="H31" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K31" s="12"/>
     </row>
     <row r="32" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A32" s="54"/>
-      <c r="B32" s="54"/>
-      <c r="C32" s="55" t="s">
+      <c r="A32" s="51"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="52" t="s">
         <v>281</v>
       </c>
-      <c r="D32" s="76" t="s">
+      <c r="D32" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="E32" s="77" t="s">
-        <v>474</v>
-      </c>
-      <c r="F32" s="76" t="s">
+      <c r="E32" s="13" t="s">
+        <v>470</v>
+      </c>
+      <c r="F32" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G32" s="76" t="s">
+      <c r="G32" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K32" s="12"/>
+      <c r="L32" t="s">
         <v>8</v>
       </c>
-      <c r="H32" s="76"/>
-      <c r="I32" s="76"/>
-      <c r="J32" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="K32" s="76"/>
-      <c r="L32" t="s">
-        <v>489</v>
-      </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="54"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="51"/>
       <c r="D33" s="12" t="s">
         <v>107</v>
       </c>
@@ -4590,8 +4956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C21" sqref="A21:XFD29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4643,20 +5009,20 @@
       </c>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
-        <v>334</v>
-      </c>
-      <c r="B3" s="56" t="s">
-        <v>334</v>
-      </c>
-      <c r="C3" s="56" t="s">
-        <v>333</v>
+      <c r="A3" s="50" t="s">
+        <v>330</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>330</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>329</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>195</v>
@@ -4674,9 +5040,9 @@
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="53"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="6" t="s">
         <v>130</v>
       </c>
@@ -4699,14 +5065,14 @@
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="53"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
       <c r="D5" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>103</v>
@@ -4724,14 +5090,14 @@
       <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="53"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
+      <c r="A6" s="50"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
       <c r="D6" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>171</v>
@@ -4749,14 +5115,14 @@
       <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="53"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
       <c r="D7" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>103</v>
@@ -4774,14 +5140,14 @@
       <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="54"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
       <c r="D8" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>128</v>
@@ -4799,17 +5165,17 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="60" t="s">
-        <v>479</v>
-      </c>
-      <c r="B9" s="60" t="s">
-        <v>458</v>
-      </c>
-      <c r="C9" s="60" t="s">
-        <v>458</v>
+      <c r="A9" s="57" t="s">
+        <v>475</v>
+      </c>
+      <c r="B9" s="57" t="s">
+        <v>454</v>
+      </c>
+      <c r="C9" s="57" t="s">
+        <v>454</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
@@ -4826,16 +5192,19 @@
         <v>0</v>
       </c>
       <c r="K9" s="2"/>
+      <c r="L9" s="82" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="53"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
       <c r="D10" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>28</v>
@@ -4853,20 +5222,20 @@
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="60" t="s">
-        <v>480</v>
-      </c>
-      <c r="B11" s="60" t="s">
-        <v>481</v>
-      </c>
-      <c r="C11" s="60" t="s">
-        <v>481</v>
+      <c r="A11" s="57" t="s">
+        <v>476</v>
+      </c>
+      <c r="B11" s="57" t="s">
+        <v>477</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>477</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>28</v>
@@ -4884,11 +5253,11 @@
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="70"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
+      <c r="A12" s="66"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
       <c r="D12" s="2" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
@@ -4905,16 +5274,19 @@
         <v>0</v>
       </c>
       <c r="K12" s="2"/>
+      <c r="L12" s="82" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="53"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
       <c r="D13" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>28</v>
@@ -4932,17 +5304,17 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="71" t="s">
-        <v>488</v>
-      </c>
-      <c r="B14" s="71" t="s">
-        <v>488</v>
-      </c>
-      <c r="C14" s="64" t="s">
+      <c r="A14" s="81" t="s">
+        <v>484</v>
+      </c>
+      <c r="B14" s="81" t="s">
+        <v>484</v>
+      </c>
+      <c r="C14" s="61" t="s">
         <v>291</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12" t="s">
@@ -4959,16 +5331,16 @@
         <v>0</v>
       </c>
       <c r="K14" s="2"/>
-      <c r="L14" s="34" t="s">
-        <v>307</v>
+      <c r="L14" s="83" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="64"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
+      <c r="A15" s="71"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="61"/>
       <c r="D15" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12" t="s">
@@ -4985,16 +5357,16 @@
         <v>0</v>
       </c>
       <c r="K15" s="2"/>
-      <c r="L15" s="34" t="s">
+      <c r="L15" s="83" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="71"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="12" t="s">
         <v>307</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="64"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="12" t="s">
-        <v>308</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12" t="s">
@@ -5011,13 +5383,13 @@
         <v>0</v>
       </c>
       <c r="K16" s="2"/>
-      <c r="L16" s="34" t="s">
-        <v>307</v>
+      <c r="L16" s="83" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="64"/>
-      <c r="B17" s="64"/>
+      <c r="A17" s="71"/>
+      <c r="B17" s="71"/>
       <c r="C17" s="12" t="s">
         <v>306</v>
       </c>
@@ -5043,8 +5415,8 @@
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="64"/>
-      <c r="B18" s="64"/>
+      <c r="A18" s="71"/>
+      <c r="B18" s="71"/>
       <c r="C18" s="67" t="s">
         <v>304</v>
       </c>
@@ -5070,8 +5442,8 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="64"/>
-      <c r="B19" s="64"/>
+      <c r="A19" s="71"/>
+      <c r="B19" s="71"/>
       <c r="C19" s="68"/>
       <c r="D19" s="3" t="s">
         <v>302</v>
@@ -5095,8 +5467,8 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="64"/>
-      <c r="B20" s="64"/>
+      <c r="A20" s="71"/>
+      <c r="B20" s="71"/>
       <c r="C20" s="15" t="s">
         <v>299</v>
       </c>
@@ -5126,6 +5498,10 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="B14:B20"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C18:C19"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
@@ -5135,10 +5511,6 @@
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A14:A20"/>
-    <mergeCell ref="B14:B20"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C18:C19"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5150,7 +5522,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="E4:G4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5203,20 +5575,20 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="72" t="s">
-        <v>358</v>
-      </c>
-      <c r="B2" s="60" t="s">
-        <v>357</v>
-      </c>
-      <c r="C2" s="54" t="s">
-        <v>356</v>
+      <c r="A2" s="69" t="s">
+        <v>354</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>353</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>352</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>45</v>
@@ -5234,16 +5606,16 @@
       <c r="K2" s="29"/>
     </row>
     <row r="3" spans="1:11" s="36" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="73"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="54"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="19" t="s">
-        <v>353</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>352</v>
-      </c>
-      <c r="F3" s="39" t="s">
+        <v>349</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>348</v>
+      </c>
+      <c r="F3" s="38" t="s">
         <v>195</v>
       </c>
       <c r="G3" s="19" t="s">
@@ -5259,37 +5631,37 @@
       <c r="K3" s="37"/>
     </row>
     <row r="4" spans="1:11" s="36" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="73"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="A4" s="70"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="2" t="s">
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="K4" s="37"/>
+      <c r="K4" s="79"/>
     </row>
     <row r="5" spans="1:11" s="36" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="73"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="62" t="s">
-        <v>349</v>
+      <c r="A5" s="70"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="59" t="s">
+        <v>345</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>45</v>
@@ -5307,14 +5679,14 @@
       <c r="K5" s="37"/>
     </row>
     <row r="6" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="73"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="62"/>
+      <c r="A6" s="70"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="59"/>
       <c r="D6" s="31" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>195</v>
@@ -5332,16 +5704,16 @@
       <c r="K6" s="29"/>
     </row>
     <row r="7" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="73"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="60" t="s">
-        <v>344</v>
+      <c r="A7" s="70"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="57" t="s">
+        <v>340</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>45</v>
@@ -5359,14 +5731,14 @@
       <c r="K7" s="29"/>
     </row>
     <row r="8" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="73"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
       <c r="D8" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>195</v>
@@ -5384,17 +5756,17 @@
       <c r="K8" s="29"/>
     </row>
     <row r="9" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="73"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
+      <c r="A9" s="70"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
       <c r="D9" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>225</v>
@@ -5409,14 +5781,14 @@
       <c r="K9" s="29"/>
     </row>
     <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="61"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
       <c r="D10" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>60</v>
@@ -5452,7 +5824,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5467,55 +5839,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
-        <v>381</v>
-      </c>
-      <c r="B1" s="45" t="s">
-        <v>380</v>
-      </c>
-      <c r="C1" s="45" t="s">
+      <c r="A1" s="44" t="s">
+        <v>377</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>376</v>
+      </c>
+      <c r="C1" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="43" t="s">
         <v>222</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="J1" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="41" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62" t="s">
-        <v>379</v>
-      </c>
-      <c r="B2" s="54" t="s">
-        <v>379</v>
-      </c>
-      <c r="C2" s="54" t="s">
-        <v>378</v>
+      <c r="A2" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>375</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>374</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>45</v>
@@ -5533,20 +5905,20 @@
       <c r="K2" s="29"/>
     </row>
     <row r="3" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="62"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>45</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>37</v>
@@ -5558,20 +5930,20 @@
       <c r="K3" s="29"/>
     </row>
     <row r="4" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="62"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54" t="s">
-        <v>373</v>
+      <c r="A4" s="59"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51" t="s">
+        <v>369</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>45</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>37</v>
@@ -5583,18 +5955,18 @@
       <c r="K4" s="29"/>
     </row>
     <row r="5" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="62"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
       <c r="E5" s="13" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>45</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>37</v>
@@ -5606,16 +5978,16 @@
       <c r="K5" s="29"/>
     </row>
     <row r="6" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="62"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54" t="s">
-        <v>370</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>369</v>
-      </c>
-      <c r="E6" s="42" t="s">
-        <v>368</v>
+      <c r="A6" s="59"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51" t="s">
+        <v>366</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>365</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>364</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>33</v>
@@ -5633,54 +6005,54 @@
       <c r="K6" s="29"/>
     </row>
     <row r="7" spans="1:11" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="62"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="42" t="s">
-        <v>367</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>366</v>
-      </c>
-      <c r="F7" s="41" t="s">
+      <c r="A7" s="59"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="40" t="s">
+        <v>363</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>362</v>
+      </c>
+      <c r="F7" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="40" t="s">
-        <v>365</v>
-      </c>
-      <c r="H7" s="40" t="s">
-        <v>364</v>
+      <c r="G7" s="39" t="s">
+        <v>361</v>
+      </c>
+      <c r="H7" s="39" t="s">
+        <v>360</v>
       </c>
       <c r="I7" s="29"/>
       <c r="J7" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="K7" s="29"/>
+    </row>
+    <row r="8" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="59"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="K7" s="29"/>
-    </row>
-    <row r="8" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="62"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="D8" s="43" t="s">
-        <v>362</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>361</v>
-      </c>
-      <c r="F8" s="41" t="s">
+      <c r="D8" s="77" t="s">
+        <v>358</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="F8" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="40" t="s">
-        <v>360</v>
-      </c>
-      <c r="H8" s="40" t="s">
+      <c r="G8" s="39" t="s">
+        <v>356</v>
+      </c>
+      <c r="H8" s="39" t="s">
         <v>27</v>
       </c>
       <c r="I8" s="29"/>
       <c r="J8" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="K8" s="29"/>
     </row>
@@ -5702,7 +6074,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5752,20 +6124,20 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="61" t="s">
-        <v>396</v>
-      </c>
-      <c r="B2" s="59" t="s">
-        <v>396</v>
-      </c>
-      <c r="C2" s="59" t="s">
-        <v>395</v>
+      <c r="A2" s="58" t="s">
+        <v>392</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>392</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>391</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F2" s="26" t="s">
         <v>195</v>
@@ -5776,21 +6148,21 @@
       <c r="H2" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="49"/>
+      <c r="I2" s="45"/>
       <c r="J2" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="K2" s="49"/>
+      <c r="K2" s="45"/>
     </row>
     <row r="3" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="62"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
       <c r="D3" s="5" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>195</v>
@@ -5808,39 +6180,39 @@
       <c r="K3" s="29"/>
     </row>
     <row r="4" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="62"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="F4" s="12" t="s">
+      <c r="A4" s="59"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="28" t="s">
+        <v>386</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>385</v>
+      </c>
+      <c r="F4" s="27" t="s">
         <v>297</v>
       </c>
-      <c r="G4" s="48" t="s">
+      <c r="G4" s="72" t="s">
         <v>166</v>
       </c>
-      <c r="H4" s="48"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="2" t="s">
+      <c r="H4" s="72"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="K4" s="29"/>
+      <c r="K4" s="73"/>
     </row>
     <row r="5" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="62"/>
-      <c r="B5" s="70"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="66"/>
       <c r="C5" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>369</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>387</v>
+        <v>384</v>
+      </c>
+      <c r="D5" s="75" t="s">
+        <v>365</v>
+      </c>
+      <c r="E5" s="75" t="s">
+        <v>383</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>225</v>
@@ -5849,36 +6221,36 @@
         <v>225</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="I5" s="29"/>
       <c r="J5" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="K5" s="29"/>
+    </row>
+    <row r="6" spans="1:11" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="59"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="K5" s="29"/>
-    </row>
-    <row r="6" spans="1:11" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="62"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>385</v>
-      </c>
-      <c r="E6" s="42" t="s">
-        <v>384</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>383</v>
-      </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="K6" s="29"/>
+      <c r="D6" s="76" t="s">
+        <v>381</v>
+      </c>
+      <c r="E6" s="76" t="s">
+        <v>380</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>379</v>
+      </c>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="K6" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5896,7 +6268,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="D5" sqref="D5:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5911,13 +6283,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>125</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>123</v>
@@ -5932,7 +6304,7 @@
         <v>120</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>119</v>
@@ -5945,28 +6317,28 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="65" t="s">
-        <v>414</v>
-      </c>
-      <c r="B2" s="70" t="s">
-        <v>406</v>
+      <c r="A2" s="62" t="s">
+        <v>410</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>402</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="G2" s="52" t="s">
-        <v>410</v>
-      </c>
-      <c r="H2" s="52" t="s">
+      <c r="G2" s="47" t="s">
+        <v>406</v>
+      </c>
+      <c r="H2" s="47" t="s">
         <v>127</v>
       </c>
       <c r="I2" s="26"/>
@@ -5976,24 +6348,24 @@
       <c r="K2" s="15"/>
     </row>
     <row r="3" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="74"/>
-      <c r="B3" s="70"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="66"/>
       <c r="C3" s="2" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="F3" s="40" t="s">
+        <v>403</v>
+      </c>
+      <c r="F3" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="H3" s="39" t="s">
         <v>37</v>
       </c>
       <c r="I3" s="29"/>
@@ -6003,24 +6375,24 @@
       <c r="K3" s="29"/>
     </row>
     <row r="4" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="74"/>
-      <c r="B4" s="53"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="50"/>
       <c r="C4" s="2" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="F4" s="39" t="s">
+        <v>400</v>
+      </c>
+      <c r="F4" s="38" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="H4" s="40" t="s">
+      <c r="H4" s="39" t="s">
         <v>127</v>
       </c>
       <c r="I4" s="29"/>
@@ -6030,55 +6402,55 @@
       <c r="K4" s="29"/>
     </row>
     <row r="5" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A5" s="74"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="2" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="D5" s="51" t="s">
-        <v>402</v>
-      </c>
-      <c r="E5" s="51" t="s">
-        <v>401</v>
-      </c>
-      <c r="F5" s="50" t="s">
+        <v>399</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>398</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>397</v>
+      </c>
+      <c r="F5" s="46" t="s">
         <v>195</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="H5" s="40" t="s">
+      <c r="H5" s="39" t="s">
         <v>37</v>
       </c>
       <c r="I5" s="29"/>
       <c r="J5" s="2" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="K5" s="29"/>
     </row>
     <row r="6" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="74"/>
+      <c r="A6" s="71"/>
       <c r="B6" s="2" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>398</v>
-      </c>
-      <c r="E6" s="42" t="s">
-        <v>397</v>
-      </c>
-      <c r="F6" s="41" t="s">
+        <v>395</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>394</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>393</v>
+      </c>
+      <c r="F6" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="H6" s="40" t="s">
+      <c r="H6" s="39" t="s">
         <v>127</v>
       </c>
       <c r="I6" s="29"/>
@@ -6146,17 +6518,17 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
-        <v>440</v>
-      </c>
-      <c r="B3" s="53" t="s">
-        <v>440</v>
-      </c>
-      <c r="C3" s="53" t="s">
-        <v>440</v>
+      <c r="A3" s="50" t="s">
+        <v>436</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>436</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>436</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -6167,14 +6539,14 @@
       <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="2" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -6184,14 +6556,14 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
       <c r="D5" s="2" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -6201,14 +6573,14 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
       <c r="D6" s="2" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -6218,30 +6590,30 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54" t="s">
-        <v>435</v>
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51" t="s">
+        <v>431</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
       <c r="D8" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -6252,14 +6624,14 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
       <c r="D9" s="2" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -6269,13 +6641,13 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54" t="s">
-        <v>430</v>
+      <c r="A10" s="51"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51" t="s">
+        <v>426</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -6286,14 +6658,14 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="54"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
       <c r="D11" s="2" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -6303,13 +6675,13 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54" t="s">
-        <v>427</v>
+      <c r="A12" s="51"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51" t="s">
+        <v>423</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -6320,11 +6692,11 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
       <c r="D13" s="2" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -6335,14 +6707,14 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
       <c r="D14" s="2" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -6352,14 +6724,14 @@
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="54"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
       <c r="D15" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -6369,14 +6741,14 @@
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="54"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
       <c r="D16" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -6386,14 +6758,14 @@
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
       <c r="D17" s="2" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -6403,14 +6775,14 @@
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="54"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -6420,14 +6792,14 @@
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="54"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
       <c r="D19" s="2" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -6470,123 +6842,123 @@
     <row r="1" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
-        <v>458</v>
-      </c>
-      <c r="B3" s="53" t="s">
-        <v>458</v>
-      </c>
-      <c r="C3" s="53" t="s">
-        <v>457</v>
+      <c r="A3" s="50" t="s">
+        <v>454</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>454</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>453</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="2" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
       <c r="D5" s="2" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
       <c r="D6" s="2" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="2" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
       <c r="D8" s="2" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -6596,87 +6968,87 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54" t="s">
-        <v>449</v>
+      <c r="A9" s="51"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51" t="s">
+        <v>445</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
       <c r="D10" s="2" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="51"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51" t="s">
+        <v>443</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>441</v>
-      </c>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="54"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54" t="s">
-        <v>447</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>445</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
       <c r="D12" s="2" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="2" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="I13" s="2"/>
     </row>
@@ -6697,7 +7069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
@@ -6743,13 +7115,13 @@
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="50" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -6767,9 +7139,9 @@
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
@@ -6787,9 +7159,9 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
       <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
@@ -6807,9 +7179,9 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
       <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
@@ -6827,9 +7199,9 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
@@ -6847,9 +7219,9 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
       <c r="D8" s="2" t="s">
         <v>4</v>
       </c>
@@ -6865,9 +7237,9 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
       <c r="D9" s="2" t="s">
         <v>3</v>
       </c>
@@ -6897,542 +7269,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.625" customWidth="1"/>
-    <col min="12" max="12" width="31.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" s="6"/>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="54"/>
-      <c r="B6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="54"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="54"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="54"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="H16" s="12"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="54"/>
-      <c r="B17" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="H17" s="12"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="54"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K18" s="2"/>
-      <c r="L18" s="78" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="54"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="H19" s="12"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="54"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="1:12" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A21" s="54"/>
-      <c r="B21" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="H21" s="12"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K21" s="2"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A2:K21" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
-  <mergeCells count="7">
-    <mergeCell ref="A3:A21"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C7:C16"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B7:B16"/>
-    <mergeCell ref="B17:B20"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J20"/>
   <sheetViews>
@@ -7487,13 +7323,13 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="50" t="s">
         <v>109</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -7511,9 +7347,9 @@
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
@@ -7529,9 +7365,9 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
       <c r="D5" s="2" t="s">
         <v>108</v>
       </c>
@@ -7547,9 +7383,9 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
       <c r="D6" s="2" t="s">
         <v>107</v>
       </c>
@@ -7567,9 +7403,9 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="2" t="s">
         <v>105</v>
       </c>
@@ -7587,9 +7423,9 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54" t="s">
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51" t="s">
         <v>102</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -7609,9 +7445,9 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
       <c r="D9" s="2" t="s">
         <v>99</v>
       </c>
@@ -7629,9 +7465,9 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54" t="s">
+      <c r="A10" s="51"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51" t="s">
         <v>97</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -7651,9 +7487,9 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="54"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
       <c r="D11" s="2" t="s">
         <v>93</v>
       </c>
@@ -7669,9 +7505,9 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
       <c r="D12" s="2" t="s">
         <v>90</v>
       </c>
@@ -7689,9 +7525,9 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="55" t="s">
+      <c r="A13" s="51"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="52" t="s">
         <v>95</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -7711,9 +7547,9 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="55"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="52"/>
       <c r="D14" s="2" t="s">
         <v>93</v>
       </c>
@@ -7731,9 +7567,9 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="54"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="55"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="52"/>
       <c r="D15" s="2" t="s">
         <v>91</v>
       </c>
@@ -7749,9 +7585,9 @@
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="54"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="55"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="2" t="s">
         <v>90</v>
       </c>
@@ -7769,9 +7605,9 @@
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54" t="s">
+      <c r="A17" s="51"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51" t="s">
         <v>89</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -7791,9 +7627,9 @@
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="54"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="2" t="s">
         <v>86</v>
       </c>
@@ -7809,9 +7645,9 @@
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="54"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
       <c r="D19" s="2" t="s">
         <v>85</v>
       </c>
@@ -7829,9 +7665,9 @@
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="54"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
       <c r="D20" s="2" t="s">
         <v>82</v>
       </c>
@@ -7863,7 +7699,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
@@ -7946,7 +7782,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
@@ -8032,7 +7868,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
@@ -8086,13 +7922,13 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="56" t="s">
         <v>162</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -8112,9 +7948,9 @@
       <c r="J2" s="6"/>
     </row>
     <row r="3" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="58"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="53"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="2" t="s">
         <v>157</v>
       </c>
@@ -8132,11 +7968,11 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="58"/>
-      <c r="B4" s="54" t="s">
+      <c r="A4" s="55"/>
+      <c r="B4" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="57" t="s">
         <v>154</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -8156,9 +7992,9 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="58"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="53"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="50"/>
       <c r="D5" s="2" t="s">
         <v>151</v>
       </c>
@@ -8176,8 +8012,8 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="58"/>
-      <c r="B6" s="54" t="s">
+      <c r="A6" s="55"/>
+      <c r="B6" s="51" t="s">
         <v>149</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -8200,9 +8036,9 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="58"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="60" t="s">
+      <c r="A7" s="55"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="57" t="s">
         <v>145</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -8222,9 +8058,9 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="58"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="53"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="50"/>
       <c r="D8" s="2" t="s">
         <v>142</v>
       </c>
@@ -8267,7 +8103,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J6"/>
   <sheetViews>
@@ -8321,10 +8157,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="58" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="58" t="s">
         <v>184</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -8351,8 +8187,8 @@
       <c r="J2" s="6"/>
     </row>
     <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="62"/>
-      <c r="B3" s="62"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
       <c r="C3" s="2" t="s">
         <v>179</v>
       </c>
@@ -8373,8 +8209,8 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="62"/>
-      <c r="B4" s="62"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="59"/>
       <c r="C4" s="22" t="s">
         <v>175</v>
       </c>
@@ -8395,8 +8231,8 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A5" s="62"/>
-      <c r="B5" s="62"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="59"/>
       <c r="C5" s="22" t="s">
         <v>173</v>
       </c>
@@ -8417,8 +8253,8 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="62"/>
-      <c r="B6" s="62"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="59"/>
       <c r="C6" s="2" t="s">
         <v>169</v>
       </c>
@@ -8450,12 +8286,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="G2:H10"/>
+      <selection activeCell="H4" sqref="H4:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8506,10 +8342,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="59" t="s">
         <v>163</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -8535,8 +8371,8 @@
       <c r="K2" s="29"/>
     </row>
     <row r="3" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="62"/>
-      <c r="B3" s="62"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
       <c r="C3" s="5" t="s">
         <v>217</v>
       </c>
@@ -8560,8 +8396,8 @@
       <c r="K3" s="29"/>
     </row>
     <row r="4" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="62"/>
-      <c r="B4" s="62"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="59"/>
       <c r="C4" s="5" t="s">
         <v>194</v>
       </c>
@@ -8577,7 +8413,7 @@
       <c r="G4" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="H4" s="30" t="s">
+      <c r="H4" s="80" t="s">
         <v>180</v>
       </c>
       <c r="I4" s="2"/>
@@ -8587,8 +8423,8 @@
       <c r="K4" s="29"/>
     </row>
     <row r="5" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A5" s="62"/>
-      <c r="B5" s="62"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="59"/>
       <c r="C5" s="5" t="s">
         <v>212</v>
       </c>
@@ -8604,7 +8440,7 @@
       <c r="G5" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="H5" s="30"/>
+      <c r="H5" s="80"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
         <v>139</v>
@@ -8612,8 +8448,8 @@
       <c r="K5" s="29"/>
     </row>
     <row r="6" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="62"/>
-      <c r="B6" s="62"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="59"/>
       <c r="C6" s="5" t="s">
         <v>210</v>
       </c>
@@ -8629,7 +8465,7 @@
       <c r="G6" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="H6" s="16"/>
+      <c r="H6" s="19"/>
       <c r="I6" s="2" t="s">
         <v>203</v>
       </c>
@@ -8637,8 +8473,8 @@
       <c r="K6" s="29"/>
     </row>
     <row r="7" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="62"/>
-      <c r="B7" s="62"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="59"/>
       <c r="C7" s="5" t="s">
         <v>207</v>
       </c>
@@ -8654,7 +8490,7 @@
       <c r="G7" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="H7" s="16"/>
+      <c r="H7" s="19"/>
       <c r="I7" s="2" t="s">
         <v>203</v>
       </c>
@@ -8662,8 +8498,8 @@
       <c r="K7" s="29"/>
     </row>
     <row r="8" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="62"/>
-      <c r="B8" s="54" t="s">
+      <c r="A8" s="59"/>
+      <c r="B8" s="51" t="s">
         <v>202</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -8681,7 +8517,7 @@
       <c r="G8" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="19" t="s">
         <v>166</v>
       </c>
       <c r="I8" s="2"/>
@@ -8691,8 +8527,8 @@
       <c r="K8" s="29"/>
     </row>
     <row r="9" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A9" s="62"/>
-      <c r="B9" s="54"/>
+      <c r="A9" s="59"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="5" t="s">
         <v>198</v>
       </c>
@@ -8708,7 +8544,7 @@
       <c r="G9" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="19"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
         <v>139</v>
@@ -8716,8 +8552,8 @@
       <c r="K9" s="29"/>
     </row>
     <row r="10" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="62"/>
-      <c r="B10" s="54"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="51"/>
       <c r="C10" s="5" t="s">
         <v>194</v>
       </c>
@@ -8733,7 +8569,7 @@
       <c r="G10" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="H10" s="30" t="s">
+      <c r="H10" s="80" t="s">
         <v>180</v>
       </c>
       <c r="I10" s="2"/>
@@ -8743,8 +8579,8 @@
       <c r="K10" s="29"/>
     </row>
     <row r="11" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A11" s="62"/>
-      <c r="B11" s="54"/>
+      <c r="A11" s="59"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="5" t="s">
         <v>190</v>
       </c>
@@ -8776,4 +8612,205 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="8" max="9" width="10.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A3" s="50" t="s">
+        <v>241</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>240</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J8" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="A3:A8"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/기능명세서 최종본.xlsx
+++ b/기능명세서 최종본.xlsx
@@ -8,35 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\유서영 취준\JAVA\Dynamic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE92A34A-3277-4F19-A238-8BAB3601A62A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B9D0B6-D929-4E9D-8D89-A399FB7C68CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="아이디 찾기" sheetId="2" r:id="rId2"/>
-    <sheet name="프로필 수정 및 관리" sheetId="4" r:id="rId3"/>
-    <sheet name="포인트 조회" sheetId="5" r:id="rId4"/>
-    <sheet name="구매내역" sheetId="6" r:id="rId5"/>
-    <sheet name="나의 강의,구독권" sheetId="7" r:id="rId6"/>
-    <sheet name="장바구니" sheetId="8" r:id="rId7"/>
-    <sheet name="제품" sheetId="9" r:id="rId8"/>
-    <sheet name="마이페이지" sheetId="10" r:id="rId9"/>
-    <sheet name="회원가입" sheetId="3" r:id="rId10"/>
-    <sheet name="메인" sheetId="11" r:id="rId11"/>
-    <sheet name="급여명세서 사용" sheetId="12" r:id="rId12"/>
-    <sheet name="직원 정보 조회" sheetId="13" r:id="rId13"/>
-    <sheet name="게시판" sheetId="14" r:id="rId14"/>
-    <sheet name="공지사항" sheetId="15" r:id="rId15"/>
-    <sheet name="서식자료실" sheetId="16" r:id="rId16"/>
-    <sheet name="가이드" sheetId="17" r:id="rId17"/>
-    <sheet name="ㅋㅋㅋㅋㅋ" sheetId="18" r:id="rId18"/>
-    <sheet name="ㅋㅋㅋㅋ" sheetId="19" r:id="rId19"/>
+    <sheet name="프로필 수정 및 관리" sheetId="4" r:id="rId1"/>
+    <sheet name="포인트 조회" sheetId="5" r:id="rId2"/>
+    <sheet name="구매내역" sheetId="6" r:id="rId3"/>
+    <sheet name="나의 강의,구독권" sheetId="7" r:id="rId4"/>
+    <sheet name="장바구니" sheetId="8" r:id="rId5"/>
+    <sheet name="제품" sheetId="9" r:id="rId6"/>
+    <sheet name="아이디 찾기" sheetId="2" r:id="rId7"/>
+    <sheet name="마이페이지" sheetId="10" r:id="rId8"/>
+    <sheet name="회원가입" sheetId="3" r:id="rId9"/>
+    <sheet name="메인" sheetId="11" r:id="rId10"/>
+    <sheet name="급여명세서 사용" sheetId="12" r:id="rId11"/>
+    <sheet name="직원 정보 조회" sheetId="13" r:id="rId12"/>
+    <sheet name="게시판" sheetId="14" r:id="rId13"/>
+    <sheet name="공지사항" sheetId="15" r:id="rId14"/>
+    <sheet name="서식자료실" sheetId="16" r:id="rId15"/>
+    <sheet name="가이드" sheetId="17" r:id="rId16"/>
+    <sheet name="ㅋㅋㅋㅋㅋ" sheetId="18" r:id="rId17"/>
+    <sheet name="ㅋㅋㅋㅋ" sheetId="19" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">메인!$A$2:$K$21</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'아이디 찾기'!$A$2:$J$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">회원가입!$A$2:$K$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">메인!$A$2:$K$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'아이디 찾기'!$A$2:$K$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">회원가입!$A$2:$K$21</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -48,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="497">
   <si>
     <t>서영</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -83,10 +82,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>인증완료 버튼</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -481,10 +476,6 @@
   </si>
   <si>
     <t>저장 버튼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성한 부분에 대한 전체 취소</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -2113,6 +2104,25 @@
   </si>
   <si>
     <t>=&gt; 시급 : 숫자로 제한(ㅇ)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증하기 버튼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>성공 시, 인증완료로 변함</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성한 부분에 대한 전체 취소 후 기존 데이터 
+다시 불러오기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인한 아이디의 정보 자동 조회
+아이디/ 성별은 수정 불가
+그 외 정보는 수정 가능</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2433,7 +2443,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2584,16 +2594,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2635,6 +2675,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2645,45 +2691,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2967,555 +2974,501 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:K21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="9" max="9" width="11.125" customWidth="1"/>
+    <col min="10" max="10" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="62"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="61"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="61"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A7" s="61"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="61"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="61"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A10" s="61"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="61"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="61"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="61"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="61"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="61"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="61"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="61"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="61"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="61"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="61"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="61"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K21" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A3:A21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="B3:B21"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.625" customWidth="1"/>
-    <col min="12" max="12" width="31.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" s="6"/>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="51"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="51"/>
-      <c r="B6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="51"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="51"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="51"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="51"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="51"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="51"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="51"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="51"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="51"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="H16" s="12"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="51"/>
-      <c r="B17" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="H17" s="12"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="51"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K18" s="2"/>
-      <c r="L18" s="49" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="51"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="H19" s="12"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="51"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="1:12" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A21" s="51"/>
-      <c r="B21" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="H21" s="12"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K21" s="2"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A2:K21" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
-  <mergeCells count="7">
-    <mergeCell ref="A3:A21"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C7:C16"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B7:B16"/>
-    <mergeCell ref="B17:B20"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:K28"/>
   <sheetViews>
@@ -3540,178 +3493,178 @@
     <row r="1" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
-        <v>273</v>
-      </c>
-      <c r="B3" s="50" t="s">
-        <v>272</v>
-      </c>
-      <c r="C3" s="50" t="s">
+      <c r="A3" s="60" t="s">
         <v>271</v>
       </c>
+      <c r="B3" s="60" t="s">
+        <v>270</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>269</v>
+      </c>
       <c r="D3" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
       <c r="D4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="51"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
       <c r="D5" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="51"/>
-      <c r="B6" s="51" t="s">
-        <v>269</v>
-      </c>
-      <c r="C6" s="51" t="s">
-        <v>268</v>
+      <c r="A6" s="61"/>
+      <c r="B6" s="61" t="s">
+        <v>267</v>
+      </c>
+      <c r="C6" s="61" t="s">
+        <v>266</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
       <c r="D7" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="51"/>
-      <c r="B8" s="51" t="s">
+      <c r="A8" s="61"/>
+      <c r="B8" s="61" t="s">
+        <v>462</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>464</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>466</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
@@ -3721,7 +3674,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
@@ -3730,16 +3683,16 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="51"/>
-      <c r="B9" s="51"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="61"/>
       <c r="C9" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>467</v>
-      </c>
       <c r="E9" s="5" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>1</v>
@@ -3748,7 +3701,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
@@ -3757,150 +3710,150 @@
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="51"/>
-      <c r="B10" s="51" t="s">
-        <v>264</v>
-      </c>
-      <c r="C10" s="51" t="s">
-        <v>59</v>
+      <c r="A10" s="61"/>
+      <c r="B10" s="61" t="s">
+        <v>262</v>
+      </c>
+      <c r="C10" s="61" t="s">
+        <v>58</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="51"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
       <c r="D11" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="51"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
       <c r="D12" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A13" s="51"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
       <c r="D13" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="51"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="57" t="s">
-        <v>255</v>
+      <c r="A14" s="61"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="67" t="s">
+        <v>253</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="51"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="50"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="60"/>
       <c r="E15" s="5" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2" t="s">
@@ -3909,152 +3862,152 @@
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="51"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
       <c r="D16" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="51"/>
-      <c r="B17" s="51" t="s">
-        <v>253</v>
-      </c>
-      <c r="C17" s="51" t="s">
-        <v>253</v>
+      <c r="A17" s="61"/>
+      <c r="B17" s="61" t="s">
+        <v>251</v>
+      </c>
+      <c r="C17" s="61" t="s">
+        <v>251</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="51"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
+      <c r="A18" s="61"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
       <c r="D18" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="51"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
+      <c r="A19" s="61"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
       <c r="D19" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="51"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
+      <c r="A20" s="61"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
       <c r="D20" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="61"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="51"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K21" s="2"/>
     </row>
@@ -4082,12 +4035,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4105,386 +4058,386 @@
     <row r="1" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="63" t="s">
-        <v>318</v>
-      </c>
-      <c r="B3" s="63" t="s">
-        <v>318</v>
-      </c>
-      <c r="C3" s="60" t="s">
-        <v>317</v>
+      <c r="A3" s="73" t="s">
+        <v>316</v>
+      </c>
+      <c r="B3" s="73" t="s">
+        <v>316</v>
+      </c>
+      <c r="C3" s="70" t="s">
+        <v>315</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="61"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
       <c r="D4" s="12" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="34" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="61"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
+      <c r="A5" s="71"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
       <c r="D5" s="12" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="61"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
+      <c r="A6" s="71"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
       <c r="D6" s="12" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I6" s="12"/>
       <c r="J6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="34" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="61"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
+      <c r="A7" s="71"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
       <c r="D7" s="12" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="61"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
       <c r="D8" s="12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I8" s="12"/>
       <c r="J8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="34" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="61"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
+      <c r="A9" s="71"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
       <c r="D9" s="12" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="35" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="61"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
+      <c r="A10" s="71"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
       <c r="D10" s="12" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="34" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="61"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
+      <c r="A11" s="71"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
       <c r="D11" s="12" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="34" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="61"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="62"/>
+      <c r="A12" s="71"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="72"/>
       <c r="D12" s="12" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I12" s="12"/>
       <c r="J12" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="34" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="61"/>
-      <c r="B13" s="61"/>
+      <c r="A13" s="71"/>
+      <c r="B13" s="71"/>
       <c r="C13" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="61"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="64" t="s">
-        <v>304</v>
+      <c r="A14" s="71"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="74" t="s">
+        <v>302</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I14" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="71"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="61"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="3" t="s">
-        <v>302</v>
-      </c>
       <c r="E15" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="61"/>
-      <c r="B16" s="61"/>
+      <c r="A16" s="71"/>
+      <c r="B16" s="71"/>
       <c r="C16" s="15" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>5</v>
@@ -4493,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I16" s="12"/>
       <c r="J16" s="2" t="s">
@@ -4505,188 +4458,188 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="65" t="s">
-        <v>481</v>
-      </c>
-      <c r="B17" s="65" t="s">
-        <v>481</v>
+      <c r="A17" s="75" t="s">
+        <v>479</v>
+      </c>
+      <c r="B17" s="75" t="s">
+        <v>479</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="66"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="57" t="s">
-        <v>291</v>
+      <c r="A18" s="76"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="67" t="s">
+        <v>289</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="66"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
+      <c r="A19" s="76"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="76"/>
       <c r="D19" s="12" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="66"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
+      <c r="A20" s="76"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="76"/>
       <c r="D20" s="12" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I20" s="12"/>
       <c r="J20" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K20" s="12"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="66"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
+      <c r="A21" s="76"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="76"/>
       <c r="D21" s="48" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E21" s="48" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F21" s="48" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G21" s="48"/>
       <c r="H21" s="48"/>
       <c r="I21" s="48"/>
       <c r="J21" s="48" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K21" s="48"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="66"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="50"/>
+      <c r="A22" s="76"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="60"/>
       <c r="D22" s="12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I22" s="12"/>
       <c r="J22" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K22" s="12"/>
     </row>
     <row r="23" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="65" t="s">
-        <v>281</v>
+      <c r="A23" s="76"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="75" t="s">
+        <v>279</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="66"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="66"/>
+      <c r="A24" s="76"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="76"/>
       <c r="D24" s="12" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
@@ -4696,63 +4649,63 @@
         <v>0</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="50"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
+      <c r="A25" s="60"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
       <c r="D25" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="52" t="s">
-        <v>482</v>
-      </c>
-      <c r="B26" s="52" t="s">
-        <v>482</v>
+      <c r="A26" s="63" t="s">
+        <v>480</v>
+      </c>
+      <c r="B26" s="63" t="s">
+        <v>480</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2" t="s">
@@ -4761,23 +4714,23 @@
       <c r="K26" s="2"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="51"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51" t="s">
-        <v>291</v>
+      <c r="A27" s="61"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="61" t="s">
+        <v>289</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2" t="s">
@@ -4786,21 +4739,21 @@
       <c r="K27" s="2"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="51"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
+      <c r="A28" s="61"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="61"/>
       <c r="D28" s="12" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2" t="s">
@@ -4809,23 +4762,23 @@
       <c r="K28" s="2"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="51"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
+      <c r="A29" s="61"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="61"/>
       <c r="D29" s="12" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I29" s="12"/>
       <c r="J29" s="12" t="s">
@@ -4834,17 +4787,17 @@
       <c r="K29" s="12"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="51"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
+      <c r="A30" s="61"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="61"/>
       <c r="D30" s="48" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E30" s="48" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F30" s="48" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G30" s="48"/>
       <c r="H30" s="48"/>
@@ -4855,23 +4808,23 @@
       <c r="K30" s="48"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="51"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
+      <c r="A31" s="61"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="61"/>
       <c r="D31" s="12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I31" s="12"/>
       <c r="J31" s="12" t="s">
@@ -4880,25 +4833,25 @@
       <c r="K31" s="12"/>
     </row>
     <row r="32" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A32" s="51"/>
-      <c r="B32" s="51"/>
-      <c r="C32" s="52" t="s">
-        <v>281</v>
+      <c r="A32" s="61"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="63" t="s">
+        <v>279</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G32" s="12" t="s">
         <v>0</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I32" s="12"/>
       <c r="J32" s="12" t="s">
@@ -4910,11 +4863,11 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="51"/>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
+      <c r="A33" s="61"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="61"/>
       <c r="D33" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
@@ -4924,7 +4877,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2" t="s">
@@ -4952,7 +4905,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:L20"/>
   <sheetViews>
@@ -4975,79 +4928,79 @@
     <row r="1" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
-        <v>330</v>
-      </c>
-      <c r="B3" s="53" t="s">
-        <v>330</v>
-      </c>
-      <c r="C3" s="53" t="s">
-        <v>329</v>
+      <c r="A3" s="60" t="s">
+        <v>328</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>328</v>
+      </c>
+      <c r="C3" s="62" t="s">
+        <v>327</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="60"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="K3" s="6"/>
-    </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="50"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>1</v>
@@ -5056,7 +5009,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="2" t="s">
@@ -5065,117 +5018,117 @@
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
       <c r="D5" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="50"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
       <c r="D6" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="50"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
+      <c r="A7" s="60"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
       <c r="D7" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="51"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
       <c r="D8" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="57" t="s">
-        <v>475</v>
-      </c>
-      <c r="B9" s="57" t="s">
-        <v>454</v>
-      </c>
-      <c r="C9" s="57" t="s">
-        <v>454</v>
+      <c r="A9" s="67" t="s">
+        <v>473</v>
+      </c>
+      <c r="B9" s="67" t="s">
+        <v>452</v>
+      </c>
+      <c r="C9" s="67" t="s">
+        <v>452</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
@@ -5185,35 +5138,35 @@
         <v>0</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="K9" s="2"/>
-      <c r="L9" s="82" t="s">
-        <v>494</v>
+      <c r="L9" s="49" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="50"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
+      <c r="A10" s="60"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
       <c r="D10" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
@@ -5222,29 +5175,29 @@
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="67" t="s">
+        <v>474</v>
+      </c>
+      <c r="B11" s="67" t="s">
+        <v>475</v>
+      </c>
+      <c r="C11" s="67" t="s">
+        <v>475</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="B11" s="57" t="s">
+      <c r="E11" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="C11" s="57" t="s">
-        <v>477</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>479</v>
-      </c>
       <c r="F11" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2" t="s">
@@ -5253,49 +5206,49 @@
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="66"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
+      <c r="A12" s="76"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="76"/>
       <c r="D12" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="K12" s="2"/>
-      <c r="L12" s="82" t="s">
-        <v>494</v>
+      <c r="L12" s="49" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="50"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
       <c r="D13" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2" t="s">
@@ -5304,17 +5257,17 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="81" t="s">
-        <v>484</v>
-      </c>
-      <c r="B14" s="81" t="s">
-        <v>484</v>
-      </c>
-      <c r="C14" s="61" t="s">
-        <v>291</v>
+      <c r="A14" s="77" t="s">
+        <v>482</v>
+      </c>
+      <c r="B14" s="77" t="s">
+        <v>482</v>
+      </c>
+      <c r="C14" s="71" t="s">
+        <v>289</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12" t="s">
@@ -5324,23 +5277,23 @@
         <v>0</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I14" s="12"/>
       <c r="J14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="K14" s="2"/>
-      <c r="L14" s="83" t="s">
-        <v>491</v>
+      <c r="L14" s="59" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="71"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="61"/>
+      <c r="A15" s="78"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="71"/>
       <c r="D15" s="12" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12" t="s">
@@ -5350,23 +5303,23 @@
         <v>0</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I15" s="12"/>
       <c r="J15" s="2" t="s">
         <v>0</v>
       </c>
       <c r="K15" s="2"/>
-      <c r="L15" s="83" t="s">
-        <v>491</v>
+      <c r="L15" s="59" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="71"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="62"/>
+      <c r="A16" s="78"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="72"/>
       <c r="D16" s="12" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12" t="s">
@@ -5376,37 +5329,37 @@
         <v>0</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I16" s="12"/>
       <c r="J16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="K16" s="2"/>
-      <c r="L16" s="83" t="s">
-        <v>491</v>
+      <c r="L16" s="59" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="71"/>
-      <c r="B17" s="71"/>
+      <c r="A17" s="78"/>
+      <c r="B17" s="78"/>
       <c r="C17" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>0</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I17" s="12"/>
       <c r="J17" s="2" t="s">
@@ -5415,26 +5368,26 @@
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="71"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="67" t="s">
-        <v>304</v>
+      <c r="A18" s="78"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="79" t="s">
+        <v>302</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>0</v>
@@ -5442,24 +5395,24 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="71"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="68"/>
+      <c r="A19" s="78"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="80"/>
       <c r="D19" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>0</v>
@@ -5467,25 +5420,25 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="71"/>
-      <c r="B20" s="71"/>
+      <c r="A20" s="78"/>
+      <c r="B20" s="78"/>
       <c r="C20" s="15" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I20" s="12"/>
       <c r="J20" s="2" t="s">
@@ -5493,11 +5446,17 @@
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="33" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A14:A20"/>
     <mergeCell ref="B14:B20"/>
     <mergeCell ref="C14:C16"/>
@@ -5505,19 +5464,13 @@
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
@@ -5541,267 +5494,267 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D1" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="81" t="s">
+        <v>352</v>
+      </c>
+      <c r="B2" s="67" t="s">
+        <v>351</v>
+      </c>
+      <c r="C2" s="61" t="s">
+        <v>350</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="E1" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="J1" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="K1" s="27" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69" t="s">
-        <v>354</v>
-      </c>
-      <c r="B2" s="57" t="s">
-        <v>353</v>
-      </c>
-      <c r="C2" s="51" t="s">
-        <v>352</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>225</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I2" s="29"/>
       <c r="J2" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K2" s="29"/>
     </row>
     <row r="3" spans="1:11" s="36" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="70"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="51"/>
+      <c r="A3" s="82"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="61"/>
       <c r="D3" s="19" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F3" s="38" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I3" s="37"/>
       <c r="J3" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K3" s="37"/>
     </row>
     <row r="4" spans="1:11" s="36" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="70"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="51"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="61"/>
       <c r="D4" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="79"/>
+        <v>295</v>
+      </c>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="57"/>
       <c r="J4" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="K4" s="79"/>
+        <v>137</v>
+      </c>
+      <c r="K4" s="57"/>
     </row>
     <row r="5" spans="1:11" s="36" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="70"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="59" t="s">
-        <v>345</v>
+      <c r="A5" s="82"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="69" t="s">
+        <v>343</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I5" s="37"/>
       <c r="J5" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K5" s="37"/>
     </row>
     <row r="6" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="70"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="59"/>
+      <c r="A6" s="82"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="69"/>
       <c r="D6" s="31" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I6" s="29"/>
       <c r="J6" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K6" s="29"/>
     </row>
     <row r="7" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="70"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="57" t="s">
-        <v>340</v>
+      <c r="A7" s="82"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="67" t="s">
+        <v>338</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I7" s="29"/>
       <c r="J7" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K7" s="29"/>
     </row>
     <row r="8" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="70"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
       <c r="D8" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I8" s="29"/>
       <c r="J8" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K8" s="29"/>
     </row>
     <row r="9" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="70"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
+      <c r="A9" s="82"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I9" s="29"/>
       <c r="J9" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K9" s="29"/>
     </row>
     <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="58"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
+      <c r="A10" s="68"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
       <c r="D10" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I10" s="29"/>
       <c r="J10" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K10" s="29"/>
     </row>
@@ -5819,7 +5772,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
@@ -5840,219 +5793,219 @@
   <sheetData>
     <row r="1" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="44" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B1" s="42" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D1" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E1" s="42" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F1" s="42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G1" s="43" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H1" s="43" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I1" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J1" s="42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K1" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="59" t="s">
-        <v>375</v>
-      </c>
-      <c r="B2" s="51" t="s">
-        <v>375</v>
-      </c>
-      <c r="C2" s="51" t="s">
-        <v>374</v>
+      <c r="A2" s="69" t="s">
+        <v>373</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>373</v>
+      </c>
+      <c r="C2" s="61" t="s">
+        <v>372</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I2" s="29"/>
       <c r="J2" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K2" s="29"/>
     </row>
     <row r="3" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="59"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
       <c r="D3" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I3" s="29"/>
       <c r="J3" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K3" s="29"/>
     </row>
     <row r="4" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="59"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51" t="s">
-        <v>369</v>
+      <c r="A4" s="69"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61" t="s">
+        <v>367</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I4" s="29"/>
       <c r="J4" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K4" s="29"/>
     </row>
     <row r="5" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="59"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
       <c r="E5" s="13" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I5" s="29"/>
       <c r="J5" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K5" s="29"/>
     </row>
     <row r="6" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="59"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51" t="s">
-        <v>366</v>
+      <c r="A6" s="69"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61" t="s">
+        <v>364</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I6" s="29"/>
       <c r="J6" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K6" s="29"/>
     </row>
     <row r="7" spans="1:11" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="59"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
+      <c r="A7" s="69"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
       <c r="D7" s="40" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F7" s="40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I7" s="29"/>
       <c r="J7" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="K7" s="29"/>
+    </row>
+    <row r="8" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="69"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D8" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="E8" s="40" t="s">
         <v>355</v>
       </c>
-      <c r="K7" s="29"/>
-    </row>
-    <row r="8" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="59"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="D8" s="77" t="s">
-        <v>358</v>
-      </c>
-      <c r="E8" s="40" t="s">
-        <v>357</v>
-      </c>
       <c r="F8" s="40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" s="39" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H8" s="39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I8" s="29"/>
       <c r="J8" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="K8" s="29"/>
     </row>
@@ -6069,7 +6022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
@@ -6090,167 +6043,167 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="68" t="s">
+        <v>390</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>390</v>
+      </c>
+      <c r="C2" s="66" t="s">
+        <v>389</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
-        <v>392</v>
-      </c>
-      <c r="B2" s="56" t="s">
-        <v>392</v>
-      </c>
-      <c r="C2" s="56" t="s">
-        <v>391</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>390</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>389</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>225</v>
-      </c>
       <c r="H2" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I2" s="45"/>
       <c r="J2" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K2" s="45"/>
     </row>
     <row r="3" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="59"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
       <c r="D3" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I3" s="29"/>
       <c r="J3" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K3" s="29"/>
     </row>
     <row r="4" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="59"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="50"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="60"/>
       <c r="D4" s="28" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>297</v>
-      </c>
-      <c r="G4" s="72" t="s">
-        <v>166</v>
-      </c>
-      <c r="H4" s="72"/>
-      <c r="I4" s="73"/>
+        <v>295</v>
+      </c>
+      <c r="G4" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="H4" s="50"/>
+      <c r="I4" s="51"/>
       <c r="J4" s="27" t="s">
-        <v>213</v>
-      </c>
-      <c r="K4" s="73"/>
+        <v>211</v>
+      </c>
+      <c r="K4" s="51"/>
     </row>
     <row r="5" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="59"/>
-      <c r="B5" s="66"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="76"/>
       <c r="C5" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D5" s="75" t="s">
-        <v>365</v>
-      </c>
-      <c r="E5" s="75" t="s">
-        <v>383</v>
+        <v>382</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>363</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>381</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I5" s="29"/>
       <c r="J5" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="K5" s="29"/>
+    </row>
+    <row r="6" spans="1:11" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="69"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>379</v>
+      </c>
+      <c r="E6" s="54" t="s">
         <v>378</v>
       </c>
-      <c r="K5" s="29"/>
-    </row>
-    <row r="6" spans="1:11" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="59"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="D6" s="76" t="s">
-        <v>381</v>
-      </c>
-      <c r="E6" s="76" t="s">
-        <v>380</v>
-      </c>
       <c r="F6" s="27" t="s">
-        <v>379</v>
-      </c>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="73"/>
+        <v>377</v>
+      </c>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="51"/>
       <c r="J6" s="27" t="s">
-        <v>378</v>
-      </c>
-      <c r="K6" s="73"/>
+        <v>376</v>
+      </c>
+      <c r="K6" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6263,7 +6216,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
@@ -6283,179 +6236,179 @@
   <sheetData>
     <row r="1" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="72" t="s">
+        <v>408</v>
+      </c>
+      <c r="B2" s="76" t="s">
+        <v>400</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="G2" s="47" t="s">
+        <v>404</v>
+      </c>
+      <c r="H2" s="47" t="s">
         <v>125</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62" t="s">
-        <v>410</v>
-      </c>
-      <c r="B2" s="66" t="s">
-        <v>402</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>409</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>408</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>407</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="G2" s="47" t="s">
-        <v>406</v>
-      </c>
-      <c r="H2" s="47" t="s">
-        <v>127</v>
       </c>
       <c r="I2" s="26"/>
       <c r="J2" s="15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K2" s="15"/>
     </row>
     <row r="3" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="71"/>
-      <c r="B3" s="66"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="76"/>
       <c r="C3" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G3" s="39" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H3" s="39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I3" s="29"/>
       <c r="J3" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K3" s="29"/>
     </row>
     <row r="4" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="71"/>
-      <c r="B4" s="50"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H4" s="39" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I4" s="29"/>
       <c r="J4" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K4" s="29"/>
     </row>
     <row r="5" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A5" s="71"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F5" s="46" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G5" s="39" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H5" s="39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I5" s="29"/>
       <c r="J5" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="K5" s="29"/>
     </row>
     <row r="6" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="71"/>
+      <c r="A6" s="78"/>
       <c r="B6" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F6" s="40" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G6" s="39" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H6" s="39" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I6" s="29"/>
       <c r="J6" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K6" s="29"/>
     </row>
@@ -6470,7 +6423,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
@@ -6490,321 +6443,321 @@
     <row r="1" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
-        <v>436</v>
-      </c>
-      <c r="B3" s="50" t="s">
-        <v>436</v>
-      </c>
-      <c r="C3" s="50" t="s">
-        <v>436</v>
+      <c r="A3" s="60" t="s">
+        <v>434</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>434</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>434</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
       <c r="D4" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="51"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
       <c r="D5" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="51"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
       <c r="D6" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51" t="s">
-        <v>431</v>
+      <c r="A7" s="61"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61" t="s">
+        <v>429</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="51"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
       <c r="D8" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="51"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
       <c r="D9" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="51"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51" t="s">
-        <v>426</v>
+      <c r="A10" s="61"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61" t="s">
+        <v>424</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="51"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
       <c r="D11" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="51"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51" t="s">
-        <v>423</v>
+      <c r="A12" s="61"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61" t="s">
+        <v>421</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="51"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
       <c r="D13" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="51"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
+      <c r="A14" s="61"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
       <c r="D14" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="51"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
       <c r="D15" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="51"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
       <c r="D16" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="51"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
+      <c r="A17" s="61"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="61"/>
       <c r="D17" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="51"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
+      <c r="A18" s="61"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
       <c r="D18" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="51"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
+      <c r="A19" s="61"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
       <c r="D19" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I19" s="2"/>
     </row>
@@ -6822,7 +6775,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
@@ -6842,213 +6795,213 @@
     <row r="1" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
-        <v>454</v>
-      </c>
-      <c r="B3" s="50" t="s">
-        <v>454</v>
-      </c>
-      <c r="C3" s="50" t="s">
-        <v>453</v>
+      <c r="A3" s="60" t="s">
+        <v>452</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>452</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>451</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
       <c r="D4" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="51"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
       <c r="D5" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="51"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
       <c r="D6" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
       <c r="D7" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="51"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
       <c r="D8" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="51"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51" t="s">
-        <v>445</v>
+      <c r="A9" s="61"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61" t="s">
+        <v>443</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="51"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
       <c r="D10" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="51"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51" t="s">
-        <v>443</v>
+      <c r="A11" s="61"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61" t="s">
+        <v>441</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="51"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
       <c r="D12" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="61"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="51"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="2" t="s">
-        <v>439</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="I13" s="2"/>
     </row>
@@ -7066,640 +7019,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="4" width="12.75" customWidth="1"/>
-    <col min="5" max="5" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" customWidth="1"/>
-    <col min="7" max="10" width="12.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="51"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="51"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="51"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="51"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A2:J9" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <mergeCells count="3">
-    <mergeCell ref="C3:C9"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="B3:B9"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
-    <col min="8" max="8" width="11.125" customWidth="1"/>
-    <col min="9" max="9" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3" s="53" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="51"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="51"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="51"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A9" s="51"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="51"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="51"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="51"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="51"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="52" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="51"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="51"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="51"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="51"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="51"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="51"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="51"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J20" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A3:A20"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="B3:B20"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
@@ -7720,59 +7039,59 @@
     <row r="1" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J3" s="6"/>
     </row>
@@ -7782,7 +7101,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
@@ -7806,59 +7125,59 @@
     <row r="1" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J3" s="6"/>
     </row>
@@ -7868,12 +7187,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7891,189 +7210,189 @@
   <sheetData>
     <row r="1" spans="1:10" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="54" t="s">
-        <v>164</v>
-      </c>
-      <c r="B2" s="50" t="s">
-        <v>163</v>
-      </c>
-      <c r="C2" s="56" t="s">
+      <c r="A2" s="64" t="s">
         <v>162</v>
       </c>
+      <c r="B2" s="60" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="66" t="s">
+        <v>160</v>
+      </c>
       <c r="D2" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J2" s="6"/>
     </row>
     <row r="3" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="55"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="50"/>
+      <c r="A3" s="65"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="60"/>
       <c r="D3" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="55"/>
-      <c r="B4" s="51" t="s">
-        <v>155</v>
-      </c>
-      <c r="C4" s="57" t="s">
-        <v>154</v>
+      <c r="A4" s="65"/>
+      <c r="B4" s="61" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="67" t="s">
+        <v>152</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="55"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="50"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="60"/>
       <c r="D5" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="55"/>
-      <c r="B6" s="51" t="s">
-        <v>149</v>
+      <c r="A6" s="65"/>
+      <c r="B6" s="61" t="s">
+        <v>147</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="55"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="57" t="s">
-        <v>145</v>
+      <c r="A7" s="65"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="67" t="s">
+        <v>143</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="65"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="55"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>141</v>
-      </c>
       <c r="F8" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J8" s="2"/>
     </row>
@@ -8103,11 +7422,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
@@ -8126,153 +7445,153 @@
   <sheetData>
     <row r="1" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I1" s="27" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J1" s="27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
-        <v>185</v>
-      </c>
-      <c r="B2" s="58" t="s">
-        <v>184</v>
+      <c r="A2" s="68" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="68" t="s">
+        <v>182</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J2" s="6"/>
     </row>
     <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="69"/>
       <c r="C3" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G3" s="17"/>
       <c r="H3" s="16"/>
       <c r="I3" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="59"/>
-      <c r="B4" s="59"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="16"/>
       <c r="I4" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A5" s="59"/>
-      <c r="B5" s="59"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="69"/>
       <c r="C5" s="22" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H5" s="16"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="59"/>
-      <c r="B6" s="59"/>
+      <c r="A6" s="69"/>
+      <c r="B6" s="69"/>
       <c r="C6" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J6" s="2"/>
     </row>
@@ -8286,7 +7605,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
@@ -8308,298 +7627,298 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I1" s="28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J1" s="27" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K1" s="27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="59" t="s">
-        <v>221</v>
-      </c>
-      <c r="B2" s="59" t="s">
-        <v>163</v>
+      <c r="A2" s="69" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" s="69" t="s">
+        <v>161</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H2" s="32"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K2" s="29"/>
     </row>
     <row r="3" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="69"/>
       <c r="C3" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H3" s="16"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K3" s="29"/>
     </row>
     <row r="4" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="59"/>
-      <c r="B4" s="59"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="H4" s="80" t="s">
-        <v>180</v>
+        <v>185</v>
+      </c>
+      <c r="H4" s="58" t="s">
+        <v>178</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K4" s="29"/>
     </row>
     <row r="5" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A5" s="59"/>
-      <c r="B5" s="59"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="69"/>
       <c r="C5" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="H5" s="80"/>
+        <v>185</v>
+      </c>
+      <c r="H5" s="58"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K5" s="29"/>
     </row>
     <row r="6" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="59"/>
-      <c r="B6" s="59"/>
+      <c r="A6" s="69"/>
+      <c r="B6" s="69"/>
       <c r="C6" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="29"/>
     </row>
     <row r="7" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="59"/>
-      <c r="B7" s="59"/>
+      <c r="A7" s="69"/>
+      <c r="B7" s="69"/>
       <c r="C7" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="29"/>
     </row>
     <row r="8" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="59"/>
-      <c r="B8" s="51" t="s">
-        <v>202</v>
+      <c r="A8" s="69"/>
+      <c r="B8" s="61" t="s">
+        <v>200</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K8" s="29"/>
     </row>
     <row r="9" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A9" s="59"/>
-      <c r="B9" s="51"/>
+      <c r="A9" s="69"/>
+      <c r="B9" s="61"/>
       <c r="C9" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K9" s="29"/>
     </row>
     <row r="10" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="59"/>
-      <c r="B10" s="51"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="61"/>
       <c r="C10" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="H10" s="80" t="s">
-        <v>180</v>
+        <v>185</v>
+      </c>
+      <c r="H10" s="58" t="s">
+        <v>178</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K10" s="29"/>
     </row>
     <row r="11" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A11" s="59"/>
-      <c r="B11" s="51"/>
+      <c r="A11" s="69"/>
+      <c r="B11" s="61"/>
       <c r="C11" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H11" s="30"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K11" s="29"/>
     </row>
@@ -8614,12 +7933,245 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="4" width="12.75" customWidth="1"/>
+    <col min="5" max="5" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" customWidth="1"/>
+    <col min="7" max="11" width="12.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A4" s="61"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="61"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="61"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="61"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="61"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="61"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:K9" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <mergeCells count="3">
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="B3:B9"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8636,171 +8188,171 @@
     <row r="1" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
-        <v>241</v>
-      </c>
-      <c r="B3" s="50" t="s">
-        <v>240</v>
-      </c>
-      <c r="C3" s="50" t="s">
+      <c r="A3" s="60" t="s">
         <v>239</v>
       </c>
+      <c r="B3" s="60" t="s">
+        <v>238</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>237</v>
+      </c>
       <c r="D3" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
       <c r="D4" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="51"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
       <c r="D5" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="51"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
       <c r="D6" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
       <c r="D7" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="51"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
       <c r="D8" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J8" s="2"/>
     </row>
@@ -8813,4 +8365,540 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:L21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.625" customWidth="1"/>
+    <col min="12" max="12" width="31.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="61"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="61"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="61"/>
+      <c r="B6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="61"/>
+      <c r="B7" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="61"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="61"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="61"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="61"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="61"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="61"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="61"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H14" s="12"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="61"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="61"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H16" s="12"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="61"/>
+      <c r="B17" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H17" s="12"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="61"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="L18" s="49" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="61"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H19" s="12"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="61"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H20" s="12"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A21" s="61"/>
+      <c r="B21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H21" s="12"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" s="2"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:K21" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <mergeCells count="7">
+    <mergeCell ref="A3:A21"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C7:C16"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B7:B16"/>
+    <mergeCell ref="B17:B20"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/기능명세서 최종본.xlsx
+++ b/기능명세서 최종본.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\유서영 취준\JAVA\Dynamic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dw\Documents\MyProject\Dynamic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B9D0B6-D929-4E9D-8D89-A399FB7C68CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="프로필 수정 및 관리" sheetId="4" r:id="rId1"/>
@@ -47,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="507">
   <si>
     <t>서영</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -619,27 +618,6 @@
   </si>
   <si>
     <t>보류</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 지급월에 기록된 직원들의 명단 출력
-(성함, 구분, 월급, 실수령액, 지급일)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>날짜 체크 버튼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>급여명세서 검색 결과 확인 창 - 급여명세서_근로소득(예시) 확인</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>검색된 급여 명세서 확인</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>직원별 급여명세서 확인</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -2125,12 +2103,72 @@
 그 외 정보는 수정 가능</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>상</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 상품 삭제</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제하기 버튼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>상</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 급여명세서 조회</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>월별 직원 명세서 조회</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현자</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>서영</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>급여명세서 상세 내용 확인</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>모르겠음</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2196,8 +2234,22 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2229,12 +2281,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2443,7 +2489,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2504,9 +2550,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2516,12 +2559,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2540,9 +2577,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
@@ -2588,9 +2622,6 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2624,18 +2655,30 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2691,6 +2734,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2974,14 +3041,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9:K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
@@ -2994,8 +3061,8 @@
     <col min="11" max="11" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="17.25" thickBot="1"/>
+    <row r="2" spans="1:11" ht="33.75" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>78</v>
       </c>
@@ -3030,30 +3097,30 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="62" t="s">
+    <row r="3" spans="1:11" ht="49.5">
+      <c r="A3" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="62" t="s">
         <v>107</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6" t="s">
@@ -3061,10 +3128,10 @@
       </c>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="62"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="60"/>
+    <row r="4" spans="1:11">
+      <c r="A4" s="59"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="62"/>
       <c r="D4" s="6" t="s">
         <v>51</v>
       </c>
@@ -3073,19 +3140,19 @@
         <v>1</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="61"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
+    <row r="5" spans="1:11">
+      <c r="A5" s="60"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
       <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
@@ -3094,10 +3161,10 @@
         <v>44</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
@@ -3105,10 +3172,10 @@
       </c>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="61"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
+    <row r="6" spans="1:11">
+      <c r="A6" s="60"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
       <c r="D6" s="2" t="s">
         <v>106</v>
       </c>
@@ -3117,10 +3184,10 @@
         <v>44</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
@@ -3128,24 +3195,24 @@
       </c>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A7" s="61"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
+    <row r="7" spans="1:11" ht="33">
+      <c r="A7" s="60"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
       <c r="D7" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
@@ -3153,10 +3220,10 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="61"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
+    <row r="8" spans="1:11">
+      <c r="A8" s="60"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
       <c r="D8" s="2" t="s">
         <v>104</v>
       </c>
@@ -3167,10 +3234,10 @@
         <v>27</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
@@ -3178,10 +3245,10 @@
       </c>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="61"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61" t="s">
+    <row r="9" spans="1:11">
+      <c r="A9" s="60"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60" t="s">
         <v>101</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -3201,10 +3268,10 @@
       </c>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A10" s="61"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
+    <row r="10" spans="1:11" ht="33">
+      <c r="A10" s="60"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
       <c r="D10" s="2" t="s">
         <v>98</v>
       </c>
@@ -3222,10 +3289,10 @@
       </c>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="61"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61" t="s">
+    <row r="11" spans="1:11">
+      <c r="A11" s="60"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60" t="s">
         <v>96</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -3245,10 +3312,10 @@
       </c>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="61"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
+    <row r="12" spans="1:11">
+      <c r="A12" s="60"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
       <c r="D12" s="2" t="s">
         <v>92</v>
       </c>
@@ -3264,10 +3331,10 @@
       </c>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="61"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
+    <row r="13" spans="1:11">
+      <c r="A13" s="60"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
       <c r="D13" s="2" t="s">
         <v>89</v>
       </c>
@@ -3285,10 +3352,10 @@
       </c>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="61"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="63" t="s">
+    <row r="14" spans="1:11">
+      <c r="A14" s="60"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="61" t="s">
         <v>94</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -3308,10 +3375,10 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="61"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="63"/>
+    <row r="15" spans="1:11">
+      <c r="A15" s="60"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="61"/>
       <c r="D15" s="2" t="s">
         <v>92</v>
       </c>
@@ -3329,10 +3396,10 @@
       </c>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="61"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="63"/>
+    <row r="16" spans="1:11">
+      <c r="A16" s="60"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="61"/>
       <c r="D16" s="2" t="s">
         <v>90</v>
       </c>
@@ -3348,10 +3415,10 @@
       </c>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="61"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="63"/>
+    <row r="17" spans="1:11">
+      <c r="A17" s="60"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="61"/>
       <c r="D17" s="2" t="s">
         <v>89</v>
       </c>
@@ -3369,10 +3436,10 @@
       </c>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="61"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61" t="s">
+    <row r="18" spans="1:11">
+      <c r="A18" s="60"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60" t="s">
         <v>88</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -3392,10 +3459,10 @@
       </c>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="61"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
+    <row r="19" spans="1:11">
+      <c r="A19" s="60"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
       <c r="D19" s="2" t="s">
         <v>85</v>
       </c>
@@ -3411,10 +3478,10 @@
       </c>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="61"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
+    <row r="20" spans="1:11">
+      <c r="A20" s="60"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
       <c r="D20" s="2" t="s">
         <v>84</v>
       </c>
@@ -3432,10 +3499,10 @@
       </c>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="61"/>
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
+    <row r="21" spans="1:11">
+      <c r="A21" s="60"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="60"/>
       <c r="D21" s="2" t="s">
         <v>81</v>
       </c>
@@ -3469,14 +3536,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G17" sqref="G17:G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="19.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.5" style="1" bestFit="1" customWidth="1"/>
@@ -3490,8 +3557,8 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="17.25" thickBot="1"/>
+    <row r="2" spans="1:11" ht="33.75" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>78</v>
       </c>
@@ -3499,22 +3566,22 @@
         <v>135</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>133</v>
@@ -3526,15 +3593,15 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="60" t="s">
-        <v>271</v>
-      </c>
-      <c r="B3" s="60" t="s">
-        <v>270</v>
-      </c>
-      <c r="C3" s="60" t="s">
-        <v>269</v>
+    <row r="3" spans="1:11">
+      <c r="A3" s="62" t="s">
+        <v>266</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="62" t="s">
+        <v>264</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>48</v>
@@ -3547,18 +3614,18 @@
         <v>36</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="61"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
+    <row r="4" spans="1:11">
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
       <c r="D4" s="2" t="s">
         <v>45</v>
       </c>
@@ -3567,10 +3634,10 @@
         <v>126</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2" t="s">
@@ -3578,22 +3645,22 @@
       </c>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="61"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
+    <row r="5" spans="1:11">
+      <c r="A5" s="60"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
       <c r="D5" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
@@ -3601,28 +3668,28 @@
       </c>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="61"/>
-      <c r="B6" s="61" t="s">
-        <v>267</v>
-      </c>
-      <c r="C6" s="61" t="s">
-        <v>266</v>
+    <row r="6" spans="1:11">
+      <c r="A6" s="60"/>
+      <c r="B6" s="60" t="s">
+        <v>262</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>261</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>126</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
@@ -3630,41 +3697,41 @@
       </c>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="61"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
+    <row r="7" spans="1:11">
+      <c r="A7" s="60"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
       <c r="D7" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="61"/>
-      <c r="B8" s="61" t="s">
-        <v>462</v>
+    <row r="8" spans="1:11">
+      <c r="A8" s="60"/>
+      <c r="B8" s="60" t="s">
+        <v>457</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
@@ -3674,7 +3741,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
@@ -3682,17 +3749,17 @@
       </c>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="61"/>
-      <c r="B9" s="61"/>
+    <row r="9" spans="1:11" ht="49.5">
+      <c r="A9" s="60"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="2" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>1</v>
@@ -3701,7 +3768,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
@@ -3709,19 +3776,19 @@
       </c>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="61"/>
-      <c r="B10" s="61" t="s">
-        <v>262</v>
-      </c>
-      <c r="C10" s="61" t="s">
+    <row r="10" spans="1:11">
+      <c r="A10" s="60"/>
+      <c r="B10" s="60" t="s">
+        <v>257</v>
+      </c>
+      <c r="C10" s="60" t="s">
         <v>58</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>126</v>
@@ -3730,7 +3797,7 @@
         <v>36</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
@@ -3738,24 +3805,24 @@
       </c>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="61"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
+    <row r="11" spans="1:11">
+      <c r="A11" s="60"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
       <c r="D11" s="2" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2" t="s">
@@ -3763,40 +3830,40 @@
       </c>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="61"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
+    <row r="12" spans="1:11">
+      <c r="A12" s="60"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
       <c r="D12" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A13" s="61"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
+    <row r="13" spans="1:11" ht="33">
+      <c r="A13" s="60"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
       <c r="D13" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>44</v>
@@ -3805,7 +3872,7 @@
         <v>36</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2" t="s">
@@ -3813,38 +3880,38 @@
       </c>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="61"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="67" t="s">
-        <v>253</v>
+    <row r="14" spans="1:11">
+      <c r="A14" s="60"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="66" t="s">
+        <v>248</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>126</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="61"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="60"/>
+    <row r="15" spans="1:11">
+      <c r="A15" s="60"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="62"/>
       <c r="E15" s="5" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>27</v>
@@ -3853,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2" t="s">
@@ -3861,44 +3928,44 @@
       </c>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="61"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
+    <row r="16" spans="1:11">
+      <c r="A16" s="60"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
       <c r="D16" s="2" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>126</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="61"/>
-      <c r="B17" s="61" t="s">
-        <v>251</v>
-      </c>
-      <c r="C17" s="61" t="s">
-        <v>251</v>
+    <row r="17" spans="1:11">
+      <c r="A17" s="60"/>
+      <c r="B17" s="60" t="s">
+        <v>246</v>
+      </c>
+      <c r="C17" s="60" t="s">
+        <v>246</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>126</v>
@@ -3907,23 +3974,23 @@
         <v>0</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="61"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61"/>
+    <row r="18" spans="1:11">
+      <c r="A18" s="60"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
       <c r="D18" s="2" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>126</v>
@@ -3932,23 +3999,23 @@
         <v>0</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="60"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="61"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>126</v>
@@ -3957,43 +4024,43 @@
         <v>0</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="61"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
+    <row r="20" spans="1:11">
+      <c r="A20" s="60"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
       <c r="D20" s="2" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="61"/>
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
+    <row r="21" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A21" s="60"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="60"/>
       <c r="D21" s="2" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
@@ -4003,19 +4070,19 @@
         <v>0</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="K21" s="2"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11">
       <c r="D28"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:K21" xr:uid="{00000000-0009-0000-0000-00000A000000}"/>
+  <autoFilter ref="A2:K21"/>
   <mergeCells count="11">
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="A3:A21"/>
@@ -4036,14 +4103,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="2" width="15.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
@@ -4055,8 +4122,8 @@
     <col min="12" max="12" width="51.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:12" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="17.25" thickBot="1"/>
+    <row r="2" spans="1:12" ht="50.25" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>78</v>
       </c>
@@ -4064,7 +4131,7 @@
         <v>77</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>121</v>
@@ -4076,7 +4143,7 @@
         <v>73</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>109</v>
@@ -4091,15 +4158,15 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="73" t="s">
-        <v>316</v>
-      </c>
-      <c r="B3" s="73" t="s">
-        <v>316</v>
-      </c>
-      <c r="C3" s="70" t="s">
-        <v>315</v>
+    <row r="3" spans="1:12">
+      <c r="A3" s="72" t="s">
+        <v>311</v>
+      </c>
+      <c r="B3" s="72" t="s">
+        <v>311</v>
+      </c>
+      <c r="C3" s="69" t="s">
+        <v>310</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>51</v>
@@ -4112,7 +4179,7 @@
         <v>125</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="2" t="s">
@@ -4120,38 +4187,38 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="71"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
+    <row r="4" spans="1:12">
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
       <c r="D4" s="12" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>125</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="2" t="s">
         <v>36</v>
       </c>
       <c r="K4" s="2"/>
-      <c r="L4" s="34" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="71"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
+      <c r="L4" s="30" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="70"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
       <c r="D5" s="12" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12" t="s">
@@ -4161,7 +4228,7 @@
         <v>36</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="2" t="s">
@@ -4169,12 +4236,12 @@
       </c>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="71"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
+    <row r="6" spans="1:12">
+      <c r="A6" s="70"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
       <c r="D6" s="12" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12" t="s">
@@ -4184,23 +4251,23 @@
         <v>36</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="I6" s="12"/>
       <c r="J6" s="2" t="s">
         <v>36</v>
       </c>
       <c r="K6" s="2"/>
-      <c r="L6" s="34" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="71"/>
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
+      <c r="L6" s="30" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="70"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
       <c r="D7" s="12" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="12" t="s">
@@ -4210,7 +4277,7 @@
         <v>125</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="2" t="s">
@@ -4218,12 +4285,12 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="71"/>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
+    <row r="8" spans="1:12">
+      <c r="A8" s="70"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
       <c r="D8" s="12" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12" t="s">
@@ -4233,49 +4300,49 @@
         <v>125</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="I8" s="12"/>
       <c r="J8" s="2" t="s">
         <v>36</v>
       </c>
       <c r="K8" s="2"/>
-      <c r="L8" s="34" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="71"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
+      <c r="L8" s="30" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="70"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
       <c r="D9" s="12" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>36</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="K9" s="2"/>
-      <c r="L9" s="35" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="71"/>
-      <c r="B10" s="71"/>
-      <c r="C10" s="71"/>
+      <c r="L9" s="31" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="70"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
       <c r="D10" s="12" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12" t="s">
@@ -4285,49 +4352,49 @@
         <v>125</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="2" t="s">
         <v>125</v>
       </c>
       <c r="K10" s="2"/>
-      <c r="L10" s="34" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="71"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
+      <c r="L10" s="30" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="70"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
       <c r="D11" s="12" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>125</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="2" t="s">
         <v>125</v>
       </c>
       <c r="K11" s="2"/>
-      <c r="L11" s="34" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="71"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="72"/>
+      <c r="L11" s="30" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="70"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="71"/>
       <c r="D12" s="12" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12" t="s">
@@ -4337,28 +4404,28 @@
         <v>125</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="I12" s="12"/>
       <c r="J12" s="2" t="s">
         <v>36</v>
       </c>
       <c r="K12" s="2"/>
-      <c r="L12" s="34" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="71"/>
-      <c r="B13" s="71"/>
+      <c r="L12" s="30" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="70"/>
+      <c r="B13" s="70"/>
       <c r="C13" s="12" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>59</v>
@@ -4367,7 +4434,7 @@
         <v>36</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="2" t="s">
@@ -4375,69 +4442,69 @@
       </c>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="71"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="74" t="s">
-        <v>302</v>
+    <row r="14" spans="1:12">
+      <c r="A14" s="70"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="73" t="s">
+        <v>297</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>111</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="3" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>125</v>
       </c>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="71"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="72"/>
+    <row r="15" spans="1:12">
+      <c r="A15" s="70"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="71"/>
       <c r="D15" s="3" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="3" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="71"/>
-      <c r="B16" s="71"/>
+    <row r="16" spans="1:12">
+      <c r="A16" s="70"/>
+      <c r="B16" s="70"/>
       <c r="C16" s="15" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>5</v>
@@ -4446,41 +4513,41 @@
         <v>0</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="I16" s="12"/>
       <c r="J16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="K16" s="2"/>
-      <c r="L16" s="33" t="s">
+      <c r="L16" s="29" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="75" t="s">
-        <v>479</v>
-      </c>
-      <c r="B17" s="75" t="s">
-        <v>479</v>
+    <row r="17" spans="1:12" ht="53.25" customHeight="1">
+      <c r="A17" s="74" t="s">
+        <v>474</v>
+      </c>
+      <c r="B17" s="74" t="s">
+        <v>474</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2" t="s">
@@ -4488,24 +4555,24 @@
       </c>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="76"/>
-      <c r="B18" s="76"/>
-      <c r="C18" s="67" t="s">
-        <v>289</v>
+    <row r="18" spans="1:12">
+      <c r="A18" s="75"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="66" t="s">
+        <v>284</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2" t="s">
@@ -4513,22 +4580,22 @@
       </c>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="76"/>
-      <c r="B19" s="76"/>
-      <c r="C19" s="76"/>
+    <row r="19" spans="1:12">
+      <c r="A19" s="75"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="75"/>
       <c r="D19" s="12" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2" t="s">
@@ -4536,336 +4603,344 @@
       </c>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="76"/>
-      <c r="B20" s="76"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="12" t="s">
+    <row r="20" spans="1:12">
+      <c r="A20" s="75"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="57" t="s">
+        <v>281</v>
+      </c>
+      <c r="E20" s="57" t="s">
+        <v>280</v>
+      </c>
+      <c r="F20" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="57" t="s">
+        <v>173</v>
+      </c>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="K20" s="57"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="75"/>
+      <c r="B21" s="75"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="57" t="s">
+        <v>279</v>
+      </c>
+      <c r="E21" s="57" t="s">
+        <v>278</v>
+      </c>
+      <c r="F21" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="57" t="s">
+        <v>173</v>
+      </c>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="K21" s="57"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="75"/>
+      <c r="B22" s="75"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="57" t="s">
+        <v>276</v>
+      </c>
+      <c r="E22" s="57" t="s">
+        <v>275</v>
+      </c>
+      <c r="F22" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="57" t="s">
+        <v>173</v>
+      </c>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="K22" s="57"/>
+    </row>
+    <row r="23" spans="1:12" ht="33">
+      <c r="A23" s="75"/>
+      <c r="B23" s="75"/>
+      <c r="C23" s="74" t="s">
+        <v>274</v>
+      </c>
+      <c r="D23" s="57" t="s">
+        <v>273</v>
+      </c>
+      <c r="E23" s="56" t="s">
+        <v>463</v>
+      </c>
+      <c r="F23" s="57" t="s">
+        <v>270</v>
+      </c>
+      <c r="G23" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="57" t="s">
+        <v>173</v>
+      </c>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="K23" s="57"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="75"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="57" t="s">
+        <v>272</v>
+      </c>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="57" t="s">
+        <v>173</v>
+      </c>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="K24" s="57"/>
+    </row>
+    <row r="25" spans="1:12" ht="49.5">
+      <c r="A25" s="62"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="56" t="s">
+        <v>271</v>
+      </c>
+      <c r="E25" s="56" t="s">
+        <v>476</v>
+      </c>
+      <c r="F25" s="57" t="s">
+        <v>270</v>
+      </c>
+      <c r="G25" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="57" t="s">
+        <v>173</v>
+      </c>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="K25" s="57"/>
+    </row>
+    <row r="26" spans="1:12" ht="16.5" customHeight="1">
+      <c r="A26" s="61" t="s">
+        <v>475</v>
+      </c>
+      <c r="B26" s="61" t="s">
+        <v>475</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D26" s="57" t="s">
+        <v>287</v>
+      </c>
+      <c r="E26" s="56" t="s">
         <v>286</v>
       </c>
-      <c r="E20" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="F20" s="12" t="s">
+      <c r="F26" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="57" t="s">
+        <v>173</v>
+      </c>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="K26" s="57"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="60"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="60" t="s">
+        <v>284</v>
+      </c>
+      <c r="D27" s="57" t="s">
+        <v>283</v>
+      </c>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="57" t="s">
+        <v>173</v>
+      </c>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="K27" s="57"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="60"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="57" t="s">
+        <v>282</v>
+      </c>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="57" t="s">
+        <v>173</v>
+      </c>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="K28" s="57"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="60"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="57" t="s">
+        <v>281</v>
+      </c>
+      <c r="E29" s="57" t="s">
+        <v>280</v>
+      </c>
+      <c r="F29" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G29" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="K20" s="12"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="76"/>
-      <c r="B21" s="76"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="48" t="s">
-        <v>284</v>
-      </c>
-      <c r="E21" s="48" t="s">
-        <v>283</v>
-      </c>
-      <c r="F21" s="48" t="s">
+      <c r="H29" s="57" t="s">
+        <v>173</v>
+      </c>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="K29" s="57"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="60"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="57" t="s">
+        <v>279</v>
+      </c>
+      <c r="E30" s="57" t="s">
+        <v>278</v>
+      </c>
+      <c r="F30" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48" t="s">
-        <v>125</v>
-      </c>
-      <c r="K21" s="48"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="76"/>
-      <c r="B22" s="76"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="F22" s="12" t="s">
+      <c r="G30" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="H30" s="57" t="s">
+        <v>173</v>
+      </c>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="K30" s="57"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="60"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="57" t="s">
+        <v>276</v>
+      </c>
+      <c r="E31" s="57" t="s">
+        <v>275</v>
+      </c>
+      <c r="F31" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G31" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="K22" s="12"/>
-    </row>
-    <row r="23" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A23" s="76"/>
-      <c r="B23" s="76"/>
-      <c r="C23" s="75" t="s">
-        <v>279</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="G23" s="2" t="s">
+      <c r="H31" s="57" t="s">
+        <v>173</v>
+      </c>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="76"/>
-      <c r="B24" s="76"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G24" s="2" t="s">
+      <c r="K31" s="57"/>
+    </row>
+    <row r="32" spans="1:12" ht="33">
+      <c r="A32" s="60"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="61" t="s">
+        <v>274</v>
+      </c>
+      <c r="D32" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" s="56" t="s">
+        <v>463</v>
+      </c>
+      <c r="F32" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="G32" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="60"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="G25" s="2" t="s">
+      <c r="H32" s="57" t="s">
+        <v>173</v>
+      </c>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="63" t="s">
-        <v>480</v>
-      </c>
-      <c r="B26" s="63" t="s">
-        <v>480</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="61"/>
-      <c r="B27" s="61"/>
-      <c r="C27" s="61" t="s">
-        <v>289</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="61"/>
-      <c r="B28" s="61"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="61"/>
-      <c r="B29" s="61"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="K29" s="12"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="61"/>
-      <c r="B30" s="61"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="48" t="s">
-        <v>284</v>
-      </c>
-      <c r="E30" s="48" t="s">
-        <v>283</v>
-      </c>
-      <c r="F30" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="K30" s="48"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="61"/>
-      <c r="B31" s="61"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="K31" s="12"/>
-    </row>
-    <row r="32" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A32" s="61"/>
-      <c r="B32" s="61"/>
-      <c r="C32" s="63" t="s">
-        <v>279</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>468</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="K32" s="12"/>
+      <c r="K32" s="57"/>
       <c r="L32" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="61"/>
-      <c r="B33" s="61"/>
-      <c r="C33" s="61"/>
+    <row r="33" spans="1:11">
+      <c r="A33" s="60"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="60"/>
       <c r="D33" s="12" t="s">
         <v>105</v>
       </c>
@@ -4877,7 +4952,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2" t="s">
@@ -4906,14 +4981,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20:E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="2" width="14.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
@@ -4925,8 +5000,8 @@
     <col min="12" max="12" width="51.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="17.25" thickBot="1"/>
+    <row r="2" spans="1:12" ht="33.75" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>124</v>
       </c>
@@ -4946,7 +5021,7 @@
         <v>119</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>109</v>
@@ -4961,30 +5036,30 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="60" t="s">
-        <v>328</v>
-      </c>
-      <c r="B3" s="62" t="s">
-        <v>328</v>
-      </c>
-      <c r="C3" s="62" t="s">
-        <v>327</v>
+    <row r="3" spans="1:12" s="1" customFormat="1">
+      <c r="A3" s="62" t="s">
+        <v>323</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>323</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>322</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6" t="s">
@@ -4992,10 +5067,10 @@
       </c>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="60"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
+    <row r="4" spans="1:12" s="1" customFormat="1">
+      <c r="A4" s="62"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="6" t="s">
         <v>128</v>
       </c>
@@ -5009,7 +5084,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="2" t="s">
@@ -5017,15 +5092,15 @@
       </c>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="60"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
+    <row r="5" spans="1:12" s="1" customFormat="1">
+      <c r="A5" s="62"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
       <c r="D5" s="2" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>102</v>
@@ -5034,7 +5109,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="2" t="s">
@@ -5042,24 +5117,24 @@
       </c>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="60"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
+    <row r="6" spans="1:12" s="1" customFormat="1">
+      <c r="A6" s="62"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
       <c r="D6" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="2" t="s">
@@ -5067,15 +5142,15 @@
       </c>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="60"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
+    <row r="7" spans="1:12" s="1" customFormat="1">
+      <c r="A7" s="62"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
       <c r="D7" s="2" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>102</v>
@@ -5084,23 +5159,23 @@
         <v>0</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="61"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
+    <row r="8" spans="1:12" s="1" customFormat="1">
+      <c r="A8" s="60"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
       <c r="D8" s="2" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>126</v>
@@ -5109,7 +5184,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
@@ -5117,18 +5192,18 @@
       </c>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="67" t="s">
-        <v>473</v>
-      </c>
-      <c r="B9" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="C9" s="67" t="s">
-        <v>452</v>
+    <row r="9" spans="1:12">
+      <c r="A9" s="66" t="s">
+        <v>468</v>
+      </c>
+      <c r="B9" s="66" t="s">
+        <v>447</v>
+      </c>
+      <c r="C9" s="66" t="s">
+        <v>447</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
@@ -5138,26 +5213,26 @@
         <v>0</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="K9" s="2"/>
-      <c r="L9" s="49" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="60"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
+      <c r="L9" s="44" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="62"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
       <c r="D10" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>27</v>
@@ -5166,7 +5241,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
@@ -5174,21 +5249,21 @@
       </c>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="67" t="s">
-        <v>474</v>
-      </c>
-      <c r="B11" s="67" t="s">
-        <v>475</v>
-      </c>
-      <c r="C11" s="67" t="s">
-        <v>475</v>
+    <row r="11" spans="1:12">
+      <c r="A11" s="66" t="s">
+        <v>469</v>
+      </c>
+      <c r="B11" s="66" t="s">
+        <v>470</v>
+      </c>
+      <c r="C11" s="66" t="s">
+        <v>470</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>27</v>
@@ -5197,7 +5272,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2" t="s">
@@ -5205,12 +5280,12 @@
       </c>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="76"/>
-      <c r="B12" s="76"/>
-      <c r="C12" s="76"/>
+    <row r="12" spans="1:12">
+      <c r="A12" s="75"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="2" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
@@ -5220,26 +5295,26 @@
         <v>0</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="K12" s="2"/>
-      <c r="L12" s="49" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="60"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="60"/>
+      <c r="L12" s="44" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="62"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
       <c r="D13" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>27</v>
@@ -5248,7 +5323,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2" t="s">
@@ -5256,18 +5331,18 @@
       </c>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="77" t="s">
-        <v>482</v>
-      </c>
-      <c r="B14" s="77" t="s">
-        <v>482</v>
-      </c>
-      <c r="C14" s="71" t="s">
-        <v>289</v>
+    <row r="14" spans="1:12">
+      <c r="A14" s="76" t="s">
+        <v>477</v>
+      </c>
+      <c r="B14" s="76" t="s">
+        <v>477</v>
+      </c>
+      <c r="C14" s="70" t="s">
+        <v>284</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12" t="s">
@@ -5277,23 +5352,23 @@
         <v>0</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="I14" s="12"/>
       <c r="J14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="K14" s="2"/>
-      <c r="L14" s="59" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="78"/>
-      <c r="B15" s="78"/>
-      <c r="C15" s="71"/>
+      <c r="L14" s="54" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="77"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="70"/>
       <c r="D15" s="12" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12" t="s">
@@ -5303,23 +5378,23 @@
         <v>0</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="I15" s="12"/>
       <c r="J15" s="2" t="s">
         <v>0</v>
       </c>
       <c r="K15" s="2"/>
-      <c r="L15" s="59" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="78"/>
-      <c r="B16" s="78"/>
-      <c r="C16" s="72"/>
+      <c r="L15" s="54" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="77"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="71"/>
       <c r="D16" s="12" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12" t="s">
@@ -5329,28 +5404,28 @@
         <v>0</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="I16" s="12"/>
       <c r="J16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="K16" s="2"/>
-      <c r="L16" s="59" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="78"/>
-      <c r="B17" s="78"/>
+      <c r="L16" s="54" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="77"/>
+      <c r="B17" s="77"/>
       <c r="C17" s="12" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>27</v>
@@ -5359,7 +5434,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="I17" s="12"/>
       <c r="J17" s="2" t="s">
@@ -5367,69 +5442,69 @@
       </c>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="78"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="79" t="s">
-        <v>302</v>
+    <row r="18" spans="1:12">
+      <c r="A18" s="77"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="78" t="s">
+        <v>297</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="3" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>0</v>
       </c>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="78"/>
-      <c r="B19" s="78"/>
-      <c r="C19" s="80"/>
+    <row r="19" spans="1:12">
+      <c r="A19" s="77"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="79"/>
       <c r="D19" s="3" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="3" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>0</v>
       </c>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="78"/>
-      <c r="B20" s="78"/>
+    <row r="20" spans="1:12">
+      <c r="A20" s="77"/>
+      <c r="B20" s="77"/>
       <c r="C20" s="15" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>27</v>
@@ -5438,25 +5513,19 @@
         <v>0</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="I20" s="12"/>
       <c r="J20" s="2" t="s">
         <v>0</v>
       </c>
       <c r="K20" s="2"/>
-      <c r="L20" s="33" t="s">
-        <v>294</v>
+      <c r="L20" s="29" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A14:A20"/>
     <mergeCell ref="B14:B20"/>
     <mergeCell ref="C14:C16"/>
@@ -5464,6 +5533,12 @@
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5471,14 +5546,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
@@ -5492,271 +5567,271 @@
     <col min="11" max="11" width="8.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A1" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="E1" s="27" t="s">
+      <c r="D1" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="E1" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="H1" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="I1" s="28" t="s">
+      <c r="H1" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="24" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="81" t="s">
-        <v>352</v>
-      </c>
-      <c r="B2" s="67" t="s">
-        <v>351</v>
-      </c>
-      <c r="C2" s="61" t="s">
-        <v>350</v>
+    <row r="2" spans="1:11" ht="24.95" customHeight="1">
+      <c r="A2" s="80" t="s">
+        <v>347</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>346</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>345</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>44</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="29"/>
+      <c r="I2" s="26"/>
       <c r="J2" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="K2" s="29"/>
-    </row>
-    <row r="3" spans="1:11" s="36" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="82"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="61"/>
+      <c r="K2" s="26"/>
+    </row>
+    <row r="3" spans="1:11" s="32" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A3" s="81"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="60"/>
       <c r="D3" s="19" t="s">
-        <v>347</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>346</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>193</v>
+        <v>342</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>341</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="H3" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="37"/>
+      <c r="I3" s="33"/>
       <c r="J3" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="K3" s="37"/>
-    </row>
-    <row r="4" spans="1:11" s="36" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="82"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="61"/>
+        <v>206</v>
+      </c>
+      <c r="K3" s="33"/>
+    </row>
+    <row r="4" spans="1:11" s="32" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A4" s="81"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="60"/>
       <c r="D4" s="3" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="57"/>
+        <v>290</v>
+      </c>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="52"/>
       <c r="J4" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="K4" s="57"/>
-    </row>
-    <row r="5" spans="1:11" s="36" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="82"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="69" t="s">
-        <v>343</v>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" s="32" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A5" s="81"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="68" t="s">
+        <v>338</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>44</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="I5" s="37"/>
+        <v>235</v>
+      </c>
+      <c r="I5" s="33"/>
       <c r="J5" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="K5" s="37"/>
-    </row>
-    <row r="6" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="82"/>
-      <c r="B6" s="76"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="31" t="s">
-        <v>340</v>
+        <v>206</v>
+      </c>
+      <c r="K5" s="33"/>
+    </row>
+    <row r="6" spans="1:11" ht="24.95" customHeight="1">
+      <c r="A6" s="81"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="28" t="s">
+        <v>335</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="H6" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="29"/>
+      <c r="I6" s="26"/>
       <c r="J6" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="K6" s="29"/>
-    </row>
-    <row r="7" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="82"/>
-      <c r="B7" s="76"/>
-      <c r="C7" s="67" t="s">
-        <v>338</v>
+      <c r="K6" s="26"/>
+    </row>
+    <row r="7" spans="1:11" ht="24.95" customHeight="1">
+      <c r="A7" s="81"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="66" t="s">
+        <v>333</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="H7" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="29"/>
+      <c r="I7" s="26"/>
       <c r="J7" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="K7" s="29"/>
-    </row>
-    <row r="8" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="82"/>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
+        <v>206</v>
+      </c>
+      <c r="K7" s="26"/>
+    </row>
+    <row r="8" spans="1:11" ht="24.95" customHeight="1">
+      <c r="A8" s="81"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="2" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="H8" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="29"/>
+      <c r="I8" s="26"/>
       <c r="J8" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="K8" s="29"/>
-    </row>
-    <row r="9" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="82"/>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
+        <v>151</v>
+      </c>
+      <c r="K8" s="26"/>
+    </row>
+    <row r="9" spans="1:11" ht="30" customHeight="1">
+      <c r="A9" s="81"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
       <c r="D9" s="2" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="I9" s="29"/>
+        <v>235</v>
+      </c>
+      <c r="I9" s="26"/>
       <c r="J9" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="K9" s="29"/>
-    </row>
-    <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="68"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
+      <c r="K9" s="26"/>
+    </row>
+    <row r="10" spans="1:11" ht="30" customHeight="1">
+      <c r="A10" s="67"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
       <c r="D10" s="2" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>59</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H10" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="I10" s="29"/>
+      <c r="I10" s="26"/>
       <c r="J10" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="K10" s="29"/>
+      <c r="K10" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5773,14 +5848,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="21.75" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
@@ -5791,223 +5866,223 @@
     <col min="9" max="9" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
-        <v>375</v>
-      </c>
-      <c r="B1" s="42" t="s">
-        <v>374</v>
-      </c>
-      <c r="C1" s="42" t="s">
+    <row r="1" spans="1:11" ht="41.25" customHeight="1">
+      <c r="A1" s="40" t="s">
+        <v>370</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>369</v>
+      </c>
+      <c r="C1" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="43" t="s">
-        <v>220</v>
-      </c>
-      <c r="I1" s="43" t="s">
+      <c r="H1" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="I1" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="37" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69" t="s">
-        <v>373</v>
-      </c>
-      <c r="B2" s="61" t="s">
-        <v>373</v>
-      </c>
-      <c r="C2" s="61" t="s">
-        <v>372</v>
+    <row r="2" spans="1:11" ht="50.1" customHeight="1">
+      <c r="A2" s="68" t="s">
+        <v>368</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>368</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>367</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>44</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="29"/>
+      <c r="I2" s="26"/>
       <c r="J2" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="K2" s="29"/>
-    </row>
-    <row r="3" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="69"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
+        <v>206</v>
+      </c>
+      <c r="K2" s="26"/>
+    </row>
+    <row r="3" spans="1:11" ht="50.1" customHeight="1">
+      <c r="A3" s="68"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
       <c r="D3" s="2" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>44</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="29"/>
+      <c r="I3" s="26"/>
       <c r="J3" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="K3" s="29"/>
-    </row>
-    <row r="4" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="69"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61" t="s">
-        <v>367</v>
+        <v>206</v>
+      </c>
+      <c r="K3" s="26"/>
+    </row>
+    <row r="4" spans="1:11" ht="50.1" customHeight="1">
+      <c r="A4" s="68"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60" t="s">
+        <v>362</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>44</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="29"/>
+      <c r="I4" s="26"/>
       <c r="J4" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="K4" s="29"/>
-    </row>
-    <row r="5" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="69"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
+        <v>206</v>
+      </c>
+      <c r="K4" s="26"/>
+    </row>
+    <row r="5" spans="1:11" ht="50.1" customHeight="1">
+      <c r="A5" s="68"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
       <c r="E5" s="13" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>44</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="29"/>
+      <c r="I5" s="26"/>
       <c r="J5" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="K5" s="29"/>
-    </row>
-    <row r="6" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="69"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61" t="s">
-        <v>364</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>363</v>
-      </c>
-      <c r="E6" s="40" t="s">
-        <v>362</v>
+        <v>206</v>
+      </c>
+      <c r="K5" s="26"/>
+    </row>
+    <row r="6" spans="1:11" ht="50.1" customHeight="1">
+      <c r="A6" s="68"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60" t="s">
+        <v>359</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>358</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>357</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>32</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="29"/>
+      <c r="I6" s="26"/>
       <c r="J6" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="K6" s="29"/>
-    </row>
-    <row r="7" spans="1:11" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="69"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="40" t="s">
-        <v>361</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>360</v>
-      </c>
-      <c r="F7" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="K6" s="26"/>
+    </row>
+    <row r="7" spans="1:11" ht="65.25" customHeight="1">
+      <c r="A7" s="68"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="36" t="s">
+        <v>356</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="F7" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="39" t="s">
-        <v>359</v>
-      </c>
-      <c r="H7" s="39" t="s">
-        <v>358</v>
-      </c>
-      <c r="I7" s="29"/>
+      <c r="G7" s="35" t="s">
+        <v>354</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>353</v>
+      </c>
+      <c r="I7" s="26"/>
       <c r="J7" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="K7" s="29"/>
-    </row>
-    <row r="8" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="69"/>
-      <c r="B8" s="61"/>
+        <v>348</v>
+      </c>
+      <c r="K7" s="26"/>
+    </row>
+    <row r="8" spans="1:11" ht="57" customHeight="1">
+      <c r="A8" s="68"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="D8" s="55" t="s">
-        <v>356</v>
-      </c>
-      <c r="E8" s="40" t="s">
-        <v>355</v>
-      </c>
-      <c r="F8" s="40" t="s">
+        <v>352</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>351</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>350</v>
+      </c>
+      <c r="F8" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="39" t="s">
-        <v>354</v>
-      </c>
-      <c r="H8" s="39" t="s">
+      <c r="G8" s="35" t="s">
+        <v>349</v>
+      </c>
+      <c r="H8" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="29"/>
+      <c r="I8" s="26"/>
       <c r="J8" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="K8" s="29"/>
+        <v>348</v>
+      </c>
+      <c r="K8" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6023,14 +6098,14 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="2" width="11.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.5" bestFit="1" customWidth="1"/>
@@ -6041,7 +6116,7 @@
     <col min="9" max="9" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="36" customHeight="1" thickBot="1">
       <c r="A1" s="10" t="s">
         <v>78</v>
       </c>
@@ -6052,7 +6127,7 @@
         <v>122</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>110</v>
@@ -6064,7 +6139,7 @@
         <v>109</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>71</v>
@@ -6076,134 +6151,134 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="68" t="s">
-        <v>390</v>
-      </c>
-      <c r="B2" s="66" t="s">
-        <v>390</v>
-      </c>
-      <c r="C2" s="66" t="s">
-        <v>389</v>
+    <row r="2" spans="1:11" ht="60" customHeight="1">
+      <c r="A2" s="67" t="s">
+        <v>385</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>385</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>384</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>387</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>193</v>
+        <v>383</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>188</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H2" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="45"/>
+      <c r="I2" s="41"/>
       <c r="J2" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="K2" s="45"/>
-    </row>
-    <row r="3" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="69"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
+        <v>206</v>
+      </c>
+      <c r="K2" s="41"/>
+    </row>
+    <row r="3" spans="1:11" ht="60" customHeight="1">
+      <c r="A3" s="68"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
       <c r="D3" s="5" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="29"/>
+      <c r="I3" s="26"/>
       <c r="J3" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="K3" s="29"/>
-    </row>
-    <row r="4" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="69"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="28" t="s">
-        <v>384</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>383</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>295</v>
-      </c>
-      <c r="G4" s="50" t="s">
-        <v>164</v>
-      </c>
-      <c r="H4" s="50"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="27" t="s">
-        <v>211</v>
-      </c>
-      <c r="K4" s="51"/>
-    </row>
-    <row r="5" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="69"/>
-      <c r="B5" s="76"/>
+        <v>206</v>
+      </c>
+      <c r="K3" s="26"/>
+    </row>
+    <row r="4" spans="1:11" ht="60" customHeight="1">
+      <c r="A4" s="68"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>378</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="G4" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="H4" s="45"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="K4" s="46"/>
+    </row>
+    <row r="5" spans="1:11" ht="60" customHeight="1">
+      <c r="A5" s="68"/>
+      <c r="B5" s="75"/>
       <c r="C5" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="D5" s="53" t="s">
-        <v>363</v>
-      </c>
-      <c r="E5" s="53" t="s">
-        <v>381</v>
+        <v>377</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>358</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>376</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="I5" s="29"/>
+        <v>353</v>
+      </c>
+      <c r="I5" s="26"/>
       <c r="J5" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="K5" s="29"/>
-    </row>
-    <row r="6" spans="1:11" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="69"/>
-      <c r="B6" s="60"/>
+        <v>371</v>
+      </c>
+      <c r="K5" s="26"/>
+    </row>
+    <row r="6" spans="1:11" ht="88.5" customHeight="1">
+      <c r="A6" s="68"/>
+      <c r="B6" s="62"/>
       <c r="C6" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="D6" s="54" t="s">
-        <v>379</v>
-      </c>
-      <c r="E6" s="54" t="s">
-        <v>378</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>377</v>
-      </c>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="27" t="s">
-        <v>376</v>
-      </c>
-      <c r="K6" s="51"/>
+        <v>375</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>374</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>373</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="24" t="s">
+        <v>371</v>
+      </c>
+      <c r="K6" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6217,14 +6292,14 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="20.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45" bestFit="1" customWidth="1"/>
@@ -6234,15 +6309,15 @@
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="41.25" customHeight="1" thickBot="1">
       <c r="A1" s="10" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>123</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>121</v>
@@ -6257,7 +6332,7 @@
         <v>118</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>117</v>
@@ -6269,148 +6344,148 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="72" t="s">
-        <v>408</v>
-      </c>
-      <c r="B2" s="76" t="s">
+    <row r="2" spans="1:11" ht="24.95" customHeight="1">
+      <c r="A2" s="71" t="s">
+        <v>403</v>
+      </c>
+      <c r="B2" s="75" t="s">
+        <v>395</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>400</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>407</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>406</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>405</v>
-      </c>
       <c r="F2" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="G2" s="47" t="s">
-        <v>404</v>
-      </c>
-      <c r="H2" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="G2" s="43" t="s">
+        <v>399</v>
+      </c>
+      <c r="H2" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="I2" s="26"/>
+      <c r="I2" s="23"/>
       <c r="J2" s="15" t="s">
         <v>137</v>
       </c>
       <c r="K2" s="15"/>
     </row>
-    <row r="3" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="78"/>
-      <c r="B3" s="76"/>
+    <row r="3" spans="1:11" ht="24.95" customHeight="1">
+      <c r="A3" s="77"/>
+      <c r="B3" s="75"/>
       <c r="C3" s="2" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>193</v>
-      </c>
-      <c r="G3" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="H3" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="H3" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="29"/>
+      <c r="I3" s="26"/>
       <c r="J3" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="K3" s="29"/>
-    </row>
-    <row r="4" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="78"/>
-      <c r="B4" s="60"/>
+      <c r="K3" s="26"/>
+    </row>
+    <row r="4" spans="1:11" ht="33">
+      <c r="A4" s="77"/>
+      <c r="B4" s="62"/>
       <c r="C4" s="2" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>193</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="H4" s="39" t="s">
+        <v>393</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="H4" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="I4" s="29"/>
+      <c r="I4" s="26"/>
       <c r="J4" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="K4" s="29"/>
-    </row>
-    <row r="5" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A5" s="78"/>
+      <c r="K4" s="26"/>
+    </row>
+    <row r="5" spans="1:11" ht="33">
+      <c r="A5" s="77"/>
       <c r="B5" s="2" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="D5" s="46" t="s">
-        <v>396</v>
-      </c>
-      <c r="E5" s="46" t="s">
-        <v>395</v>
-      </c>
-      <c r="F5" s="46" t="s">
-        <v>193</v>
-      </c>
-      <c r="G5" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="H5" s="39" t="s">
+        <v>392</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>391</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>390</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="H5" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="29"/>
+      <c r="I5" s="26"/>
       <c r="J5" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="K5" s="29"/>
-    </row>
-    <row r="6" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="78"/>
+        <v>389</v>
+      </c>
+      <c r="K5" s="26"/>
+    </row>
+    <row r="6" spans="1:11" ht="49.5">
+      <c r="A6" s="77"/>
       <c r="B6" s="2" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>392</v>
-      </c>
-      <c r="E6" s="40" t="s">
-        <v>391</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>169</v>
-      </c>
-      <c r="G6" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="H6" s="39" t="s">
+        <v>388</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>387</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>386</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="H6" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="I6" s="29"/>
+      <c r="I6" s="26"/>
       <c r="J6" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="K6" s="29"/>
+      <c r="K6" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6424,14 +6499,14 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="2" width="14.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
@@ -6440,8 +6515,8 @@
     <col min="7" max="7" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="17.25" thickBot="1"/>
+    <row r="2" spans="1:9" ht="33.75" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>124</v>
       </c>
@@ -6470,18 +6545,18 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="60" t="s">
-        <v>434</v>
-      </c>
-      <c r="B3" s="60" t="s">
-        <v>434</v>
-      </c>
-      <c r="C3" s="60" t="s">
-        <v>434</v>
+    <row r="3" spans="1:9">
+      <c r="A3" s="62" t="s">
+        <v>429</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>429</v>
+      </c>
+      <c r="C3" s="62" t="s">
+        <v>429</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -6491,15 +6566,15 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="61"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
+    <row r="4" spans="1:9">
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
       <c r="D4" s="2" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -6508,15 +6583,15 @@
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="61"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
+    <row r="5" spans="1:9">
+      <c r="A5" s="60"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
       <c r="D5" s="2" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -6525,15 +6600,15 @@
       </c>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="61"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
+    <row r="6" spans="1:9">
+      <c r="A6" s="60"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
       <c r="D6" s="2" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -6542,31 +6617,31 @@
       </c>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="61"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61" t="s">
-        <v>429</v>
+    <row r="7" spans="1:9">
+      <c r="A7" s="60"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60" t="s">
+        <v>424</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="61"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
+    <row r="8" spans="1:9">
+      <c r="A8" s="60"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
       <c r="D8" s="2" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -6576,15 +6651,15 @@
       </c>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="61"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
+    <row r="9" spans="1:9">
+      <c r="A9" s="60"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
       <c r="D9" s="2" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -6593,14 +6668,14 @@
       </c>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="61"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61" t="s">
-        <v>424</v>
+    <row r="10" spans="1:9">
+      <c r="A10" s="60"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60" t="s">
+        <v>419</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -6610,15 +6685,15 @@
       </c>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="61"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
+    <row r="11" spans="1:9">
+      <c r="A11" s="60"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
       <c r="D11" s="2" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -6627,14 +6702,14 @@
       </c>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="61"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61" t="s">
-        <v>421</v>
+    <row r="12" spans="1:9">
+      <c r="A12" s="60"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60" t="s">
+        <v>416</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -6644,12 +6719,12 @@
       </c>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="61"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
+    <row r="13" spans="1:9">
+      <c r="A13" s="60"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
       <c r="D13" s="2" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -6659,15 +6734,15 @@
       </c>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="61"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
+    <row r="14" spans="1:9">
+      <c r="A14" s="60"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
       <c r="D14" s="2" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -6676,15 +6751,15 @@
       </c>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="61"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
+    <row r="15" spans="1:9">
+      <c r="A15" s="60"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
       <c r="D15" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -6693,15 +6768,15 @@
       </c>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="61"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
+    <row r="16" spans="1:9">
+      <c r="A16" s="60"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
       <c r="D16" s="2" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -6710,15 +6785,15 @@
       </c>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="61"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="61"/>
+    <row r="17" spans="1:9">
+      <c r="A17" s="60"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
       <c r="D17" s="2" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -6727,15 +6802,15 @@
       </c>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="61"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61"/>
+    <row r="18" spans="1:9">
+      <c r="A18" s="60"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
       <c r="D18" s="2" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -6744,15 +6819,15 @@
       </c>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="61"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
+    <row r="19" spans="1:9">
+      <c r="A19" s="60"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
       <c r="D19" s="2" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -6776,14 +6851,14 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
@@ -6792,126 +6867,126 @@
     <col min="7" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="17.25" thickBot="1"/>
+    <row r="2" spans="1:9" ht="33.75" thickBot="1">
       <c r="A2" s="10" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="60" t="s">
-        <v>452</v>
-      </c>
-      <c r="B3" s="60" t="s">
-        <v>452</v>
-      </c>
-      <c r="C3" s="60" t="s">
-        <v>451</v>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1">
+      <c r="A3" s="62" t="s">
+        <v>447</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>447</v>
+      </c>
+      <c r="C3" s="62" t="s">
+        <v>446</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="61"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
       <c r="D4" s="2" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="61"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
+    <row r="5" spans="1:9" s="1" customFormat="1">
+      <c r="A5" s="60"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
       <c r="D5" s="2" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="61"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
+    <row r="6" spans="1:9" s="1" customFormat="1">
+      <c r="A6" s="60"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
       <c r="D6" s="2" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="61"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
+    <row r="7" spans="1:9" s="1" customFormat="1">
+      <c r="A7" s="60"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
       <c r="D7" s="2" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="61"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
+    <row r="8" spans="1:9" s="1" customFormat="1">
+      <c r="A8" s="60"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
       <c r="D8" s="2" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -6920,88 +6995,88 @@
       </c>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="61"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61" t="s">
-        <v>443</v>
+    <row r="9" spans="1:9" s="1" customFormat="1">
+      <c r="A9" s="60"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60" t="s">
+        <v>438</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="61"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
+    <row r="10" spans="1:9" s="1" customFormat="1">
+      <c r="A10" s="60"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
       <c r="D10" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1">
+      <c r="A11" s="60"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60" t="s">
+        <v>436</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="61"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61" t="s">
-        <v>441</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>440</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="61"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
+    <row r="12" spans="1:9" s="1" customFormat="1">
+      <c r="A12" s="60"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
       <c r="D12" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="61"/>
-      <c r="B13" s="61"/>
+    <row r="13" spans="1:9" s="1" customFormat="1">
+      <c r="A13" s="60"/>
+      <c r="B13" s="60"/>
       <c r="C13" s="2" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="I13" s="2"/>
     </row>
@@ -7019,14 +7094,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="4" width="11.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.375" customWidth="1"/>
@@ -7036,8 +7111,8 @@
     <col min="10" max="10" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="17.25" thickBot="1"/>
+    <row r="2" spans="1:10" ht="33.75" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>124</v>
       </c>
@@ -7069,7 +7144,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="33">
       <c r="A3" s="6" t="s">
         <v>113</v>
       </c>
@@ -7102,14 +7177,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="H9" sqref="A9:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
@@ -7122,8 +7197,8 @@
     <col min="10" max="10" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="17.25" thickBot="1"/>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="33.75" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>136</v>
       </c>
@@ -7155,7 +7230,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="33">
       <c r="A3" s="6" t="s">
         <v>131</v>
       </c>
@@ -7188,14 +7263,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:J21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="15.875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.625" style="1" bestFit="1" customWidth="1"/>
@@ -7203,12 +7278,12 @@
     <col min="4" max="4" width="37.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="60.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.25" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="7" max="8" width="11.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.25" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="36" customHeight="1" thickBot="1">
       <c r="A1" s="10" t="s">
         <v>124</v>
       </c>
@@ -7231,206 +7306,250 @@
         <v>118</v>
       </c>
       <c r="H1" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="64" t="s">
-        <v>162</v>
-      </c>
-      <c r="B2" s="60" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="66" t="s">
-        <v>160</v>
+    <row r="2" spans="1:11" ht="38.1" customHeight="1">
+      <c r="A2" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>155</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G2" s="14"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="J2" s="6"/>
-    </row>
-    <row r="3" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="65"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="60"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" ht="38.1" customHeight="1">
+      <c r="A3" s="64"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>126</v>
       </c>
       <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2" t="s">
+      <c r="H3" s="55"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="65"/>
-      <c r="B4" s="61" t="s">
-        <v>153</v>
-      </c>
-      <c r="C4" s="67" t="s">
-        <v>152</v>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" ht="38.1" customHeight="1">
+      <c r="A4" s="64"/>
+      <c r="B4" s="60" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="66" t="s">
+        <v>147</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>111</v>
       </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2" t="s">
+      <c r="H4" s="3"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="65"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="60"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" ht="38.1" customHeight="1">
+      <c r="A5" s="64"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="62"/>
       <c r="D5" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>138</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2" t="s">
+      <c r="H5" s="55"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="65"/>
-      <c r="B6" s="61" t="s">
-        <v>147</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>146</v>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" ht="38.25" customHeight="1">
+      <c r="A6" s="64"/>
+      <c r="B6" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>141</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>144</v>
+        <v>501</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>501</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="H6" s="55" t="s">
+        <v>504</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="65"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="67" t="s">
-        <v>143</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2" t="s">
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" ht="38.25" customHeight="1">
+      <c r="A7" s="64"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="55" t="s">
+        <v>500</v>
+      </c>
+      <c r="H7" s="55" t="s">
+        <v>504</v>
+      </c>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="65"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2" t="s">
+      <c r="K7" s="55"/>
+    </row>
+    <row r="8" spans="1:11" ht="38.25" customHeight="1">
+      <c r="A8" s="64"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="55" t="s">
+        <v>502</v>
+      </c>
+      <c r="E8" s="55" t="s">
+        <v>502</v>
+      </c>
+      <c r="F8" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="55" t="s">
+        <v>500</v>
+      </c>
+      <c r="H8" s="55" t="s">
+        <v>504</v>
+      </c>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="38.1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="38.1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="38.1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="38.1" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="K8" s="55"/>
+    </row>
+    <row r="9" spans="1:11" ht="38.1" customHeight="1">
+      <c r="A9" s="64"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="55" t="s">
+        <v>505</v>
+      </c>
+      <c r="D9" s="55" t="s">
+        <v>505</v>
+      </c>
+      <c r="E9" s="55" t="s">
+        <v>505</v>
+      </c>
+      <c r="F9" s="88" t="s">
+        <v>506</v>
+      </c>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" ht="38.1" customHeight="1"/>
+    <row r="11" spans="1:11" ht="38.1" customHeight="1"/>
+    <row r="12" spans="1:11" ht="38.1" customHeight="1"/>
+    <row r="14" spans="1:11" ht="38.1" customHeight="1"/>
+    <row r="15" spans="1:11" ht="38.1" customHeight="1"/>
+    <row r="16" spans="1:11" ht="38.1" customHeight="1"/>
+    <row r="17" ht="38.1" customHeight="1"/>
+    <row r="19" ht="38.1" customHeight="1"/>
+    <row r="20" ht="38.1" customHeight="1"/>
+    <row r="21" ht="38.1" customHeight="1"/>
+    <row r="22" ht="38.1" customHeight="1"/>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A2:A9"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C7:C8"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C8"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:J6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I7" sqref="E6:I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="2" width="14.625" customWidth="1"/>
     <col min="3" max="3" width="27.75" bestFit="1" customWidth="1"/>
@@ -7443,82 +7562,82 @@
     <col min="10" max="10" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:10" ht="33">
+      <c r="A1" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="G1" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="H1" s="28" t="s">
+      <c r="G1" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="H1" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="24" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="68" t="s">
-        <v>183</v>
-      </c>
-      <c r="B2" s="68" t="s">
-        <v>182</v>
+    <row r="2" spans="1:10" ht="49.5">
+      <c r="A2" s="67" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="67" t="s">
+        <v>177</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="H2" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="86" t="s">
         <v>164</v>
+      </c>
+      <c r="G2" s="87" t="s">
+        <v>173</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>159</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>137</v>
       </c>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="69"/>
-      <c r="B3" s="69"/>
+    <row r="3" spans="1:10" ht="33">
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
       <c r="C3" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G3" s="17"/>
       <c r="H3" s="16"/>
@@ -7527,78 +7646,100 @@
       </c>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>157</v>
+    <row r="4" spans="1:10">
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="55" t="s">
+        <v>497</v>
+      </c>
+      <c r="D4" s="55" t="s">
+        <v>498</v>
+      </c>
+      <c r="E4" s="56"/>
+      <c r="F4" s="18" t="s">
+        <v>499</v>
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="16"/>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+    </row>
+    <row r="5" spans="1:10" ht="21.75" customHeight="1">
+      <c r="A5" s="68"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="F5" s="83" t="s">
+        <v>152</v>
+      </c>
+      <c r="G5" s="84" t="s">
+        <v>496</v>
+      </c>
+      <c r="H5" s="16"/>
+      <c r="I5" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A5" s="69"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="69"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D6" s="5" t="s">
+    <row r="6" spans="1:10" ht="33">
+      <c r="A6" s="68"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="D6" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="F6" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="16" t="s">
+      <c r="E6" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="F6" s="83" t="s">
         <v>164</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="G6" s="85" t="s">
         <v>163</v>
       </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="2"/>
       <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" ht="82.5">
+      <c r="A7" s="68"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="F7" s="85" t="s">
+        <v>152</v>
+      </c>
+      <c r="G7" s="84" t="s">
+        <v>496</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J7" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7606,14 +7747,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H10"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="12.25" customWidth="1"/>
     <col min="2" max="2" width="14.75" customWidth="1"/>
@@ -7625,302 +7766,308 @@
     <col min="9" max="9" width="15.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="A1" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="27" t="s">
-        <v>222</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="E1" s="27" t="s">
+      <c r="C1" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="E1" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="G1" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="H1" s="28" t="s">
+      <c r="G1" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="H1" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="24" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69" t="s">
-        <v>219</v>
-      </c>
-      <c r="B2" s="69" t="s">
-        <v>161</v>
+    <row r="2" spans="1:11" ht="61.5" customHeight="1">
+      <c r="A2" s="68" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2" s="68" t="s">
+        <v>156</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>44</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="H2" s="32"/>
+        <v>197</v>
+      </c>
+      <c r="H2" s="82" t="s">
+        <v>492</v>
+      </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="K2" s="29"/>
-    </row>
-    <row r="3" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="69"/>
-      <c r="B3" s="69"/>
+      <c r="K2" s="26"/>
+    </row>
+    <row r="3" spans="1:11" ht="33">
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
       <c r="C3" s="5" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>44</v>
+        <v>493</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H3" s="16"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="K3" s="29"/>
-    </row>
-    <row r="4" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
+        <v>206</v>
+      </c>
+      <c r="K3" s="26"/>
+    </row>
+    <row r="4" spans="1:11" ht="49.5">
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="5" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="G4" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="H4" s="58" t="s">
-        <v>178</v>
+      <c r="F4" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="G4" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>173</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="K4" s="29"/>
-    </row>
-    <row r="5" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A5" s="69"/>
-      <c r="B5" s="69"/>
+        <v>206</v>
+      </c>
+      <c r="K4" s="26"/>
+    </row>
+    <row r="5" spans="1:11" ht="33">
+      <c r="A5" s="68"/>
+      <c r="B5" s="68"/>
       <c r="C5" s="5" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="H5" s="58"/>
+        <v>180</v>
+      </c>
+      <c r="H5" s="53"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="K5" s="29"/>
-    </row>
-    <row r="6" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="69"/>
-      <c r="B6" s="69"/>
+      <c r="K5" s="26"/>
+    </row>
+    <row r="6" spans="1:11" ht="49.5">
+      <c r="A6" s="68"/>
+      <c r="B6" s="68"/>
       <c r="C6" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>207</v>
+        <v>203</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>202</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F6" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>494</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="26"/>
+    </row>
+    <row r="7" spans="1:11" ht="49.5">
+      <c r="A7" s="68"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>495</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="26"/>
+    </row>
+    <row r="8" spans="1:11" ht="49.5">
+      <c r="A8" s="68"/>
+      <c r="B8" s="60" t="s">
+        <v>195</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="29"/>
-    </row>
-    <row r="7" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="69"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="29"/>
-    </row>
-    <row r="8" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="69"/>
-      <c r="B8" s="61" t="s">
-        <v>200</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>198</v>
-      </c>
       <c r="E8" s="13" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>44</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="K8" s="29"/>
-    </row>
-    <row r="9" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A9" s="69"/>
-      <c r="B9" s="61"/>
+      <c r="K8" s="26"/>
+    </row>
+    <row r="9" spans="1:11" ht="33">
+      <c r="A9" s="68"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="5" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="K9" s="29"/>
-    </row>
-    <row r="10" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="69"/>
-      <c r="B10" s="61"/>
+      <c r="K9" s="26"/>
+    </row>
+    <row r="10" spans="1:11" ht="49.5">
+      <c r="A10" s="68"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="5" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="H10" s="58" t="s">
-        <v>178</v>
+        <v>180</v>
+      </c>
+      <c r="H10" s="53" t="s">
+        <v>173</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="K10" s="29"/>
-    </row>
-    <row r="11" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A11" s="69"/>
-      <c r="B11" s="61"/>
+      <c r="K10" s="26"/>
+    </row>
+    <row r="11" spans="1:11" ht="33">
+      <c r="A11" s="68"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="5" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="H11" s="30"/>
+        <v>180</v>
+      </c>
+      <c r="H11" s="27"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="K11" s="29"/>
+      <c r="K11" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7930,18 +8077,19 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="4" width="12.75" customWidth="1"/>
     <col min="5" max="5" width="31.5" bestFit="1" customWidth="1"/>
@@ -7949,8 +8097,8 @@
     <col min="7" max="11" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="17.25" thickBot="1"/>
+    <row r="2" spans="1:11" ht="33.75" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>25</v>
       </c>
@@ -7973,7 +8121,7 @@
         <v>19</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>18</v>
@@ -7985,14 +8133,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="60" t="s">
+    <row r="3" spans="1:11" s="1" customFormat="1">
+      <c r="A3" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="62" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -8003,7 +8151,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>0</v>
@@ -8014,10 +8162,10 @@
       </c>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="61"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="33">
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
       <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
@@ -8035,10 +8183,10 @@
       </c>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="61"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
+    <row r="5" spans="1:11" s="1" customFormat="1">
+      <c r="A5" s="60"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
       <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
@@ -8056,21 +8204,21 @@
       </c>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="61"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
+    <row r="6" spans="1:11" s="1" customFormat="1">
+      <c r="A6" s="60"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
       <c r="D6" s="2" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>0</v>
@@ -8081,10 +8229,10 @@
       </c>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="61"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
+    <row r="7" spans="1:11" s="1" customFormat="1">
+      <c r="A7" s="60"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
       <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
@@ -8095,7 +8243,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>0</v>
@@ -8106,10 +8254,10 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="61"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
+    <row r="8" spans="1:11" s="1" customFormat="1">
+      <c r="A8" s="60"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
       <c r="D8" s="2" t="s">
         <v>4</v>
       </c>
@@ -8118,7 +8266,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>0</v>
@@ -8129,10 +8277,10 @@
       </c>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="61"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
+    <row r="9" spans="1:11" s="1" customFormat="1">
+      <c r="A9" s="60"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
       <c r="D9" s="2" t="s">
         <v>3</v>
       </c>
@@ -8143,7 +8291,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>0</v>
@@ -8155,7 +8303,7 @@
       <c r="K9" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:K9" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A2:K9"/>
   <mergeCells count="3">
     <mergeCell ref="C3:C9"/>
     <mergeCell ref="A3:A9"/>
@@ -8167,14 +8315,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
@@ -8185,8 +8333,8 @@
     <col min="8" max="9" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="17.25" thickBot="1"/>
+    <row r="2" spans="1:10" ht="33.75" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>124</v>
       </c>
@@ -8218,27 +8366,27 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="60" t="s">
-        <v>239</v>
-      </c>
-      <c r="B3" s="60" t="s">
-        <v>238</v>
-      </c>
-      <c r="C3" s="60" t="s">
-        <v>237</v>
+    <row r="3" spans="1:10" ht="33">
+      <c r="A3" s="62" t="s">
+        <v>234</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>233</v>
+      </c>
+      <c r="C3" s="62" t="s">
+        <v>232</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6" t="s">
@@ -8246,21 +8394,21 @@
       </c>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="61"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
+    <row r="4" spans="1:10">
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
       <c r="D4" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
@@ -8268,21 +8416,21 @@
       </c>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="61"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
+    <row r="5" spans="1:10">
+      <c r="A5" s="60"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
       <c r="D5" s="2" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
@@ -8290,21 +8438,21 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="61"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
+    <row r="6" spans="1:10">
+      <c r="A6" s="60"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
       <c r="D6" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
@@ -8312,21 +8460,21 @@
       </c>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A7" s="61"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
+    <row r="7" spans="1:10" ht="33">
+      <c r="A7" s="60"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
       <c r="D7" s="5" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>44</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
@@ -8334,21 +8482,21 @@
       </c>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="61"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
+    <row r="8" spans="1:10">
+      <c r="A8" s="60"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
       <c r="D8" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
@@ -8368,14 +8516,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
@@ -8387,8 +8535,8 @@
     <col min="12" max="12" width="31.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="17.25" thickBot="1"/>
+    <row r="2" spans="1:11" ht="33.75" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>78</v>
       </c>
@@ -8411,7 +8559,7 @@
         <v>72</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>71</v>
@@ -8423,14 +8571,14 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="60" t="s">
+    <row r="3" spans="1:11" s="1" customFormat="1">
+      <c r="A3" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="62" t="s">
         <v>66</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -8443,7 +8591,7 @@
         <v>44</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -8452,10 +8600,10 @@
       </c>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="61"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
+    <row r="4" spans="1:11" s="1" customFormat="1">
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
       <c r="D4" s="2" t="s">
         <v>63</v>
       </c>
@@ -8466,7 +8614,7 @@
         <v>44</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -8475,10 +8623,10 @@
       </c>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="61"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
+    <row r="5" spans="1:11" s="1" customFormat="1">
+      <c r="A5" s="60"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
       <c r="D5" s="2" t="s">
         <v>61</v>
       </c>
@@ -8489,7 +8637,7 @@
         <v>59</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="2"/>
@@ -8498,8 +8646,8 @@
       </c>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="61"/>
+    <row r="6" spans="1:11" s="1" customFormat="1">
+      <c r="A6" s="60"/>
       <c r="B6" s="2" t="s">
         <v>58</v>
       </c>
@@ -8516,7 +8664,7 @@
         <v>32</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="2"/>
@@ -8525,25 +8673,25 @@
       </c>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="61"/>
-      <c r="B7" s="61" t="s">
+    <row r="7" spans="1:11" s="1" customFormat="1">
+      <c r="A7" s="60"/>
+      <c r="B7" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="61" t="s">
         <v>53</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>44</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="2"/>
@@ -8552,21 +8700,21 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="61"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
+    <row r="8" spans="1:11" s="1" customFormat="1">
+      <c r="A8" s="60"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
       <c r="D8" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>32</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="2"/>
@@ -8575,21 +8723,21 @@
       </c>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="61"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
+    <row r="9" spans="1:11" s="1" customFormat="1">
+      <c r="A9" s="60"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
       <c r="D9" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>32</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="2"/>
@@ -8598,21 +8746,21 @@
       </c>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="61"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
+    <row r="10" spans="1:11" s="1" customFormat="1">
+      <c r="A10" s="60"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
       <c r="D10" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>32</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="2"/>
@@ -8621,21 +8769,21 @@
       </c>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="61"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
+    <row r="11" spans="1:11" s="1" customFormat="1">
+      <c r="A11" s="60"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
       <c r="D11" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>32</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="2"/>
@@ -8644,10 +8792,10 @@
       </c>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="61"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
+    <row r="12" spans="1:11" s="1" customFormat="1">
+      <c r="A12" s="60"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
       <c r="D12" s="2" t="s">
         <v>47</v>
       </c>
@@ -8658,7 +8806,7 @@
         <v>27</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="2"/>
@@ -8667,21 +8815,21 @@
       </c>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="61"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
+    <row r="13" spans="1:11" s="1" customFormat="1">
+      <c r="A13" s="60"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
       <c r="D13" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>44</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="2"/>
@@ -8690,21 +8838,21 @@
       </c>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="61"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
+    <row r="14" spans="1:11" s="1" customFormat="1">
+      <c r="A14" s="60"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
       <c r="D14" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>32</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="2"/>
@@ -8713,21 +8861,21 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="61"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
+    <row r="15" spans="1:11" s="1" customFormat="1">
+      <c r="A15" s="60"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
       <c r="D15" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>27</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H15" s="12"/>
       <c r="I15" s="2"/>
@@ -8736,10 +8884,10 @@
       </c>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="61"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
+    <row r="16" spans="1:11" s="1" customFormat="1">
+      <c r="A16" s="60"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
       <c r="D16" s="2" t="s">
         <v>42</v>
       </c>
@@ -8750,7 +8898,7 @@
         <v>32</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="2"/>
@@ -8759,9 +8907,9 @@
       </c>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="61"/>
-      <c r="B17" s="63" t="s">
+    <row r="17" spans="1:12" s="1" customFormat="1">
+      <c r="A17" s="60"/>
+      <c r="B17" s="61" t="s">
         <v>40</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -8777,7 +8925,7 @@
         <v>32</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H17" s="12"/>
       <c r="I17" s="2"/>
@@ -8786,23 +8934,23 @@
       </c>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="61"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61" t="s">
+    <row r="18" spans="1:12" s="1" customFormat="1">
+      <c r="A18" s="60"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60" t="s">
         <v>35</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>32</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="2"/>
@@ -8810,25 +8958,25 @@
         <v>26</v>
       </c>
       <c r="K18" s="2"/>
-      <c r="L18" s="49" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="61"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
+      <c r="L18" s="44" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="1" customFormat="1">
+      <c r="A19" s="60"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
       <c r="D19" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>32</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H19" s="12"/>
       <c r="I19" s="2"/>
@@ -8837,21 +8985,21 @@
       </c>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="61"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
+    <row r="20" spans="1:12" s="1" customFormat="1">
+      <c r="A20" s="60"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
       <c r="D20" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>27</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H20" s="12"/>
       <c r="I20" s="2"/>
@@ -8860,8 +9008,8 @@
       </c>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:12" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A21" s="61"/>
+    <row r="21" spans="1:12" s="1" customFormat="1" ht="33">
+      <c r="A21" s="60"/>
       <c r="B21" s="5" t="s">
         <v>30</v>
       </c>
@@ -8872,13 +9020,13 @@
         <v>28</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>27</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H21" s="12"/>
       <c r="I21" s="2"/>
@@ -8888,7 +9036,7 @@
       <c r="K21" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:K21" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A2:K21"/>
   <mergeCells count="7">
     <mergeCell ref="A3:A21"/>
     <mergeCell ref="C18:C20"/>

--- a/기능명세서 최종본.xlsx
+++ b/기능명세서 최종본.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="프로필 수정 및 관리" sheetId="4" r:id="rId1"/>
@@ -28,8 +28,6 @@
     <sheet name="공지사항" sheetId="15" r:id="rId14"/>
     <sheet name="서식자료실" sheetId="16" r:id="rId15"/>
     <sheet name="가이드" sheetId="17" r:id="rId16"/>
-    <sheet name="ㅋㅋㅋㅋㅋ" sheetId="18" r:id="rId17"/>
-    <sheet name="ㅋㅋㅋㅋ" sheetId="19" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">메인!$A$2:$K$21</definedName>
@@ -46,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="467">
   <si>
     <t>서영</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -508,11 +506,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>적립 및 사용한 포인트에 대한 
-날짜 / 금액 / 잔액 표시</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>포인트 조회</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -617,10 +610,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>보류</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>유저의 사업장 내 직원 검색
 검색결과 직원의 급여명세서 확인 가능</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -638,14 +627,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>클릭 시 , 이미 발급된 급여명세서 목록 조회</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>발급된 급여명세서 목록 조회</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>강의 동영상 플레이 활성화</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -675,14 +656,6 @@
   </si>
   <si>
     <t>상</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>페이지 목록 이동</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>페이지 이동 버튼</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1380,10 +1353,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>이름으로 통한 검색</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 정보 조회</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1734,209 +1703,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>하단에 직원 /고정/비고정 알바생 정보 수정 페이지로 넘어가기</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동 버튼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정할 사항 수정 후 최종 수정 결정</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>검색 버튼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>체크 후 삭제 버튼 클릭</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 페이지에서 +버튼 클릭 시 추가 페이지로 이동</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4대보험, 3.3%,일용직,갑근세, 공제 X 선택</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>공제항목 선택</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름 입력</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>체크 버튼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>공통 기능</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">클릭 시, 요일 선택 및 요일별 근무시간 선택 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">근무요일 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고정 알바생 정보 수정</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>달력 : 결석일 체크</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>결석일 버튼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>시급 입력</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>서영</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>고정 알바생 정보 수정</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>달력 : 추가근무일 및 추가 근무 시간 작성</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>추가 근무일 버튼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>근로요일/ 시간 버튼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>월급 입력</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>직원 정보 수정</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>서영</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>시급 입력</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고정 알바생 추가 기능</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>시급 입력</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>요일 및 일별 시간 작성</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>근로요일/ 시간 버튼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>고정알바생 추가 기능</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>월급 입력</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>직원 추가 기능</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>클릭 시, 최종 등록</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>확인 버튼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>사진 삽입</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>공제항목 선택</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>입사일 입력</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>생년월일 입력</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름 입력</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>공통 기능</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>직원 추가</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성자</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>디자인여부
-(UI화면)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>구현여부
-(코딩)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>기능</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>구분</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>세부페이지</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>화면</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -2161,6 +1928,75 @@
   </si>
   <si>
     <t>모르겠음</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>서영</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현자</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>동근</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현자</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의 검색</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>전제 조회</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>동근</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>적립포인트에 대한 
+날짜 / 금액 / 잔액 표시</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>중</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현자</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>서영</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2489,7 +2325,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2532,233 +2368,254 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3042,10 +2899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:K21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3098,29 +2955,29 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="49.5">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="76" t="s">
         <v>107</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>471</v>
+        <v>414</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>491</v>
+        <v>434</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6" t="s">
@@ -3129,9 +2986,9 @@
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="59"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="62"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="76"/>
       <c r="D4" s="6" t="s">
         <v>51</v>
       </c>
@@ -3140,19 +2997,19 @@
         <v>1</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="60"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
+      <c r="A5" s="74"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
       <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
@@ -3161,10 +3018,10 @@
         <v>44</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
@@ -3173,9 +3030,9 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="60"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
+      <c r="A6" s="74"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
       <c r="D6" s="2" t="s">
         <v>106</v>
       </c>
@@ -3184,10 +3041,10 @@
         <v>44</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
@@ -3196,23 +3053,23 @@
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" ht="33">
-      <c r="A7" s="60"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
+      <c r="A7" s="74"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
       <c r="D7" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="F7" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="F7" s="64" t="s">
         <v>44</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
@@ -3221,23 +3078,23 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="60"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
+      <c r="A8" s="74"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
       <c r="D8" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>173</v>
+      <c r="G8" s="64" t="s">
+        <v>167</v>
+      </c>
+      <c r="H8" s="64" t="s">
+        <v>167</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
@@ -3246,9 +3103,9 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="60"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60" t="s">
+      <c r="A9" s="74"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74" t="s">
         <v>101</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -3257,32 +3114,40 @@
       <c r="E9" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64" t="s">
+        <v>465</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>466</v>
+      </c>
       <c r="J9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="33">
-      <c r="A10" s="60"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
+      <c r="A10" s="74"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
       <c r="D10" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="G10" s="64" t="s">
+        <v>167</v>
+      </c>
+      <c r="H10" s="64" t="s">
+        <v>167</v>
+      </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
         <v>36</v>
@@ -3290,9 +3155,9 @@
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="60"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="60" t="s">
+      <c r="A11" s="74"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="74" t="s">
         <v>96</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -3301,11 +3166,13 @@
       <c r="E11" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64" t="s">
+        <v>465</v>
+      </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2" t="s">
         <v>36</v>
@@ -3313,18 +3180,22 @@
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="60"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
+      <c r="A12" s="74"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
       <c r="D12" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="G12" s="64" t="s">
+        <v>167</v>
+      </c>
+      <c r="H12" s="64" t="s">
+        <v>167</v>
+      </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2" t="s">
         <v>36</v>
@@ -3332,20 +3203,22 @@
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="60"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="60"/>
+      <c r="A13" s="74"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
       <c r="D13" s="2" t="s">
         <v>89</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64" t="s">
+        <v>465</v>
+      </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2" t="s">
         <v>36</v>
@@ -3353,9 +3226,9 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="60"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="61" t="s">
+      <c r="A14" s="74"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="75" t="s">
         <v>94</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -3364,11 +3237,15 @@
       <c r="E14" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="G14" s="64" t="s">
+        <v>167</v>
+      </c>
+      <c r="H14" s="64" t="s">
+        <v>167</v>
+      </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2" t="s">
         <v>36</v>
@@ -3376,20 +3253,22 @@
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="60"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="61"/>
+      <c r="A15" s="74"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="75"/>
       <c r="D15" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64" t="s">
+        <v>465</v>
+      </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2" t="s">
         <v>36</v>
@@ -3397,18 +3276,22 @@
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="60"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="61"/>
+      <c r="A16" s="74"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="75"/>
       <c r="D16" s="2" t="s">
         <v>90</v>
       </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="G16" s="64" t="s">
+        <v>167</v>
+      </c>
+      <c r="H16" s="64" t="s">
+        <v>167</v>
+      </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2" t="s">
         <v>26</v>
@@ -3416,20 +3299,22 @@
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="60"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="61"/>
+      <c r="A17" s="74"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="75"/>
       <c r="D17" s="2" t="s">
         <v>89</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64" t="s">
+        <v>465</v>
+      </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2" t="s">
         <v>26</v>
@@ -3437,9 +3322,9 @@
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="60"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60" t="s">
+      <c r="A18" s="74"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="74" t="s">
         <v>88</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -3448,11 +3333,15 @@
       <c r="E18" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="G18" s="64" t="s">
+        <v>167</v>
+      </c>
+      <c r="H18" s="64" t="s">
+        <v>167</v>
+      </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2" t="s">
         <v>26</v>
@@ -3460,18 +3349,20 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="60"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
+      <c r="A19" s="74"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="74"/>
       <c r="D19" s="2" t="s">
         <v>85</v>
       </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64" t="s">
+        <v>465</v>
+      </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2" t="s">
         <v>26</v>
@@ -3479,20 +3370,24 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="60"/>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
+      <c r="A20" s="74"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="74"/>
       <c r="D20" s="2" t="s">
         <v>84</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="G20" s="64" t="s">
+        <v>167</v>
+      </c>
+      <c r="H20" s="64" t="s">
+        <v>167</v>
+      </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2" t="s">
         <v>82</v>
@@ -3500,25 +3395,40 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="60"/>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
+      <c r="A21" s="74"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64" t="s">
+        <v>465</v>
+      </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2" t="s">
         <v>79</v>
       </c>
       <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="F22" s="96"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="96"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="96"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="F24" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3563,81 +3473,81 @@
         <v>78</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="62" t="s">
-        <v>266</v>
-      </c>
-      <c r="B3" s="62" t="s">
-        <v>265</v>
-      </c>
-      <c r="C3" s="62" t="s">
-        <v>264</v>
+      <c r="A3" s="76" t="s">
+        <v>260</v>
+      </c>
+      <c r="B3" s="76" t="s">
+        <v>259</v>
+      </c>
+      <c r="C3" s="76" t="s">
+        <v>258</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>48</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>36</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="60"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
       <c r="D4" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2" t="s">
@@ -3646,21 +3556,21 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="60"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
+      <c r="A5" s="74"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
       <c r="D5" s="2" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
@@ -3669,27 +3579,27 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="60"/>
-      <c r="B6" s="60" t="s">
-        <v>262</v>
-      </c>
-      <c r="C6" s="60" t="s">
-        <v>261</v>
+      <c r="A6" s="74"/>
+      <c r="B6" s="74" t="s">
+        <v>256</v>
+      </c>
+      <c r="C6" s="74" t="s">
+        <v>255</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
@@ -3698,40 +3608,40 @@
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="60"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
+      <c r="A7" s="74"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
       <c r="D7" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="60"/>
-      <c r="B8" s="60" t="s">
-        <v>457</v>
+      <c r="A8" s="74"/>
+      <c r="B8" s="74" t="s">
+        <v>400</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>459</v>
+        <v>402</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
@@ -3741,7 +3651,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
@@ -3750,16 +3660,16 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="49.5">
-      <c r="A9" s="60"/>
-      <c r="B9" s="60"/>
+      <c r="A9" s="74"/>
+      <c r="B9" s="74"/>
       <c r="C9" s="2" t="s">
-        <v>458</v>
+        <v>401</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>460</v>
+        <v>403</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>461</v>
+        <v>404</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>1</v>
@@ -3768,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
@@ -3777,27 +3687,27 @@
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="60"/>
-      <c r="B10" s="60" t="s">
-        <v>257</v>
-      </c>
-      <c r="C10" s="60" t="s">
+      <c r="A10" s="74"/>
+      <c r="B10" s="74" t="s">
+        <v>251</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>58</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>36</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
@@ -3806,23 +3716,23 @@
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="60"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
+      <c r="A11" s="74"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
       <c r="D11" s="2" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2" t="s">
@@ -3831,39 +3741,39 @@
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="60"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
+      <c r="A12" s="74"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
       <c r="D12" s="2" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11" ht="33">
-      <c r="A13" s="60"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="60"/>
+      <c r="A13" s="74"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
       <c r="D13" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>44</v>
@@ -3872,7 +3782,7 @@
         <v>36</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2" t="s">
@@ -3881,37 +3791,37 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="60"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="66" t="s">
-        <v>248</v>
+      <c r="A14" s="74"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="80" t="s">
+        <v>242</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="60"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="62"/>
+      <c r="A15" s="74"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="76"/>
       <c r="E15" s="5" t="s">
-        <v>462</v>
+        <v>405</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>27</v>
@@ -3920,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2" t="s">
@@ -3929,152 +3839,152 @@
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="60"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
+      <c r="A16" s="74"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
       <c r="D16" s="2" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="60"/>
-      <c r="B17" s="60" t="s">
-        <v>246</v>
-      </c>
-      <c r="C17" s="60" t="s">
-        <v>246</v>
+      <c r="A17" s="74"/>
+      <c r="B17" s="74" t="s">
+        <v>240</v>
+      </c>
+      <c r="C17" s="74" t="s">
+        <v>240</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="60"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
+      <c r="A18" s="74"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="74"/>
       <c r="D18" s="2" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="74"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="60"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="2" t="s">
-        <v>241</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="60"/>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
+      <c r="A20" s="74"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="74"/>
       <c r="D20" s="2" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A21" s="60"/>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
+      <c r="A21" s="74"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="2" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="K21" s="2"/>
     </row>
@@ -4106,8 +4016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H14" sqref="D14:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4131,19 +4041,19 @@
         <v>77</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>73</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>109</v>
@@ -4159,14 +4069,14 @@
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="72" t="s">
-        <v>311</v>
-      </c>
-      <c r="B3" s="72" t="s">
-        <v>311</v>
-      </c>
-      <c r="C3" s="69" t="s">
-        <v>310</v>
+      <c r="A3" s="87" t="s">
+        <v>305</v>
+      </c>
+      <c r="B3" s="87" t="s">
+        <v>305</v>
+      </c>
+      <c r="C3" s="84" t="s">
+        <v>304</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>51</v>
@@ -4176,10 +4086,10 @@
         <v>44</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="2" t="s">
@@ -4188,37 +4098,37 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="70"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
+      <c r="A4" s="85"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
       <c r="D4" s="12" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="2" t="s">
         <v>36</v>
       </c>
       <c r="K4" s="2"/>
-      <c r="L4" s="30" t="s">
-        <v>484</v>
+      <c r="L4" s="29" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="70"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
+      <c r="A5" s="85"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
       <c r="D5" s="12" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12" t="s">
@@ -4228,20 +4138,20 @@
         <v>36</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="70"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
+      <c r="A6" s="85"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
       <c r="D6" s="12" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12" t="s">
@@ -4251,181 +4161,181 @@
         <v>36</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="I6" s="12"/>
       <c r="J6" s="2" t="s">
         <v>36</v>
       </c>
       <c r="K6" s="2"/>
-      <c r="L6" s="30" t="s">
-        <v>485</v>
+      <c r="L6" s="29" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="70"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
+      <c r="A7" s="85"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
       <c r="D7" s="12" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="12" t="s">
         <v>44</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="70"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
+      <c r="A8" s="85"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
       <c r="D8" s="12" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12" t="s">
         <v>44</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="I8" s="12"/>
       <c r="J8" s="2" t="s">
         <v>36</v>
       </c>
       <c r="K8" s="2"/>
-      <c r="L8" s="30" t="s">
-        <v>484</v>
+      <c r="L8" s="29" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="70"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
+      <c r="A9" s="85"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
       <c r="D9" s="12" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>36</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="K9" s="2"/>
-      <c r="L9" s="31" t="s">
-        <v>486</v>
+      <c r="L9" s="30" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="70"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="70"/>
+      <c r="A10" s="85"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
       <c r="D10" s="12" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12" t="s">
         <v>44</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K10" s="2"/>
-      <c r="L10" s="30" t="s">
-        <v>484</v>
+      <c r="L10" s="29" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="70"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
+      <c r="A11" s="85"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
       <c r="D11" s="12" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K11" s="2"/>
-      <c r="L11" s="30" t="s">
-        <v>484</v>
+      <c r="L11" s="29" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="70"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="71"/>
+      <c r="A12" s="85"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="86"/>
       <c r="D12" s="12" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12" t="s">
         <v>44</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="I12" s="12"/>
       <c r="J12" s="2" t="s">
         <v>36</v>
       </c>
       <c r="K12" s="2"/>
-      <c r="L12" s="30" t="s">
-        <v>484</v>
+      <c r="L12" s="29" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="70"/>
-      <c r="B13" s="70"/>
+      <c r="A13" s="85"/>
+      <c r="B13" s="85"/>
       <c r="C13" s="12" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>59</v>
@@ -4434,7 +4344,7 @@
         <v>36</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="2" t="s">
@@ -4443,51 +4353,51 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="70"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="73" t="s">
-        <v>297</v>
+      <c r="A14" s="85"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="88" t="s">
+        <v>291</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>111</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="3" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="70"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="71"/>
+      <c r="A15" s="85"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="86"/>
       <c r="D15" s="3" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="3" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>36</v>
@@ -4495,16 +4405,16 @@
       <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="70"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>292</v>
+      <c r="A16" s="85"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>286</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>5</v>
@@ -4513,41 +4423,41 @@
         <v>0</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="I16" s="12"/>
       <c r="J16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="K16" s="2"/>
-      <c r="L16" s="29" t="s">
+      <c r="L16" s="28" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="53.25" customHeight="1">
-      <c r="A17" s="74" t="s">
-        <v>474</v>
-      </c>
-      <c r="B17" s="74" t="s">
-        <v>474</v>
+      <c r="A17" s="89" t="s">
+        <v>417</v>
+      </c>
+      <c r="B17" s="89" t="s">
+        <v>417</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2" t="s">
@@ -4556,23 +4466,23 @@
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="75"/>
-      <c r="B18" s="75"/>
-      <c r="C18" s="66" t="s">
-        <v>284</v>
+      <c r="A18" s="81"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="80" t="s">
+        <v>278</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2" t="s">
@@ -4581,366 +4491,366 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="75"/>
-      <c r="B19" s="75"/>
-      <c r="C19" s="75"/>
+      <c r="A19" s="81"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="81"/>
       <c r="D19" s="12" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="75"/>
-      <c r="B20" s="75"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="57" t="s">
+      <c r="A20" s="81"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="56" t="s">
+        <v>275</v>
+      </c>
+      <c r="E20" s="56" t="s">
+        <v>274</v>
+      </c>
+      <c r="F20" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="K20" s="56"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="81"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="56" t="s">
+        <v>273</v>
+      </c>
+      <c r="E21" s="56" t="s">
+        <v>272</v>
+      </c>
+      <c r="F21" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="K21" s="56"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="81"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="56" t="s">
+        <v>270</v>
+      </c>
+      <c r="E22" s="56" t="s">
+        <v>269</v>
+      </c>
+      <c r="F22" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="K22" s="56"/>
+    </row>
+    <row r="23" spans="1:12" ht="33">
+      <c r="A23" s="81"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="89" t="s">
+        <v>268</v>
+      </c>
+      <c r="D23" s="56" t="s">
+        <v>267</v>
+      </c>
+      <c r="E23" s="55" t="s">
+        <v>406</v>
+      </c>
+      <c r="F23" s="56" t="s">
+        <v>264</v>
+      </c>
+      <c r="G23" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="K23" s="56"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="81"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="56" t="s">
+        <v>266</v>
+      </c>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="K24" s="56"/>
+    </row>
+    <row r="25" spans="1:12" ht="49.5">
+      <c r="A25" s="76"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="55" t="s">
+        <v>265</v>
+      </c>
+      <c r="E25" s="55" t="s">
+        <v>419</v>
+      </c>
+      <c r="F25" s="56" t="s">
+        <v>264</v>
+      </c>
+      <c r="G25" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="K25" s="56"/>
+    </row>
+    <row r="26" spans="1:12" ht="16.5" customHeight="1">
+      <c r="A26" s="75" t="s">
+        <v>418</v>
+      </c>
+      <c r="B26" s="75" t="s">
+        <v>418</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D26" s="56" t="s">
         <v>281</v>
       </c>
-      <c r="E20" s="57" t="s">
+      <c r="E26" s="55" t="s">
         <v>280</v>
       </c>
-      <c r="F20" s="57" t="s">
+      <c r="F26" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="K26" s="56"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="74"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="74" t="s">
+        <v>278</v>
+      </c>
+      <c r="D27" s="56" t="s">
+        <v>277</v>
+      </c>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="K27" s="56"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="74"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="K28" s="56"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="74"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="56" t="s">
+        <v>275</v>
+      </c>
+      <c r="E29" s="56" t="s">
+        <v>274</v>
+      </c>
+      <c r="F29" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="G20" s="57" t="s">
+      <c r="G29" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="H20" s="57" t="s">
-        <v>173</v>
-      </c>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="K20" s="57"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="75"/>
-      <c r="B21" s="75"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="57" t="s">
-        <v>279</v>
-      </c>
-      <c r="E21" s="57" t="s">
-        <v>278</v>
-      </c>
-      <c r="F21" s="57" t="s">
+      <c r="H29" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="K29" s="56"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="74"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="56" t="s">
+        <v>273</v>
+      </c>
+      <c r="E30" s="56" t="s">
+        <v>272</v>
+      </c>
+      <c r="F30" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="G21" s="57" t="s">
+      <c r="G30" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="H21" s="57" t="s">
-        <v>173</v>
-      </c>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="K21" s="57"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="75"/>
-      <c r="B22" s="75"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="57" t="s">
-        <v>276</v>
-      </c>
-      <c r="E22" s="57" t="s">
-        <v>275</v>
-      </c>
-      <c r="F22" s="57" t="s">
+      <c r="H30" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="K30" s="56"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="74"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="56" t="s">
+        <v>270</v>
+      </c>
+      <c r="E31" s="56" t="s">
+        <v>269</v>
+      </c>
+      <c r="F31" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="G22" s="57" t="s">
+      <c r="G31" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="H22" s="57" t="s">
-        <v>173</v>
-      </c>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="K22" s="57"/>
-    </row>
-    <row r="23" spans="1:12" ht="33">
-      <c r="A23" s="75"/>
-      <c r="B23" s="75"/>
-      <c r="C23" s="74" t="s">
-        <v>274</v>
-      </c>
-      <c r="D23" s="57" t="s">
-        <v>273</v>
-      </c>
-      <c r="E23" s="56" t="s">
-        <v>463</v>
-      </c>
-      <c r="F23" s="57" t="s">
-        <v>270</v>
-      </c>
-      <c r="G23" s="57" t="s">
+      <c r="H31" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="H23" s="57" t="s">
-        <v>173</v>
-      </c>
-      <c r="I23" s="57"/>
-      <c r="J23" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="K23" s="57"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="75"/>
-      <c r="B24" s="75"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="57" t="s">
-        <v>272</v>
-      </c>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="G24" s="57" t="s">
+      <c r="K31" s="56"/>
+    </row>
+    <row r="32" spans="1:12" ht="33">
+      <c r="A32" s="74"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="75" t="s">
+        <v>268</v>
+      </c>
+      <c r="D32" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" s="55" t="s">
+        <v>406</v>
+      </c>
+      <c r="F32" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="G32" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="H24" s="57" t="s">
-        <v>173</v>
-      </c>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="K24" s="57"/>
-    </row>
-    <row r="25" spans="1:12" ht="49.5">
-      <c r="A25" s="62"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="56" t="s">
-        <v>271</v>
-      </c>
-      <c r="E25" s="56" t="s">
-        <v>476</v>
-      </c>
-      <c r="F25" s="57" t="s">
-        <v>270</v>
-      </c>
-      <c r="G25" s="57" t="s">
+      <c r="H32" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="H25" s="57" t="s">
-        <v>173</v>
-      </c>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="K25" s="57"/>
-    </row>
-    <row r="26" spans="1:12" ht="16.5" customHeight="1">
-      <c r="A26" s="61" t="s">
-        <v>475</v>
-      </c>
-      <c r="B26" s="61" t="s">
-        <v>475</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D26" s="57" t="s">
-        <v>287</v>
-      </c>
-      <c r="E26" s="56" t="s">
-        <v>286</v>
-      </c>
-      <c r="F26" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="H26" s="57" t="s">
-        <v>173</v>
-      </c>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="K26" s="57"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="60"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="60" t="s">
-        <v>284</v>
-      </c>
-      <c r="D27" s="57" t="s">
-        <v>283</v>
-      </c>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="G27" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="H27" s="57" t="s">
-        <v>173</v>
-      </c>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="K27" s="57"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="60"/>
-      <c r="B28" s="60"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="57" t="s">
-        <v>282</v>
-      </c>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="G28" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="H28" s="57" t="s">
-        <v>173</v>
-      </c>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="K28" s="57"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="60"/>
-      <c r="B29" s="60"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="57" t="s">
-        <v>281</v>
-      </c>
-      <c r="E29" s="57" t="s">
-        <v>280</v>
-      </c>
-      <c r="F29" s="57" t="s">
-        <v>102</v>
-      </c>
-      <c r="G29" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="H29" s="57" t="s">
-        <v>173</v>
-      </c>
-      <c r="I29" s="57"/>
-      <c r="J29" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="K29" s="57"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="60"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="57" t="s">
-        <v>279</v>
-      </c>
-      <c r="E30" s="57" t="s">
-        <v>278</v>
-      </c>
-      <c r="F30" s="57" t="s">
-        <v>102</v>
-      </c>
-      <c r="G30" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="H30" s="57" t="s">
-        <v>173</v>
-      </c>
-      <c r="I30" s="57"/>
-      <c r="J30" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="K30" s="57"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="60"/>
-      <c r="B31" s="60"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="57" t="s">
-        <v>276</v>
-      </c>
-      <c r="E31" s="57" t="s">
-        <v>275</v>
-      </c>
-      <c r="F31" s="57" t="s">
-        <v>102</v>
-      </c>
-      <c r="G31" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="H31" s="57" t="s">
-        <v>173</v>
-      </c>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="K31" s="57"/>
-    </row>
-    <row r="32" spans="1:12" ht="33">
-      <c r="A32" s="60"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="61" t="s">
-        <v>274</v>
-      </c>
-      <c r="D32" s="57" t="s">
-        <v>104</v>
-      </c>
-      <c r="E32" s="56" t="s">
-        <v>463</v>
-      </c>
-      <c r="F32" s="57" t="s">
-        <v>102</v>
-      </c>
-      <c r="G32" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="H32" s="57" t="s">
-        <v>173</v>
-      </c>
-      <c r="I32" s="57"/>
-      <c r="J32" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="K32" s="57"/>
+      <c r="K32" s="56"/>
       <c r="L32" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="60"/>
-      <c r="B33" s="60"/>
-      <c r="C33" s="60"/>
+      <c r="A33" s="74"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="74"/>
       <c r="D33" s="12" t="s">
         <v>105</v>
       </c>
@@ -4952,7 +4862,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2" t="s">
@@ -5003,25 +4913,25 @@
     <row r="1" spans="1:12" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:12" ht="33.75" thickBot="1">
       <c r="A2" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>109</v>
@@ -5030,52 +4940,52 @@
         <v>71</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1">
-      <c r="A3" s="62" t="s">
-        <v>323</v>
-      </c>
-      <c r="B3" s="59" t="s">
-        <v>323</v>
-      </c>
-      <c r="C3" s="59" t="s">
-        <v>322</v>
+      <c r="A3" s="76" t="s">
+        <v>316</v>
+      </c>
+      <c r="B3" s="73" t="s">
+        <v>316</v>
+      </c>
+      <c r="C3" s="73" t="s">
+        <v>315</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>465</v>
+        <v>408</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>466</v>
+        <v>409</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1">
-      <c r="A4" s="62"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
+      <c r="A4" s="76"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
       <c r="D4" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>1</v>
@@ -5084,7 +4994,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="2" t="s">
@@ -5093,14 +5003,14 @@
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1">
-      <c r="A5" s="62"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
+      <c r="A5" s="76"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
       <c r="D5" s="2" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>102</v>
@@ -5109,7 +5019,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="2" t="s">
@@ -5118,39 +5028,39 @@
       <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1">
-      <c r="A6" s="62"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
+      <c r="A6" s="76"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
       <c r="D6" s="2" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1">
-      <c r="A7" s="62"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
+      <c r="A7" s="76"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
       <c r="D7" s="2" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>102</v>
@@ -5159,51 +5069,51 @@
         <v>0</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1">
-      <c r="A8" s="60"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
+      <c r="A8" s="74"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="2" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="66" t="s">
-        <v>468</v>
-      </c>
-      <c r="B9" s="66" t="s">
-        <v>447</v>
-      </c>
-      <c r="C9" s="66" t="s">
-        <v>447</v>
+      <c r="A9" s="80" t="s">
+        <v>411</v>
+      </c>
+      <c r="B9" s="80" t="s">
+        <v>399</v>
+      </c>
+      <c r="C9" s="80" t="s">
+        <v>399</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>464</v>
+        <v>407</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
@@ -5213,26 +5123,26 @@
         <v>0</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="K9" s="2"/>
-      <c r="L9" s="44" t="s">
-        <v>487</v>
+      <c r="L9" s="43" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="62"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
+      <c r="A10" s="76"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="76"/>
       <c r="D10" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>467</v>
+        <v>410</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>27</v>
@@ -5241,7 +5151,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
@@ -5250,20 +5160,20 @@
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="66" t="s">
-        <v>469</v>
-      </c>
-      <c r="B11" s="66" t="s">
-        <v>470</v>
-      </c>
-      <c r="C11" s="66" t="s">
-        <v>470</v>
+      <c r="A11" s="80" t="s">
+        <v>412</v>
+      </c>
+      <c r="B11" s="80" t="s">
+        <v>413</v>
+      </c>
+      <c r="C11" s="80" t="s">
+        <v>413</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>471</v>
+        <v>414</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>472</v>
+        <v>415</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>27</v>
@@ -5272,7 +5182,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2" t="s">
@@ -5281,11 +5191,11 @@
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="75"/>
-      <c r="B12" s="75"/>
-      <c r="C12" s="75"/>
+      <c r="A12" s="81"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
       <c r="D12" s="2" t="s">
-        <v>464</v>
+        <v>407</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
@@ -5295,26 +5205,26 @@
         <v>0</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="K12" s="2"/>
-      <c r="L12" s="44" t="s">
-        <v>487</v>
+      <c r="L12" s="43" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="62"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
+      <c r="A13" s="76"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
       <c r="D13" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>473</v>
+        <v>416</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>27</v>
@@ -5323,7 +5233,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2" t="s">
@@ -5332,17 +5242,17 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="76" t="s">
-        <v>477</v>
-      </c>
-      <c r="B14" s="76" t="s">
-        <v>477</v>
-      </c>
-      <c r="C14" s="70" t="s">
-        <v>284</v>
+      <c r="A14" s="90" t="s">
+        <v>420</v>
+      </c>
+      <c r="B14" s="90" t="s">
+        <v>420</v>
+      </c>
+      <c r="C14" s="85" t="s">
+        <v>278</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12" t="s">
@@ -5352,23 +5262,23 @@
         <v>0</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="I14" s="12"/>
       <c r="J14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="K14" s="2"/>
-      <c r="L14" s="54" t="s">
-        <v>484</v>
+      <c r="L14" s="53" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="77"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="70"/>
+      <c r="A15" s="91"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="85"/>
       <c r="D15" s="12" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12" t="s">
@@ -5378,23 +5288,23 @@
         <v>0</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="I15" s="12"/>
       <c r="J15" s="2" t="s">
         <v>0</v>
       </c>
       <c r="K15" s="2"/>
-      <c r="L15" s="54" t="s">
-        <v>484</v>
+      <c r="L15" s="53" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="77"/>
-      <c r="B16" s="77"/>
-      <c r="C16" s="71"/>
+      <c r="A16" s="91"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="86"/>
       <c r="D16" s="12" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12" t="s">
@@ -5404,28 +5314,28 @@
         <v>0</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="I16" s="12"/>
       <c r="J16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="K16" s="2"/>
-      <c r="L16" s="54" t="s">
-        <v>484</v>
+      <c r="L16" s="53" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="77"/>
-      <c r="B17" s="77"/>
+      <c r="A17" s="91"/>
+      <c r="B17" s="91"/>
       <c r="C17" s="12" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>27</v>
@@ -5434,7 +5344,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="I17" s="12"/>
       <c r="J17" s="2" t="s">
@@ -5443,26 +5353,26 @@
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="77"/>
-      <c r="B18" s="77"/>
-      <c r="C18" s="78" t="s">
-        <v>297</v>
+      <c r="A18" s="91"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="92" t="s">
+        <v>291</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="3" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>0</v>
@@ -5470,24 +5380,24 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="77"/>
-      <c r="B19" s="77"/>
-      <c r="C19" s="79"/>
+      <c r="A19" s="91"/>
+      <c r="B19" s="91"/>
+      <c r="C19" s="93"/>
       <c r="D19" s="3" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="3" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>0</v>
@@ -5495,16 +5405,16 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="77"/>
-      <c r="B20" s="77"/>
-      <c r="C20" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>292</v>
+      <c r="A20" s="91"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>286</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>27</v>
@@ -5513,19 +5423,25 @@
         <v>0</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="I20" s="12"/>
       <c r="J20" s="2" t="s">
         <v>0</v>
       </c>
       <c r="K20" s="2"/>
-      <c r="L20" s="29" t="s">
-        <v>289</v>
+      <c r="L20" s="28" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A14:A20"/>
     <mergeCell ref="B14:B20"/>
     <mergeCell ref="C14:C16"/>
@@ -5533,12 +5449,6 @@
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5568,270 +5478,270 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="41.25" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="E1" s="24" t="s">
+      <c r="C1" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="I1" s="25" t="s">
+      <c r="G1" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="I1" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="23" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="24.95" customHeight="1">
-      <c r="A2" s="80" t="s">
-        <v>347</v>
-      </c>
-      <c r="B2" s="66" t="s">
-        <v>346</v>
-      </c>
-      <c r="C2" s="60" t="s">
-        <v>345</v>
+      <c r="A2" s="94" t="s">
+        <v>340</v>
+      </c>
+      <c r="B2" s="80" t="s">
+        <v>339</v>
+      </c>
+      <c r="C2" s="74" t="s">
+        <v>338</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>44</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="26"/>
+      <c r="I2" s="25"/>
       <c r="J2" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="K2" s="26"/>
-    </row>
-    <row r="3" spans="1:11" s="32" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="81"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="19" t="s">
-        <v>342</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>341</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="H3" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="K2" s="25"/>
+    </row>
+    <row r="3" spans="1:11" s="31" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A3" s="95"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>334</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="H3" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="33"/>
+      <c r="I3" s="32"/>
       <c r="J3" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="K3" s="33"/>
-    </row>
-    <row r="4" spans="1:11" s="32" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="81"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="60"/>
+        <v>200</v>
+      </c>
+      <c r="K3" s="32"/>
+    </row>
+    <row r="4" spans="1:11" s="31" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A4" s="95"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="74"/>
       <c r="D4" s="3" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52"/>
+        <v>284</v>
+      </c>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="51"/>
       <c r="J4" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" s="32" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A5" s="81"/>
-      <c r="B5" s="75"/>
-      <c r="C5" s="68" t="s">
-        <v>338</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>336</v>
-      </c>
-      <c r="F5" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="K4" s="51"/>
+    </row>
+    <row r="5" spans="1:11" s="31" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A5" s="95"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="83" t="s">
+        <v>331</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="F5" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="I5" s="33"/>
+      <c r="G5" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="I5" s="32"/>
       <c r="J5" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="K5" s="33"/>
+        <v>200</v>
+      </c>
+      <c r="K5" s="32"/>
     </row>
     <row r="6" spans="1:11" ht="24.95" customHeight="1">
-      <c r="A6" s="81"/>
-      <c r="B6" s="75"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="28" t="s">
-        <v>335</v>
+      <c r="A6" s="95"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="27" t="s">
+        <v>328</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="H6" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="H6" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="26"/>
+      <c r="I6" s="25"/>
       <c r="J6" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="K6" s="26"/>
+        <v>136</v>
+      </c>
+      <c r="K6" s="25"/>
     </row>
     <row r="7" spans="1:11" ht="24.95" customHeight="1">
-      <c r="A7" s="81"/>
-      <c r="B7" s="75"/>
-      <c r="C7" s="66" t="s">
-        <v>333</v>
+      <c r="A7" s="95"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="80" t="s">
+        <v>326</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="H7" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="H7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="26"/>
+      <c r="I7" s="25"/>
       <c r="J7" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="K7" s="26"/>
+        <v>200</v>
+      </c>
+      <c r="K7" s="25"/>
     </row>
     <row r="8" spans="1:11" ht="24.95" customHeight="1">
-      <c r="A8" s="81"/>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
+      <c r="A8" s="95"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
       <c r="D8" s="2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="H8" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="H8" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="26"/>
+      <c r="I8" s="25"/>
       <c r="J8" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="K8" s="26"/>
+        <v>147</v>
+      </c>
+      <c r="K8" s="25"/>
     </row>
     <row r="9" spans="1:11" ht="30" customHeight="1">
-      <c r="A9" s="81"/>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
+      <c r="A9" s="95"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
       <c r="D9" s="2" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="I9" s="26"/>
+        <v>212</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="I9" s="25"/>
       <c r="J9" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="K9" s="26"/>
+        <v>136</v>
+      </c>
+      <c r="K9" s="25"/>
     </row>
     <row r="10" spans="1:11" ht="30" customHeight="1">
-      <c r="A10" s="67"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
+      <c r="A10" s="82"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="76"/>
       <c r="D10" s="2" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>59</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="I10" s="26"/>
+        <v>212</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="I10" s="25"/>
       <c r="J10" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="K10" s="26"/>
+        <v>136</v>
+      </c>
+      <c r="K10" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5867,222 +5777,222 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="41.25" customHeight="1">
-      <c r="A1" s="40" t="s">
-        <v>370</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>369</v>
-      </c>
-      <c r="C1" s="38" t="s">
+      <c r="A1" s="39" t="s">
+        <v>363</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="39" t="s">
-        <v>215</v>
-      </c>
-      <c r="I1" s="39" t="s">
+      <c r="H1" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="I1" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="K1" s="36" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A2" s="68" t="s">
-        <v>368</v>
-      </c>
-      <c r="B2" s="60" t="s">
-        <v>368</v>
-      </c>
-      <c r="C2" s="60" t="s">
-        <v>367</v>
+      <c r="A2" s="83" t="s">
+        <v>361</v>
+      </c>
+      <c r="B2" s="74" t="s">
+        <v>361</v>
+      </c>
+      <c r="C2" s="74" t="s">
+        <v>360</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>44</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="26"/>
+      <c r="I2" s="25"/>
       <c r="J2" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="K2" s="26"/>
+        <v>200</v>
+      </c>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A3" s="68"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
+      <c r="A3" s="83"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
       <c r="D3" s="2" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>44</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="26"/>
+      <c r="I3" s="25"/>
       <c r="J3" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="K3" s="26"/>
+        <v>200</v>
+      </c>
+      <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A4" s="68"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60" t="s">
-        <v>362</v>
+      <c r="A4" s="83"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74" t="s">
+        <v>355</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>44</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="26"/>
+      <c r="I4" s="25"/>
       <c r="J4" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="K4" s="26"/>
+        <v>200</v>
+      </c>
+      <c r="K4" s="25"/>
     </row>
     <row r="5" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A5" s="68"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
+      <c r="A5" s="83"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
       <c r="E5" s="13" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>44</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="26"/>
+      <c r="I5" s="25"/>
       <c r="J5" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="K5" s="26"/>
+        <v>200</v>
+      </c>
+      <c r="K5" s="25"/>
     </row>
     <row r="6" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A6" s="68"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60" t="s">
-        <v>359</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>358</v>
-      </c>
-      <c r="E6" s="36" t="s">
-        <v>357</v>
+      <c r="A6" s="83"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74" t="s">
+        <v>352</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>351</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>350</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>32</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="26"/>
+      <c r="I6" s="25"/>
       <c r="J6" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="K6" s="26"/>
+        <v>200</v>
+      </c>
+      <c r="K6" s="25"/>
     </row>
     <row r="7" spans="1:11" ht="65.25" customHeight="1">
-      <c r="A7" s="68"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="36" t="s">
-        <v>356</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>355</v>
-      </c>
-      <c r="F7" s="36" t="s">
+      <c r="A7" s="83"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="35" t="s">
+        <v>349</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>348</v>
+      </c>
+      <c r="F7" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="35" t="s">
-        <v>354</v>
-      </c>
-      <c r="H7" s="35" t="s">
-        <v>353</v>
-      </c>
-      <c r="I7" s="26"/>
+      <c r="G7" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="I7" s="25"/>
       <c r="J7" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="K7" s="26"/>
+        <v>341</v>
+      </c>
+      <c r="K7" s="25"/>
     </row>
     <row r="8" spans="1:11" ht="57" customHeight="1">
-      <c r="A8" s="68"/>
-      <c r="B8" s="60"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="74"/>
       <c r="C8" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="D8" s="50" t="s">
-        <v>351</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>350</v>
-      </c>
-      <c r="F8" s="36" t="s">
+        <v>345</v>
+      </c>
+      <c r="D8" s="49" t="s">
+        <v>344</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="F8" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="35" t="s">
-        <v>349</v>
-      </c>
-      <c r="H8" s="35" t="s">
+      <c r="G8" s="34" t="s">
+        <v>342</v>
+      </c>
+      <c r="H8" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="26"/>
+      <c r="I8" s="25"/>
       <c r="J8" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="K8" s="26"/>
+        <v>341</v>
+      </c>
+      <c r="K8" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6102,7 +6012,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F4" sqref="F4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6124,10 +6034,10 @@
         <v>77</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>110</v>
@@ -6139,7 +6049,7 @@
         <v>109</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>71</v>
@@ -6152,133 +6062,133 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="60" customHeight="1">
-      <c r="A2" s="67" t="s">
-        <v>385</v>
-      </c>
-      <c r="B2" s="65" t="s">
-        <v>385</v>
-      </c>
-      <c r="C2" s="65" t="s">
-        <v>384</v>
+      <c r="A2" s="82" t="s">
+        <v>378</v>
+      </c>
+      <c r="B2" s="79" t="s">
+        <v>378</v>
+      </c>
+      <c r="C2" s="79" t="s">
+        <v>377</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>383</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>382</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="H2" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="H2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="41"/>
+      <c r="I2" s="40"/>
       <c r="J2" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="K2" s="41"/>
+        <v>200</v>
+      </c>
+      <c r="K2" s="40"/>
     </row>
     <row r="3" spans="1:11" ht="60" customHeight="1">
-      <c r="A3" s="68"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
+      <c r="A3" s="83"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
       <c r="D3" s="5" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="26"/>
+      <c r="I3" s="25"/>
       <c r="J3" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="K3" s="26"/>
+        <v>200</v>
+      </c>
+      <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:11" ht="60" customHeight="1">
-      <c r="A4" s="68"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="25" t="s">
-        <v>379</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>378</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>290</v>
-      </c>
-      <c r="G4" s="45" t="s">
-        <v>159</v>
-      </c>
-      <c r="H4" s="45"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="K4" s="46"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>371</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="G4" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="H4" s="44"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="K4" s="45"/>
     </row>
     <row r="5" spans="1:11" ht="60" customHeight="1">
-      <c r="A5" s="68"/>
-      <c r="B5" s="75"/>
+      <c r="A5" s="83"/>
+      <c r="B5" s="81"/>
       <c r="C5" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="D5" s="48" t="s">
-        <v>358</v>
-      </c>
-      <c r="E5" s="48" t="s">
-        <v>376</v>
+        <v>370</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>351</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>369</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="I5" s="26"/>
+        <v>346</v>
+      </c>
+      <c r="I5" s="25"/>
       <c r="J5" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="K5" s="26"/>
+        <v>364</v>
+      </c>
+      <c r="K5" s="25"/>
     </row>
     <row r="6" spans="1:11" ht="88.5" customHeight="1">
-      <c r="A6" s="68"/>
-      <c r="B6" s="62"/>
+      <c r="A6" s="83"/>
+      <c r="B6" s="76"/>
       <c r="C6" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="D6" s="49" t="s">
-        <v>374</v>
-      </c>
-      <c r="E6" s="49" t="s">
-        <v>373</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>372</v>
-      </c>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="24" t="s">
-        <v>371</v>
-      </c>
-      <c r="K6" s="46"/>
+        <v>368</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>367</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>366</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>365</v>
+      </c>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="23" t="s">
+        <v>364</v>
+      </c>
+      <c r="K6" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6311,181 +6221,181 @@
   <sheetData>
     <row r="1" spans="1:11" ht="41.25" customHeight="1" thickBot="1">
       <c r="A1" s="10" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>110</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>70</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="24.95" customHeight="1">
-      <c r="A2" s="71" t="s">
-        <v>403</v>
-      </c>
-      <c r="B2" s="75" t="s">
+      <c r="A2" s="86" t="s">
+        <v>396</v>
+      </c>
+      <c r="B2" s="81" t="s">
+        <v>388</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>401</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="G2" s="43" t="s">
-        <v>399</v>
-      </c>
-      <c r="H2" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="K2" s="15"/>
+      <c r="D2" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>392</v>
+      </c>
+      <c r="H2" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" s="22"/>
+      <c r="J2" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="K2" s="14"/>
     </row>
     <row r="3" spans="1:11" ht="24.95" customHeight="1">
-      <c r="A3" s="77"/>
-      <c r="B3" s="75"/>
+      <c r="A3" s="91"/>
+      <c r="B3" s="81"/>
       <c r="C3" s="2" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="H3" s="35" t="s">
+        <v>389</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="H3" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="26"/>
+      <c r="I3" s="25"/>
       <c r="J3" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="K3" s="26"/>
+        <v>136</v>
+      </c>
+      <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:11" ht="33">
-      <c r="A4" s="77"/>
-      <c r="B4" s="62"/>
+      <c r="A4" s="91"/>
+      <c r="B4" s="76"/>
       <c r="C4" s="2" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="F4" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="H4" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="I4" s="26"/>
+        <v>386</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="I4" s="25"/>
       <c r="J4" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="K4" s="26"/>
+        <v>136</v>
+      </c>
+      <c r="K4" s="25"/>
     </row>
     <row r="5" spans="1:11" ht="33">
-      <c r="A5" s="77"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="2" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>391</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>390</v>
-      </c>
-      <c r="F5" s="42" t="s">
-        <v>188</v>
-      </c>
-      <c r="G5" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="H5" s="35" t="s">
+        <v>385</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>384</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>383</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="H5" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="26"/>
+      <c r="I5" s="25"/>
       <c r="J5" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="K5" s="26"/>
+        <v>382</v>
+      </c>
+      <c r="K5" s="25"/>
     </row>
     <row r="6" spans="1:11" ht="49.5">
-      <c r="A6" s="77"/>
+      <c r="A6" s="91"/>
       <c r="B6" s="2" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>387</v>
-      </c>
-      <c r="E6" s="36" t="s">
-        <v>386</v>
-      </c>
-      <c r="F6" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="G6" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="H6" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="I6" s="26"/>
+        <v>381</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>380</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>379</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="I6" s="25"/>
       <c r="J6" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="K6" s="26"/>
+        <v>136</v>
+      </c>
+      <c r="K6" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6498,607 +6408,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="2" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="59.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="17.25" thickBot="1"/>
-    <row r="2" spans="1:9" ht="33.75" thickBot="1">
-      <c r="A2" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="62" t="s">
-        <v>429</v>
-      </c>
-      <c r="B3" s="62" t="s">
-        <v>429</v>
-      </c>
-      <c r="C3" s="62" t="s">
-        <v>429</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="60"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="60"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="60"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="60"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60" t="s">
-        <v>424</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="60"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="60"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="60"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60" t="s">
-        <v>419</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="60"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="60"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60" t="s">
-        <v>416</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="60"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="60"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="60"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="60"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="60"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="60"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="60"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="I19" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A3:A19"/>
-    <mergeCell ref="C12:C19"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="B3:B19"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="17.25" thickBot="1"/>
-    <row r="2" spans="1:9" ht="33.75" thickBot="1">
-      <c r="A2" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>451</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="1" customFormat="1">
-      <c r="A3" s="62" t="s">
-        <v>447</v>
-      </c>
-      <c r="B3" s="62" t="s">
-        <v>447</v>
-      </c>
-      <c r="C3" s="62" t="s">
-        <v>446</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A4" s="60"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" s="1" customFormat="1">
-      <c r="A5" s="60"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" s="1" customFormat="1">
-      <c r="A6" s="60"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" s="1" customFormat="1">
-      <c r="A7" s="60"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" s="1" customFormat="1">
-      <c r="A8" s="60"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" s="1" customFormat="1">
-      <c r="A9" s="60"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60" t="s">
-        <v>438</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" s="1" customFormat="1">
-      <c r="A10" s="60"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" s="1" customFormat="1">
-      <c r="A11" s="60"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="60" t="s">
-        <v>436</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" s="1" customFormat="1">
-      <c r="A12" s="60"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" s="1" customFormat="1">
-      <c r="A13" s="60"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="I13" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A3:A13"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B3:B13"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7106,69 +6421,77 @@
     <col min="1" max="4" width="11.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.375" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" customWidth="1"/>
-    <col min="9" max="9" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
+    <col min="10" max="10" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25" thickBot="1"/>
-    <row r="2" spans="1:10" ht="33.75" thickBot="1">
+    <row r="1" spans="1:11" ht="17.25" thickBot="1"/>
+    <row r="2" spans="1:11" ht="33.75" thickBot="1">
       <c r="A2" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="I2" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="33">
+      <c r="K2" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="33">
       <c r="A3" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>114</v>
-      </c>
       <c r="D3" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>112</v>
+        <v>460</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="H3" s="59" t="s">
+        <v>464</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -7178,10 +6501,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="A9:H10"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7192,69 +6515,104 @@
     <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.625" customWidth="1"/>
-    <col min="8" max="8" width="11.25" customWidth="1"/>
-    <col min="9" max="9" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.25" customWidth="1"/>
+    <col min="10" max="10" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25" thickBot="1"/>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="33.75" thickBot="1">
+    <row r="1" spans="1:11" ht="17.25" thickBot="1"/>
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="33.75" thickBot="1">
       <c r="A2" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="I2" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="33">
+      <c r="J2" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="33">
       <c r="A3" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" ht="33">
+      <c r="A4" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="B4" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="C4" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="J3" s="6"/>
+      <c r="D4" s="59" t="s">
+        <v>457</v>
+      </c>
+      <c r="E4" s="59" t="s">
+        <v>457</v>
+      </c>
+      <c r="F4" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="59" t="s">
+        <v>458</v>
+      </c>
+      <c r="H4" s="59" t="s">
+        <v>459</v>
+      </c>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="59"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -7264,10 +6622,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7285,100 +6643,110 @@
   <sheetData>
     <row r="1" spans="1:11" ht="36" customHeight="1" thickBot="1">
       <c r="A1" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>503</v>
+        <v>446</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>71</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="38.1" customHeight="1">
-      <c r="A2" s="63" t="s">
-        <v>157</v>
-      </c>
-      <c r="B2" s="62" t="s">
-        <v>156</v>
-      </c>
-      <c r="C2" s="65" t="s">
-        <v>155</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="58"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="38.1" customHeight="1" thickBot="1">
+      <c r="A2" s="77" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="F2" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="62" t="s">
+        <v>453</v>
+      </c>
+      <c r="H2" s="62" t="s">
+        <v>454</v>
+      </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:11" ht="38.1" customHeight="1">
-      <c r="A3" s="64"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="2" t="s">
+      <c r="A3" s="77"/>
+      <c r="B3" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="C3" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="K3" s="2"/>
+      <c r="D3" s="58" t="s">
+        <v>456</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>456</v>
+      </c>
+      <c r="F3" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="62" t="s">
+        <v>453</v>
+      </c>
+      <c r="H3" s="62" t="s">
+        <v>454</v>
+      </c>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="38.1" customHeight="1">
-      <c r="A4" s="64"/>
-      <c r="B4" s="60" t="s">
-        <v>148</v>
-      </c>
-      <c r="C4" s="66" t="s">
-        <v>147</v>
+      <c r="A4" s="78"/>
+      <c r="B4" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>143</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>111</v>
@@ -7387,153 +6755,128 @@
       <c r="H4" s="3"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="38.1" customHeight="1">
-      <c r="A5" s="64"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="62"/>
+    <row r="5" spans="1:11" ht="38.25" customHeight="1">
+      <c r="A5" s="78"/>
+      <c r="B5" s="74" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="80" t="s">
+        <v>139</v>
+      </c>
       <c r="D5" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>143</v>
+        <v>444</v>
+      </c>
+      <c r="E5" s="54" t="s">
+        <v>444</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="55"/>
+        <v>27</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="H5" s="54" t="s">
+        <v>447</v>
+      </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" ht="38.25" customHeight="1">
+      <c r="A6" s="78"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" ht="38.25" customHeight="1">
-      <c r="A6" s="64"/>
-      <c r="B6" s="60" t="s">
-        <v>142</v>
-      </c>
-      <c r="C6" s="66" t="s">
-        <v>141</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="E6" s="55" t="s">
-        <v>501</v>
-      </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="H6" s="55" t="s">
-        <v>504</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="K6" s="2"/>
+      <c r="G6" s="54" t="s">
+        <v>443</v>
+      </c>
+      <c r="H6" s="54" t="s">
+        <v>447</v>
+      </c>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="K6" s="54"/>
     </row>
     <row r="7" spans="1:11" ht="38.25" customHeight="1">
-      <c r="A7" s="64"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="55" t="s">
-        <v>140</v>
-      </c>
-      <c r="E7" s="56" t="s">
-        <v>139</v>
-      </c>
-      <c r="F7" s="57" t="s">
+      <c r="A7" s="78"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="54" t="s">
+        <v>445</v>
+      </c>
+      <c r="E7" s="54" t="s">
+        <v>445</v>
+      </c>
+      <c r="F7" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="55" t="s">
-        <v>500</v>
-      </c>
-      <c r="H7" s="55" t="s">
-        <v>504</v>
-      </c>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55" t="s">
-        <v>137</v>
-      </c>
-      <c r="K7" s="55"/>
-    </row>
-    <row r="8" spans="1:11" ht="38.25" customHeight="1">
-      <c r="A8" s="64"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="55" t="s">
-        <v>502</v>
-      </c>
-      <c r="E8" s="55" t="s">
-        <v>502</v>
-      </c>
-      <c r="F8" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="55" t="s">
-        <v>500</v>
-      </c>
-      <c r="H8" s="55" t="s">
-        <v>504</v>
-      </c>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55" t="s">
-        <v>137</v>
-      </c>
-      <c r="K8" s="55"/>
-    </row>
-    <row r="9" spans="1:11" ht="38.1" customHeight="1">
-      <c r="A9" s="64"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="55" t="s">
-        <v>505</v>
-      </c>
-      <c r="D9" s="55" t="s">
-        <v>505</v>
-      </c>
-      <c r="E9" s="55" t="s">
-        <v>505</v>
-      </c>
-      <c r="F9" s="88" t="s">
-        <v>506</v>
-      </c>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="K9" s="2"/>
-    </row>
+      <c r="G7" s="54" t="s">
+        <v>443</v>
+      </c>
+      <c r="H7" s="54" t="s">
+        <v>447</v>
+      </c>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="K7" s="54"/>
+    </row>
+    <row r="8" spans="1:11" ht="38.1" customHeight="1">
+      <c r="A8" s="78"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="54" t="s">
+        <v>448</v>
+      </c>
+      <c r="D8" s="54" t="s">
+        <v>448</v>
+      </c>
+      <c r="E8" s="54" t="s">
+        <v>448</v>
+      </c>
+      <c r="F8" s="71" t="s">
+        <v>449</v>
+      </c>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" ht="38.1" customHeight="1"/>
     <row r="10" spans="1:11" ht="38.1" customHeight="1"/>
     <row r="11" spans="1:11" ht="38.1" customHeight="1"/>
-    <row r="12" spans="1:11" ht="38.1" customHeight="1"/>
+    <row r="13" spans="1:11" ht="38.1" customHeight="1"/>
     <row r="14" spans="1:11" ht="38.1" customHeight="1"/>
     <row r="15" spans="1:11" ht="38.1" customHeight="1"/>
     <row r="16" spans="1:11" ht="38.1" customHeight="1"/>
-    <row r="17" ht="38.1" customHeight="1"/>
+    <row r="18" ht="38.1" customHeight="1"/>
     <row r="19" ht="38.1" customHeight="1"/>
     <row r="20" ht="38.1" customHeight="1"/>
     <row r="21" ht="38.1" customHeight="1"/>
-    <row r="22" ht="38.1" customHeight="1"/>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C8"/>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="C5:C7"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7546,7 +6889,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="E6:I7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7563,176 +6906,176 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="33">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="G1" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="H1" s="25" t="s">
+      <c r="F1" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="H1" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="J1" s="24" t="s">
+      <c r="I1" s="23" t="s">
         <v>115</v>
       </c>
+      <c r="J1" s="23" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="2" spans="1:10" ht="49.5">
-      <c r="A2" s="67" t="s">
-        <v>178</v>
-      </c>
-      <c r="B2" s="67" t="s">
-        <v>177</v>
+      <c r="A2" s="82" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="82" t="s">
+        <v>171</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="F2" s="86" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="F2" s="69" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" s="70" t="s">
+        <v>167</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" ht="33">
+      <c r="A3" s="83"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="G2" s="87" t="s">
-        <v>173</v>
-      </c>
-      <c r="H2" s="22" t="s">
+      <c r="F3" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="G3" s="16"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="83"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="54" t="s">
+        <v>440</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>441</v>
+      </c>
+      <c r="E4" s="55"/>
+      <c r="F4" s="17" t="s">
+        <v>442</v>
+      </c>
+      <c r="G4" s="16"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+    </row>
+    <row r="5" spans="1:10" ht="21.75" customHeight="1">
+      <c r="A5" s="83"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="F5" s="66" t="s">
+        <v>148</v>
+      </c>
+      <c r="G5" s="67" t="s">
+        <v>439</v>
+      </c>
+      <c r="H5" s="15"/>
+      <c r="I5" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" ht="33">
+      <c r="A6" s="83"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="J2" s="6"/>
-    </row>
-    <row r="3" spans="1:10" ht="33">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="55" t="s">
-        <v>497</v>
-      </c>
-      <c r="D4" s="55" t="s">
-        <v>498</v>
-      </c>
-      <c r="E4" s="56"/>
-      <c r="F4" s="18" t="s">
-        <v>499</v>
-      </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-    </row>
-    <row r="5" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A5" s="68"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="D5" s="20" t="s">
+      <c r="E6" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="E5" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="F5" s="83" t="s">
-        <v>152</v>
-      </c>
-      <c r="G5" s="84" t="s">
-        <v>496</v>
-      </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" ht="33">
-      <c r="A6" s="68"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="F6" s="83" t="s">
-        <v>164</v>
-      </c>
-      <c r="G6" s="85" t="s">
-        <v>163</v>
-      </c>
-      <c r="H6" s="16"/>
+      <c r="F6" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="G6" s="68" t="s">
+        <v>157</v>
+      </c>
+      <c r="H6" s="15"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" ht="82.5">
-      <c r="A7" s="68"/>
-      <c r="B7" s="68"/>
+      <c r="A7" s="83"/>
+      <c r="B7" s="83"/>
       <c r="C7" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="F7" s="85" t="s">
+        <v>154</v>
+      </c>
+      <c r="F7" s="68" t="s">
+        <v>148</v>
+      </c>
+      <c r="G7" s="67" t="s">
+        <v>439</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="G7" s="84" t="s">
-        <v>496</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="J7" s="2"/>
     </row>
@@ -7751,7 +7094,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7767,307 +7110,309 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="36" customHeight="1">
-      <c r="A1" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="24" t="s">
-        <v>217</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="F1" s="24" t="s">
+      <c r="B1" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="G1" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="H1" s="25" t="s">
+      <c r="F1" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="G1" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="H1" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="I1" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="J1" s="23" t="s">
         <v>115</v>
       </c>
+      <c r="K1" s="23" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="2" spans="1:11" ht="61.5" customHeight="1">
-      <c r="A2" s="68" t="s">
-        <v>214</v>
-      </c>
-      <c r="B2" s="68" t="s">
-        <v>156</v>
+      <c r="A2" s="83" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="83" t="s">
+        <v>150</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>44</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="H2" s="82" t="s">
-        <v>492</v>
+        <v>191</v>
+      </c>
+      <c r="H2" s="65" t="s">
+        <v>435</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="K2" s="26"/>
+        <v>136</v>
+      </c>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:11" ht="33">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
+      <c r="A3" s="83"/>
+      <c r="B3" s="83"/>
       <c r="C3" s="5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>493</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="H3" s="16"/>
+        <v>202</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="H3" s="26"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="K3" s="26"/>
+        <v>200</v>
+      </c>
+      <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:11" ht="49.5">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="83"/>
       <c r="C4" s="5" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="F4" s="56" t="s">
-        <v>184</v>
-      </c>
-      <c r="G4" s="56" t="s">
-        <v>180</v>
-      </c>
-      <c r="H4" s="35" t="s">
-        <v>173</v>
+        <v>179</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>178</v>
+      </c>
+      <c r="G4" s="55" t="s">
+        <v>174</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>167</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="K4" s="26"/>
+        <v>200</v>
+      </c>
+      <c r="K4" s="25"/>
     </row>
     <row r="5" spans="1:11" ht="33">
-      <c r="A5" s="68"/>
-      <c r="B5" s="68"/>
+      <c r="A5" s="83"/>
+      <c r="B5" s="83"/>
       <c r="C5" s="5" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="H5" s="53"/>
+        <v>175</v>
+      </c>
+      <c r="F5" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="G5" s="63" t="s">
+        <v>174</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>452</v>
+      </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="K5" s="26"/>
+        <v>136</v>
+      </c>
+      <c r="K5" s="25"/>
     </row>
     <row r="6" spans="1:11" ht="49.5">
-      <c r="A6" s="68"/>
-      <c r="B6" s="68"/>
+      <c r="A6" s="83"/>
+      <c r="B6" s="83"/>
       <c r="C6" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>202</v>
+        <v>197</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>196</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F6" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>437</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="25"/>
+    </row>
+    <row r="7" spans="1:11" ht="49.5">
+      <c r="A7" s="83"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>438</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="25"/>
+    </row>
+    <row r="8" spans="1:11" ht="49.5">
+      <c r="A8" s="83"/>
+      <c r="B8" s="74" t="s">
+        <v>189</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>494</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="26"/>
-    </row>
-    <row r="7" spans="1:11" ht="49.5">
-      <c r="A7" s="68"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>495</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="26"/>
-    </row>
-    <row r="8" spans="1:11" ht="49.5">
-      <c r="A8" s="68"/>
-      <c r="B8" s="60" t="s">
-        <v>195</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>194</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>44</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>173</v>
+        <v>174</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>167</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="K8" s="26"/>
+        <v>136</v>
+      </c>
+      <c r="K8" s="25"/>
     </row>
     <row r="9" spans="1:11" ht="33">
-      <c r="A9" s="68"/>
-      <c r="B9" s="60"/>
+      <c r="A9" s="83"/>
+      <c r="B9" s="74"/>
       <c r="C9" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="H9" s="19"/>
+        <v>183</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="H9" s="52"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="K9" s="26"/>
+        <v>136</v>
+      </c>
+      <c r="K9" s="25"/>
     </row>
     <row r="10" spans="1:11" ht="49.5">
-      <c r="A10" s="68"/>
-      <c r="B10" s="60"/>
+      <c r="A10" s="83"/>
+      <c r="B10" s="74"/>
       <c r="C10" s="5" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="H10" s="53" t="s">
-        <v>173</v>
+        <v>174</v>
+      </c>
+      <c r="H10" s="52" t="s">
+        <v>8</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="K10" s="26"/>
+        <v>136</v>
+      </c>
+      <c r="K10" s="25"/>
     </row>
     <row r="11" spans="1:11" ht="33">
-      <c r="A11" s="68"/>
-      <c r="B11" s="60"/>
+      <c r="A11" s="83"/>
+      <c r="B11" s="74"/>
       <c r="C11" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="H11" s="27"/>
+        <v>174</v>
+      </c>
+      <c r="H11" s="26"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="K11" s="26"/>
+        <v>136</v>
+      </c>
+      <c r="K11" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8086,7 +7431,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="H4" sqref="A3:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8121,7 +7466,7 @@
         <v>19</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>18</v>
@@ -8134,13 +7479,13 @@
       </c>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="76" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -8151,7 +7496,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>0</v>
@@ -8163,9 +7508,9 @@
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" ht="33">
-      <c r="A4" s="60"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
       <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
@@ -8184,9 +7529,9 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1">
-      <c r="A5" s="60"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
+      <c r="A5" s="74"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
       <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
@@ -8205,20 +7550,20 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1">
-      <c r="A6" s="60"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
+      <c r="A6" s="74"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
       <c r="D6" s="2" t="s">
-        <v>488</v>
+        <v>431</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>489</v>
+        <v>432</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>0</v>
@@ -8230,9 +7575,9 @@
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1">
-      <c r="A7" s="60"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
+      <c r="A7" s="74"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
       <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
@@ -8243,7 +7588,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>0</v>
@@ -8255,9 +7600,9 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1">
-      <c r="A8" s="60"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
+      <c r="A8" s="74"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
       <c r="D8" s="2" t="s">
         <v>4</v>
       </c>
@@ -8266,7 +7611,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>0</v>
@@ -8278,9 +7623,9 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1">
-      <c r="A9" s="60"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
+      <c r="A9" s="74"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
       <c r="D9" s="2" t="s">
         <v>3</v>
       </c>
@@ -8291,7 +7636,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>0</v>
@@ -8316,10 +7661,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="H7" sqref="H7:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8330,179 +7675,200 @@
     <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="8" max="9" width="10.875" customWidth="1"/>
+    <col min="9" max="10" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25" thickBot="1"/>
-    <row r="2" spans="1:10" ht="33.75" thickBot="1">
+    <row r="1" spans="1:11" ht="17.25" thickBot="1"/>
+    <row r="2" spans="1:11" ht="33.75" thickBot="1">
       <c r="A2" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>110</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="I2" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="33">
-      <c r="A3" s="62" t="s">
-        <v>234</v>
-      </c>
-      <c r="B3" s="62" t="s">
-        <v>233</v>
-      </c>
-      <c r="C3" s="62" t="s">
-        <v>232</v>
+      <c r="K2" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="33">
+      <c r="A3" s="76" t="s">
+        <v>228</v>
+      </c>
+      <c r="B3" s="76" t="s">
+        <v>227</v>
+      </c>
+      <c r="C3" s="76" t="s">
+        <v>226</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G3" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="H3" s="59" t="s">
+        <v>450</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="H4" s="59" t="s">
+        <v>450</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="74"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="H5" s="59" t="s">
+        <v>450</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="74"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="60"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="60"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="60"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="2" t="s">
-        <v>224</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" ht="33">
-      <c r="A7" s="60"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
+        <v>212</v>
+      </c>
+      <c r="H6" s="59" t="s">
+        <v>450</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" ht="33">
+      <c r="A7" s="74"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
       <c r="D7" s="5" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>44</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="60"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
+        <v>167</v>
+      </c>
+      <c r="H7" s="59" t="s">
+        <v>450</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="74"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
       <c r="D8" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="J8" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="H8" s="59" t="s">
+        <v>450</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="K8" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8520,7 +7886,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="L18" sqref="B17:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8559,7 +7925,7 @@
         <v>72</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>71</v>
@@ -8572,13 +7938,13 @@
       </c>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="76" t="s">
         <v>66</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -8591,9 +7957,11 @@
         <v>44</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="H3" s="6"/>
+        <v>167</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>450</v>
+      </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6" t="s">
         <v>36</v>
@@ -8601,9 +7969,9 @@
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1">
-      <c r="A4" s="60"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
       <c r="D4" s="2" t="s">
         <v>63</v>
       </c>
@@ -8614,9 +7982,11 @@
         <v>44</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="H4" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>450</v>
+      </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2" t="s">
         <v>36</v>
@@ -8624,9 +7994,9 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1">
-      <c r="A5" s="60"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
+      <c r="A5" s="74"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
       <c r="D5" s="2" t="s">
         <v>61</v>
       </c>
@@ -8637,9 +8007,11 @@
         <v>59</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="H5" s="12"/>
+        <v>167</v>
+      </c>
+      <c r="H5" s="58" t="s">
+        <v>450</v>
+      </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
         <v>36</v>
@@ -8647,7 +8019,7 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1">
-      <c r="A6" s="60"/>
+      <c r="A6" s="74"/>
       <c r="B6" s="2" t="s">
         <v>58</v>
       </c>
@@ -8664,9 +8036,11 @@
         <v>32</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="H6" s="12"/>
+        <v>167</v>
+      </c>
+      <c r="H6" s="58" t="s">
+        <v>450</v>
+      </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
         <v>36</v>
@@ -8674,26 +8048,28 @@
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1">
-      <c r="A7" s="60"/>
-      <c r="B7" s="60" t="s">
+      <c r="A7" s="74"/>
+      <c r="B7" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="75" t="s">
         <v>53</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>478</v>
+        <v>421</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>44</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="H7" s="12"/>
+        <v>167</v>
+      </c>
+      <c r="H7" s="58" t="s">
+        <v>450</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
         <v>26</v>
@@ -8701,22 +8077,24 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1">
-      <c r="A8" s="60"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
+      <c r="A8" s="74"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
       <c r="D8" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>479</v>
+        <v>422</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>32</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="H8" s="12"/>
+        <v>167</v>
+      </c>
+      <c r="H8" s="58" t="s">
+        <v>450</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
         <v>36</v>
@@ -8724,22 +8102,24 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1">
-      <c r="A9" s="60"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
+      <c r="A9" s="74"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
       <c r="D9" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>480</v>
+        <v>423</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>32</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="H9" s="12"/>
+        <v>167</v>
+      </c>
+      <c r="H9" s="58" t="s">
+        <v>450</v>
+      </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
         <v>26</v>
@@ -8747,22 +8127,24 @@
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" s="1" customFormat="1">
-      <c r="A10" s="60"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
+      <c r="A10" s="74"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
       <c r="D10" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>479</v>
+        <v>422</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>32</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="H10" s="12"/>
+        <v>167</v>
+      </c>
+      <c r="H10" s="58" t="s">
+        <v>450</v>
+      </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
         <v>36</v>
@@ -8770,22 +8152,24 @@
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" s="1" customFormat="1">
-      <c r="A11" s="60"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
+      <c r="A11" s="74"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
       <c r="D11" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>479</v>
+        <v>422</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>32</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="H11" s="12"/>
+        <v>167</v>
+      </c>
+      <c r="H11" s="58" t="s">
+        <v>450</v>
+      </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2" t="s">
         <v>36</v>
@@ -8793,9 +8177,9 @@
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" s="1" customFormat="1">
-      <c r="A12" s="60"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
+      <c r="A12" s="74"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
       <c r="D12" s="2" t="s">
         <v>47</v>
       </c>
@@ -8806,9 +8190,11 @@
         <v>27</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="H12" s="12"/>
+        <v>167</v>
+      </c>
+      <c r="H12" s="58" t="s">
+        <v>450</v>
+      </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2" t="s">
         <v>26</v>
@@ -8816,22 +8202,24 @@
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1">
-      <c r="A13" s="60"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="60"/>
+      <c r="A13" s="74"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
       <c r="D13" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>479</v>
+        <v>422</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>44</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="H13" s="12"/>
+        <v>167</v>
+      </c>
+      <c r="H13" s="58" t="s">
+        <v>450</v>
+      </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2" t="s">
         <v>36</v>
@@ -8839,22 +8227,24 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11" s="1" customFormat="1">
-      <c r="A14" s="60"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
+      <c r="A14" s="74"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
       <c r="D14" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>479</v>
+        <v>422</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>32</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="H14" s="12"/>
+        <v>167</v>
+      </c>
+      <c r="H14" s="58" t="s">
+        <v>450</v>
+      </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2" t="s">
         <v>26</v>
@@ -8862,22 +8252,24 @@
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11" s="1" customFormat="1">
-      <c r="A15" s="60"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
+      <c r="A15" s="74"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="74"/>
       <c r="D15" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>481</v>
+        <v>424</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>27</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="H15" s="12"/>
+        <v>167</v>
+      </c>
+      <c r="H15" s="58" t="s">
+        <v>450</v>
+      </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2" t="s">
         <v>26</v>
@@ -8885,9 +8277,9 @@
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11" s="1" customFormat="1">
-      <c r="A16" s="60"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
+      <c r="A16" s="74"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
       <c r="D16" s="2" t="s">
         <v>42</v>
       </c>
@@ -8898,9 +8290,11 @@
         <v>32</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="H16" s="12"/>
+        <v>167</v>
+      </c>
+      <c r="H16" s="58" t="s">
+        <v>450</v>
+      </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2" t="s">
         <v>26</v>
@@ -8908,8 +8302,8 @@
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:12" s="1" customFormat="1">
-      <c r="A17" s="60"/>
-      <c r="B17" s="61" t="s">
+      <c r="A17" s="74"/>
+      <c r="B17" s="75" t="s">
         <v>40</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -8925,9 +8319,11 @@
         <v>32</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="H17" s="12"/>
+        <v>167</v>
+      </c>
+      <c r="H17" s="58" t="s">
+        <v>450</v>
+      </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2" t="s">
         <v>36</v>
@@ -8935,50 +8331,54 @@
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:12" s="1" customFormat="1">
-      <c r="A18" s="60"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60" t="s">
+      <c r="A18" s="74"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="74" t="s">
         <v>35</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>479</v>
+        <v>422</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>32</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="H18" s="12"/>
+        <v>167</v>
+      </c>
+      <c r="H18" s="58" t="s">
+        <v>450</v>
+      </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2" t="s">
         <v>26</v>
       </c>
       <c r="K18" s="2"/>
-      <c r="L18" s="44" t="s">
-        <v>482</v>
+      <c r="L18" s="43" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="1" customFormat="1">
-      <c r="A19" s="60"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
+      <c r="A19" s="74"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="74"/>
       <c r="D19" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>479</v>
+        <v>422</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>32</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="H19" s="12"/>
+        <v>167</v>
+      </c>
+      <c r="H19" s="58" t="s">
+        <v>450</v>
+      </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2" t="s">
         <v>26</v>
@@ -8986,22 +8386,24 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:12" s="1" customFormat="1">
-      <c r="A20" s="60"/>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
+      <c r="A20" s="74"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="74"/>
       <c r="D20" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>479</v>
+        <v>422</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>27</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="H20" s="12"/>
+        <v>167</v>
+      </c>
+      <c r="H20" s="58" t="s">
+        <v>450</v>
+      </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2" t="s">
         <v>26</v>
@@ -9009,7 +8411,7 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:12" s="1" customFormat="1" ht="33">
-      <c r="A21" s="60"/>
+      <c r="A21" s="74"/>
       <c r="B21" s="5" t="s">
         <v>30</v>
       </c>
@@ -9020,15 +8422,17 @@
         <v>28</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>483</v>
+        <v>426</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>27</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="H21" s="12"/>
+        <v>167</v>
+      </c>
+      <c r="H21" s="58" t="s">
+        <v>450</v>
+      </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2" t="s">
         <v>26</v>

--- a/기능명세서 최종본.xlsx
+++ b/기능명세서 최종본.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="프로필 수정 및 관리" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="475">
   <si>
     <t>서영</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1996,7 +1996,39 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>ㅇ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2325,7 +2357,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2545,6 +2577,15 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2563,59 +2604,56 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2901,8 +2939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:F24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2955,13 +2993,13 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="49.5">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="76" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="76" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="79" t="s">
         <v>107</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -2979,16 +3017,18 @@
       <c r="H3" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="I3" s="6"/>
+      <c r="I3" s="6" t="s">
+        <v>466</v>
+      </c>
       <c r="J3" s="6" t="s">
         <v>36</v>
       </c>
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="73"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="76"/>
+      <c r="A4" s="76"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="79"/>
       <c r="D4" s="6" t="s">
         <v>51</v>
       </c>
@@ -3002,14 +3042,18 @@
       <c r="H4" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
+      <c r="I4" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="J4" s="73" t="s">
+        <v>0</v>
+      </c>
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="74"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
+      <c r="A5" s="77"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
       <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
@@ -3023,16 +3067,18 @@
       <c r="H5" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>468</v>
+      </c>
       <c r="J5" s="2" t="s">
         <v>36</v>
       </c>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="74"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
+      <c r="A6" s="77"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
       <c r="D6" s="2" t="s">
         <v>106</v>
       </c>
@@ -3046,16 +3092,18 @@
       <c r="H6" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="I6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>469</v>
+      </c>
       <c r="J6" s="2" t="s">
         <v>36</v>
       </c>
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" ht="33">
-      <c r="A7" s="74"/>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
+      <c r="A7" s="77"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
       <c r="D7" s="2" t="s">
         <v>105</v>
       </c>
@@ -3071,16 +3119,18 @@
       <c r="H7" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="I7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>470</v>
+      </c>
       <c r="J7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="74"/>
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
+      <c r="A8" s="77"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
       <c r="D8" s="2" t="s">
         <v>104</v>
       </c>
@@ -3096,16 +3146,18 @@
       <c r="H8" s="64" t="s">
         <v>167</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>471</v>
+      </c>
       <c r="J8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="74"/>
-      <c r="B9" s="74"/>
-      <c r="C9" s="74" t="s">
+      <c r="A9" s="77"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="77" t="s">
         <v>101</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -3122,7 +3174,7 @@
         <v>465</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>26</v>
@@ -3130,9 +3182,9 @@
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="33">
-      <c r="A10" s="74"/>
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
+      <c r="A10" s="77"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="77"/>
       <c r="D10" s="2" t="s">
         <v>98</v>
       </c>
@@ -3148,16 +3200,18 @@
       <c r="H10" s="64" t="s">
         <v>167</v>
       </c>
-      <c r="I10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>470</v>
+      </c>
       <c r="J10" s="2" t="s">
         <v>36</v>
       </c>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="74"/>
-      <c r="B11" s="74"/>
-      <c r="C11" s="74" t="s">
+      <c r="A11" s="77"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="77" t="s">
         <v>96</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -3173,16 +3227,18 @@
       <c r="H11" s="64" t="s">
         <v>465</v>
       </c>
-      <c r="I11" s="2"/>
+      <c r="I11" s="2" t="s">
+        <v>470</v>
+      </c>
       <c r="J11" s="2" t="s">
         <v>36</v>
       </c>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="74"/>
-      <c r="B12" s="74"/>
-      <c r="C12" s="74"/>
+      <c r="A12" s="77"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="2" t="s">
         <v>92</v>
       </c>
@@ -3196,16 +3252,18 @@
       <c r="H12" s="64" t="s">
         <v>167</v>
       </c>
-      <c r="I12" s="2"/>
+      <c r="I12" s="2" t="s">
+        <v>470</v>
+      </c>
       <c r="J12" s="2" t="s">
         <v>36</v>
       </c>
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="74"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
+      <c r="A13" s="77"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
       <c r="D13" s="2" t="s">
         <v>89</v>
       </c>
@@ -3219,16 +3277,18 @@
       <c r="H13" s="64" t="s">
         <v>465</v>
       </c>
-      <c r="I13" s="2"/>
+      <c r="I13" s="2" t="s">
+        <v>470</v>
+      </c>
       <c r="J13" s="2" t="s">
         <v>36</v>
       </c>
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="74"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="75" t="s">
+      <c r="A14" s="77"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="78" t="s">
         <v>94</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -3246,16 +3306,18 @@
       <c r="H14" s="64" t="s">
         <v>167</v>
       </c>
-      <c r="I14" s="2"/>
+      <c r="I14" s="2" t="s">
+        <v>466</v>
+      </c>
       <c r="J14" s="2" t="s">
         <v>36</v>
       </c>
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="74"/>
-      <c r="B15" s="74"/>
-      <c r="C15" s="75"/>
+      <c r="A15" s="77"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="78"/>
       <c r="D15" s="2" t="s">
         <v>92</v>
       </c>
@@ -3269,16 +3331,18 @@
       <c r="H15" s="64" t="s">
         <v>465</v>
       </c>
-      <c r="I15" s="2"/>
+      <c r="I15" s="2" t="s">
+        <v>470</v>
+      </c>
       <c r="J15" s="2" t="s">
         <v>36</v>
       </c>
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="74"/>
-      <c r="B16" s="74"/>
-      <c r="C16" s="75"/>
+      <c r="A16" s="77"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="78"/>
       <c r="D16" s="2" t="s">
         <v>90</v>
       </c>
@@ -3292,16 +3356,18 @@
       <c r="H16" s="64" t="s">
         <v>167</v>
       </c>
-      <c r="I16" s="2"/>
+      <c r="I16" s="2" t="s">
+        <v>469</v>
+      </c>
       <c r="J16" s="2" t="s">
         <v>26</v>
       </c>
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="74"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="75"/>
+      <c r="A17" s="77"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="78"/>
       <c r="D17" s="2" t="s">
         <v>89</v>
       </c>
@@ -3315,16 +3381,18 @@
       <c r="H17" s="64" t="s">
         <v>465</v>
       </c>
-      <c r="I17" s="2"/>
+      <c r="I17" s="2" t="s">
+        <v>473</v>
+      </c>
       <c r="J17" s="2" t="s">
         <v>26</v>
       </c>
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="74"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="74" t="s">
+      <c r="A18" s="77"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="77" t="s">
         <v>88</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -3342,16 +3410,18 @@
       <c r="H18" s="64" t="s">
         <v>167</v>
       </c>
-      <c r="I18" s="2"/>
+      <c r="I18" s="2" t="s">
+        <v>469</v>
+      </c>
       <c r="J18" s="2" t="s">
         <v>26</v>
       </c>
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="74"/>
-      <c r="B19" s="74"/>
-      <c r="C19" s="74"/>
+      <c r="A19" s="77"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="77"/>
       <c r="D19" s="2" t="s">
         <v>85</v>
       </c>
@@ -3363,16 +3433,18 @@
       <c r="H19" s="64" t="s">
         <v>465</v>
       </c>
-      <c r="I19" s="2"/>
+      <c r="I19" s="2" t="s">
+        <v>467</v>
+      </c>
       <c r="J19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="74"/>
-      <c r="B20" s="74"/>
-      <c r="C20" s="74"/>
+      <c r="A20" s="77"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
       <c r="D20" s="2" t="s">
         <v>84</v>
       </c>
@@ -3388,16 +3460,18 @@
       <c r="H20" s="64" t="s">
         <v>167</v>
       </c>
-      <c r="I20" s="2"/>
+      <c r="I20" s="2" t="s">
+        <v>470</v>
+      </c>
       <c r="J20" s="2" t="s">
         <v>82</v>
       </c>
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="74"/>
-      <c r="B21" s="74"/>
-      <c r="C21" s="74"/>
+      <c r="A21" s="77"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="77"/>
       <c r="D21" s="2" t="s">
         <v>81</v>
       </c>
@@ -3411,24 +3485,26 @@
       <c r="H21" s="64" t="s">
         <v>465</v>
       </c>
-      <c r="I21" s="2"/>
+      <c r="I21" s="2" t="s">
+        <v>474</v>
+      </c>
       <c r="J21" s="2" t="s">
         <v>79</v>
       </c>
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="F22" s="96"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="96"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="F23" s="96"/>
-      <c r="G23" s="96"/>
-      <c r="H23" s="96"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="F24" s="96"/>
+      <c r="F24" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3504,13 +3580,13 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="79" t="s">
         <v>260</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="79" t="s">
         <v>259</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="79" t="s">
         <v>258</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -3533,9 +3609,9 @@
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="74"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
       <c r="D4" s="2" t="s">
         <v>45</v>
       </c>
@@ -3556,9 +3632,9 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="74"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
+      <c r="A5" s="77"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
       <c r="D5" s="2" t="s">
         <v>257</v>
       </c>
@@ -3579,11 +3655,11 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="74"/>
-      <c r="B6" s="74" t="s">
+      <c r="A6" s="77"/>
+      <c r="B6" s="77" t="s">
         <v>256</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="77" t="s">
         <v>255</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -3608,9 +3684,9 @@
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="74"/>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
+      <c r="A7" s="77"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
       <c r="D7" s="2" t="s">
         <v>42</v>
       </c>
@@ -3633,8 +3709,8 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="74"/>
-      <c r="B8" s="74" t="s">
+      <c r="A8" s="77"/>
+      <c r="B8" s="77" t="s">
         <v>400</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -3660,8 +3736,8 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="49.5">
-      <c r="A9" s="74"/>
-      <c r="B9" s="74"/>
+      <c r="A9" s="77"/>
+      <c r="B9" s="77"/>
       <c r="C9" s="2" t="s">
         <v>401</v>
       </c>
@@ -3687,11 +3763,11 @@
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="74"/>
-      <c r="B10" s="74" t="s">
+      <c r="A10" s="77"/>
+      <c r="B10" s="77" t="s">
         <v>251</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="C10" s="77" t="s">
         <v>58</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -3716,9 +3792,9 @@
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="74"/>
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
+      <c r="A11" s="77"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
       <c r="D11" s="2" t="s">
         <v>248</v>
       </c>
@@ -3741,9 +3817,9 @@
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="74"/>
-      <c r="B12" s="74"/>
-      <c r="C12" s="74"/>
+      <c r="A12" s="77"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="2" t="s">
         <v>246</v>
       </c>
@@ -3766,9 +3842,9 @@
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11" ht="33">
-      <c r="A13" s="74"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
+      <c r="A13" s="77"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
       <c r="D13" s="2" t="s">
         <v>244</v>
       </c>
@@ -3791,10 +3867,10 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="74"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="80" t="s">
+      <c r="A14" s="77"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="82" t="s">
         <v>242</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -3816,10 +3892,10 @@
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="74"/>
-      <c r="B15" s="74"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="76"/>
+      <c r="A15" s="77"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="79"/>
       <c r="E15" s="5" t="s">
         <v>405</v>
       </c>
@@ -3839,9 +3915,9 @@
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="74"/>
-      <c r="B16" s="74"/>
-      <c r="C16" s="74"/>
+      <c r="A16" s="77"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="77"/>
       <c r="D16" s="2" t="s">
         <v>235</v>
       </c>
@@ -3864,11 +3940,11 @@
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="74"/>
-      <c r="B17" s="74" t="s">
+      <c r="A17" s="77"/>
+      <c r="B17" s="77" t="s">
         <v>240</v>
       </c>
-      <c r="C17" s="74" t="s">
+      <c r="C17" s="77" t="s">
         <v>240</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -3893,9 +3969,9 @@
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="74"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="74"/>
+      <c r="A18" s="77"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
       <c r="D18" s="2" t="s">
         <v>237</v>
       </c>
@@ -3918,9 +3994,9 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="74"/>
-      <c r="B19" s="74"/>
-      <c r="C19" s="74"/>
+      <c r="A19" s="77"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="77"/>
       <c r="D19" s="2" t="s">
         <v>235</v>
       </c>
@@ -3943,9 +4019,9 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="74"/>
-      <c r="B20" s="74"/>
-      <c r="C20" s="74"/>
+      <c r="A20" s="77"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
       <c r="D20" s="2" t="s">
         <v>233</v>
       </c>
@@ -3966,9 +4042,9 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A21" s="74"/>
-      <c r="B21" s="74"/>
-      <c r="C21" s="74"/>
+      <c r="A21" s="77"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="77"/>
       <c r="D21" s="2" t="s">
         <v>231</v>
       </c>
@@ -4069,13 +4145,13 @@
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="89" t="s">
         <v>305</v>
       </c>
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="89" t="s">
         <v>305</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="86" t="s">
         <v>304</v>
       </c>
       <c r="D3" s="12" t="s">
@@ -4098,9 +4174,9 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="85"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
       <c r="D4" s="12" t="s">
         <v>303</v>
       </c>
@@ -4124,9 +4200,9 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="85"/>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
+      <c r="A5" s="87"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
       <c r="D5" s="12" t="s">
         <v>302</v>
       </c>
@@ -4147,9 +4223,9 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="85"/>
-      <c r="B6" s="85"/>
-      <c r="C6" s="85"/>
+      <c r="A6" s="87"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
       <c r="D6" s="12" t="s">
         <v>301</v>
       </c>
@@ -4173,9 +4249,9 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="85"/>
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
+      <c r="A7" s="87"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
       <c r="D7" s="12" t="s">
         <v>300</v>
       </c>
@@ -4196,9 +4272,9 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="85"/>
-      <c r="B8" s="85"/>
-      <c r="C8" s="85"/>
+      <c r="A8" s="87"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
       <c r="D8" s="12" t="s">
         <v>299</v>
       </c>
@@ -4222,9 +4298,9 @@
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="85"/>
-      <c r="B9" s="85"/>
-      <c r="C9" s="85"/>
+      <c r="A9" s="87"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
       <c r="D9" s="12" t="s">
         <v>298</v>
       </c>
@@ -4248,9 +4324,9 @@
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="85"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="85"/>
+      <c r="A10" s="87"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
       <c r="D10" s="12" t="s">
         <v>297</v>
       </c>
@@ -4274,9 +4350,9 @@
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="85"/>
-      <c r="B11" s="85"/>
-      <c r="C11" s="85"/>
+      <c r="A11" s="87"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="87"/>
       <c r="D11" s="12" t="s">
         <v>296</v>
       </c>
@@ -4300,9 +4376,9 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="85"/>
-      <c r="B12" s="85"/>
-      <c r="C12" s="86"/>
+      <c r="A12" s="87"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="88"/>
       <c r="D12" s="12" t="s">
         <v>294</v>
       </c>
@@ -4326,8 +4402,8 @@
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="85"/>
-      <c r="B13" s="85"/>
+      <c r="A13" s="87"/>
+      <c r="B13" s="87"/>
       <c r="C13" s="12" t="s">
         <v>293</v>
       </c>
@@ -4353,9 +4429,9 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="85"/>
-      <c r="B14" s="85"/>
-      <c r="C14" s="88" t="s">
+      <c r="A14" s="87"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="90" t="s">
         <v>291</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -4380,9 +4456,9 @@
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="85"/>
-      <c r="B15" s="85"/>
-      <c r="C15" s="86"/>
+      <c r="A15" s="87"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="88"/>
       <c r="D15" s="3" t="s">
         <v>289</v>
       </c>
@@ -4405,8 +4481,8 @@
       <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="85"/>
-      <c r="B16" s="85"/>
+      <c r="A16" s="87"/>
+      <c r="B16" s="87"/>
       <c r="C16" s="14" t="s">
         <v>286</v>
       </c>
@@ -4435,10 +4511,10 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="53.25" customHeight="1">
-      <c r="A17" s="89" t="s">
+      <c r="A17" s="91" t="s">
         <v>417</v>
       </c>
-      <c r="B17" s="89" t="s">
+      <c r="B17" s="91" t="s">
         <v>417</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -4466,9 +4542,9 @@
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="81"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="80" t="s">
+      <c r="A18" s="83"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="82" t="s">
         <v>278</v>
       </c>
       <c r="D18" s="12" t="s">
@@ -4491,9 +4567,9 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="81"/>
-      <c r="B19" s="81"/>
-      <c r="C19" s="81"/>
+      <c r="A19" s="83"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="83"/>
       <c r="D19" s="12" t="s">
         <v>276</v>
       </c>
@@ -4514,9 +4590,9 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="81"/>
-      <c r="B20" s="81"/>
-      <c r="C20" s="81"/>
+      <c r="A20" s="83"/>
+      <c r="B20" s="83"/>
+      <c r="C20" s="83"/>
       <c r="D20" s="56" t="s">
         <v>275</v>
       </c>
@@ -4539,9 +4615,9 @@
       <c r="K20" s="56"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="81"/>
-      <c r="B21" s="81"/>
-      <c r="C21" s="81"/>
+      <c r="A21" s="83"/>
+      <c r="B21" s="83"/>
+      <c r="C21" s="83"/>
       <c r="D21" s="56" t="s">
         <v>273</v>
       </c>
@@ -4564,9 +4640,9 @@
       <c r="K21" s="56"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="81"/>
-      <c r="B22" s="81"/>
-      <c r="C22" s="76"/>
+      <c r="A22" s="83"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="79"/>
       <c r="D22" s="56" t="s">
         <v>270</v>
       </c>
@@ -4589,9 +4665,9 @@
       <c r="K22" s="56"/>
     </row>
     <row r="23" spans="1:12" ht="33">
-      <c r="A23" s="81"/>
-      <c r="B23" s="81"/>
-      <c r="C23" s="89" t="s">
+      <c r="A23" s="83"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="91" t="s">
         <v>268</v>
       </c>
       <c r="D23" s="56" t="s">
@@ -4616,9 +4692,9 @@
       <c r="K23" s="56"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="81"/>
-      <c r="B24" s="81"/>
-      <c r="C24" s="81"/>
+      <c r="A24" s="83"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="83"/>
       <c r="D24" s="56" t="s">
         <v>266</v>
       </c>
@@ -4639,9 +4715,9 @@
       <c r="K24" s="56"/>
     </row>
     <row r="25" spans="1:12" ht="49.5">
-      <c r="A25" s="76"/>
-      <c r="B25" s="76"/>
-      <c r="C25" s="76"/>
+      <c r="A25" s="79"/>
+      <c r="B25" s="79"/>
+      <c r="C25" s="79"/>
       <c r="D25" s="55" t="s">
         <v>265</v>
       </c>
@@ -4664,10 +4740,10 @@
       <c r="K25" s="56"/>
     </row>
     <row r="26" spans="1:12" ht="16.5" customHeight="1">
-      <c r="A26" s="75" t="s">
+      <c r="A26" s="78" t="s">
         <v>418</v>
       </c>
-      <c r="B26" s="75" t="s">
+      <c r="B26" s="78" t="s">
         <v>418</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -4695,9 +4771,9 @@
       <c r="K26" s="56"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="74"/>
-      <c r="B27" s="74"/>
-      <c r="C27" s="74" t="s">
+      <c r="A27" s="77"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="77" t="s">
         <v>278</v>
       </c>
       <c r="D27" s="56" t="s">
@@ -4720,9 +4796,9 @@
       <c r="K27" s="56"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="74"/>
-      <c r="B28" s="74"/>
-      <c r="C28" s="74"/>
+      <c r="A28" s="77"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="77"/>
       <c r="D28" s="56" t="s">
         <v>276</v>
       </c>
@@ -4743,9 +4819,9 @@
       <c r="K28" s="56"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="74"/>
-      <c r="B29" s="74"/>
-      <c r="C29" s="74"/>
+      <c r="A29" s="77"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="77"/>
       <c r="D29" s="56" t="s">
         <v>275</v>
       </c>
@@ -4768,9 +4844,9 @@
       <c r="K29" s="56"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="74"/>
-      <c r="B30" s="74"/>
-      <c r="C30" s="74"/>
+      <c r="A30" s="77"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="77"/>
       <c r="D30" s="56" t="s">
         <v>273</v>
       </c>
@@ -4793,9 +4869,9 @@
       <c r="K30" s="56"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="74"/>
-      <c r="B31" s="74"/>
-      <c r="C31" s="74"/>
+      <c r="A31" s="77"/>
+      <c r="B31" s="77"/>
+      <c r="C31" s="77"/>
       <c r="D31" s="56" t="s">
         <v>270</v>
       </c>
@@ -4818,9 +4894,9 @@
       <c r="K31" s="56"/>
     </row>
     <row r="32" spans="1:12" ht="33">
-      <c r="A32" s="74"/>
-      <c r="B32" s="74"/>
-      <c r="C32" s="75" t="s">
+      <c r="A32" s="77"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="78" t="s">
         <v>268</v>
       </c>
       <c r="D32" s="56" t="s">
@@ -4848,9 +4924,9 @@
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="74"/>
-      <c r="B33" s="74"/>
-      <c r="C33" s="74"/>
+      <c r="A33" s="77"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="77"/>
       <c r="D33" s="12" t="s">
         <v>105</v>
       </c>
@@ -4947,13 +5023,13 @@
       </c>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="79" t="s">
         <v>316</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="76" t="s">
         <v>316</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="76" t="s">
         <v>315</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -4978,9 +5054,9 @@
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1">
-      <c r="A4" s="76"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
       <c r="D4" s="6" t="s">
         <v>127</v>
       </c>
@@ -5003,9 +5079,9 @@
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1">
-      <c r="A5" s="76"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
+      <c r="A5" s="79"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
       <c r="D5" s="2" t="s">
         <v>314</v>
       </c>
@@ -5028,9 +5104,9 @@
       <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1">
-      <c r="A6" s="76"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
+      <c r="A6" s="79"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
       <c r="D6" s="2" t="s">
         <v>312</v>
       </c>
@@ -5053,9 +5129,9 @@
       <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1">
-      <c r="A7" s="76"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
+      <c r="A7" s="79"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
       <c r="D7" s="2" t="s">
         <v>310</v>
       </c>
@@ -5078,9 +5154,9 @@
       <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1">
-      <c r="A8" s="74"/>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
+      <c r="A8" s="77"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
       <c r="D8" s="2" t="s">
         <v>308</v>
       </c>
@@ -5103,13 +5179,13 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="80" t="s">
+      <c r="A9" s="82" t="s">
         <v>411</v>
       </c>
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="82" t="s">
         <v>399</v>
       </c>
-      <c r="C9" s="80" t="s">
+      <c r="C9" s="82" t="s">
         <v>399</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -5135,9 +5211,9 @@
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="76"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
+      <c r="A10" s="79"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
       <c r="D10" s="2" t="s">
         <v>104</v>
       </c>
@@ -5160,13 +5236,13 @@
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="82" t="s">
         <v>412</v>
       </c>
-      <c r="B11" s="80" t="s">
+      <c r="B11" s="82" t="s">
         <v>413</v>
       </c>
-      <c r="C11" s="80" t="s">
+      <c r="C11" s="82" t="s">
         <v>413</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -5191,9 +5267,9 @@
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="81"/>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
+      <c r="A12" s="83"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="83"/>
       <c r="D12" s="2" t="s">
         <v>407</v>
       </c>
@@ -5217,9 +5293,9 @@
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="76"/>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
+      <c r="A13" s="79"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
       <c r="D13" s="2" t="s">
         <v>104</v>
       </c>
@@ -5242,13 +5318,13 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="90" t="s">
+      <c r="A14" s="92" t="s">
         <v>420</v>
       </c>
-      <c r="B14" s="90" t="s">
+      <c r="B14" s="92" t="s">
         <v>420</v>
       </c>
-      <c r="C14" s="85" t="s">
+      <c r="C14" s="87" t="s">
         <v>278</v>
       </c>
       <c r="D14" s="12" t="s">
@@ -5274,9 +5350,9 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="91"/>
-      <c r="B15" s="91"/>
-      <c r="C15" s="85"/>
+      <c r="A15" s="93"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="87"/>
       <c r="D15" s="12" t="s">
         <v>296</v>
       </c>
@@ -5300,9 +5376,9 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="91"/>
-      <c r="B16" s="91"/>
-      <c r="C16" s="86"/>
+      <c r="A16" s="93"/>
+      <c r="B16" s="93"/>
+      <c r="C16" s="88"/>
       <c r="D16" s="12" t="s">
         <v>294</v>
       </c>
@@ -5326,8 +5402,8 @@
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="91"/>
-      <c r="B17" s="91"/>
+      <c r="A17" s="93"/>
+      <c r="B17" s="93"/>
       <c r="C17" s="12" t="s">
         <v>293</v>
       </c>
@@ -5353,9 +5429,9 @@
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="91"/>
-      <c r="B18" s="91"/>
-      <c r="C18" s="92" t="s">
+      <c r="A18" s="93"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="94" t="s">
         <v>291</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -5380,9 +5456,9 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="91"/>
-      <c r="B19" s="91"/>
-      <c r="C19" s="93"/>
+      <c r="A19" s="93"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="95"/>
       <c r="D19" s="3" t="s">
         <v>289</v>
       </c>
@@ -5405,8 +5481,8 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="91"/>
-      <c r="B20" s="91"/>
+      <c r="A20" s="93"/>
+      <c r="B20" s="93"/>
       <c r="C20" s="14" t="s">
         <v>286</v>
       </c>
@@ -5436,12 +5512,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A14:A20"/>
     <mergeCell ref="B14:B20"/>
     <mergeCell ref="C14:C16"/>
@@ -5449,6 +5519,12 @@
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5513,13 +5589,13 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="24.95" customHeight="1">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="96" t="s">
         <v>340</v>
       </c>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="82" t="s">
         <v>339</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="77" t="s">
         <v>338</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -5544,9 +5620,9 @@
       <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:11" s="31" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="95"/>
-      <c r="B3" s="81"/>
-      <c r="C3" s="74"/>
+      <c r="A3" s="97"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="77"/>
       <c r="D3" s="18" t="s">
         <v>335</v>
       </c>
@@ -5569,9 +5645,9 @@
       <c r="K3" s="32"/>
     </row>
     <row r="4" spans="1:11" s="31" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="95"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="74"/>
+      <c r="A4" s="97"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="77"/>
       <c r="D4" s="3" t="s">
         <v>333</v>
       </c>
@@ -5590,9 +5666,9 @@
       <c r="K4" s="51"/>
     </row>
     <row r="5" spans="1:11" s="31" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A5" s="95"/>
-      <c r="B5" s="81"/>
-      <c r="C5" s="83" t="s">
+      <c r="A5" s="97"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="85" t="s">
         <v>331</v>
       </c>
       <c r="D5" s="18" t="s">
@@ -5617,9 +5693,9 @@
       <c r="K5" s="32"/>
     </row>
     <row r="6" spans="1:11" ht="24.95" customHeight="1">
-      <c r="A6" s="95"/>
-      <c r="B6" s="81"/>
-      <c r="C6" s="83"/>
+      <c r="A6" s="97"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="85"/>
       <c r="D6" s="27" t="s">
         <v>328</v>
       </c>
@@ -5642,9 +5718,9 @@
       <c r="K6" s="25"/>
     </row>
     <row r="7" spans="1:11" ht="24.95" customHeight="1">
-      <c r="A7" s="95"/>
-      <c r="B7" s="81"/>
-      <c r="C7" s="80" t="s">
+      <c r="A7" s="97"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="82" t="s">
         <v>326</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -5669,9 +5745,9 @@
       <c r="K7" s="25"/>
     </row>
     <row r="8" spans="1:11" ht="24.95" customHeight="1">
-      <c r="A8" s="95"/>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
+      <c r="A8" s="97"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="83"/>
       <c r="D8" s="2" t="s">
         <v>323</v>
       </c>
@@ -5694,9 +5770,9 @@
       <c r="K8" s="25"/>
     </row>
     <row r="9" spans="1:11" ht="30" customHeight="1">
-      <c r="A9" s="95"/>
-      <c r="B9" s="81"/>
-      <c r="C9" s="81"/>
+      <c r="A9" s="97"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
       <c r="D9" s="2" t="s">
         <v>321</v>
       </c>
@@ -5719,9 +5795,9 @@
       <c r="K9" s="25"/>
     </row>
     <row r="10" spans="1:11" ht="30" customHeight="1">
-      <c r="A10" s="82"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
+      <c r="A10" s="84"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
       <c r="D10" s="2" t="s">
         <v>318</v>
       </c>
@@ -5812,13 +5888,13 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="85" t="s">
         <v>361</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="77" t="s">
         <v>361</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="77" t="s">
         <v>360</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -5843,9 +5919,9 @@
       <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A3" s="83"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
+      <c r="A3" s="85"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
       <c r="D3" s="2" t="s">
         <v>357</v>
       </c>
@@ -5868,10 +5944,10 @@
       <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A4" s="83"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74" t="s">
+      <c r="A4" s="85"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77" t="s">
         <v>355</v>
       </c>
       <c r="E4" s="13" t="s">
@@ -5893,10 +5969,10 @@
       <c r="K4" s="25"/>
     </row>
     <row r="5" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A5" s="83"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
+      <c r="A5" s="85"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
       <c r="E5" s="13" t="s">
         <v>353</v>
       </c>
@@ -5916,9 +5992,9 @@
       <c r="K5" s="25"/>
     </row>
     <row r="6" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A6" s="83"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74" t="s">
+      <c r="A6" s="85"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77" t="s">
         <v>352</v>
       </c>
       <c r="D6" s="35" t="s">
@@ -5943,9 +6019,9 @@
       <c r="K6" s="25"/>
     </row>
     <row r="7" spans="1:11" ht="65.25" customHeight="1">
-      <c r="A7" s="83"/>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
+      <c r="A7" s="85"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
       <c r="D7" s="35" t="s">
         <v>349</v>
       </c>
@@ -5968,8 +6044,8 @@
       <c r="K7" s="25"/>
     </row>
     <row r="8" spans="1:11" ht="57" customHeight="1">
-      <c r="A8" s="83"/>
-      <c r="B8" s="74"/>
+      <c r="A8" s="85"/>
+      <c r="B8" s="77"/>
       <c r="C8" s="2" t="s">
         <v>345</v>
       </c>
@@ -6062,13 +6138,13 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="60" customHeight="1">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="84" t="s">
         <v>378</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="98" t="s">
         <v>378</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="98" t="s">
         <v>377</v>
       </c>
       <c r="D2" s="11" t="s">
@@ -6093,9 +6169,9 @@
       <c r="K2" s="40"/>
     </row>
     <row r="3" spans="1:11" ht="60" customHeight="1">
-      <c r="A3" s="83"/>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
+      <c r="A3" s="85"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
       <c r="D3" s="5" t="s">
         <v>374</v>
       </c>
@@ -6118,9 +6194,9 @@
       <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:11" ht="60" customHeight="1">
-      <c r="A4" s="83"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="76"/>
+      <c r="A4" s="85"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="79"/>
       <c r="D4" s="24" t="s">
         <v>372</v>
       </c>
@@ -6141,8 +6217,8 @@
       <c r="K4" s="45"/>
     </row>
     <row r="5" spans="1:11" ht="60" customHeight="1">
-      <c r="A5" s="83"/>
-      <c r="B5" s="81"/>
+      <c r="A5" s="85"/>
+      <c r="B5" s="83"/>
       <c r="C5" s="2" t="s">
         <v>370</v>
       </c>
@@ -6168,8 +6244,8 @@
       <c r="K5" s="25"/>
     </row>
     <row r="6" spans="1:11" ht="88.5" customHeight="1">
-      <c r="A6" s="83"/>
-      <c r="B6" s="76"/>
+      <c r="A6" s="85"/>
+      <c r="B6" s="79"/>
       <c r="C6" s="2" t="s">
         <v>368</v>
       </c>
@@ -6255,10 +6331,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="24.95" customHeight="1">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="88" t="s">
         <v>396</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="83" t="s">
         <v>388</v>
       </c>
       <c r="C2" s="14" t="s">
@@ -6286,8 +6362,8 @@
       <c r="K2" s="14"/>
     </row>
     <row r="3" spans="1:11" ht="24.95" customHeight="1">
-      <c r="A3" s="91"/>
-      <c r="B3" s="81"/>
+      <c r="A3" s="93"/>
+      <c r="B3" s="83"/>
       <c r="C3" s="2" t="s">
         <v>391</v>
       </c>
@@ -6313,8 +6389,8 @@
       <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:11" ht="33">
-      <c r="A4" s="91"/>
-      <c r="B4" s="76"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="79"/>
       <c r="C4" s="2" t="s">
         <v>388</v>
       </c>
@@ -6340,7 +6416,7 @@
       <c r="K4" s="25"/>
     </row>
     <row r="5" spans="1:11" ht="33">
-      <c r="A5" s="91"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="2" t="s">
         <v>385</v>
       </c>
@@ -6369,7 +6445,7 @@
       <c r="K5" s="25"/>
     </row>
     <row r="6" spans="1:11" ht="49.5">
-      <c r="A6" s="91"/>
+      <c r="A6" s="93"/>
       <c r="B6" s="2" t="s">
         <v>381</v>
       </c>
@@ -6413,7 +6489,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6487,7 +6563,9 @@
       <c r="H3" s="59" t="s">
         <v>464</v>
       </c>
-      <c r="I3" s="6"/>
+      <c r="I3" s="6" t="s">
+        <v>470</v>
+      </c>
       <c r="J3" s="6" t="s">
         <v>82</v>
       </c>
@@ -6503,8 +6581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="F3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6572,11 +6650,11 @@
       <c r="E3" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="74" t="s">
         <v>125</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="59"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6" t="s">
         <v>124</v>
@@ -6677,7 +6755,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="38.1" customHeight="1" thickBot="1">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="80" t="s">
         <v>151</v>
       </c>
       <c r="B2" s="59" t="s">
@@ -6708,7 +6786,7 @@
       <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:11" ht="38.1" customHeight="1">
-      <c r="A3" s="77"/>
+      <c r="A3" s="80"/>
       <c r="B3" s="59" t="s">
         <v>150</v>
       </c>
@@ -6735,7 +6813,7 @@
       <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="38.1" customHeight="1">
-      <c r="A4" s="78"/>
+      <c r="A4" s="81"/>
       <c r="B4" s="58" t="s">
         <v>144</v>
       </c>
@@ -6760,11 +6838,11 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="38.25" customHeight="1">
-      <c r="A5" s="78"/>
-      <c r="B5" s="74" t="s">
+      <c r="A5" s="81"/>
+      <c r="B5" s="77" t="s">
         <v>140</v>
       </c>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="82" t="s">
         <v>139</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -6789,9 +6867,9 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="38.25" customHeight="1">
-      <c r="A6" s="78"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="81"/>
+      <c r="A6" s="81"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="83"/>
       <c r="D6" s="54" t="s">
         <v>138</v>
       </c>
@@ -6814,9 +6892,9 @@
       <c r="K6" s="54"/>
     </row>
     <row r="7" spans="1:11" ht="38.25" customHeight="1">
-      <c r="A7" s="78"/>
-      <c r="B7" s="74"/>
-      <c r="C7" s="76"/>
+      <c r="A7" s="81"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="79"/>
       <c r="D7" s="54" t="s">
         <v>445</v>
       </c>
@@ -6839,8 +6917,8 @@
       <c r="K7" s="54"/>
     </row>
     <row r="8" spans="1:11" ht="38.1" customHeight="1">
-      <c r="A8" s="78"/>
-      <c r="B8" s="74"/>
+      <c r="A8" s="81"/>
+      <c r="B8" s="77"/>
       <c r="C8" s="54" t="s">
         <v>448</v>
       </c>
@@ -6938,10 +7016,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="49.5">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="84" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="84" t="s">
         <v>171</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -6968,8 +7046,8 @@
       <c r="J2" s="6"/>
     </row>
     <row r="3" spans="1:10" ht="33">
-      <c r="A3" s="83"/>
-      <c r="B3" s="83"/>
+      <c r="A3" s="85"/>
+      <c r="B3" s="85"/>
       <c r="C3" s="2" t="s">
         <v>166</v>
       </c>
@@ -6990,8 +7068,8 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="83"/>
-      <c r="B4" s="83"/>
+      <c r="A4" s="85"/>
+      <c r="B4" s="85"/>
       <c r="C4" s="54" t="s">
         <v>440</v>
       </c>
@@ -7008,8 +7086,8 @@
       <c r="J4" s="54"/>
     </row>
     <row r="5" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A5" s="83"/>
-      <c r="B5" s="83"/>
+      <c r="A5" s="85"/>
+      <c r="B5" s="85"/>
       <c r="C5" s="20" t="s">
         <v>162</v>
       </c>
@@ -7032,8 +7110,8 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" ht="33">
-      <c r="A6" s="83"/>
-      <c r="B6" s="83"/>
+      <c r="A6" s="85"/>
+      <c r="B6" s="85"/>
       <c r="C6" s="20" t="s">
         <v>160</v>
       </c>
@@ -7054,8 +7132,8 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" ht="82.5">
-      <c r="A7" s="83"/>
-      <c r="B7" s="83"/>
+      <c r="A7" s="85"/>
+      <c r="B7" s="85"/>
       <c r="C7" s="2" t="s">
         <v>156</v>
       </c>
@@ -7094,7 +7172,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7145,10 +7223,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="61.5" customHeight="1">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="85" t="s">
         <v>208</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="85" t="s">
         <v>150</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -7176,8 +7254,8 @@
       <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:11" ht="33">
-      <c r="A3" s="83"/>
-      <c r="B3" s="83"/>
+      <c r="A3" s="85"/>
+      <c r="B3" s="85"/>
       <c r="C3" s="5" t="s">
         <v>204</v>
       </c>
@@ -7201,8 +7279,8 @@
       <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:11" ht="49.5">
-      <c r="A4" s="83"/>
-      <c r="B4" s="83"/>
+      <c r="A4" s="85"/>
+      <c r="B4" s="85"/>
       <c r="C4" s="5" t="s">
         <v>181</v>
       </c>
@@ -7228,8 +7306,8 @@
       <c r="K4" s="25"/>
     </row>
     <row r="5" spans="1:11" ht="33">
-      <c r="A5" s="83"/>
-      <c r="B5" s="83"/>
+      <c r="A5" s="85"/>
+      <c r="B5" s="85"/>
       <c r="C5" s="5" t="s">
         <v>199</v>
       </c>
@@ -7255,8 +7333,8 @@
       <c r="K5" s="25"/>
     </row>
     <row r="6" spans="1:11" ht="49.5">
-      <c r="A6" s="83"/>
-      <c r="B6" s="83"/>
+      <c r="A6" s="85"/>
+      <c r="B6" s="85"/>
       <c r="C6" s="5" t="s">
         <v>197</v>
       </c>
@@ -7282,8 +7360,8 @@
       <c r="K6" s="25"/>
     </row>
     <row r="7" spans="1:11" ht="49.5">
-      <c r="A7" s="83"/>
-      <c r="B7" s="83"/>
+      <c r="A7" s="85"/>
+      <c r="B7" s="85"/>
       <c r="C7" s="5" t="s">
         <v>194</v>
       </c>
@@ -7309,8 +7387,8 @@
       <c r="K7" s="25"/>
     </row>
     <row r="8" spans="1:11" ht="49.5">
-      <c r="A8" s="83"/>
-      <c r="B8" s="74" t="s">
+      <c r="A8" s="85"/>
+      <c r="B8" s="77" t="s">
         <v>189</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -7338,8 +7416,8 @@
       <c r="K8" s="25"/>
     </row>
     <row r="9" spans="1:11" ht="33">
-      <c r="A9" s="83"/>
-      <c r="B9" s="74"/>
+      <c r="A9" s="85"/>
+      <c r="B9" s="77"/>
       <c r="C9" s="5" t="s">
         <v>185</v>
       </c>
@@ -7363,8 +7441,8 @@
       <c r="K9" s="25"/>
     </row>
     <row r="10" spans="1:11" ht="49.5">
-      <c r="A10" s="83"/>
-      <c r="B10" s="74"/>
+      <c r="A10" s="85"/>
+      <c r="B10" s="77"/>
       <c r="C10" s="5" t="s">
         <v>181</v>
       </c>
@@ -7390,8 +7468,8 @@
       <c r="K10" s="25"/>
     </row>
     <row r="11" spans="1:11" ht="33">
-      <c r="A11" s="83"/>
-      <c r="B11" s="74"/>
+      <c r="A11" s="85"/>
+      <c r="B11" s="77"/>
       <c r="C11" s="5" t="s">
         <v>177</v>
       </c>
@@ -7479,13 +7557,13 @@
       </c>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="79" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -7508,9 +7586,9 @@
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" ht="33">
-      <c r="A4" s="74"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
       <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
@@ -7529,9 +7607,9 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1">
-      <c r="A5" s="74"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
+      <c r="A5" s="77"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
       <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
@@ -7550,9 +7628,9 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1">
-      <c r="A6" s="74"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
+      <c r="A6" s="77"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
       <c r="D6" s="2" t="s">
         <v>431</v>
       </c>
@@ -7575,9 +7653,9 @@
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1">
-      <c r="A7" s="74"/>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
+      <c r="A7" s="77"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
       <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
@@ -7600,9 +7678,9 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1">
-      <c r="A8" s="74"/>
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
+      <c r="A8" s="77"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
       <c r="D8" s="2" t="s">
         <v>4</v>
       </c>
@@ -7623,9 +7701,9 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1">
-      <c r="A9" s="74"/>
-      <c r="B9" s="74"/>
-      <c r="C9" s="74"/>
+      <c r="A9" s="77"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="77"/>
       <c r="D9" s="2" t="s">
         <v>3</v>
       </c>
@@ -7715,13 +7793,13 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="33">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="79" t="s">
         <v>228</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="79" t="s">
         <v>227</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="79" t="s">
         <v>226</v>
       </c>
       <c r="D3" s="11" t="s">
@@ -7746,9 +7824,9 @@
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="74"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
       <c r="D4" s="2" t="s">
         <v>223</v>
       </c>
@@ -7771,9 +7849,9 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="74"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
+      <c r="A5" s="77"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
       <c r="D5" s="2" t="s">
         <v>220</v>
       </c>
@@ -7796,9 +7874,9 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="74"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
+      <c r="A6" s="77"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
       <c r="D6" s="2" t="s">
         <v>218</v>
       </c>
@@ -7821,9 +7899,9 @@
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" ht="33">
-      <c r="A7" s="74"/>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
+      <c r="A7" s="77"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
       <c r="D7" s="5" t="s">
         <v>216</v>
       </c>
@@ -7846,9 +7924,9 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="74"/>
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
+      <c r="A8" s="77"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
       <c r="D8" s="2" t="s">
         <v>214</v>
       </c>
@@ -7938,13 +8016,13 @@
       </c>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="79" t="s">
         <v>66</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -7969,9 +8047,9 @@
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1">
-      <c r="A4" s="74"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
       <c r="D4" s="2" t="s">
         <v>63</v>
       </c>
@@ -7994,9 +8072,9 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1">
-      <c r="A5" s="74"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
+      <c r="A5" s="77"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
       <c r="D5" s="2" t="s">
         <v>61</v>
       </c>
@@ -8019,7 +8097,7 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1">
-      <c r="A6" s="74"/>
+      <c r="A6" s="77"/>
       <c r="B6" s="2" t="s">
         <v>58</v>
       </c>
@@ -8048,11 +8126,11 @@
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1">
-      <c r="A7" s="74"/>
-      <c r="B7" s="74" t="s">
+      <c r="A7" s="77"/>
+      <c r="B7" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="75" t="s">
+      <c r="C7" s="78" t="s">
         <v>53</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -8077,9 +8155,9 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1">
-      <c r="A8" s="74"/>
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
+      <c r="A8" s="77"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
       <c r="D8" s="2" t="s">
         <v>51</v>
       </c>
@@ -8102,9 +8180,9 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1">
-      <c r="A9" s="74"/>
-      <c r="B9" s="74"/>
-      <c r="C9" s="74"/>
+      <c r="A9" s="77"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="77"/>
       <c r="D9" s="2" t="s">
         <v>50</v>
       </c>
@@ -8127,9 +8205,9 @@
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" s="1" customFormat="1">
-      <c r="A10" s="74"/>
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
+      <c r="A10" s="77"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="77"/>
       <c r="D10" s="2" t="s">
         <v>49</v>
       </c>
@@ -8152,9 +8230,9 @@
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" s="1" customFormat="1">
-      <c r="A11" s="74"/>
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
+      <c r="A11" s="77"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
       <c r="D11" s="2" t="s">
         <v>48</v>
       </c>
@@ -8177,9 +8255,9 @@
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" s="1" customFormat="1">
-      <c r="A12" s="74"/>
-      <c r="B12" s="74"/>
-      <c r="C12" s="74"/>
+      <c r="A12" s="77"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="2" t="s">
         <v>47</v>
       </c>
@@ -8202,9 +8280,9 @@
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1">
-      <c r="A13" s="74"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
+      <c r="A13" s="77"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
       <c r="D13" s="2" t="s">
         <v>45</v>
       </c>
@@ -8227,9 +8305,9 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11" s="1" customFormat="1">
-      <c r="A14" s="74"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
+      <c r="A14" s="77"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="77"/>
       <c r="D14" s="2" t="s">
         <v>43</v>
       </c>
@@ -8252,9 +8330,9 @@
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11" s="1" customFormat="1">
-      <c r="A15" s="74"/>
-      <c r="B15" s="74"/>
-      <c r="C15" s="74"/>
+      <c r="A15" s="77"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
       <c r="D15" s="2" t="s">
         <v>105</v>
       </c>
@@ -8277,9 +8355,9 @@
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11" s="1" customFormat="1">
-      <c r="A16" s="74"/>
-      <c r="B16" s="74"/>
-      <c r="C16" s="74"/>
+      <c r="A16" s="77"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="77"/>
       <c r="D16" s="2" t="s">
         <v>42</v>
       </c>
@@ -8302,8 +8380,8 @@
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:12" s="1" customFormat="1">
-      <c r="A17" s="74"/>
-      <c r="B17" s="75" t="s">
+      <c r="A17" s="77"/>
+      <c r="B17" s="78" t="s">
         <v>40</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -8331,9 +8409,9 @@
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:12" s="1" customFormat="1">
-      <c r="A18" s="74"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="74" t="s">
+      <c r="A18" s="77"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="77" t="s">
         <v>35</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -8361,9 +8439,9 @@
       </c>
     </row>
     <row r="19" spans="1:12" s="1" customFormat="1">
-      <c r="A19" s="74"/>
-      <c r="B19" s="74"/>
-      <c r="C19" s="74"/>
+      <c r="A19" s="77"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="77"/>
       <c r="D19" s="2" t="s">
         <v>33</v>
       </c>
@@ -8386,9 +8464,9 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:12" s="1" customFormat="1">
-      <c r="A20" s="74"/>
-      <c r="B20" s="74"/>
-      <c r="C20" s="74"/>
+      <c r="A20" s="77"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
       <c r="D20" s="2" t="s">
         <v>31</v>
       </c>
@@ -8411,7 +8489,7 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:12" s="1" customFormat="1" ht="33">
-      <c r="A21" s="74"/>
+      <c r="A21" s="77"/>
       <c r="B21" s="5" t="s">
         <v>30</v>
       </c>

--- a/기능명세서 최종본.xlsx
+++ b/기능명세서 최종본.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="프로필 수정 및 관리" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="475">
   <si>
     <t>서영</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -696,11 +696,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>강의별 1개 완료
-구독권 예정</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>중</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -719,23 +714,6 @@
   </si>
   <si>
     <t>장바구니 항목 구매 총액 증감</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>중</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>강의 장바구니 / 구독권 장바구니 탭으로 분리
-강의/구독권 각 항목 전체 선택</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니 항목 전체 선택 체크박스</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니 전체 선택</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1943,10 +1921,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>ㅇ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>동근</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2029,6 +2003,30 @@
   </si>
   <si>
     <t>ㅇ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>동근</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2357,7 +2355,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2406,12 +2404,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2435,9 +2427,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2993,32 +2982,32 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="49.5">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="76" t="s">
         <v>107</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>36</v>
@@ -3026,9 +3015,9 @@
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="76"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="79"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="76"/>
       <c r="D4" s="6" t="s">
         <v>51</v>
       </c>
@@ -3037,23 +3026,23 @@
         <v>1</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="J4" s="73" t="s">
+        <v>461</v>
+      </c>
+      <c r="J4" s="70" t="s">
         <v>0</v>
       </c>
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="77"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
+      <c r="A5" s="74"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
       <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
@@ -3062,13 +3051,13 @@
         <v>44</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>36</v>
@@ -3076,9 +3065,9 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="77"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
+      <c r="A6" s="74"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
       <c r="D6" s="2" t="s">
         <v>106</v>
       </c>
@@ -3087,13 +3076,13 @@
         <v>44</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>36</v>
@@ -3101,26 +3090,26 @@
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" ht="33">
-      <c r="A7" s="77"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
+      <c r="A7" s="74"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
       <c r="D7" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="F7" s="64" t="s">
+        <v>428</v>
+      </c>
+      <c r="F7" s="61" t="s">
         <v>44</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>26</v>
@@ -3128,26 +3117,26 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="77"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
+      <c r="A8" s="74"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
       <c r="D8" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F8" s="63" t="s">
+      <c r="F8" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="64" t="s">
-        <v>167</v>
-      </c>
-      <c r="H8" s="64" t="s">
-        <v>167</v>
+      <c r="G8" s="61" t="s">
+        <v>162</v>
+      </c>
+      <c r="H8" s="61" t="s">
+        <v>162</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>26</v>
@@ -3155,9 +3144,9 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="77"/>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77" t="s">
+      <c r="A9" s="74"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74" t="s">
         <v>101</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -3166,15 +3155,15 @@
       <c r="E9" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="64" t="s">
+      <c r="F9" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64" t="s">
-        <v>465</v>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61" t="s">
+        <v>459</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>26</v>
@@ -3182,26 +3171,26 @@
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="33">
-      <c r="A10" s="77"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="77"/>
+      <c r="A10" s="74"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
       <c r="D10" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F10" s="63" t="s">
+      <c r="F10" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="64" t="s">
-        <v>167</v>
-      </c>
-      <c r="H10" s="64" t="s">
-        <v>167</v>
+      <c r="G10" s="61" t="s">
+        <v>162</v>
+      </c>
+      <c r="H10" s="61" t="s">
+        <v>162</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>36</v>
@@ -3209,9 +3198,9 @@
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="77"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77" t="s">
+      <c r="A11" s="74"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="74" t="s">
         <v>96</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -3220,15 +3209,15 @@
       <c r="E11" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="64" t="s">
+      <c r="F11" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64" t="s">
-        <v>465</v>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61" t="s">
+        <v>459</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>36</v>
@@ -3236,24 +3225,24 @@
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="77"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="77"/>
+      <c r="A12" s="74"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
       <c r="D12" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="64" t="s">
+      <c r="F12" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="64" t="s">
-        <v>167</v>
-      </c>
-      <c r="H12" s="64" t="s">
-        <v>167</v>
+      <c r="G12" s="61" t="s">
+        <v>162</v>
+      </c>
+      <c r="H12" s="61" t="s">
+        <v>162</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>36</v>
@@ -3261,24 +3250,24 @@
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="77"/>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
+      <c r="A13" s="74"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
       <c r="D13" s="2" t="s">
         <v>89</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F13" s="64" t="s">
+      <c r="F13" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64" t="s">
-        <v>465</v>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61" t="s">
+        <v>459</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>36</v>
@@ -3286,9 +3275,9 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="77"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="78" t="s">
+      <c r="A14" s="74"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="75" t="s">
         <v>94</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -3297,17 +3286,17 @@
       <c r="E14" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="64" t="s">
+      <c r="F14" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="64" t="s">
-        <v>167</v>
-      </c>
-      <c r="H14" s="64" t="s">
-        <v>167</v>
+      <c r="G14" s="61" t="s">
+        <v>162</v>
+      </c>
+      <c r="H14" s="61" t="s">
+        <v>162</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>36</v>
@@ -3315,24 +3304,24 @@
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="77"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="78"/>
+      <c r="A15" s="74"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="75"/>
       <c r="D15" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F15" s="64" t="s">
+      <c r="F15" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64" t="s">
-        <v>465</v>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61" t="s">
+        <v>459</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>36</v>
@@ -3340,24 +3329,24 @@
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="77"/>
-      <c r="B16" s="77"/>
-      <c r="C16" s="78"/>
+      <c r="A16" s="74"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="75"/>
       <c r="D16" s="2" t="s">
         <v>90</v>
       </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="64" t="s">
+      <c r="F16" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="64" t="s">
-        <v>167</v>
-      </c>
-      <c r="H16" s="64" t="s">
-        <v>167</v>
+      <c r="G16" s="61" t="s">
+        <v>162</v>
+      </c>
+      <c r="H16" s="61" t="s">
+        <v>162</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>26</v>
@@ -3365,24 +3354,24 @@
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="77"/>
-      <c r="B17" s="77"/>
-      <c r="C17" s="78"/>
+      <c r="A17" s="74"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="75"/>
       <c r="D17" s="2" t="s">
         <v>89</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F17" s="64" t="s">
+      <c r="F17" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64" t="s">
-        <v>465</v>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61" t="s">
+        <v>459</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>26</v>
@@ -3390,9 +3379,9 @@
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="77"/>
-      <c r="B18" s="77"/>
-      <c r="C18" s="77" t="s">
+      <c r="A18" s="74"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="74" t="s">
         <v>88</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -3401,17 +3390,17 @@
       <c r="E18" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="63" t="s">
+      <c r="F18" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="64" t="s">
-        <v>167</v>
-      </c>
-      <c r="H18" s="64" t="s">
-        <v>167</v>
+      <c r="G18" s="61" t="s">
+        <v>162</v>
+      </c>
+      <c r="H18" s="61" t="s">
+        <v>162</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>26</v>
@@ -3419,22 +3408,22 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="77"/>
-      <c r="B19" s="77"/>
-      <c r="C19" s="77"/>
+      <c r="A19" s="74"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="74"/>
       <c r="D19" s="2" t="s">
         <v>85</v>
       </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="63" t="s">
+      <c r="F19" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64" t="s">
-        <v>465</v>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61" t="s">
+        <v>459</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>26</v>
@@ -3442,26 +3431,26 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="77"/>
-      <c r="B20" s="77"/>
-      <c r="C20" s="77"/>
+      <c r="A20" s="74"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="74"/>
       <c r="D20" s="2" t="s">
         <v>84</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F20" s="63" t="s">
+      <c r="F20" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="64" t="s">
-        <v>167</v>
-      </c>
-      <c r="H20" s="64" t="s">
-        <v>167</v>
+      <c r="G20" s="61" t="s">
+        <v>162</v>
+      </c>
+      <c r="H20" s="61" t="s">
+        <v>162</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>82</v>
@@ -3469,24 +3458,24 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="77"/>
-      <c r="B21" s="77"/>
-      <c r="C21" s="77"/>
+      <c r="A21" s="74"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F21" s="63" t="s">
+      <c r="F21" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64" t="s">
-        <v>465</v>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61" t="s">
+        <v>459</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>79</v>
@@ -3494,17 +3483,17 @@
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="F24" s="75"/>
+      <c r="F24" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3552,22 +3541,22 @@
         <v>134</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>132</v>
@@ -3580,14 +3569,14 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="79" t="s">
-        <v>260</v>
-      </c>
-      <c r="B3" s="79" t="s">
-        <v>259</v>
-      </c>
-      <c r="C3" s="79" t="s">
-        <v>258</v>
+      <c r="A3" s="76" t="s">
+        <v>255</v>
+      </c>
+      <c r="B3" s="76" t="s">
+        <v>254</v>
+      </c>
+      <c r="C3" s="76" t="s">
+        <v>253</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>48</v>
@@ -3600,18 +3589,18 @@
         <v>36</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="77"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
       <c r="D4" s="2" t="s">
         <v>45</v>
       </c>
@@ -3620,10 +3609,10 @@
         <v>125</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2" t="s">
@@ -3632,21 +3621,21 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="77"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
+      <c r="A5" s="74"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
       <c r="D5" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
@@ -3655,27 +3644,27 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="77"/>
-      <c r="B6" s="77" t="s">
-        <v>256</v>
-      </c>
-      <c r="C6" s="77" t="s">
-        <v>255</v>
+      <c r="A6" s="74"/>
+      <c r="B6" s="74" t="s">
+        <v>251</v>
+      </c>
+      <c r="C6" s="74" t="s">
+        <v>250</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>125</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
@@ -3684,40 +3673,40 @@
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="77"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
+      <c r="A7" s="74"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
       <c r="D7" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="77"/>
-      <c r="B8" s="77" t="s">
-        <v>400</v>
+      <c r="A8" s="74"/>
+      <c r="B8" s="74" t="s">
+        <v>395</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
@@ -3727,7 +3716,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
@@ -3736,16 +3725,16 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="49.5">
-      <c r="A9" s="77"/>
-      <c r="B9" s="77"/>
+      <c r="A9" s="74"/>
+      <c r="B9" s="74"/>
       <c r="C9" s="2" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>1</v>
@@ -3754,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
@@ -3763,18 +3752,18 @@
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="77"/>
-      <c r="B10" s="77" t="s">
-        <v>251</v>
-      </c>
-      <c r="C10" s="77" t="s">
+      <c r="A10" s="74"/>
+      <c r="B10" s="74" t="s">
+        <v>246</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>58</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>125</v>
@@ -3783,7 +3772,7 @@
         <v>36</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
@@ -3792,23 +3781,23 @@
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="77"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
+      <c r="A11" s="74"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
       <c r="D11" s="2" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2" t="s">
@@ -3817,39 +3806,39 @@
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="77"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="77"/>
+      <c r="A12" s="74"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
       <c r="D12" s="2" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11" ht="33">
-      <c r="A13" s="77"/>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
+      <c r="A13" s="74"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
       <c r="D13" s="2" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>44</v>
@@ -3858,7 +3847,7 @@
         <v>36</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2" t="s">
@@ -3867,37 +3856,37 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="77"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="82" t="s">
-        <v>242</v>
+      <c r="A14" s="74"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="79" t="s">
+        <v>237</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>125</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="77"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="79"/>
+      <c r="A15" s="74"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="76"/>
       <c r="E15" s="5" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>27</v>
@@ -3906,7 +3895,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2" t="s">
@@ -3915,43 +3904,43 @@
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="77"/>
-      <c r="B16" s="77"/>
-      <c r="C16" s="77"/>
+      <c r="A16" s="74"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
       <c r="D16" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>125</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="77"/>
-      <c r="B17" s="77" t="s">
-        <v>240</v>
-      </c>
-      <c r="C17" s="77" t="s">
-        <v>240</v>
+      <c r="A17" s="74"/>
+      <c r="B17" s="74" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" s="74" t="s">
+        <v>235</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>125</v>
@@ -3960,23 +3949,23 @@
         <v>0</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="77"/>
-      <c r="B18" s="77"/>
-      <c r="C18" s="77"/>
+      <c r="A18" s="74"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="74"/>
       <c r="D18" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>125</v>
@@ -3985,23 +3974,23 @@
         <v>0</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="74"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="77"/>
-      <c r="B19" s="77"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>234</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>125</v>
@@ -4010,43 +3999,43 @@
         <v>0</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="77"/>
-      <c r="B20" s="77"/>
-      <c r="C20" s="77"/>
+      <c r="A20" s="74"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="74"/>
       <c r="D20" s="2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A21" s="77"/>
-      <c r="B21" s="77"/>
-      <c r="C21" s="77"/>
+      <c r="A21" s="74"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="2" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
@@ -4056,11 +4045,11 @@
         <v>0</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="K21" s="2"/>
     </row>
@@ -4117,7 +4106,7 @@
         <v>77</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>120</v>
@@ -4129,7 +4118,7 @@
         <v>73</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>109</v>
@@ -4145,14 +4134,14 @@
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="89" t="s">
-        <v>305</v>
-      </c>
-      <c r="B3" s="89" t="s">
-        <v>305</v>
-      </c>
-      <c r="C3" s="86" t="s">
-        <v>304</v>
+      <c r="A3" s="86" t="s">
+        <v>300</v>
+      </c>
+      <c r="B3" s="86" t="s">
+        <v>300</v>
+      </c>
+      <c r="C3" s="83" t="s">
+        <v>299</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>51</v>
@@ -4165,7 +4154,7 @@
         <v>124</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="2" t="s">
@@ -4174,37 +4163,37 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="87"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
       <c r="D4" s="12" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>124</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="2" t="s">
         <v>36</v>
       </c>
       <c r="K4" s="2"/>
-      <c r="L4" s="29" t="s">
-        <v>427</v>
+      <c r="L4" s="26" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="87"/>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
+      <c r="A5" s="84"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
       <c r="D5" s="12" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12" t="s">
@@ -4214,7 +4203,7 @@
         <v>36</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="2" t="s">
@@ -4223,11 +4212,11 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="87"/>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
+      <c r="A6" s="84"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
       <c r="D6" s="12" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12" t="s">
@@ -4237,23 +4226,23 @@
         <v>36</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="I6" s="12"/>
       <c r="J6" s="2" t="s">
         <v>36</v>
       </c>
       <c r="K6" s="2"/>
-      <c r="L6" s="29" t="s">
-        <v>428</v>
+      <c r="L6" s="26" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="87"/>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
+      <c r="A7" s="84"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="84"/>
       <c r="D7" s="12" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="12" t="s">
@@ -4263,7 +4252,7 @@
         <v>124</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="2" t="s">
@@ -4272,11 +4261,11 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="87"/>
-      <c r="B8" s="87"/>
-      <c r="C8" s="87"/>
+      <c r="A8" s="84"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
       <c r="D8" s="12" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12" t="s">
@@ -4286,49 +4275,49 @@
         <v>124</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="I8" s="12"/>
       <c r="J8" s="2" t="s">
         <v>36</v>
       </c>
       <c r="K8" s="2"/>
-      <c r="L8" s="29" t="s">
-        <v>427</v>
+      <c r="L8" s="26" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="87"/>
-      <c r="B9" s="87"/>
-      <c r="C9" s="87"/>
+      <c r="A9" s="84"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
       <c r="D9" s="12" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>36</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="K9" s="2"/>
-      <c r="L9" s="30" t="s">
-        <v>429</v>
+      <c r="L9" s="27" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="87"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="87"/>
+      <c r="A10" s="84"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="84"/>
       <c r="D10" s="12" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12" t="s">
@@ -4338,49 +4327,49 @@
         <v>124</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="2" t="s">
         <v>124</v>
       </c>
       <c r="K10" s="2"/>
-      <c r="L10" s="29" t="s">
-        <v>427</v>
+      <c r="L10" s="26" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="87"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="87"/>
+      <c r="A11" s="84"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
       <c r="D11" s="12" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>124</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="2" t="s">
         <v>124</v>
       </c>
       <c r="K11" s="2"/>
-      <c r="L11" s="29" t="s">
-        <v>427</v>
+      <c r="L11" s="26" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="87"/>
-      <c r="B12" s="87"/>
-      <c r="C12" s="88"/>
+      <c r="A12" s="84"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="85"/>
       <c r="D12" s="12" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12" t="s">
@@ -4390,28 +4379,28 @@
         <v>124</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I12" s="12"/>
       <c r="J12" s="2" t="s">
         <v>36</v>
       </c>
       <c r="K12" s="2"/>
-      <c r="L12" s="29" t="s">
-        <v>427</v>
+      <c r="L12" s="26" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="87"/>
-      <c r="B13" s="87"/>
+      <c r="A13" s="84"/>
+      <c r="B13" s="84"/>
       <c r="C13" s="12" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>59</v>
@@ -4420,7 +4409,7 @@
         <v>36</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="2" t="s">
@@ -4429,26 +4418,26 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="87"/>
-      <c r="B14" s="87"/>
-      <c r="C14" s="90" t="s">
-        <v>291</v>
+      <c r="A14" s="84"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="87" t="s">
+        <v>286</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>111</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="3" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>124</v>
@@ -4456,24 +4445,24 @@
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="87"/>
-      <c r="B15" s="87"/>
-      <c r="C15" s="88"/>
+      <c r="A15" s="84"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="85"/>
       <c r="D15" s="3" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="3" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>36</v>
@@ -4481,16 +4470,16 @@
       <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="87"/>
-      <c r="B16" s="87"/>
+      <c r="A16" s="84"/>
+      <c r="B16" s="84"/>
       <c r="C16" s="14" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>5</v>
@@ -4499,41 +4488,41 @@
         <v>0</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I16" s="12"/>
       <c r="J16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="K16" s="2"/>
-      <c r="L16" s="28" t="s">
+      <c r="L16" s="25" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="53.25" customHeight="1">
-      <c r="A17" s="91" t="s">
-        <v>417</v>
-      </c>
-      <c r="B17" s="91" t="s">
-        <v>417</v>
+      <c r="A17" s="88" t="s">
+        <v>412</v>
+      </c>
+      <c r="B17" s="88" t="s">
+        <v>412</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2" t="s">
@@ -4542,23 +4531,23 @@
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="83"/>
-      <c r="B18" s="83"/>
-      <c r="C18" s="82" t="s">
-        <v>278</v>
+      <c r="A18" s="80"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="79" t="s">
+        <v>273</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2" t="s">
@@ -4567,21 +4556,21 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="83"/>
-      <c r="B19" s="83"/>
-      <c r="C19" s="83"/>
+      <c r="A19" s="80"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
       <c r="D19" s="12" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2" t="s">
@@ -4590,343 +4579,343 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="83"/>
-      <c r="B20" s="83"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="56" t="s">
+      <c r="A20" s="80"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="53" t="s">
+        <v>270</v>
+      </c>
+      <c r="E20" s="53" t="s">
+        <v>269</v>
+      </c>
+      <c r="F20" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="K20" s="53"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="80"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="53" t="s">
+        <v>268</v>
+      </c>
+      <c r="E21" s="53" t="s">
+        <v>267</v>
+      </c>
+      <c r="F21" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="K21" s="53"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="80"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="53" t="s">
+        <v>265</v>
+      </c>
+      <c r="E22" s="53" t="s">
+        <v>264</v>
+      </c>
+      <c r="F22" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="K22" s="53"/>
+    </row>
+    <row r="23" spans="1:12" ht="33">
+      <c r="A23" s="80"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="88" t="s">
+        <v>263</v>
+      </c>
+      <c r="D23" s="53" t="s">
+        <v>262</v>
+      </c>
+      <c r="E23" s="52" t="s">
+        <v>401</v>
+      </c>
+      <c r="F23" s="53" t="s">
+        <v>259</v>
+      </c>
+      <c r="G23" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="K23" s="53"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="80"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="53" t="s">
+        <v>261</v>
+      </c>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="K24" s="53"/>
+    </row>
+    <row r="25" spans="1:12" ht="49.5">
+      <c r="A25" s="76"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="52" t="s">
+        <v>260</v>
+      </c>
+      <c r="E25" s="52" t="s">
+        <v>414</v>
+      </c>
+      <c r="F25" s="53" t="s">
+        <v>259</v>
+      </c>
+      <c r="G25" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="K25" s="53"/>
+    </row>
+    <row r="26" spans="1:12" ht="16.5" customHeight="1">
+      <c r="A26" s="75" t="s">
+        <v>413</v>
+      </c>
+      <c r="B26" s="75" t="s">
+        <v>413</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D26" s="53" t="s">
+        <v>276</v>
+      </c>
+      <c r="E26" s="52" t="s">
         <v>275</v>
       </c>
-      <c r="E20" s="56" t="s">
-        <v>274</v>
-      </c>
-      <c r="F20" s="56" t="s">
+      <c r="F26" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="K26" s="53"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="74"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="74" t="s">
+        <v>273</v>
+      </c>
+      <c r="D27" s="53" t="s">
+        <v>272</v>
+      </c>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="K27" s="53"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="74"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="53" t="s">
+        <v>271</v>
+      </c>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="K28" s="53"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="74"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="53" t="s">
+        <v>270</v>
+      </c>
+      <c r="E29" s="53" t="s">
+        <v>269</v>
+      </c>
+      <c r="F29" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="G20" s="56" t="s">
+      <c r="G29" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="H20" s="56" t="s">
-        <v>167</v>
-      </c>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56" t="s">
-        <v>124</v>
-      </c>
-      <c r="K20" s="56"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="83"/>
-      <c r="B21" s="83"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="56" t="s">
-        <v>273</v>
-      </c>
-      <c r="E21" s="56" t="s">
-        <v>272</v>
-      </c>
-      <c r="F21" s="56" t="s">
+      <c r="H29" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="K29" s="53"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="74"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="53" t="s">
+        <v>268</v>
+      </c>
+      <c r="E30" s="53" t="s">
+        <v>267</v>
+      </c>
+      <c r="F30" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="G21" s="56" t="s">
+      <c r="G30" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="H21" s="56" t="s">
-        <v>167</v>
-      </c>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56" t="s">
-        <v>124</v>
-      </c>
-      <c r="K21" s="56"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="83"/>
-      <c r="B22" s="83"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="56" t="s">
-        <v>270</v>
-      </c>
-      <c r="E22" s="56" t="s">
-        <v>269</v>
-      </c>
-      <c r="F22" s="56" t="s">
+      <c r="H30" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="I30" s="53"/>
+      <c r="J30" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="K30" s="53"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="74"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="53" t="s">
+        <v>265</v>
+      </c>
+      <c r="E31" s="53" t="s">
+        <v>264</v>
+      </c>
+      <c r="F31" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="G22" s="56" t="s">
+      <c r="G31" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="H22" s="56" t="s">
-        <v>167</v>
-      </c>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56" t="s">
-        <v>124</v>
-      </c>
-      <c r="K22" s="56"/>
-    </row>
-    <row r="23" spans="1:12" ht="33">
-      <c r="A23" s="83"/>
-      <c r="B23" s="83"/>
-      <c r="C23" s="91" t="s">
-        <v>268</v>
-      </c>
-      <c r="D23" s="56" t="s">
-        <v>267</v>
-      </c>
-      <c r="E23" s="55" t="s">
-        <v>406</v>
-      </c>
-      <c r="F23" s="56" t="s">
-        <v>264</v>
-      </c>
-      <c r="G23" s="56" t="s">
+      <c r="H31" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="H23" s="56" t="s">
-        <v>167</v>
-      </c>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56" t="s">
-        <v>124</v>
-      </c>
-      <c r="K23" s="56"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="83"/>
-      <c r="B24" s="83"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="56" t="s">
-        <v>266</v>
-      </c>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="G24" s="56" t="s">
+      <c r="K31" s="53"/>
+    </row>
+    <row r="32" spans="1:12" ht="33">
+      <c r="A32" s="74"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="75" t="s">
+        <v>263</v>
+      </c>
+      <c r="D32" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" s="52" t="s">
+        <v>401</v>
+      </c>
+      <c r="F32" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="G32" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="H24" s="56" t="s">
-        <v>167</v>
-      </c>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56" t="s">
-        <v>124</v>
-      </c>
-      <c r="K24" s="56"/>
-    </row>
-    <row r="25" spans="1:12" ht="49.5">
-      <c r="A25" s="79"/>
-      <c r="B25" s="79"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="55" t="s">
-        <v>265</v>
-      </c>
-      <c r="E25" s="55" t="s">
-        <v>419</v>
-      </c>
-      <c r="F25" s="56" t="s">
-        <v>264</v>
-      </c>
-      <c r="G25" s="56" t="s">
+      <c r="H32" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="I32" s="53"/>
+      <c r="J32" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="H25" s="56" t="s">
-        <v>167</v>
-      </c>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56" t="s">
-        <v>124</v>
-      </c>
-      <c r="K25" s="56"/>
-    </row>
-    <row r="26" spans="1:12" ht="16.5" customHeight="1">
-      <c r="A26" s="78" t="s">
-        <v>418</v>
-      </c>
-      <c r="B26" s="78" t="s">
-        <v>418</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="D26" s="56" t="s">
-        <v>281</v>
-      </c>
-      <c r="E26" s="55" t="s">
-        <v>280</v>
-      </c>
-      <c r="F26" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="H26" s="56" t="s">
-        <v>167</v>
-      </c>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="K26" s="56"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="77"/>
-      <c r="B27" s="77"/>
-      <c r="C27" s="77" t="s">
-        <v>278</v>
-      </c>
-      <c r="D27" s="56" t="s">
-        <v>277</v>
-      </c>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="G27" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="H27" s="56" t="s">
-        <v>167</v>
-      </c>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="K27" s="56"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="77"/>
-      <c r="B28" s="77"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="56" t="s">
-        <v>276</v>
-      </c>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="G28" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="H28" s="56" t="s">
-        <v>167</v>
-      </c>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="K28" s="56"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="77"/>
-      <c r="B29" s="77"/>
-      <c r="C29" s="77"/>
-      <c r="D29" s="56" t="s">
-        <v>275</v>
-      </c>
-      <c r="E29" s="56" t="s">
-        <v>274</v>
-      </c>
-      <c r="F29" s="56" t="s">
-        <v>102</v>
-      </c>
-      <c r="G29" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="H29" s="56" t="s">
-        <v>167</v>
-      </c>
-      <c r="I29" s="56"/>
-      <c r="J29" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="K29" s="56"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="77"/>
-      <c r="B30" s="77"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="56" t="s">
-        <v>273</v>
-      </c>
-      <c r="E30" s="56" t="s">
-        <v>272</v>
-      </c>
-      <c r="F30" s="56" t="s">
-        <v>102</v>
-      </c>
-      <c r="G30" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="H30" s="56" t="s">
-        <v>167</v>
-      </c>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="K30" s="56"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="77"/>
-      <c r="B31" s="77"/>
-      <c r="C31" s="77"/>
-      <c r="D31" s="56" t="s">
-        <v>270</v>
-      </c>
-      <c r="E31" s="56" t="s">
-        <v>269</v>
-      </c>
-      <c r="F31" s="56" t="s">
-        <v>102</v>
-      </c>
-      <c r="G31" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="H31" s="56" t="s">
-        <v>167</v>
-      </c>
-      <c r="I31" s="56"/>
-      <c r="J31" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="K31" s="56"/>
-    </row>
-    <row r="32" spans="1:12" ht="33">
-      <c r="A32" s="77"/>
-      <c r="B32" s="77"/>
-      <c r="C32" s="78" t="s">
-        <v>268</v>
-      </c>
-      <c r="D32" s="56" t="s">
-        <v>104</v>
-      </c>
-      <c r="E32" s="55" t="s">
-        <v>406</v>
-      </c>
-      <c r="F32" s="56" t="s">
-        <v>102</v>
-      </c>
-      <c r="G32" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="H32" s="56" t="s">
-        <v>167</v>
-      </c>
-      <c r="I32" s="56"/>
-      <c r="J32" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="K32" s="56"/>
+      <c r="K32" s="53"/>
       <c r="L32" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="77"/>
-      <c r="B33" s="77"/>
-      <c r="C33" s="77"/>
+      <c r="A33" s="74"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="74"/>
       <c r="D33" s="12" t="s">
         <v>105</v>
       </c>
@@ -4938,7 +4927,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2" t="s">
@@ -5007,7 +4996,7 @@
         <v>118</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>109</v>
@@ -5023,29 +5012,29 @@
       </c>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1">
-      <c r="A3" s="79" t="s">
-        <v>316</v>
-      </c>
-      <c r="B3" s="76" t="s">
-        <v>316</v>
-      </c>
-      <c r="C3" s="76" t="s">
-        <v>315</v>
+      <c r="A3" s="76" t="s">
+        <v>311</v>
+      </c>
+      <c r="B3" s="73" t="s">
+        <v>311</v>
+      </c>
+      <c r="C3" s="73" t="s">
+        <v>310</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6" t="s">
@@ -5054,9 +5043,9 @@
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1">
-      <c r="A4" s="79"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
+      <c r="A4" s="76"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
       <c r="D4" s="6" t="s">
         <v>127</v>
       </c>
@@ -5070,7 +5059,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="2" t="s">
@@ -5079,14 +5068,14 @@
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1">
-      <c r="A5" s="79"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
+      <c r="A5" s="76"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
       <c r="D5" s="2" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>102</v>
@@ -5095,7 +5084,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="2" t="s">
@@ -5104,23 +5093,23 @@
       <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1">
-      <c r="A6" s="79"/>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
+      <c r="A6" s="76"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
       <c r="D6" s="2" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="2" t="s">
@@ -5129,14 +5118,14 @@
       <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1">
-      <c r="A7" s="79"/>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
+      <c r="A7" s="76"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
       <c r="D7" s="2" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>102</v>
@@ -5145,23 +5134,23 @@
         <v>0</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1">
-      <c r="A8" s="77"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
+      <c r="A8" s="74"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="2" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>125</v>
@@ -5170,7 +5159,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
@@ -5179,17 +5168,17 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="82" t="s">
-        <v>411</v>
-      </c>
-      <c r="B9" s="82" t="s">
-        <v>399</v>
-      </c>
-      <c r="C9" s="82" t="s">
-        <v>399</v>
+      <c r="A9" s="79" t="s">
+        <v>406</v>
+      </c>
+      <c r="B9" s="79" t="s">
+        <v>394</v>
+      </c>
+      <c r="C9" s="79" t="s">
+        <v>394</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
@@ -5199,26 +5188,26 @@
         <v>0</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="K9" s="2"/>
-      <c r="L9" s="43" t="s">
-        <v>430</v>
+      <c r="L9" s="40" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="79"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
+      <c r="A10" s="76"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="76"/>
       <c r="D10" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>27</v>
@@ -5227,7 +5216,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
@@ -5236,20 +5225,20 @@
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="82" t="s">
-        <v>412</v>
-      </c>
-      <c r="B11" s="82" t="s">
-        <v>413</v>
-      </c>
-      <c r="C11" s="82" t="s">
-        <v>413</v>
+      <c r="A11" s="79" t="s">
+        <v>407</v>
+      </c>
+      <c r="B11" s="79" t="s">
+        <v>408</v>
+      </c>
+      <c r="C11" s="79" t="s">
+        <v>408</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>27</v>
@@ -5258,7 +5247,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2" t="s">
@@ -5267,11 +5256,11 @@
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="83"/>
-      <c r="B12" s="83"/>
-      <c r="C12" s="83"/>
+      <c r="A12" s="80"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
       <c r="D12" s="2" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
@@ -5281,26 +5270,26 @@
         <v>0</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="K12" s="2"/>
-      <c r="L12" s="43" t="s">
-        <v>430</v>
+      <c r="L12" s="40" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="79"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
+      <c r="A13" s="76"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
       <c r="D13" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>27</v>
@@ -5309,7 +5298,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2" t="s">
@@ -5318,17 +5307,17 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="92" t="s">
-        <v>420</v>
-      </c>
-      <c r="B14" s="92" t="s">
-        <v>420</v>
-      </c>
-      <c r="C14" s="87" t="s">
-        <v>278</v>
+      <c r="A14" s="89" t="s">
+        <v>415</v>
+      </c>
+      <c r="B14" s="89" t="s">
+        <v>415</v>
+      </c>
+      <c r="C14" s="84" t="s">
+        <v>273</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12" t="s">
@@ -5338,23 +5327,23 @@
         <v>0</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I14" s="12"/>
       <c r="J14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="K14" s="2"/>
-      <c r="L14" s="53" t="s">
-        <v>427</v>
+      <c r="L14" s="50" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="93"/>
-      <c r="B15" s="93"/>
-      <c r="C15" s="87"/>
+      <c r="A15" s="90"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="84"/>
       <c r="D15" s="12" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12" t="s">
@@ -5364,23 +5353,23 @@
         <v>0</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I15" s="12"/>
       <c r="J15" s="2" t="s">
         <v>0</v>
       </c>
       <c r="K15" s="2"/>
-      <c r="L15" s="53" t="s">
-        <v>427</v>
+      <c r="L15" s="50" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="93"/>
-      <c r="B16" s="93"/>
-      <c r="C16" s="88"/>
+      <c r="A16" s="90"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="85"/>
       <c r="D16" s="12" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12" t="s">
@@ -5390,28 +5379,28 @@
         <v>0</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I16" s="12"/>
       <c r="J16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="K16" s="2"/>
-      <c r="L16" s="53" t="s">
-        <v>427</v>
+      <c r="L16" s="50" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="93"/>
-      <c r="B17" s="93"/>
+      <c r="A17" s="90"/>
+      <c r="B17" s="90"/>
       <c r="C17" s="12" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>27</v>
@@ -5420,7 +5409,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I17" s="12"/>
       <c r="J17" s="2" t="s">
@@ -5429,26 +5418,26 @@
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="93"/>
-      <c r="B18" s="93"/>
-      <c r="C18" s="94" t="s">
-        <v>291</v>
+      <c r="A18" s="90"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="91" t="s">
+        <v>286</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="3" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>0</v>
@@ -5456,24 +5445,24 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="93"/>
-      <c r="B19" s="93"/>
-      <c r="C19" s="95"/>
+      <c r="A19" s="90"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="92"/>
       <c r="D19" s="3" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="3" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>0</v>
@@ -5481,16 +5470,16 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="93"/>
-      <c r="B20" s="93"/>
+      <c r="A20" s="90"/>
+      <c r="B20" s="90"/>
       <c r="C20" s="14" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>27</v>
@@ -5499,19 +5488,25 @@
         <v>0</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I20" s="12"/>
       <c r="J20" s="2" t="s">
         <v>0</v>
       </c>
       <c r="K20" s="2"/>
-      <c r="L20" s="28" t="s">
-        <v>283</v>
+      <c r="L20" s="25" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A14:A20"/>
     <mergeCell ref="B14:B20"/>
     <mergeCell ref="C14:C16"/>
@@ -5519,12 +5514,6 @@
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5554,270 +5543,270 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="41.25" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="D1" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="E1" s="23" t="s">
+      <c r="D1" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="H1" s="24" t="s">
-        <v>209</v>
-      </c>
-      <c r="I1" s="24" t="s">
+      <c r="H1" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="I1" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="21" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="24.95" customHeight="1">
-      <c r="A2" s="96" t="s">
-        <v>340</v>
-      </c>
-      <c r="B2" s="82" t="s">
-        <v>339</v>
-      </c>
-      <c r="C2" s="77" t="s">
-        <v>338</v>
+      <c r="A2" s="93" t="s">
+        <v>335</v>
+      </c>
+      <c r="B2" s="79" t="s">
+        <v>334</v>
+      </c>
+      <c r="C2" s="74" t="s">
+        <v>333</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>44</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="25"/>
+      <c r="I2" s="23"/>
       <c r="J2" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="K2" s="25"/>
-    </row>
-    <row r="3" spans="1:11" s="31" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="97"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="18" t="s">
-        <v>335</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>334</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="H3" s="18" t="s">
+      <c r="K2" s="23"/>
+    </row>
+    <row r="3" spans="1:11" s="28" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A3" s="94"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="H3" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="32"/>
+      <c r="I3" s="29"/>
       <c r="J3" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="K3" s="32"/>
-    </row>
-    <row r="4" spans="1:11" s="31" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="97"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="77"/>
+        <v>195</v>
+      </c>
+      <c r="K3" s="29"/>
+    </row>
+    <row r="4" spans="1:11" s="28" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A4" s="94"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="74"/>
       <c r="D4" s="3" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="51"/>
+        <v>279</v>
+      </c>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="48"/>
       <c r="J4" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="K4" s="51"/>
-    </row>
-    <row r="5" spans="1:11" s="31" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A5" s="97"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="85" t="s">
-        <v>331</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>330</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="F5" s="18" t="s">
+      <c r="K4" s="48"/>
+    </row>
+    <row r="5" spans="1:11" s="28" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A5" s="94"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="82" t="s">
+        <v>326</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="I5" s="32"/>
+      <c r="G5" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="I5" s="29"/>
       <c r="J5" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="K5" s="32"/>
+        <v>195</v>
+      </c>
+      <c r="K5" s="29"/>
     </row>
     <row r="6" spans="1:11" ht="24.95" customHeight="1">
-      <c r="A6" s="97"/>
-      <c r="B6" s="83"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="27" t="s">
-        <v>328</v>
+      <c r="A6" s="94"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="24" t="s">
+        <v>323</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="H6" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="H6" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="25"/>
+      <c r="I6" s="23"/>
       <c r="J6" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="K6" s="25"/>
+      <c r="K6" s="23"/>
     </row>
     <row r="7" spans="1:11" ht="24.95" customHeight="1">
-      <c r="A7" s="97"/>
-      <c r="B7" s="83"/>
-      <c r="C7" s="82" t="s">
-        <v>326</v>
+      <c r="A7" s="94"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="79" t="s">
+        <v>321</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="H7" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="H7" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="25"/>
+      <c r="I7" s="23"/>
       <c r="J7" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="K7" s="25"/>
+        <v>195</v>
+      </c>
+      <c r="K7" s="23"/>
     </row>
     <row r="8" spans="1:11" ht="24.95" customHeight="1">
-      <c r="A8" s="97"/>
-      <c r="B8" s="83"/>
-      <c r="C8" s="83"/>
+      <c r="A8" s="94"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
       <c r="D8" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="H8" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="H8" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="25"/>
+      <c r="I8" s="23"/>
       <c r="J8" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="K8" s="25"/>
+      <c r="K8" s="23"/>
     </row>
     <row r="9" spans="1:11" ht="30" customHeight="1">
-      <c r="A9" s="97"/>
-      <c r="B9" s="83"/>
-      <c r="C9" s="83"/>
+      <c r="A9" s="94"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
       <c r="D9" s="2" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="I9" s="25"/>
+        <v>207</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="I9" s="23"/>
       <c r="J9" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="K9" s="25"/>
+      <c r="K9" s="23"/>
     </row>
     <row r="10" spans="1:11" ht="30" customHeight="1">
-      <c r="A10" s="84"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
+      <c r="A10" s="81"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="76"/>
       <c r="D10" s="2" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>59</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="H10" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="H10" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="I10" s="25"/>
+      <c r="I10" s="23"/>
       <c r="J10" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="K10" s="25"/>
+      <c r="K10" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5853,222 +5842,222 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="41.25" customHeight="1">
-      <c r="A1" s="39" t="s">
-        <v>363</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>362</v>
-      </c>
-      <c r="C1" s="37" t="s">
+      <c r="A1" s="36" t="s">
+        <v>358</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>357</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="38" t="s">
-        <v>209</v>
-      </c>
-      <c r="I1" s="38" t="s">
+      <c r="H1" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="I1" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="J1" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="33" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A2" s="85" t="s">
-        <v>361</v>
-      </c>
-      <c r="B2" s="77" t="s">
-        <v>361</v>
-      </c>
-      <c r="C2" s="77" t="s">
-        <v>360</v>
+      <c r="A2" s="82" t="s">
+        <v>356</v>
+      </c>
+      <c r="B2" s="74" t="s">
+        <v>356</v>
+      </c>
+      <c r="C2" s="74" t="s">
+        <v>355</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>44</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="25"/>
+      <c r="I2" s="23"/>
       <c r="J2" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="K2" s="25"/>
+        <v>195</v>
+      </c>
+      <c r="K2" s="23"/>
     </row>
     <row r="3" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A3" s="85"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
+      <c r="A3" s="82"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
       <c r="D3" s="2" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>44</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="25"/>
+      <c r="I3" s="23"/>
       <c r="J3" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="K3" s="25"/>
+        <v>195</v>
+      </c>
+      <c r="K3" s="23"/>
     </row>
     <row r="4" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A4" s="85"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77" t="s">
-        <v>355</v>
+      <c r="A4" s="82"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74" t="s">
+        <v>350</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>44</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="25"/>
+      <c r="I4" s="23"/>
       <c r="J4" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="K4" s="25"/>
+        <v>195</v>
+      </c>
+      <c r="K4" s="23"/>
     </row>
     <row r="5" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A5" s="85"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
+      <c r="A5" s="82"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
       <c r="E5" s="13" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>44</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="25"/>
+      <c r="I5" s="23"/>
       <c r="J5" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="K5" s="25"/>
+        <v>195</v>
+      </c>
+      <c r="K5" s="23"/>
     </row>
     <row r="6" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A6" s="85"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77" t="s">
-        <v>352</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>351</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>350</v>
+      <c r="A6" s="82"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74" t="s">
+        <v>347</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>346</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>345</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>32</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="25"/>
+      <c r="I6" s="23"/>
       <c r="J6" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="K6" s="25"/>
+        <v>195</v>
+      </c>
+      <c r="K6" s="23"/>
     </row>
     <row r="7" spans="1:11" ht="65.25" customHeight="1">
-      <c r="A7" s="85"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="35" t="s">
-        <v>349</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>348</v>
-      </c>
-      <c r="F7" s="35" t="s">
+      <c r="A7" s="82"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="32" t="s">
+        <v>344</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>343</v>
+      </c>
+      <c r="F7" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="34" t="s">
-        <v>347</v>
-      </c>
-      <c r="H7" s="34" t="s">
-        <v>346</v>
-      </c>
-      <c r="I7" s="25"/>
+      <c r="G7" s="31" t="s">
+        <v>342</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>341</v>
+      </c>
+      <c r="I7" s="23"/>
       <c r="J7" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="K7" s="25"/>
+        <v>336</v>
+      </c>
+      <c r="K7" s="23"/>
     </row>
     <row r="8" spans="1:11" ht="57" customHeight="1">
-      <c r="A8" s="85"/>
-      <c r="B8" s="77"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="74"/>
       <c r="C8" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="D8" s="49" t="s">
-        <v>344</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="F8" s="35" t="s">
+        <v>340</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>339</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>338</v>
+      </c>
+      <c r="F8" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="34" t="s">
-        <v>342</v>
-      </c>
-      <c r="H8" s="34" t="s">
+      <c r="G8" s="31" t="s">
+        <v>337</v>
+      </c>
+      <c r="H8" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="25"/>
+      <c r="I8" s="23"/>
       <c r="J8" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="K8" s="25"/>
+        <v>336</v>
+      </c>
+      <c r="K8" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6113,7 +6102,7 @@
         <v>121</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>110</v>
@@ -6125,7 +6114,7 @@
         <v>109</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>71</v>
@@ -6138,133 +6127,133 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="60" customHeight="1">
-      <c r="A2" s="84" t="s">
-        <v>378</v>
-      </c>
-      <c r="B2" s="98" t="s">
-        <v>378</v>
-      </c>
-      <c r="C2" s="98" t="s">
-        <v>377</v>
+      <c r="A2" s="81" t="s">
+        <v>373</v>
+      </c>
+      <c r="B2" s="95" t="s">
+        <v>373</v>
+      </c>
+      <c r="C2" s="95" t="s">
+        <v>372</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>375</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>182</v>
+        <v>371</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>177</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="40"/>
+      <c r="I2" s="37"/>
       <c r="J2" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="K2" s="40"/>
+        <v>195</v>
+      </c>
+      <c r="K2" s="37"/>
     </row>
     <row r="3" spans="1:11" ht="60" customHeight="1">
-      <c r="A3" s="85"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
+      <c r="A3" s="82"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
       <c r="D3" s="5" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="25"/>
+      <c r="I3" s="23"/>
       <c r="J3" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="K3" s="25"/>
+        <v>195</v>
+      </c>
+      <c r="K3" s="23"/>
     </row>
     <row r="4" spans="1:11" ht="60" customHeight="1">
-      <c r="A4" s="85"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="24" t="s">
-        <v>372</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>371</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="G4" s="44" t="s">
+      <c r="A4" s="82"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>366</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="G4" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="H4" s="44"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="K4" s="45"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="K4" s="42"/>
     </row>
     <row r="5" spans="1:11" ht="60" customHeight="1">
-      <c r="A5" s="85"/>
-      <c r="B5" s="83"/>
+      <c r="A5" s="82"/>
+      <c r="B5" s="80"/>
       <c r="C5" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="D5" s="47" t="s">
-        <v>351</v>
-      </c>
-      <c r="E5" s="47" t="s">
-        <v>369</v>
+        <v>365</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>346</v>
+      </c>
+      <c r="E5" s="44" t="s">
+        <v>364</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="I5" s="25"/>
+        <v>341</v>
+      </c>
+      <c r="I5" s="23"/>
       <c r="J5" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="K5" s="25"/>
+        <v>359</v>
+      </c>
+      <c r="K5" s="23"/>
     </row>
     <row r="6" spans="1:11" ht="88.5" customHeight="1">
-      <c r="A6" s="85"/>
-      <c r="B6" s="79"/>
+      <c r="A6" s="82"/>
+      <c r="B6" s="76"/>
       <c r="C6" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="D6" s="48" t="s">
-        <v>367</v>
-      </c>
-      <c r="E6" s="48" t="s">
-        <v>366</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>365</v>
-      </c>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="23" t="s">
-        <v>364</v>
-      </c>
-      <c r="K6" s="45"/>
+        <v>363</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>362</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>361</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="K6" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6297,13 +6286,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="41.25" customHeight="1" thickBot="1">
       <c r="A1" s="10" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>122</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>120</v>
@@ -6318,7 +6307,7 @@
         <v>117</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>116</v>
@@ -6331,147 +6320,147 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="24.95" customHeight="1">
-      <c r="A2" s="88" t="s">
-        <v>396</v>
-      </c>
-      <c r="B2" s="83" t="s">
+      <c r="A2" s="85" t="s">
+        <v>391</v>
+      </c>
+      <c r="B2" s="80" t="s">
+        <v>383</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>395</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>394</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>393</v>
-      </c>
       <c r="F2" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="G2" s="42" t="s">
-        <v>392</v>
-      </c>
-      <c r="H2" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>387</v>
+      </c>
+      <c r="H2" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="I2" s="22"/>
+      <c r="I2" s="20"/>
       <c r="J2" s="14" t="s">
         <v>136</v>
       </c>
       <c r="K2" s="14"/>
     </row>
     <row r="3" spans="1:11" ht="24.95" customHeight="1">
-      <c r="A3" s="93"/>
-      <c r="B3" s="83"/>
+      <c r="A3" s="90"/>
+      <c r="B3" s="80"/>
       <c r="C3" s="2" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>182</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="H3" s="34" t="s">
+        <v>384</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="H3" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="25"/>
+      <c r="I3" s="23"/>
       <c r="J3" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="K3" s="25"/>
+      <c r="K3" s="23"/>
     </row>
     <row r="4" spans="1:11" ht="33">
-      <c r="A4" s="93"/>
-      <c r="B4" s="79"/>
+      <c r="A4" s="90"/>
+      <c r="B4" s="76"/>
       <c r="C4" s="2" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="G4" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="H4" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="H4" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="I4" s="25"/>
+      <c r="I4" s="23"/>
       <c r="J4" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="K4" s="25"/>
+      <c r="K4" s="23"/>
     </row>
     <row r="5" spans="1:11" ht="33">
-      <c r="A5" s="93"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="2" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>384</v>
-      </c>
-      <c r="E5" s="41" t="s">
-        <v>383</v>
-      </c>
-      <c r="F5" s="41" t="s">
-        <v>182</v>
-      </c>
-      <c r="G5" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="H5" s="34" t="s">
+        <v>380</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>379</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>378</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="H5" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="25"/>
+      <c r="I5" s="23"/>
       <c r="J5" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="K5" s="25"/>
+        <v>377</v>
+      </c>
+      <c r="K5" s="23"/>
     </row>
     <row r="6" spans="1:11" ht="49.5">
-      <c r="A6" s="93"/>
+      <c r="A6" s="90"/>
       <c r="B6" s="2" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>380</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>379</v>
-      </c>
-      <c r="F6" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="H6" s="34" t="s">
+        <v>376</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>375</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>374</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="H6" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="I6" s="25"/>
+      <c r="I6" s="23"/>
       <c r="J6" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="K6" s="25"/>
+      <c r="K6" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6526,7 +6515,7 @@
         <v>117</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>116</v>
@@ -6552,19 +6541,19 @@
         <v>112</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="H3" s="59" t="s">
+        <v>456</v>
+      </c>
+      <c r="H3" s="56" t="s">
+        <v>458</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>464</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>470</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>82</v>
@@ -6581,8 +6570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="F3:H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6622,7 +6611,7 @@
         <v>117</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>132</v>
@@ -6650,11 +6639,15 @@
       <c r="E3" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="F3" s="74" t="s">
+      <c r="F3" s="71" t="s">
         <v>125</v>
       </c>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
+      <c r="G3" s="71" t="s">
+        <v>472</v>
+      </c>
+      <c r="H3" s="71" t="s">
+        <v>473</v>
+      </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6" t="s">
         <v>124</v>
@@ -6662,35 +6655,35 @@
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" ht="33">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="D4" s="59" t="s">
-        <v>457</v>
-      </c>
-      <c r="E4" s="59" t="s">
-        <v>457</v>
-      </c>
-      <c r="F4" s="59" t="s">
+      <c r="D4" s="56" t="s">
+        <v>451</v>
+      </c>
+      <c r="E4" s="56" t="s">
+        <v>451</v>
+      </c>
+      <c r="F4" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="59" t="s">
-        <v>458</v>
-      </c>
-      <c r="H4" s="59" t="s">
-        <v>459</v>
-      </c>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59" t="s">
+      <c r="G4" s="56" t="s">
+        <v>452</v>
+      </c>
+      <c r="H4" s="56" t="s">
+        <v>453</v>
+      </c>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="59"/>
+      <c r="K4" s="56"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -6702,8 +6695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:E7"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6742,7 +6735,7 @@
         <v>117</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>71</v>
@@ -6755,29 +6748,29 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="38.1" customHeight="1" thickBot="1">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="77" t="s">
         <v>151</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="56" t="s">
         <v>150</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="57" t="s">
         <v>149</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="61" t="s">
         <v>145</v>
       </c>
-      <c r="F2" s="64" t="s">
+      <c r="F2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="62" t="s">
-        <v>453</v>
-      </c>
-      <c r="H2" s="62" t="s">
-        <v>454</v>
+      <c r="G2" s="59" t="s">
+        <v>447</v>
+      </c>
+      <c r="H2" s="59" t="s">
+        <v>448</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6" t="s">
@@ -6786,38 +6779,38 @@
       <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:11" ht="38.1" customHeight="1">
-      <c r="A3" s="80"/>
-      <c r="B3" s="59" t="s">
+      <c r="A3" s="77"/>
+      <c r="B3" s="56" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="57" t="s">
         <v>149</v>
       </c>
-      <c r="D3" s="58" t="s">
-        <v>456</v>
-      </c>
-      <c r="E3" s="58" t="s">
-        <v>456</v>
-      </c>
-      <c r="F3" s="64" t="s">
+      <c r="D3" s="55" t="s">
+        <v>450</v>
+      </c>
+      <c r="E3" s="55" t="s">
+        <v>450</v>
+      </c>
+      <c r="F3" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="62" t="s">
-        <v>453</v>
-      </c>
-      <c r="H3" s="62" t="s">
-        <v>454</v>
-      </c>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
+      <c r="G3" s="59" t="s">
+        <v>447</v>
+      </c>
+      <c r="H3" s="59" t="s">
+        <v>448</v>
+      </c>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="38.1" customHeight="1">
-      <c r="A4" s="81"/>
-      <c r="B4" s="58" t="s">
+      <c r="A4" s="78"/>
+      <c r="B4" s="55" t="s">
         <v>144</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="58" t="s">
         <v>143</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -6838,27 +6831,27 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="38.25" customHeight="1">
-      <c r="A5" s="81"/>
-      <c r="B5" s="77" t="s">
+      <c r="A5" s="78"/>
+      <c r="B5" s="74" t="s">
         <v>140</v>
       </c>
-      <c r="C5" s="82" t="s">
+      <c r="C5" s="79" t="s">
         <v>139</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="E5" s="54" t="s">
-        <v>444</v>
+        <v>439</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>439</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>27</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="H5" s="54" t="s">
-        <v>447</v>
+        <v>438</v>
+      </c>
+      <c r="H5" s="51" t="s">
+        <v>442</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
@@ -6867,73 +6860,73 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="38.25" customHeight="1">
-      <c r="A6" s="81"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="54" t="s">
+      <c r="A6" s="78"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="E6" s="55" t="s">
+      <c r="E6" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="F6" s="56" t="s">
+      <c r="F6" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="54" t="s">
+      <c r="G6" s="51" t="s">
+        <v>438</v>
+      </c>
+      <c r="H6" s="51" t="s">
+        <v>442</v>
+      </c>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="K6" s="51"/>
+    </row>
+    <row r="7" spans="1:11" ht="38.25" customHeight="1">
+      <c r="A7" s="78"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="51" t="s">
+        <v>440</v>
+      </c>
+      <c r="E7" s="51" t="s">
+        <v>440</v>
+      </c>
+      <c r="F7" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="51" t="s">
+        <v>438</v>
+      </c>
+      <c r="H7" s="51" t="s">
+        <v>442</v>
+      </c>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="K7" s="51"/>
+    </row>
+    <row r="8" spans="1:11" ht="38.1" customHeight="1">
+      <c r="A8" s="78"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="51" t="s">
         <v>443</v>
       </c>
-      <c r="H6" s="54" t="s">
-        <v>447</v>
-      </c>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54" t="s">
-        <v>136</v>
-      </c>
-      <c r="K6" s="54"/>
-    </row>
-    <row r="7" spans="1:11" ht="38.25" customHeight="1">
-      <c r="A7" s="81"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="54" t="s">
-        <v>445</v>
-      </c>
-      <c r="E7" s="54" t="s">
-        <v>445</v>
-      </c>
-      <c r="F7" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="54" t="s">
+      <c r="D8" s="51" t="s">
         <v>443</v>
       </c>
-      <c r="H7" s="54" t="s">
-        <v>447</v>
-      </c>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54" t="s">
-        <v>136</v>
-      </c>
-      <c r="K7" s="54"/>
-    </row>
-    <row r="8" spans="1:11" ht="38.1" customHeight="1">
-      <c r="A8" s="81"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="54" t="s">
-        <v>448</v>
-      </c>
-      <c r="D8" s="54" t="s">
-        <v>448</v>
-      </c>
-      <c r="E8" s="54" t="s">
-        <v>448</v>
-      </c>
-      <c r="F8" s="71" t="s">
-        <v>449</v>
-      </c>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="54"/>
+      <c r="E8" s="51" t="s">
+        <v>443</v>
+      </c>
+      <c r="F8" s="68" t="s">
+        <v>444</v>
+      </c>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="51"/>
       <c r="J8" s="2" t="s">
         <v>136</v>
       </c>
@@ -6964,10 +6957,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6978,189 +6971,178 @@
     <col min="5" max="5" width="44" customWidth="1"/>
     <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.625" customWidth="1"/>
-    <col min="9" max="9" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.625" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="14.625" customWidth="1"/>
+    <col min="10" max="10" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="33">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:11" ht="33">
+      <c r="A1" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="G1" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="H1" s="24" t="s">
+      <c r="G1" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>469</v>
+      </c>
+      <c r="I1" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="J1" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="K1" s="21" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="49.5">
-      <c r="A2" s="84" t="s">
-        <v>172</v>
-      </c>
-      <c r="B2" s="84" t="s">
-        <v>171</v>
+    <row r="2" spans="1:11" ht="49.5">
+      <c r="A2" s="81" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="81" t="s">
+        <v>166</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="F2" s="69" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="F2" s="66" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="67" t="s">
+        <v>162</v>
+      </c>
+      <c r="H2" s="67"/>
+      <c r="I2" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="82"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="51" t="s">
+        <v>435</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>436</v>
+      </c>
+      <c r="E3" s="52"/>
+      <c r="F3" s="65" t="s">
+        <v>437</v>
+      </c>
+      <c r="G3" s="64" t="s">
+        <v>470</v>
+      </c>
+      <c r="H3" s="64"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+    </row>
+    <row r="4" spans="1:11" ht="21.75" customHeight="1">
+      <c r="A4" s="82"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="G4" s="64" t="s">
+        <v>434</v>
+      </c>
+      <c r="H4" s="64"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" ht="33">
+      <c r="A5" s="82"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="G2" s="70" t="s">
-        <v>167</v>
-      </c>
-      <c r="H2" s="21" t="s">
+      <c r="E5" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="F5" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" s="65" t="s">
+        <v>471</v>
+      </c>
+      <c r="H5" s="65"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" ht="82.5">
+      <c r="A6" s="82"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="F6" s="65" t="s">
+        <v>148</v>
+      </c>
+      <c r="G6" s="64" t="s">
+        <v>434</v>
+      </c>
+      <c r="H6" s="64"/>
+      <c r="I6" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="J2" s="6"/>
-    </row>
-    <row r="3" spans="1:10" ht="33">
-      <c r="A3" s="85"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="85"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="54" t="s">
-        <v>440</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>441</v>
-      </c>
-      <c r="E4" s="55"/>
-      <c r="F4" s="17" t="s">
-        <v>442</v>
-      </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-    </row>
-    <row r="5" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A5" s="85"/>
-      <c r="B5" s="85"/>
-      <c r="C5" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="F5" s="66" t="s">
-        <v>148</v>
-      </c>
-      <c r="G5" s="67" t="s">
-        <v>439</v>
-      </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" ht="33">
-      <c r="A6" s="85"/>
-      <c r="B6" s="85"/>
-      <c r="C6" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="F6" s="66" t="s">
-        <v>158</v>
-      </c>
-      <c r="G6" s="68" t="s">
-        <v>157</v>
-      </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" ht="82.5">
-      <c r="A7" s="85"/>
-      <c r="B7" s="85"/>
-      <c r="C7" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="F7" s="68" t="s">
-        <v>148</v>
-      </c>
-      <c r="G7" s="67" t="s">
-        <v>439</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="I7" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="J7" s="2"/>
+      <c r="K6" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7171,8 +7153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7188,309 +7170,315 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="36" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="E1" s="23" t="s">
+      <c r="C1" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="G1" s="24" t="s">
-        <v>209</v>
-      </c>
-      <c r="H1" s="24" t="s">
+      <c r="G1" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="H1" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="21" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="61.5" customHeight="1">
-      <c r="A2" s="85" t="s">
-        <v>208</v>
-      </c>
-      <c r="B2" s="85" t="s">
+      <c r="A2" s="82" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" s="82" t="s">
         <v>150</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>44</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="H2" s="65" t="s">
-        <v>435</v>
+        <v>186</v>
+      </c>
+      <c r="H2" s="62" t="s">
+        <v>430</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="K2" s="25"/>
+      <c r="K2" s="23"/>
     </row>
     <row r="3" spans="1:11" ht="33">
-      <c r="A3" s="85"/>
-      <c r="B3" s="85"/>
+      <c r="A3" s="82"/>
+      <c r="B3" s="82"/>
       <c r="C3" s="5" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="H3" s="26"/>
+        <v>169</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>474</v>
+      </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="K3" s="25"/>
+        <v>195</v>
+      </c>
+      <c r="K3" s="23"/>
     </row>
     <row r="4" spans="1:11" ht="49.5">
-      <c r="A4" s="85"/>
-      <c r="B4" s="85"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="82"/>
       <c r="C4" s="5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="F4" s="55" t="s">
-        <v>178</v>
-      </c>
-      <c r="G4" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="H4" s="34" t="s">
-        <v>167</v>
+      <c r="F4" s="52" t="s">
+        <v>173</v>
+      </c>
+      <c r="G4" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>162</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="K4" s="25"/>
+        <v>195</v>
+      </c>
+      <c r="K4" s="23"/>
     </row>
     <row r="5" spans="1:11" ht="33">
-      <c r="A5" s="85"/>
-      <c r="B5" s="85"/>
+      <c r="A5" s="82"/>
+      <c r="B5" s="82"/>
       <c r="C5" s="5" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="F5" s="63" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="G5" s="63" t="s">
-        <v>174</v>
-      </c>
-      <c r="H5" s="34" t="s">
-        <v>452</v>
+      <c r="G5" s="60" t="s">
+        <v>169</v>
+      </c>
+      <c r="H5" s="49" t="s">
+        <v>474</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="K5" s="25"/>
+      <c r="K5" s="23"/>
     </row>
     <row r="6" spans="1:11" ht="49.5">
-      <c r="A6" s="85"/>
-      <c r="B6" s="85"/>
+      <c r="A6" s="82"/>
+      <c r="B6" s="82"/>
       <c r="C6" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>196</v>
+        <v>192</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>191</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F6" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>432</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="23"/>
+    </row>
+    <row r="7" spans="1:11" ht="49.5">
+      <c r="A7" s="82"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>433</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="23"/>
+    </row>
+    <row r="8" spans="1:11" ht="49.5">
+      <c r="A8" s="82"/>
+      <c r="B8" s="74" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>437</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="25"/>
-    </row>
-    <row r="7" spans="1:11" ht="49.5">
-      <c r="A7" s="85"/>
-      <c r="B7" s="85"/>
-      <c r="C7" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>438</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="25"/>
-    </row>
-    <row r="8" spans="1:11" ht="49.5">
-      <c r="A8" s="85"/>
-      <c r="B8" s="77" t="s">
-        <v>189</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="E8" s="13" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>44</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>167</v>
+        <v>169</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>162</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="K8" s="25"/>
+      <c r="K8" s="23"/>
     </row>
     <row r="9" spans="1:11" ht="33">
-      <c r="A9" s="85"/>
-      <c r="B9" s="77"/>
+      <c r="A9" s="82"/>
+      <c r="B9" s="74"/>
       <c r="C9" s="5" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>102</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="H9" s="52"/>
+        <v>169</v>
+      </c>
+      <c r="H9" s="49" t="s">
+        <v>474</v>
+      </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="K9" s="25"/>
+      <c r="K9" s="23"/>
     </row>
     <row r="10" spans="1:11" ht="49.5">
-      <c r="A10" s="85"/>
-      <c r="B10" s="77"/>
+      <c r="A10" s="82"/>
+      <c r="B10" s="74"/>
       <c r="C10" s="5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="H10" s="52" t="s">
-        <v>8</v>
+        <v>169</v>
+      </c>
+      <c r="H10" s="49" t="s">
+        <v>162</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="K10" s="25"/>
+      <c r="K10" s="23"/>
     </row>
     <row r="11" spans="1:11" ht="33">
-      <c r="A11" s="85"/>
-      <c r="B11" s="77"/>
+      <c r="A11" s="82"/>
+      <c r="B11" s="74"/>
       <c r="C11" s="5" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>148</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="H11" s="26"/>
+        <v>169</v>
+      </c>
+      <c r="H11" s="49" t="s">
+        <v>474</v>
+      </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="K11" s="25"/>
+      <c r="K11" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7544,7 +7532,7 @@
         <v>19</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>18</v>
@@ -7557,13 +7545,13 @@
       </c>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="76" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -7574,7 +7562,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>0</v>
@@ -7586,9 +7574,9 @@
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" ht="33">
-      <c r="A4" s="77"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
       <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
@@ -7607,9 +7595,9 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1">
-      <c r="A5" s="77"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
+      <c r="A5" s="74"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
       <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
@@ -7628,20 +7616,20 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1">
-      <c r="A6" s="77"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
+      <c r="A6" s="74"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
       <c r="D6" s="2" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>0</v>
@@ -7653,9 +7641,9 @@
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1">
-      <c r="A7" s="77"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
+      <c r="A7" s="74"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
       <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
@@ -7666,7 +7654,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>0</v>
@@ -7678,9 +7666,9 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1">
-      <c r="A8" s="77"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
+      <c r="A8" s="74"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
       <c r="D8" s="2" t="s">
         <v>4</v>
       </c>
@@ -7689,7 +7677,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>0</v>
@@ -7701,9 +7689,9 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1">
-      <c r="A9" s="77"/>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
+      <c r="A9" s="74"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
       <c r="D9" s="2" t="s">
         <v>3</v>
       </c>
@@ -7714,7 +7702,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>0</v>
@@ -7780,7 +7768,7 @@
         <v>117</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>116</v>
@@ -7793,29 +7781,29 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="33">
-      <c r="A3" s="79" t="s">
-        <v>228</v>
-      </c>
-      <c r="B3" s="79" t="s">
-        <v>227</v>
-      </c>
-      <c r="C3" s="79" t="s">
-        <v>226</v>
+      <c r="A3" s="76" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3" s="76" t="s">
+        <v>222</v>
+      </c>
+      <c r="C3" s="76" t="s">
+        <v>221</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="H3" s="59" t="s">
-        <v>450</v>
+        <v>207</v>
+      </c>
+      <c r="H3" s="56" t="s">
+        <v>445</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6" t="s">
@@ -7824,23 +7812,23 @@
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="77"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
       <c r="D4" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="H4" s="59" t="s">
-        <v>450</v>
+        <v>216</v>
+      </c>
+      <c r="H4" s="56" t="s">
+        <v>445</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2" t="s">
@@ -7849,23 +7837,23 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="77"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
+      <c r="A5" s="74"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
       <c r="D5" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="H5" s="59" t="s">
-        <v>450</v>
+        <v>207</v>
+      </c>
+      <c r="H5" s="56" t="s">
+        <v>445</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
@@ -7874,23 +7862,23 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="77"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
+      <c r="A6" s="74"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
       <c r="D6" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="H6" s="59" t="s">
-        <v>450</v>
+        <v>207</v>
+      </c>
+      <c r="H6" s="56" t="s">
+        <v>445</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
@@ -7899,23 +7887,23 @@
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" ht="33">
-      <c r="A7" s="77"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
+      <c r="A7" s="74"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
       <c r="D7" s="5" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>44</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="H7" s="59" t="s">
-        <v>450</v>
+        <v>162</v>
+      </c>
+      <c r="H7" s="56" t="s">
+        <v>445</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
@@ -7924,23 +7912,23 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="77"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
+      <c r="A8" s="74"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
       <c r="D8" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="H8" s="59" t="s">
-        <v>450</v>
+        <v>207</v>
+      </c>
+      <c r="H8" s="56" t="s">
+        <v>445</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
@@ -8003,7 +7991,7 @@
         <v>72</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>71</v>
@@ -8016,13 +8004,13 @@
       </c>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="76" t="s">
         <v>66</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -8035,10 +8023,10 @@
         <v>44</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6" t="s">
@@ -8047,9 +8035,9 @@
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1">
-      <c r="A4" s="77"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
       <c r="D4" s="2" t="s">
         <v>63</v>
       </c>
@@ -8060,10 +8048,10 @@
         <v>44</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2" t="s">
@@ -8072,9 +8060,9 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1">
-      <c r="A5" s="77"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
+      <c r="A5" s="74"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
       <c r="D5" s="2" t="s">
         <v>61</v>
       </c>
@@ -8085,10 +8073,10 @@
         <v>59</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="H5" s="58" t="s">
-        <v>450</v>
+        <v>162</v>
+      </c>
+      <c r="H5" s="55" t="s">
+        <v>445</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
@@ -8097,7 +8085,7 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1">
-      <c r="A6" s="77"/>
+      <c r="A6" s="74"/>
       <c r="B6" s="2" t="s">
         <v>58</v>
       </c>
@@ -8114,10 +8102,10 @@
         <v>32</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="H6" s="58" t="s">
-        <v>450</v>
+        <v>162</v>
+      </c>
+      <c r="H6" s="55" t="s">
+        <v>445</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
@@ -8126,27 +8114,27 @@
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1">
-      <c r="A7" s="77"/>
-      <c r="B7" s="77" t="s">
+      <c r="A7" s="74"/>
+      <c r="B7" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="78" t="s">
+      <c r="C7" s="75" t="s">
         <v>53</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>44</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="H7" s="58" t="s">
-        <v>450</v>
+        <v>162</v>
+      </c>
+      <c r="H7" s="55" t="s">
+        <v>445</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
@@ -8155,23 +8143,23 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1">
-      <c r="A8" s="77"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
+      <c r="A8" s="74"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
       <c r="D8" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>32</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="H8" s="58" t="s">
-        <v>450</v>
+        <v>162</v>
+      </c>
+      <c r="H8" s="55" t="s">
+        <v>445</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
@@ -8180,23 +8168,23 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1">
-      <c r="A9" s="77"/>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
+      <c r="A9" s="74"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
       <c r="D9" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>32</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="H9" s="58" t="s">
-        <v>450</v>
+        <v>162</v>
+      </c>
+      <c r="H9" s="55" t="s">
+        <v>445</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
@@ -8205,23 +8193,23 @@
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" s="1" customFormat="1">
-      <c r="A10" s="77"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="77"/>
+      <c r="A10" s="74"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
       <c r="D10" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>32</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="H10" s="58" t="s">
-        <v>450</v>
+        <v>162</v>
+      </c>
+      <c r="H10" s="55" t="s">
+        <v>445</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
@@ -8230,23 +8218,23 @@
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" s="1" customFormat="1">
-      <c r="A11" s="77"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
+      <c r="A11" s="74"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
       <c r="D11" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>32</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="H11" s="58" t="s">
-        <v>450</v>
+        <v>162</v>
+      </c>
+      <c r="H11" s="55" t="s">
+        <v>445</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2" t="s">
@@ -8255,9 +8243,9 @@
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" s="1" customFormat="1">
-      <c r="A12" s="77"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="77"/>
+      <c r="A12" s="74"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
       <c r="D12" s="2" t="s">
         <v>47</v>
       </c>
@@ -8268,10 +8256,10 @@
         <v>27</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="H12" s="58" t="s">
-        <v>450</v>
+        <v>162</v>
+      </c>
+      <c r="H12" s="55" t="s">
+        <v>445</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2" t="s">
@@ -8280,23 +8268,23 @@
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1">
-      <c r="A13" s="77"/>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
+      <c r="A13" s="74"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
       <c r="D13" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>44</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="H13" s="58" t="s">
-        <v>450</v>
+        <v>162</v>
+      </c>
+      <c r="H13" s="55" t="s">
+        <v>445</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2" t="s">
@@ -8305,23 +8293,23 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11" s="1" customFormat="1">
-      <c r="A14" s="77"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="77"/>
+      <c r="A14" s="74"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
       <c r="D14" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>32</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="H14" s="58" t="s">
-        <v>450</v>
+        <v>162</v>
+      </c>
+      <c r="H14" s="55" t="s">
+        <v>445</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2" t="s">
@@ -8330,23 +8318,23 @@
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11" s="1" customFormat="1">
-      <c r="A15" s="77"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
+      <c r="A15" s="74"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="74"/>
       <c r="D15" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>27</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="H15" s="58" t="s">
-        <v>450</v>
+        <v>162</v>
+      </c>
+      <c r="H15" s="55" t="s">
+        <v>445</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2" t="s">
@@ -8355,9 +8343,9 @@
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11" s="1" customFormat="1">
-      <c r="A16" s="77"/>
-      <c r="B16" s="77"/>
-      <c r="C16" s="77"/>
+      <c r="A16" s="74"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
       <c r="D16" s="2" t="s">
         <v>42</v>
       </c>
@@ -8368,10 +8356,10 @@
         <v>32</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="H16" s="58" t="s">
-        <v>450</v>
+        <v>162</v>
+      </c>
+      <c r="H16" s="55" t="s">
+        <v>445</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2" t="s">
@@ -8380,8 +8368,8 @@
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:12" s="1" customFormat="1">
-      <c r="A17" s="77"/>
-      <c r="B17" s="78" t="s">
+      <c r="A17" s="74"/>
+      <c r="B17" s="75" t="s">
         <v>40</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -8397,10 +8385,10 @@
         <v>32</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="H17" s="58" t="s">
-        <v>450</v>
+        <v>162</v>
+      </c>
+      <c r="H17" s="55" t="s">
+        <v>445</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2" t="s">
@@ -8409,53 +8397,53 @@
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:12" s="1" customFormat="1">
-      <c r="A18" s="77"/>
-      <c r="B18" s="77"/>
-      <c r="C18" s="77" t="s">
+      <c r="A18" s="74"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="74" t="s">
         <v>35</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>32</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="H18" s="58" t="s">
-        <v>450</v>
+        <v>162</v>
+      </c>
+      <c r="H18" s="55" t="s">
+        <v>445</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2" t="s">
         <v>26</v>
       </c>
       <c r="K18" s="2"/>
-      <c r="L18" s="43" t="s">
-        <v>425</v>
+      <c r="L18" s="40" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="1" customFormat="1">
-      <c r="A19" s="77"/>
-      <c r="B19" s="77"/>
-      <c r="C19" s="77"/>
+      <c r="A19" s="74"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="74"/>
       <c r="D19" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>32</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="H19" s="58" t="s">
-        <v>450</v>
+        <v>162</v>
+      </c>
+      <c r="H19" s="55" t="s">
+        <v>445</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2" t="s">
@@ -8464,23 +8452,23 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:12" s="1" customFormat="1">
-      <c r="A20" s="77"/>
-      <c r="B20" s="77"/>
-      <c r="C20" s="77"/>
+      <c r="A20" s="74"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="74"/>
       <c r="D20" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>27</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="H20" s="58" t="s">
-        <v>450</v>
+        <v>162</v>
+      </c>
+      <c r="H20" s="55" t="s">
+        <v>445</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2" t="s">
@@ -8489,7 +8477,7 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:12" s="1" customFormat="1" ht="33">
-      <c r="A21" s="77"/>
+      <c r="A21" s="74"/>
       <c r="B21" s="5" t="s">
         <v>30</v>
       </c>
@@ -8500,16 +8488,16 @@
         <v>28</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>27</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="H21" s="58" t="s">
-        <v>450</v>
+        <v>162</v>
+      </c>
+      <c r="H21" s="55" t="s">
+        <v>445</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2" t="s">

--- a/기능명세서 최종본.xlsx
+++ b/기능명세서 최종본.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="프로필 수정 및 관리" sheetId="4" r:id="rId1"/>
@@ -2355,7 +2355,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2574,6 +2574,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2982,13 +2985,13 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="49.5">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="77" t="s">
         <v>107</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -3015,9 +3018,9 @@
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="73"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="76"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="77"/>
       <c r="D4" s="6" t="s">
         <v>51</v>
       </c>
@@ -3040,9 +3043,9 @@
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="74"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
+      <c r="A5" s="75"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
       <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
@@ -3065,9 +3068,9 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="74"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
+      <c r="A6" s="75"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
       <c r="D6" s="2" t="s">
         <v>106</v>
       </c>
@@ -3090,9 +3093,9 @@
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" ht="33">
-      <c r="A7" s="74"/>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
+      <c r="A7" s="75"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
       <c r="D7" s="2" t="s">
         <v>105</v>
       </c>
@@ -3117,9 +3120,9 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="74"/>
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
+      <c r="A8" s="75"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="2" t="s">
         <v>104</v>
       </c>
@@ -3144,9 +3147,9 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="74"/>
-      <c r="B9" s="74"/>
-      <c r="C9" s="74" t="s">
+      <c r="A9" s="75"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75" t="s">
         <v>101</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -3171,9 +3174,9 @@
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="33">
-      <c r="A10" s="74"/>
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
       <c r="D10" s="2" t="s">
         <v>98</v>
       </c>
@@ -3198,9 +3201,9 @@
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="74"/>
-      <c r="B11" s="74"/>
-      <c r="C11" s="74" t="s">
+      <c r="A11" s="75"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="75" t="s">
         <v>96</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -3225,9 +3228,9 @@
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="74"/>
-      <c r="B12" s="74"/>
-      <c r="C12" s="74"/>
+      <c r="A12" s="75"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="2" t="s">
         <v>92</v>
       </c>
@@ -3250,9 +3253,9 @@
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="74"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
+      <c r="A13" s="75"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="75"/>
       <c r="D13" s="2" t="s">
         <v>89</v>
       </c>
@@ -3275,9 +3278,9 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="74"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="75" t="s">
+      <c r="A14" s="75"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="76" t="s">
         <v>94</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -3304,9 +3307,9 @@
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="74"/>
-      <c r="B15" s="74"/>
-      <c r="C15" s="75"/>
+      <c r="A15" s="75"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="76"/>
       <c r="D15" s="2" t="s">
         <v>92</v>
       </c>
@@ -3329,9 +3332,9 @@
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="74"/>
-      <c r="B16" s="74"/>
-      <c r="C16" s="75"/>
+      <c r="A16" s="75"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="76"/>
       <c r="D16" s="2" t="s">
         <v>90</v>
       </c>
@@ -3354,9 +3357,9 @@
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="74"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="75"/>
+      <c r="A17" s="75"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="76"/>
       <c r="D17" s="2" t="s">
         <v>89</v>
       </c>
@@ -3379,9 +3382,9 @@
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="74"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="74" t="s">
+      <c r="A18" s="75"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75" t="s">
         <v>88</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -3408,9 +3411,9 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="74"/>
-      <c r="B19" s="74"/>
-      <c r="C19" s="74"/>
+      <c r="A19" s="75"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="75"/>
       <c r="D19" s="2" t="s">
         <v>85</v>
       </c>
@@ -3431,9 +3434,9 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="74"/>
-      <c r="B20" s="74"/>
-      <c r="C20" s="74"/>
+      <c r="A20" s="75"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="75"/>
       <c r="D20" s="2" t="s">
         <v>84</v>
       </c>
@@ -3458,9 +3461,9 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="74"/>
-      <c r="B21" s="74"/>
-      <c r="C21" s="74"/>
+      <c r="A21" s="75"/>
+      <c r="B21" s="75"/>
+      <c r="C21" s="75"/>
       <c r="D21" s="2" t="s">
         <v>81</v>
       </c>
@@ -3515,7 +3518,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:G21"/>
+      <selection activeCell="E19" sqref="E19:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3569,13 +3572,13 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="77" t="s">
         <v>255</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="77" t="s">
         <v>254</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="77" t="s">
         <v>253</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -3598,9 +3601,9 @@
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="74"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
       <c r="D4" s="2" t="s">
         <v>45</v>
       </c>
@@ -3621,9 +3624,9 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="74"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
+      <c r="A5" s="75"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
       <c r="D5" s="2" t="s">
         <v>252</v>
       </c>
@@ -3644,11 +3647,11 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="74"/>
-      <c r="B6" s="74" t="s">
+      <c r="A6" s="75"/>
+      <c r="B6" s="75" t="s">
         <v>251</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="75" t="s">
         <v>250</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -3673,9 +3676,9 @@
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="74"/>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
+      <c r="A7" s="75"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
       <c r="D7" s="2" t="s">
         <v>42</v>
       </c>
@@ -3698,8 +3701,8 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="74"/>
-      <c r="B8" s="74" t="s">
+      <c r="A8" s="75"/>
+      <c r="B8" s="75" t="s">
         <v>395</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -3725,8 +3728,8 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="49.5">
-      <c r="A9" s="74"/>
-      <c r="B9" s="74"/>
+      <c r="A9" s="75"/>
+      <c r="B9" s="75"/>
       <c r="C9" s="2" t="s">
         <v>396</v>
       </c>
@@ -3752,11 +3755,11 @@
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="74"/>
-      <c r="B10" s="74" t="s">
+      <c r="A10" s="75"/>
+      <c r="B10" s="75" t="s">
         <v>246</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="C10" s="75" t="s">
         <v>58</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -3781,9 +3784,9 @@
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="74"/>
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
+      <c r="A11" s="75"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
       <c r="D11" s="2" t="s">
         <v>243</v>
       </c>
@@ -3806,9 +3809,9 @@
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="74"/>
-      <c r="B12" s="74"/>
-      <c r="C12" s="74"/>
+      <c r="A12" s="75"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="2" t="s">
         <v>241</v>
       </c>
@@ -3831,9 +3834,9 @@
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11" ht="33">
-      <c r="A13" s="74"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
+      <c r="A13" s="75"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="75"/>
       <c r="D13" s="2" t="s">
         <v>239</v>
       </c>
@@ -3856,10 +3859,10 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="74"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="79" t="s">
+      <c r="A14" s="75"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="80" t="s">
         <v>237</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -3881,10 +3884,10 @@
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="74"/>
-      <c r="B15" s="74"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="76"/>
+      <c r="A15" s="75"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="77"/>
       <c r="E15" s="5" t="s">
         <v>400</v>
       </c>
@@ -3904,9 +3907,9 @@
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="74"/>
-      <c r="B16" s="74"/>
-      <c r="C16" s="74"/>
+      <c r="A16" s="75"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
       <c r="D16" s="2" t="s">
         <v>230</v>
       </c>
@@ -3929,11 +3932,11 @@
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="74"/>
-      <c r="B17" s="74" t="s">
+      <c r="A17" s="75"/>
+      <c r="B17" s="75" t="s">
         <v>235</v>
       </c>
-      <c r="C17" s="74" t="s">
+      <c r="C17" s="75" t="s">
         <v>235</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -3958,9 +3961,9 @@
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="74"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="74"/>
+      <c r="A18" s="75"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="2" t="s">
         <v>232</v>
       </c>
@@ -3983,9 +3986,9 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="74"/>
-      <c r="B19" s="74"/>
-      <c r="C19" s="74"/>
+      <c r="A19" s="75"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="75"/>
       <c r="D19" s="2" t="s">
         <v>230</v>
       </c>
@@ -4008,9 +4011,9 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="74"/>
-      <c r="B20" s="74"/>
-      <c r="C20" s="74"/>
+      <c r="A20" s="75"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="75"/>
       <c r="D20" s="2" t="s">
         <v>228</v>
       </c>
@@ -4031,9 +4034,9 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A21" s="74"/>
-      <c r="B21" s="74"/>
-      <c r="C21" s="74"/>
+      <c r="A21" s="75"/>
+      <c r="B21" s="75"/>
+      <c r="C21" s="75"/>
       <c r="D21" s="2" t="s">
         <v>226</v>
       </c>
@@ -4081,7 +4084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="H14" sqref="D14:H15"/>
     </sheetView>
   </sheetViews>
@@ -4134,13 +4137,13 @@
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="87" t="s">
         <v>300</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="87" t="s">
         <v>300</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="84" t="s">
         <v>299</v>
       </c>
       <c r="D3" s="12" t="s">
@@ -4163,9 +4166,9 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="84"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
+      <c r="A4" s="85"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
       <c r="D4" s="12" t="s">
         <v>298</v>
       </c>
@@ -4189,9 +4192,9 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="84"/>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
+      <c r="A5" s="85"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
       <c r="D5" s="12" t="s">
         <v>297</v>
       </c>
@@ -4212,9 +4215,9 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="84"/>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
+      <c r="A6" s="85"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
       <c r="D6" s="12" t="s">
         <v>296</v>
       </c>
@@ -4238,9 +4241,9 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="84"/>
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
+      <c r="A7" s="85"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
       <c r="D7" s="12" t="s">
         <v>295</v>
       </c>
@@ -4261,9 +4264,9 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="84"/>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
+      <c r="A8" s="85"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
       <c r="D8" s="12" t="s">
         <v>294</v>
       </c>
@@ -4287,9 +4290,9 @@
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="84"/>
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
+      <c r="A9" s="85"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
       <c r="D9" s="12" t="s">
         <v>293</v>
       </c>
@@ -4313,9 +4316,9 @@
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="84"/>
-      <c r="B10" s="84"/>
-      <c r="C10" s="84"/>
+      <c r="A10" s="85"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
       <c r="D10" s="12" t="s">
         <v>292</v>
       </c>
@@ -4339,9 +4342,9 @@
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="84"/>
-      <c r="B11" s="84"/>
-      <c r="C11" s="84"/>
+      <c r="A11" s="85"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
       <c r="D11" s="12" t="s">
         <v>291</v>
       </c>
@@ -4365,9 +4368,9 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="84"/>
-      <c r="B12" s="84"/>
-      <c r="C12" s="85"/>
+      <c r="A12" s="85"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="86"/>
       <c r="D12" s="12" t="s">
         <v>289</v>
       </c>
@@ -4391,8 +4394,8 @@
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="84"/>
-      <c r="B13" s="84"/>
+      <c r="A13" s="85"/>
+      <c r="B13" s="85"/>
       <c r="C13" s="12" t="s">
         <v>288</v>
       </c>
@@ -4418,9 +4421,9 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="84"/>
-      <c r="B14" s="84"/>
-      <c r="C14" s="87" t="s">
+      <c r="A14" s="85"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="88" t="s">
         <v>286</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -4445,9 +4448,9 @@
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="84"/>
-      <c r="B15" s="84"/>
-      <c r="C15" s="85"/>
+      <c r="A15" s="85"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="86"/>
       <c r="D15" s="3" t="s">
         <v>284</v>
       </c>
@@ -4470,8 +4473,8 @@
       <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="84"/>
-      <c r="B16" s="84"/>
+      <c r="A16" s="85"/>
+      <c r="B16" s="85"/>
       <c r="C16" s="14" t="s">
         <v>281</v>
       </c>
@@ -4500,10 +4503,10 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="53.25" customHeight="1">
-      <c r="A17" s="88" t="s">
+      <c r="A17" s="89" t="s">
         <v>412</v>
       </c>
-      <c r="B17" s="88" t="s">
+      <c r="B17" s="89" t="s">
         <v>412</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -4531,9 +4534,9 @@
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="80"/>
-      <c r="B18" s="80"/>
-      <c r="C18" s="79" t="s">
+      <c r="A18" s="81"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="80" t="s">
         <v>273</v>
       </c>
       <c r="D18" s="12" t="s">
@@ -4556,9 +4559,9 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="80"/>
-      <c r="B19" s="80"/>
-      <c r="C19" s="80"/>
+      <c r="A19" s="81"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="81"/>
       <c r="D19" s="12" t="s">
         <v>271</v>
       </c>
@@ -4579,9 +4582,9 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="80"/>
-      <c r="B20" s="80"/>
-      <c r="C20" s="80"/>
+      <c r="A20" s="81"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="81"/>
       <c r="D20" s="53" t="s">
         <v>270</v>
       </c>
@@ -4604,9 +4607,9 @@
       <c r="K20" s="53"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="80"/>
-      <c r="B21" s="80"/>
-      <c r="C21" s="80"/>
+      <c r="A21" s="81"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="81"/>
       <c r="D21" s="53" t="s">
         <v>268</v>
       </c>
@@ -4629,9 +4632,9 @@
       <c r="K21" s="53"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="80"/>
-      <c r="B22" s="80"/>
-      <c r="C22" s="76"/>
+      <c r="A22" s="81"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="77"/>
       <c r="D22" s="53" t="s">
         <v>265</v>
       </c>
@@ -4654,9 +4657,9 @@
       <c r="K22" s="53"/>
     </row>
     <row r="23" spans="1:12" ht="33">
-      <c r="A23" s="80"/>
-      <c r="B23" s="80"/>
-      <c r="C23" s="88" t="s">
+      <c r="A23" s="81"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="89" t="s">
         <v>263</v>
       </c>
       <c r="D23" s="53" t="s">
@@ -4681,9 +4684,9 @@
       <c r="K23" s="53"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="80"/>
-      <c r="B24" s="80"/>
-      <c r="C24" s="80"/>
+      <c r="A24" s="81"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="81"/>
       <c r="D24" s="53" t="s">
         <v>261</v>
       </c>
@@ -4704,9 +4707,9 @@
       <c r="K24" s="53"/>
     </row>
     <row r="25" spans="1:12" ht="49.5">
-      <c r="A25" s="76"/>
-      <c r="B25" s="76"/>
-      <c r="C25" s="76"/>
+      <c r="A25" s="77"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="77"/>
       <c r="D25" s="52" t="s">
         <v>260</v>
       </c>
@@ -4729,10 +4732,10 @@
       <c r="K25" s="53"/>
     </row>
     <row r="26" spans="1:12" ht="16.5" customHeight="1">
-      <c r="A26" s="75" t="s">
+      <c r="A26" s="76" t="s">
         <v>413</v>
       </c>
-      <c r="B26" s="75" t="s">
+      <c r="B26" s="76" t="s">
         <v>413</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -4760,9 +4763,9 @@
       <c r="K26" s="53"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="74"/>
-      <c r="B27" s="74"/>
-      <c r="C27" s="74" t="s">
+      <c r="A27" s="75"/>
+      <c r="B27" s="75"/>
+      <c r="C27" s="75" t="s">
         <v>273</v>
       </c>
       <c r="D27" s="53" t="s">
@@ -4785,9 +4788,9 @@
       <c r="K27" s="53"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="74"/>
-      <c r="B28" s="74"/>
-      <c r="C28" s="74"/>
+      <c r="A28" s="75"/>
+      <c r="B28" s="75"/>
+      <c r="C28" s="75"/>
       <c r="D28" s="53" t="s">
         <v>271</v>
       </c>
@@ -4808,9 +4811,9 @@
       <c r="K28" s="53"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="74"/>
-      <c r="B29" s="74"/>
-      <c r="C29" s="74"/>
+      <c r="A29" s="75"/>
+      <c r="B29" s="75"/>
+      <c r="C29" s="75"/>
       <c r="D29" s="53" t="s">
         <v>270</v>
       </c>
@@ -4833,9 +4836,9 @@
       <c r="K29" s="53"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="74"/>
-      <c r="B30" s="74"/>
-      <c r="C30" s="74"/>
+      <c r="A30" s="75"/>
+      <c r="B30" s="75"/>
+      <c r="C30" s="75"/>
       <c r="D30" s="53" t="s">
         <v>268</v>
       </c>
@@ -4858,9 +4861,9 @@
       <c r="K30" s="53"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="74"/>
-      <c r="B31" s="74"/>
-      <c r="C31" s="74"/>
+      <c r="A31" s="75"/>
+      <c r="B31" s="75"/>
+      <c r="C31" s="75"/>
       <c r="D31" s="53" t="s">
         <v>265</v>
       </c>
@@ -4883,9 +4886,9 @@
       <c r="K31" s="53"/>
     </row>
     <row r="32" spans="1:12" ht="33">
-      <c r="A32" s="74"/>
-      <c r="B32" s="74"/>
-      <c r="C32" s="75" t="s">
+      <c r="A32" s="75"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="76" t="s">
         <v>263</v>
       </c>
       <c r="D32" s="53" t="s">
@@ -4913,9 +4916,9 @@
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="74"/>
-      <c r="B33" s="74"/>
-      <c r="C33" s="74"/>
+      <c r="A33" s="75"/>
+      <c r="B33" s="75"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="12" t="s">
         <v>105</v>
       </c>
@@ -5012,13 +5015,13 @@
       </c>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="77" t="s">
         <v>311</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="74" t="s">
         <v>311</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="74" t="s">
         <v>310</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -5043,9 +5046,9 @@
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1">
-      <c r="A4" s="76"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
       <c r="D4" s="6" t="s">
         <v>127</v>
       </c>
@@ -5068,9 +5071,9 @@
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1">
-      <c r="A5" s="76"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
+      <c r="A5" s="77"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
       <c r="D5" s="2" t="s">
         <v>309</v>
       </c>
@@ -5093,9 +5096,9 @@
       <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1">
-      <c r="A6" s="76"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
+      <c r="A6" s="77"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
       <c r="D6" s="2" t="s">
         <v>307</v>
       </c>
@@ -5118,9 +5121,9 @@
       <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1">
-      <c r="A7" s="76"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
+      <c r="A7" s="77"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
       <c r="D7" s="2" t="s">
         <v>305</v>
       </c>
@@ -5143,9 +5146,9 @@
       <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1">
-      <c r="A8" s="74"/>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
+      <c r="A8" s="75"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
       <c r="D8" s="2" t="s">
         <v>303</v>
       </c>
@@ -5168,13 +5171,13 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="80" t="s">
         <v>406</v>
       </c>
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="80" t="s">
         <v>394</v>
       </c>
-      <c r="C9" s="79" t="s">
+      <c r="C9" s="80" t="s">
         <v>394</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -5200,9 +5203,9 @@
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="76"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
+      <c r="A10" s="77"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="77"/>
       <c r="D10" s="2" t="s">
         <v>104</v>
       </c>
@@ -5225,13 +5228,13 @@
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="79" t="s">
+      <c r="A11" s="80" t="s">
         <v>407</v>
       </c>
-      <c r="B11" s="79" t="s">
+      <c r="B11" s="80" t="s">
         <v>408</v>
       </c>
-      <c r="C11" s="79" t="s">
+      <c r="C11" s="80" t="s">
         <v>408</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -5256,9 +5259,9 @@
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="80"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="80"/>
+      <c r="A12" s="81"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
       <c r="D12" s="2" t="s">
         <v>402</v>
       </c>
@@ -5282,9 +5285,9 @@
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="76"/>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
+      <c r="A13" s="77"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
       <c r="D13" s="2" t="s">
         <v>104</v>
       </c>
@@ -5307,13 +5310,13 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="89" t="s">
+      <c r="A14" s="90" t="s">
         <v>415</v>
       </c>
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="90" t="s">
         <v>415</v>
       </c>
-      <c r="C14" s="84" t="s">
+      <c r="C14" s="85" t="s">
         <v>273</v>
       </c>
       <c r="D14" s="12" t="s">
@@ -5339,9 +5342,9 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="90"/>
-      <c r="B15" s="90"/>
-      <c r="C15" s="84"/>
+      <c r="A15" s="91"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="85"/>
       <c r="D15" s="12" t="s">
         <v>291</v>
       </c>
@@ -5365,9 +5368,9 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="90"/>
-      <c r="B16" s="90"/>
-      <c r="C16" s="85"/>
+      <c r="A16" s="91"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="86"/>
       <c r="D16" s="12" t="s">
         <v>289</v>
       </c>
@@ -5391,8 +5394,8 @@
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="90"/>
-      <c r="B17" s="90"/>
+      <c r="A17" s="91"/>
+      <c r="B17" s="91"/>
       <c r="C17" s="12" t="s">
         <v>288</v>
       </c>
@@ -5418,9 +5421,9 @@
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="90"/>
-      <c r="B18" s="90"/>
-      <c r="C18" s="91" t="s">
+      <c r="A18" s="91"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="92" t="s">
         <v>286</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -5445,9 +5448,9 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="90"/>
-      <c r="B19" s="90"/>
-      <c r="C19" s="92"/>
+      <c r="A19" s="91"/>
+      <c r="B19" s="91"/>
+      <c r="C19" s="93"/>
       <c r="D19" s="3" t="s">
         <v>284</v>
       </c>
@@ -5470,8 +5473,8 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="90"/>
-      <c r="B20" s="90"/>
+      <c r="A20" s="91"/>
+      <c r="B20" s="91"/>
       <c r="C20" s="14" t="s">
         <v>281</v>
       </c>
@@ -5578,13 +5581,13 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="24.95" customHeight="1">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="94" t="s">
         <v>335</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="80" t="s">
         <v>334</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="75" t="s">
         <v>333</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -5609,9 +5612,9 @@
       <c r="K2" s="23"/>
     </row>
     <row r="3" spans="1:11" s="28" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="94"/>
-      <c r="B3" s="80"/>
-      <c r="C3" s="74"/>
+      <c r="A3" s="95"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="75"/>
       <c r="D3" s="16" t="s">
         <v>330</v>
       </c>
@@ -5634,9 +5637,9 @@
       <c r="K3" s="29"/>
     </row>
     <row r="4" spans="1:11" s="28" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="94"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="74"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="75"/>
       <c r="D4" s="3" t="s">
         <v>328</v>
       </c>
@@ -5655,9 +5658,9 @@
       <c r="K4" s="48"/>
     </row>
     <row r="5" spans="1:11" s="28" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A5" s="94"/>
-      <c r="B5" s="80"/>
-      <c r="C5" s="82" t="s">
+      <c r="A5" s="95"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="83" t="s">
         <v>326</v>
       </c>
       <c r="D5" s="16" t="s">
@@ -5682,9 +5685,9 @@
       <c r="K5" s="29"/>
     </row>
     <row r="6" spans="1:11" ht="24.95" customHeight="1">
-      <c r="A6" s="94"/>
-      <c r="B6" s="80"/>
-      <c r="C6" s="82"/>
+      <c r="A6" s="95"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="83"/>
       <c r="D6" s="24" t="s">
         <v>323</v>
       </c>
@@ -5707,9 +5710,9 @@
       <c r="K6" s="23"/>
     </row>
     <row r="7" spans="1:11" ht="24.95" customHeight="1">
-      <c r="A7" s="94"/>
-      <c r="B7" s="80"/>
-      <c r="C7" s="79" t="s">
+      <c r="A7" s="95"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="80" t="s">
         <v>321</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -5734,9 +5737,9 @@
       <c r="K7" s="23"/>
     </row>
     <row r="8" spans="1:11" ht="24.95" customHeight="1">
-      <c r="A8" s="94"/>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
+      <c r="A8" s="95"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
       <c r="D8" s="2" t="s">
         <v>318</v>
       </c>
@@ -5759,9 +5762,9 @@
       <c r="K8" s="23"/>
     </row>
     <row r="9" spans="1:11" ht="30" customHeight="1">
-      <c r="A9" s="94"/>
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
+      <c r="A9" s="95"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
       <c r="D9" s="2" t="s">
         <v>316</v>
       </c>
@@ -5784,9 +5787,9 @@
       <c r="K9" s="23"/>
     </row>
     <row r="10" spans="1:11" ht="30" customHeight="1">
-      <c r="A10" s="81"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
+      <c r="A10" s="82"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="77"/>
       <c r="D10" s="2" t="s">
         <v>313</v>
       </c>
@@ -5877,13 +5880,13 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="83" t="s">
         <v>356</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="75" t="s">
         <v>356</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="75" t="s">
         <v>355</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -5908,9 +5911,9 @@
       <c r="K2" s="23"/>
     </row>
     <row r="3" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A3" s="82"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
+      <c r="A3" s="83"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
       <c r="D3" s="2" t="s">
         <v>352</v>
       </c>
@@ -5933,10 +5936,10 @@
       <c r="K3" s="23"/>
     </row>
     <row r="4" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A4" s="82"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74" t="s">
+      <c r="A4" s="83"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75" t="s">
         <v>350</v>
       </c>
       <c r="E4" s="13" t="s">
@@ -5958,10 +5961,10 @@
       <c r="K4" s="23"/>
     </row>
     <row r="5" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A5" s="82"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
+      <c r="A5" s="83"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
       <c r="E5" s="13" t="s">
         <v>348</v>
       </c>
@@ -5981,9 +5984,9 @@
       <c r="K5" s="23"/>
     </row>
     <row r="6" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A6" s="82"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74" t="s">
+      <c r="A6" s="83"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75" t="s">
         <v>347</v>
       </c>
       <c r="D6" s="32" t="s">
@@ -6008,9 +6011,9 @@
       <c r="K6" s="23"/>
     </row>
     <row r="7" spans="1:11" ht="65.25" customHeight="1">
-      <c r="A7" s="82"/>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
+      <c r="A7" s="83"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
       <c r="D7" s="32" t="s">
         <v>344</v>
       </c>
@@ -6033,8 +6036,8 @@
       <c r="K7" s="23"/>
     </row>
     <row r="8" spans="1:11" ht="57" customHeight="1">
-      <c r="A8" s="82"/>
-      <c r="B8" s="74"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="75"/>
       <c r="C8" s="2" t="s">
         <v>340</v>
       </c>
@@ -6076,7 +6079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F4" sqref="F4:H4"/>
     </sheetView>
   </sheetViews>
@@ -6127,13 +6130,13 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="60" customHeight="1">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="82" t="s">
         <v>373</v>
       </c>
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="96" t="s">
         <v>373</v>
       </c>
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="96" t="s">
         <v>372</v>
       </c>
       <c r="D2" s="11" t="s">
@@ -6158,9 +6161,9 @@
       <c r="K2" s="37"/>
     </row>
     <row r="3" spans="1:11" ht="60" customHeight="1">
-      <c r="A3" s="82"/>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
+      <c r="A3" s="83"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
       <c r="D3" s="5" t="s">
         <v>369</v>
       </c>
@@ -6183,9 +6186,9 @@
       <c r="K3" s="23"/>
     </row>
     <row r="4" spans="1:11" ht="60" customHeight="1">
-      <c r="A4" s="82"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="76"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="77"/>
       <c r="D4" s="22" t="s">
         <v>367</v>
       </c>
@@ -6206,8 +6209,8 @@
       <c r="K4" s="42"/>
     </row>
     <row r="5" spans="1:11" ht="60" customHeight="1">
-      <c r="A5" s="82"/>
-      <c r="B5" s="80"/>
+      <c r="A5" s="83"/>
+      <c r="B5" s="81"/>
       <c r="C5" s="2" t="s">
         <v>365</v>
       </c>
@@ -6233,8 +6236,8 @@
       <c r="K5" s="23"/>
     </row>
     <row r="6" spans="1:11" ht="88.5" customHeight="1">
-      <c r="A6" s="82"/>
-      <c r="B6" s="76"/>
+      <c r="A6" s="83"/>
+      <c r="B6" s="77"/>
       <c r="C6" s="2" t="s">
         <v>363</v>
       </c>
@@ -6320,10 +6323,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="24.95" customHeight="1">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="86" t="s">
         <v>391</v>
       </c>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="81" t="s">
         <v>383</v>
       </c>
       <c r="C2" s="14" t="s">
@@ -6351,8 +6354,8 @@
       <c r="K2" s="14"/>
     </row>
     <row r="3" spans="1:11" ht="24.95" customHeight="1">
-      <c r="A3" s="90"/>
-      <c r="B3" s="80"/>
+      <c r="A3" s="91"/>
+      <c r="B3" s="81"/>
       <c r="C3" s="2" t="s">
         <v>386</v>
       </c>
@@ -6378,8 +6381,8 @@
       <c r="K3" s="23"/>
     </row>
     <row r="4" spans="1:11" ht="33">
-      <c r="A4" s="90"/>
-      <c r="B4" s="76"/>
+      <c r="A4" s="91"/>
+      <c r="B4" s="77"/>
       <c r="C4" s="2" t="s">
         <v>383</v>
       </c>
@@ -6405,7 +6408,7 @@
       <c r="K4" s="23"/>
     </row>
     <row r="5" spans="1:11" ht="33">
-      <c r="A5" s="90"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="2" t="s">
         <v>380</v>
       </c>
@@ -6434,7 +6437,7 @@
       <c r="K5" s="23"/>
     </row>
     <row r="6" spans="1:11" ht="49.5">
-      <c r="A6" s="90"/>
+      <c r="A6" s="91"/>
       <c r="B6" s="2" t="s">
         <v>376</v>
       </c>
@@ -6748,7 +6751,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="38.1" customHeight="1" thickBot="1">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="78" t="s">
         <v>151</v>
       </c>
       <c r="B2" s="56" t="s">
@@ -6779,7 +6782,7 @@
       <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:11" ht="38.1" customHeight="1">
-      <c r="A3" s="77"/>
+      <c r="A3" s="78"/>
       <c r="B3" s="56" t="s">
         <v>150</v>
       </c>
@@ -6806,7 +6809,7 @@
       <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="38.1" customHeight="1">
-      <c r="A4" s="78"/>
+      <c r="A4" s="79"/>
       <c r="B4" s="55" t="s">
         <v>144</v>
       </c>
@@ -6831,11 +6834,11 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="38.25" customHeight="1">
-      <c r="A5" s="78"/>
-      <c r="B5" s="74" t="s">
+      <c r="A5" s="79"/>
+      <c r="B5" s="75" t="s">
         <v>140</v>
       </c>
-      <c r="C5" s="79" t="s">
+      <c r="C5" s="80" t="s">
         <v>139</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -6860,9 +6863,9 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="38.25" customHeight="1">
-      <c r="A6" s="78"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="80"/>
+      <c r="A6" s="79"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="81"/>
       <c r="D6" s="51" t="s">
         <v>138</v>
       </c>
@@ -6885,9 +6888,9 @@
       <c r="K6" s="51"/>
     </row>
     <row r="7" spans="1:11" ht="38.25" customHeight="1">
-      <c r="A7" s="78"/>
-      <c r="B7" s="74"/>
-      <c r="C7" s="76"/>
+      <c r="A7" s="79"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="77"/>
       <c r="D7" s="51" t="s">
         <v>440</v>
       </c>
@@ -6910,8 +6913,8 @@
       <c r="K7" s="51"/>
     </row>
     <row r="8" spans="1:11" ht="38.1" customHeight="1">
-      <c r="A8" s="78"/>
-      <c r="B8" s="74"/>
+      <c r="A8" s="79"/>
+      <c r="B8" s="75"/>
       <c r="C8" s="51" t="s">
         <v>443</v>
       </c>
@@ -7013,10 +7016,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="49.5">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="82" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="82" t="s">
         <v>166</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -7044,8 +7047,8 @@
       <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="82"/>
-      <c r="B3" s="82"/>
+      <c r="A3" s="83"/>
+      <c r="B3" s="83"/>
       <c r="C3" s="51" t="s">
         <v>435</v>
       </c>
@@ -7065,8 +7068,8 @@
       <c r="K3" s="51"/>
     </row>
     <row r="4" spans="1:11" ht="21.75" customHeight="1">
-      <c r="A4" s="82"/>
-      <c r="B4" s="82"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="83"/>
       <c r="C4" s="18" t="s">
         <v>161</v>
       </c>
@@ -7090,8 +7093,8 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="33">
-      <c r="A5" s="82"/>
-      <c r="B5" s="82"/>
+      <c r="A5" s="83"/>
+      <c r="B5" s="83"/>
       <c r="C5" s="18" t="s">
         <v>159</v>
       </c>
@@ -7113,8 +7116,8 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="82.5">
-      <c r="A6" s="82"/>
-      <c r="B6" s="82"/>
+      <c r="A6" s="83"/>
+      <c r="B6" s="83"/>
       <c r="C6" s="2" t="s">
         <v>156</v>
       </c>
@@ -7153,8 +7156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" activeCellId="3" sqref="F3:H3 F5:H5 F9:G9 F11:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7205,10 +7208,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="61.5" customHeight="1">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="83" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="83" t="s">
         <v>150</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -7236,8 +7239,8 @@
       <c r="K2" s="23"/>
     </row>
     <row r="3" spans="1:11" ht="33">
-      <c r="A3" s="82"/>
-      <c r="B3" s="82"/>
+      <c r="A3" s="83"/>
+      <c r="B3" s="83"/>
       <c r="C3" s="5" t="s">
         <v>199</v>
       </c>
@@ -7253,7 +7256,7 @@
       <c r="G3" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="49" t="s">
         <v>474</v>
       </c>
       <c r="I3" s="2"/>
@@ -7263,8 +7266,8 @@
       <c r="K3" s="23"/>
     </row>
     <row r="4" spans="1:11" ht="49.5">
-      <c r="A4" s="82"/>
-      <c r="B4" s="82"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="83"/>
       <c r="C4" s="5" t="s">
         <v>176</v>
       </c>
@@ -7274,10 +7277,10 @@
       <c r="E4" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="73" t="s">
         <v>173</v>
       </c>
-      <c r="G4" s="52" t="s">
+      <c r="G4" s="73" t="s">
         <v>169</v>
       </c>
       <c r="H4" s="31" t="s">
@@ -7290,8 +7293,8 @@
       <c r="K4" s="23"/>
     </row>
     <row r="5" spans="1:11" ht="33">
-      <c r="A5" s="82"/>
-      <c r="B5" s="82"/>
+      <c r="A5" s="83"/>
+      <c r="B5" s="83"/>
       <c r="C5" s="5" t="s">
         <v>194</v>
       </c>
@@ -7301,10 +7304,10 @@
       <c r="E5" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="G5" s="60" t="s">
+      <c r="G5" s="4" t="s">
         <v>169</v>
       </c>
       <c r="H5" s="49" t="s">
@@ -7317,8 +7320,8 @@
       <c r="K5" s="23"/>
     </row>
     <row r="6" spans="1:11" ht="49.5">
-      <c r="A6" s="82"/>
-      <c r="B6" s="82"/>
+      <c r="A6" s="83"/>
+      <c r="B6" s="83"/>
       <c r="C6" s="5" t="s">
         <v>192</v>
       </c>
@@ -7328,13 +7331,13 @@
       <c r="E6" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="73" t="s">
         <v>177</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="73" t="s">
         <v>169</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="31" t="s">
         <v>432</v>
       </c>
       <c r="I6" s="2" t="s">
@@ -7344,8 +7347,8 @@
       <c r="K6" s="23"/>
     </row>
     <row r="7" spans="1:11" ht="49.5">
-      <c r="A7" s="82"/>
-      <c r="B7" s="82"/>
+      <c r="A7" s="83"/>
+      <c r="B7" s="83"/>
       <c r="C7" s="5" t="s">
         <v>189</v>
       </c>
@@ -7355,13 +7358,13 @@
       <c r="E7" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="73" t="s">
         <v>177</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="73" t="s">
         <v>186</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="31" t="s">
         <v>433</v>
       </c>
       <c r="I7" s="2" t="s">
@@ -7371,8 +7374,8 @@
       <c r="K7" s="23"/>
     </row>
     <row r="8" spans="1:11" ht="49.5">
-      <c r="A8" s="82"/>
-      <c r="B8" s="74" t="s">
+      <c r="A8" s="83"/>
+      <c r="B8" s="75" t="s">
         <v>184</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -7384,13 +7387,13 @@
       <c r="E8" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="73" t="s">
         <v>169</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="31" t="s">
         <v>162</v>
       </c>
       <c r="I8" s="2"/>
@@ -7400,8 +7403,8 @@
       <c r="K8" s="23"/>
     </row>
     <row r="9" spans="1:11" ht="33">
-      <c r="A9" s="82"/>
-      <c r="B9" s="74"/>
+      <c r="A9" s="83"/>
+      <c r="B9" s="75"/>
       <c r="C9" s="5" t="s">
         <v>180</v>
       </c>
@@ -7427,8 +7430,8 @@
       <c r="K9" s="23"/>
     </row>
     <row r="10" spans="1:11" ht="49.5">
-      <c r="A10" s="82"/>
-      <c r="B10" s="74"/>
+      <c r="A10" s="83"/>
+      <c r="B10" s="75"/>
       <c r="C10" s="5" t="s">
         <v>176</v>
       </c>
@@ -7438,13 +7441,13 @@
       <c r="E10" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="73" t="s">
         <v>173</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="73" t="s">
         <v>169</v>
       </c>
-      <c r="H10" s="49" t="s">
+      <c r="H10" s="31" t="s">
         <v>162</v>
       </c>
       <c r="I10" s="2"/>
@@ -7454,8 +7457,8 @@
       <c r="K10" s="23"/>
     </row>
     <row r="11" spans="1:11" ht="33">
-      <c r="A11" s="82"/>
-      <c r="B11" s="74"/>
+      <c r="A11" s="83"/>
+      <c r="B11" s="75"/>
       <c r="C11" s="5" t="s">
         <v>172</v>
       </c>
@@ -7497,7 +7500,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="A3:H9"/>
+      <selection activeCell="D4" sqref="D4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7545,13 +7548,13 @@
       </c>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="77" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -7574,9 +7577,9 @@
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" ht="33">
-      <c r="A4" s="74"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
       <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
@@ -7595,9 +7598,9 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1">
-      <c r="A5" s="74"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
+      <c r="A5" s="75"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
       <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
@@ -7616,9 +7619,9 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1">
-      <c r="A6" s="74"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
+      <c r="A6" s="75"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
       <c r="D6" s="2" t="s">
         <v>426</v>
       </c>
@@ -7641,9 +7644,9 @@
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1">
-      <c r="A7" s="74"/>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
+      <c r="A7" s="75"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
       <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
@@ -7666,9 +7669,9 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1">
-      <c r="A8" s="74"/>
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
+      <c r="A8" s="75"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="2" t="s">
         <v>4</v>
       </c>
@@ -7689,9 +7692,9 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1">
-      <c r="A9" s="74"/>
-      <c r="B9" s="74"/>
-      <c r="C9" s="74"/>
+      <c r="A9" s="75"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
       <c r="D9" s="2" t="s">
         <v>3</v>
       </c>
@@ -7781,13 +7784,13 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="33">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="77" t="s">
         <v>223</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="77" t="s">
         <v>222</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="77" t="s">
         <v>221</v>
       </c>
       <c r="D3" s="11" t="s">
@@ -7812,9 +7815,9 @@
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="74"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
       <c r="D4" s="2" t="s">
         <v>218</v>
       </c>
@@ -7837,9 +7840,9 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="74"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
+      <c r="A5" s="75"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
       <c r="D5" s="2" t="s">
         <v>215</v>
       </c>
@@ -7862,9 +7865,9 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="74"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
+      <c r="A6" s="75"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
       <c r="D6" s="2" t="s">
         <v>213</v>
       </c>
@@ -7887,9 +7890,9 @@
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" ht="33">
-      <c r="A7" s="74"/>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
+      <c r="A7" s="75"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
       <c r="D7" s="5" t="s">
         <v>211</v>
       </c>
@@ -7912,9 +7915,9 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="74"/>
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
+      <c r="A8" s="75"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="2" t="s">
         <v>209</v>
       </c>
@@ -8004,13 +8007,13 @@
       </c>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="77" t="s">
         <v>66</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -8035,9 +8038,9 @@
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1">
-      <c r="A4" s="74"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
       <c r="D4" s="2" t="s">
         <v>63</v>
       </c>
@@ -8060,9 +8063,9 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1">
-      <c r="A5" s="74"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
+      <c r="A5" s="75"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
       <c r="D5" s="2" t="s">
         <v>61</v>
       </c>
@@ -8085,7 +8088,7 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1">
-      <c r="A6" s="74"/>
+      <c r="A6" s="75"/>
       <c r="B6" s="2" t="s">
         <v>58</v>
       </c>
@@ -8114,11 +8117,11 @@
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1">
-      <c r="A7" s="74"/>
-      <c r="B7" s="74" t="s">
+      <c r="A7" s="75"/>
+      <c r="B7" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="75" t="s">
+      <c r="C7" s="76" t="s">
         <v>53</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -8143,9 +8146,9 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1">
-      <c r="A8" s="74"/>
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
+      <c r="A8" s="75"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="2" t="s">
         <v>51</v>
       </c>
@@ -8168,9 +8171,9 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1">
-      <c r="A9" s="74"/>
-      <c r="B9" s="74"/>
-      <c r="C9" s="74"/>
+      <c r="A9" s="75"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
       <c r="D9" s="2" t="s">
         <v>50</v>
       </c>
@@ -8193,9 +8196,9 @@
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" s="1" customFormat="1">
-      <c r="A10" s="74"/>
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
       <c r="D10" s="2" t="s">
         <v>49</v>
       </c>
@@ -8218,9 +8221,9 @@
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" s="1" customFormat="1">
-      <c r="A11" s="74"/>
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
+      <c r="A11" s="75"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
       <c r="D11" s="2" t="s">
         <v>48</v>
       </c>
@@ -8243,9 +8246,9 @@
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" s="1" customFormat="1">
-      <c r="A12" s="74"/>
-      <c r="B12" s="74"/>
-      <c r="C12" s="74"/>
+      <c r="A12" s="75"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="2" t="s">
         <v>47</v>
       </c>
@@ -8268,9 +8271,9 @@
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1">
-      <c r="A13" s="74"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
+      <c r="A13" s="75"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="75"/>
       <c r="D13" s="2" t="s">
         <v>45</v>
       </c>
@@ -8293,9 +8296,9 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11" s="1" customFormat="1">
-      <c r="A14" s="74"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
+      <c r="A14" s="75"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
       <c r="D14" s="2" t="s">
         <v>43</v>
       </c>
@@ -8318,9 +8321,9 @@
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11" s="1" customFormat="1">
-      <c r="A15" s="74"/>
-      <c r="B15" s="74"/>
-      <c r="C15" s="74"/>
+      <c r="A15" s="75"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
       <c r="D15" s="2" t="s">
         <v>105</v>
       </c>
@@ -8343,9 +8346,9 @@
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11" s="1" customFormat="1">
-      <c r="A16" s="74"/>
-      <c r="B16" s="74"/>
-      <c r="C16" s="74"/>
+      <c r="A16" s="75"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
       <c r="D16" s="2" t="s">
         <v>42</v>
       </c>
@@ -8368,8 +8371,8 @@
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:12" s="1" customFormat="1">
-      <c r="A17" s="74"/>
-      <c r="B17" s="75" t="s">
+      <c r="A17" s="75"/>
+      <c r="B17" s="76" t="s">
         <v>40</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -8397,9 +8400,9 @@
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:12" s="1" customFormat="1">
-      <c r="A18" s="74"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="74" t="s">
+      <c r="A18" s="75"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75" t="s">
         <v>35</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -8427,9 +8430,9 @@
       </c>
     </row>
     <row r="19" spans="1:12" s="1" customFormat="1">
-      <c r="A19" s="74"/>
-      <c r="B19" s="74"/>
-      <c r="C19" s="74"/>
+      <c r="A19" s="75"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="75"/>
       <c r="D19" s="2" t="s">
         <v>33</v>
       </c>
@@ -8452,9 +8455,9 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:12" s="1" customFormat="1">
-      <c r="A20" s="74"/>
-      <c r="B20" s="74"/>
-      <c r="C20" s="74"/>
+      <c r="A20" s="75"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="75"/>
       <c r="D20" s="2" t="s">
         <v>31</v>
       </c>
@@ -8477,7 +8480,7 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:12" s="1" customFormat="1" ht="33">
-      <c r="A21" s="74"/>
+      <c r="A21" s="75"/>
       <c r="B21" s="5" t="s">
         <v>30</v>
       </c>
